--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="450">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -79,7 +79,7 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hatdog</t>
+    <t xml:space="preserve"> Hassan</t>
   </si>
   <si>
     <t/>
@@ -88,10 +88,10 @@
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> asdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123123</t>
+    <t xml:space="preserve"> Adnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Married</t>
@@ -103,7 +103,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> t</t>
+    <t xml:space="preserve"> T.</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -119,13 +119,13 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>2024-08-01</t>
+    <t>2024-08-15</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
-    <t xml:space="preserve">☑ Filipino               ☐ Dual Citizenship
+    <t xml:space="preserve">☐ Filipino               ☑ Dual Citizenship
 </t>
   </si>
   <si>
@@ -135,7 +135,7 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>☐ by birth             ☐ by naturalization</t>
+    <t>☑ by birth             ☐ by naturalization</t>
   </si>
   <si>
     <t>4.</t>
@@ -144,7 +144,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>Maguindanao</t>
+    <t>Datu Piang, Maguindanao</t>
   </si>
   <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
@@ -165,10 +165,13 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>☐ Male                 ☐ Female</t>
+    <t>☑ Male                 ☐ Female</t>
   </si>
   <si>
     <t>please indicate the details.</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Others</t>
@@ -290,7 +293,7 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>12378123782</t>
   </si>
   <si>
     <t>Bangladesh</t>
@@ -305,6 +308,9 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
+    <t>55875695674</t>
+  </si>
+  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -317,7 +323,7 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
-    <t>23423423423</t>
+    <t>2367465856</t>
   </si>
   <si>
     <t>Belize</t>
@@ -329,7 +335,7 @@
     <t>SSS NO.</t>
   </si>
   <si>
-    <t>16584657456</t>
+    <t>47357835345</t>
   </si>
   <si>
     <t>19. TELEPHONE NO.</t>
@@ -341,13 +347,13 @@
     <t>14. TIN NO.</t>
   </si>
   <si>
-    <t>32423423423</t>
+    <t>346738756634</t>
   </si>
   <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
-    <t>99999</t>
+    <t>09460994104</t>
   </si>
   <si>
     <t>Bhutan</t>
@@ -377,9 +383,6 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> asds</t>
-  </si>
-  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -392,13 +395,13 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Adnan HASsan</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -407,6 +410,12 @@
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
+    <t>terst</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brunei </t>
   </si>
   <si>
@@ -440,9 +449,15 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ebrahim</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve"> Abdulkadir</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
@@ -462,6 +477,9 @@
   </si>
   <si>
     <t>Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anida</t>
   </si>
   <si>
     <t>Chad</t>
@@ -525,12 +543,33 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
+    <t>Example school</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
     <t>SECONDARY</t>
   </si>
   <si>
+    <t>MRTHS</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -543,6 +582,24 @@
     <t>COLLEGE</t>
   </si>
   <si>
+    <t>PUP - Taguig</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -561,6 +618,9 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -685,9 +745,6 @@
   </si>
   <si>
     <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -3487,7 +3544,7 @@
     <xf numFmtId="49" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4727,6 +4784,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5455,15 +5561,15 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="31"/>
       <c r="P16" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5471,30 +5577,30 @@
         <v>6</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="92"/>
       <c r="F17" s="92"/>
       <c r="G17" s="93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
       <c r="L17" s="96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="97"/>
       <c r="Q17" s="57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5507,17 +5613,17 @@
       <c r="G18" s="102"/>
       <c r="H18" s="103"/>
       <c r="I18" s="104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
       <c r="L18" s="105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="105"/>
       <c r="N18" s="106"/>
       <c r="Q18" s="57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="5.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5535,12 +5641,12 @@
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" s="109"/>
       <c r="N19" s="111"/>
       <c r="Q19" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5548,7 +5654,7 @@
       <c r="B20" s="107"/>
       <c r="C20" s="112"/>
       <c r="D20" s="113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
@@ -5561,7 +5667,7 @@
       <c r="M20" s="115"/>
       <c r="N20" s="116"/>
       <c r="Q20" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5574,46 +5680,46 @@
       <c r="G21" s="69"/>
       <c r="H21" s="41"/>
       <c r="I21" s="122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="123"/>
       <c r="K21" s="123"/>
       <c r="L21" s="124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="125"/>
       <c r="N21" s="126"/>
       <c r="Q21" s="57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="129">
-        <v>32</v>
+        <v>3.35</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
       <c r="G22" s="69"/>
       <c r="H22" s="41"/>
       <c r="I22" s="95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
       <c r="L22" s="96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="96"/>
       <c r="N22" s="97"/>
       <c r="Q22" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="8.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5626,38 +5732,38 @@
       <c r="G23" s="69"/>
       <c r="H23" s="41"/>
       <c r="I23" s="134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="135"/>
       <c r="K23" s="135"/>
       <c r="L23" s="136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M23" s="136"/>
       <c r="N23" s="137"/>
       <c r="Q23" s="57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="139"/>
       <c r="D24" s="140">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="E24" s="140"/>
       <c r="F24" s="140"/>
       <c r="G24" s="141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="143" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" s="144"/>
       <c r="K24" s="144"/>
@@ -5665,38 +5771,38 @@
       <c r="M24" s="144"/>
       <c r="N24" s="145"/>
       <c r="Q24" s="57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="146" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
       <c r="G25" s="148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="127"/>
       <c r="I25" s="95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="96"/>
       <c r="N25" s="149"/>
       <c r="Q25" s="57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5709,29 +5815,29 @@
       <c r="G26" s="69"/>
       <c r="H26" s="41"/>
       <c r="I26" s="104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
       <c r="L26" s="105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="105"/>
       <c r="N26" s="106"/>
       <c r="Q26" s="57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="128"/>
       <c r="D27" s="147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="147"/>
       <c r="F27" s="147"/>
@@ -5743,12 +5849,12 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
       <c r="L27" s="96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="96"/>
       <c r="N27" s="149"/>
       <c r="Q27" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5761,29 +5867,29 @@
       <c r="G28" s="102"/>
       <c r="H28" s="103"/>
       <c r="I28" s="151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J28" s="152"/>
       <c r="K28" s="152"/>
       <c r="L28" s="153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M28" s="152"/>
       <c r="N28" s="154"/>
       <c r="Q28" s="57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="146" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="128"/>
       <c r="D29" s="147" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E29" s="147"/>
       <c r="F29" s="147"/>
@@ -5791,16 +5897,16 @@
       <c r="H29" s="155"/>
       <c r="I29" s="156"/>
       <c r="J29" s="157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" s="157"/>
       <c r="L29" s="157"/>
       <c r="M29" s="157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N29" s="158"/>
       <c r="Q29" s="57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5813,38 +5919,38 @@
       <c r="G30" s="102"/>
       <c r="H30" s="155"/>
       <c r="I30" s="159" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J30" s="159"/>
       <c r="K30" s="159"/>
       <c r="L30" s="159" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M30" s="159"/>
       <c r="N30" s="160"/>
       <c r="Q30" s="57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="147" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="147"/>
       <c r="F31" s="147"/>
       <c r="G31" s="141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
@@ -5852,24 +5958,24 @@
       <c r="M31" s="124"/>
       <c r="N31" s="161"/>
       <c r="Q31" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="140"/>
       <c r="G32" s="162" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H32" s="138"/>
       <c r="I32" s="143" t="s">
@@ -5881,26 +5987,26 @@
       <c r="M32" s="144"/>
       <c r="N32" s="145"/>
       <c r="Q32" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="162" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B33" s="139"/>
       <c r="C33" s="163"/>
       <c r="D33" s="140" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="140"/>
       <c r="G33" s="164" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H33" s="165"/>
       <c r="I33" s="143" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J33" s="144"/>
       <c r="K33" s="144"/>
@@ -5908,12 +6014,12 @@
       <c r="M33" s="144"/>
       <c r="N33" s="145"/>
       <c r="Q33" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="166" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="99"/>
       <c r="C34" s="167"/>
@@ -5923,11 +6029,11 @@
       <c r="E34" s="147"/>
       <c r="F34" s="147"/>
       <c r="G34" s="148" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H34" s="127"/>
       <c r="I34" s="108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J34" s="168"/>
       <c r="K34" s="168"/>
@@ -5935,12 +6041,12 @@
       <c r="M34" s="168"/>
       <c r="N34" s="169"/>
       <c r="Q34" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B35" s="171"/>
       <c r="C35" s="171"/>
@@ -5956,46 +6062,46 @@
       <c r="M35" s="171"/>
       <c r="N35" s="172"/>
       <c r="Q35" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="173" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="175" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="E36" s="175"/>
       <c r="F36" s="175"/>
       <c r="G36" s="175"/>
       <c r="H36" s="175"/>
       <c r="I36" s="176" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J36" s="176"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
       <c r="M36" s="178" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N36" s="179"/>
       <c r="Q36" s="57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
@@ -6010,44 +6116,48 @@
       <c r="K37" s="184"/>
       <c r="L37" s="185"/>
       <c r="M37" s="186" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="N37" s="187"/>
       <c r="Q37" s="57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
       <c r="B38" s="189" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="190"/>
       <c r="D38" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
       <c r="G38" s="181"/>
       <c r="H38" s="182"/>
-      <c r="I38" s="184"/>
+      <c r="I38" s="184" t="s">
+        <v>122</v>
+      </c>
       <c r="J38" s="184"/>
       <c r="K38" s="184"/>
       <c r="L38" s="185"/>
-      <c r="M38" s="186"/>
+      <c r="M38" s="186" t="s">
+        <v>123</v>
+      </c>
       <c r="N38" s="187"/>
       <c r="Q38" s="57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="191"/>
       <c r="B39" s="73" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C39" s="83"/>
       <c r="D39" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E39" s="192"/>
       <c r="F39" s="192"/>
@@ -6060,17 +6170,17 @@
       <c r="M39" s="186"/>
       <c r="N39" s="187"/>
       <c r="Q39" s="57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="191"/>
       <c r="B40" s="73" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E40" s="192"/>
       <c r="F40" s="192"/>
@@ -6083,17 +6193,17 @@
       <c r="M40" s="186"/>
       <c r="N40" s="187"/>
       <c r="Q40" s="57" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="191"/>
       <c r="B41" s="73" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E41" s="192"/>
       <c r="F41" s="192"/>
@@ -6106,17 +6216,17 @@
       <c r="M41" s="186"/>
       <c r="N41" s="187"/>
       <c r="Q41" s="57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
       <c r="B42" s="94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C42" s="193"/>
       <c r="D42" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E42" s="192"/>
       <c r="F42" s="192"/>
@@ -6129,19 +6239,19 @@
       <c r="M42" s="186"/>
       <c r="N42" s="187"/>
       <c r="Q42" s="57" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="194" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B43" s="195" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="192" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -6154,7 +6264,7 @@
       <c r="M43" s="186"/>
       <c r="N43" s="187"/>
       <c r="Q43" s="57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6164,12 +6274,12 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="180" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182"/>
       <c r="G44" s="183" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H44" s="183"/>
       <c r="I44" s="184"/>
@@ -6179,7 +6289,7 @@
       <c r="M44" s="186"/>
       <c r="N44" s="187"/>
       <c r="Q44" s="57" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6189,7 +6299,7 @@
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="181"/>
@@ -6202,15 +6312,15 @@
       <c r="M45" s="186"/>
       <c r="N45" s="187"/>
       <c r="Q45" s="57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="127"/>
       <c r="D46" s="127"/>
@@ -6225,7 +6335,7 @@
       <c r="M46" s="186"/>
       <c r="N46" s="187"/>
       <c r="Q46" s="57" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6235,7 +6345,7 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="196" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E47" s="196"/>
       <c r="F47" s="196"/>
@@ -6248,7 +6358,7 @@
       <c r="M47" s="186"/>
       <c r="N47" s="187"/>
       <c r="Q47" s="57" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6258,7 +6368,7 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="196" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E48" s="196"/>
       <c r="F48" s="196"/>
@@ -6271,7 +6381,7 @@
       <c r="M48" s="186"/>
       <c r="N48" s="187"/>
       <c r="Q48" s="57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6281,14 +6391,14 @@
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="198" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E49" s="198"/>
       <c r="F49" s="198"/>
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="199" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J49" s="199"/>
       <c r="K49" s="199"/>
@@ -6296,12 +6406,12 @@
       <c r="M49" s="199"/>
       <c r="N49" s="200"/>
       <c r="Q49" s="57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B50" s="201"/>
       <c r="C50" s="202"/>
@@ -6311,7 +6421,7 @@
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J50" s="204"/>
       <c r="K50" s="204"/>
@@ -6319,42 +6429,42 @@
       <c r="M50" s="204"/>
       <c r="N50" s="205"/>
       <c r="Q50" s="57" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="206" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B51" s="207" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C51" s="207"/>
       <c r="D51" s="208" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E51" s="209"/>
       <c r="F51" s="210"/>
       <c r="G51" s="208" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H51" s="209"/>
       <c r="I51" s="211"/>
       <c r="J51" s="212" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K51" s="213"/>
       <c r="L51" s="214" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N51" s="216" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q51" s="57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6373,7 +6483,7 @@
       <c r="M52" s="215"/>
       <c r="N52" s="216"/>
       <c r="Q52" s="57" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6387,10 +6497,10 @@
       <c r="H53" s="226"/>
       <c r="I53" s="227"/>
       <c r="J53" s="228" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K53" s="229" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L53" s="230"/>
       <c r="M53" s="231"/>
@@ -6398,69 +6508,83 @@
       <c r="O53" s="233"/>
       <c r="P53" s="233"/>
       <c r="Q53" s="57" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C54" s="235"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="236" t="s">
+        <v>166</v>
+      </c>
       <c r="E54" s="237"/>
       <c r="F54" s="238"/>
-      <c r="G54" s="239"/>
+      <c r="G54" s="239" t="s">
+        <v>14</v>
+      </c>
       <c r="H54" s="240"/>
       <c r="I54" s="241"/>
-      <c r="J54" s="242"/>
-      <c r="K54" s="243"/>
-      <c r="L54" s="244"/>
-      <c r="M54" s="245"/>
-      <c r="N54" s="246"/>
+      <c r="J54" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="K54" s="243" t="s">
+        <v>168</v>
+      </c>
+      <c r="L54" s="244" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="245" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="246" t="s">
+        <v>14</v>
+      </c>
       <c r="Q54" s="57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C55" s="235"/>
       <c r="D55" s="236" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E55" s="237"/>
       <c r="F55" s="238"/>
       <c r="G55" s="239" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H55" s="240"/>
       <c r="I55" s="241"/>
       <c r="J55" s="242" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="K55" s="247" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L55" s="248" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="249" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="N55" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="57" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C56" s="235"/>
       <c r="D56" s="236"/>
@@ -6475,34 +6599,48 @@
       <c r="M56" s="245"/>
       <c r="N56" s="246"/>
       <c r="Q56" s="57" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C57" s="235"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="236" t="s">
+        <v>179</v>
+      </c>
       <c r="E57" s="237"/>
       <c r="F57" s="238"/>
-      <c r="G57" s="250"/>
+      <c r="G57" s="250" t="s">
+        <v>180</v>
+      </c>
       <c r="H57" s="251"/>
       <c r="I57" s="252"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="247"/>
-      <c r="L57" s="244"/>
-      <c r="M57" s="249"/>
-      <c r="N57" s="246"/>
+      <c r="J57" s="242" t="s">
+        <v>181</v>
+      </c>
+      <c r="K57" s="247" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="244" t="s">
+        <v>183</v>
+      </c>
+      <c r="M57" s="249" t="s">
+        <v>184</v>
+      </c>
+      <c r="N57" s="246" t="s">
+        <v>14</v>
+      </c>
       <c r="Q57" s="57" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="253"/>
       <c r="B58" s="254" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="255"/>
@@ -6517,12 +6655,12 @@
       <c r="M58" s="264"/>
       <c r="N58" s="246"/>
       <c r="Q58" s="57" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B59" s="266"/>
       <c r="C59" s="266"/>
@@ -6538,12 +6676,12 @@
       <c r="M59" s="266"/>
       <c r="N59" s="267"/>
       <c r="Q59" s="57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" ht="27.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B60" s="269"/>
       <c r="C60" s="270"/>
@@ -6554,21 +6692,23 @@
       <c r="H60" s="272"/>
       <c r="I60" s="273"/>
       <c r="J60" s="274" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K60" s="275"/>
-      <c r="L60" s="276"/>
+      <c r="L60" s="276" t="s">
+        <v>191</v>
+      </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6584,7 +6724,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6605,7 +6745,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6624,7 +6764,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6643,7 +6783,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6662,7 +6802,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6681,7 +6821,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6700,7 +6840,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6719,7 +6859,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6738,7 +6878,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6757,7 +6897,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6776,7 +6916,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6795,7 +6935,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6814,7 +6954,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6833,7 +6973,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6852,7 +6992,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6871,7 +7011,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6890,7 +7030,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6909,7 +7049,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6928,7 +7068,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6947,7 +7087,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6966,7 +7106,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6985,7 +7125,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7004,7 +7144,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7023,7 +7163,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7042,7 +7182,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7061,7 +7201,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7080,7 +7220,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7099,7 +7239,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7118,7 +7258,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7137,7 +7277,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7156,7 +7296,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7175,7 +7315,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7194,7 +7334,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7213,7 +7353,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7232,7 +7372,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7251,7 +7391,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7270,7 +7410,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7289,7 +7429,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7308,7 +7448,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7327,7 +7467,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7346,7 +7486,7 @@
       <c r="M101" s="281"/>
       <c r="N101" s="281"/>
       <c r="Q101" s="57" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7365,7 +7505,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7384,7 +7524,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7403,7 +7543,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7422,7 +7562,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7441,7 +7581,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7460,7 +7600,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7479,7 +7619,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7498,7 +7638,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7517,7 +7657,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7536,7 +7676,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7555,7 +7695,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7574,7 +7714,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7593,7 +7733,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7612,7 +7752,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7631,7 +7771,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7650,7 +7790,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7669,7 +7809,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7688,7 +7828,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7707,7 +7847,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7726,7 +7866,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7745,7 +7885,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7764,7 +7904,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7783,7 +7923,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7802,7 +7942,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7821,7 +7961,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7840,7 +7980,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7859,7 +7999,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7878,7 +8018,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7897,7 +8037,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7916,7 +8056,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7935,7 +8075,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7954,7 +8094,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7973,7 +8113,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7992,7 +8132,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8011,7 +8151,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8030,7 +8170,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8049,7 +8189,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8068,7 +8208,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8087,7 +8227,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8106,7 +8246,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8125,7 +8265,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8144,7 +8284,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8163,7 +8303,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8182,7 +8322,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8201,7 +8341,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8220,7 +8360,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8239,7 +8379,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8258,7 +8398,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8277,7 +8417,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8296,7 +8436,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8315,7 +8455,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8334,7 +8474,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8353,7 +8493,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8372,7 +8512,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8391,7 +8531,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8410,7 +8550,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8429,7 +8569,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8448,7 +8588,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8467,7 +8607,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8486,7 +8626,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8505,7 +8645,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8524,7 +8664,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8543,7 +8683,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8562,7 +8702,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8581,7 +8721,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8600,7 +8740,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8619,7 +8759,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8638,7 +8778,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8657,7 +8797,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8676,7 +8816,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8695,7 +8835,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8714,7 +8854,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8733,7 +8873,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8752,7 +8892,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8771,7 +8911,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8790,7 +8930,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8809,7 +8949,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8828,7 +8968,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8847,7 +8987,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8866,7 +9006,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8885,7 +9025,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8904,7 +9044,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8923,7 +9063,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8942,7 +9082,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8961,7 +9101,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8980,7 +9120,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8999,7 +9139,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9018,7 +9158,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9037,7 +9177,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9056,7 +9196,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9075,7 +9215,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9094,7 +9234,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9113,7 +9253,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9132,7 +9272,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9151,7 +9291,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9170,7 +9310,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9189,7 +9329,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9208,7 +9348,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9227,7 +9367,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9246,7 +9386,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9265,7 +9405,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9284,7 +9424,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9303,7 +9443,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9322,7 +9462,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9341,7 +9481,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9360,7 +9500,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9379,7 +9519,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9398,7 +9538,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9417,7 +9557,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9436,7 +9576,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9455,7 +9595,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9474,7 +9614,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9493,7 +9633,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9512,7 +9652,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9531,7 +9671,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10654,6 +10794,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.3" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="80" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId205"/>
 </worksheet>
 </file>
 
@@ -10702,7 +10843,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10719,28 +10860,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10757,10 +10898,10 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -10870,7 +11011,7 @@
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="317" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B12" s="318"/>
       <c r="C12" s="318"/>
@@ -10887,7 +11028,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -10904,7 +11045,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="320" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -10921,33 +11062,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B15" s="322" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C15" s="323"/>
       <c r="D15" s="324" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="E15" s="322"/>
       <c r="F15" s="323"/>
       <c r="G15" s="324" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="H15" s="322"/>
       <c r="I15" s="323"/>
       <c r="J15" s="325" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="K15" s="326" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="L15" s="327" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="M15" s="328" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -10967,11 +11108,11 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="330" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B17" s="331"/>
       <c r="C17" s="332" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D17" s="300"/>
       <c r="E17" s="297"/>
@@ -11406,7 +11547,7 @@
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="346" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B46" s="347"/>
       <c r="C46" s="347"/>
@@ -11423,7 +11564,7 @@
     </row>
     <row r="47" ht="27.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
@@ -11433,7 +11574,7 @@
       <c r="G47" s="351"/>
       <c r="H47" s="352"/>
       <c r="I47" s="353" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J47" s="354"/>
       <c r="K47" s="355"/>
@@ -11443,7 +11584,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="358" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B48" s="358"/>
       <c r="C48" s="358"/>
@@ -11637,7 +11778,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="363" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B2" s="364"/>
       <c r="C2" s="364"/>
@@ -11652,22 +11793,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="366" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B3" s="367" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C3" s="367"/>
       <c r="D3" s="368"/>
       <c r="E3" s="290" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="369" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="I3" s="370"/>
       <c r="J3" s="370"/>
@@ -11692,10 +11833,10 @@
       <c r="C5" s="378"/>
       <c r="D5" s="379"/>
       <c r="E5" s="331" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F5" s="332" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G5" s="334"/>
       <c r="H5" s="380"/>
@@ -11796,7 +11937,7 @@
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="317" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" s="318"/>
       <c r="C13" s="318"/>
@@ -11811,7 +11952,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -11826,25 +11967,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="372" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B15" s="322" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="322" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F15" s="323"/>
       <c r="G15" s="326" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H15" s="325" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="I15" s="324" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="376"/>
@@ -11868,10 +12009,10 @@
       <c r="C17" s="125"/>
       <c r="D17" s="399"/>
       <c r="E17" s="331" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F17" s="332" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G17" s="334"/>
       <c r="H17" s="333"/>
@@ -12154,7 +12295,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B39" s="266"/>
       <c r="C39" s="266"/>
@@ -12169,7 +12310,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="420" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="B40" s="421"/>
       <c r="C40" s="421"/>
@@ -12184,26 +12325,26 @@
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="423" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B41" s="424" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C41" s="425" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D41" s="424" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E41" s="424"/>
       <c r="F41" s="424"/>
       <c r="G41" s="424"/>
       <c r="H41" s="426"/>
       <c r="I41" s="425" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="J41" s="424" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="K41" s="427"/>
     </row>
@@ -12300,7 +12441,7 @@
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -12315,7 +12456,7 @@
     </row>
     <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B50" s="270"/>
       <c r="C50" s="350"/>
@@ -12323,7 +12464,7 @@
       <c r="E50" s="351"/>
       <c r="F50" s="352"/>
       <c r="G50" s="433" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H50" s="434"/>
       <c r="I50" s="350"/>
@@ -12334,7 +12475,7 @@
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="436" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12475,11 +12616,11 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="440" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B2" s="441"/>
       <c r="C2" s="442" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D2" s="442"/>
       <c r="E2" s="442"/>
@@ -12496,7 +12637,7 @@
       <c r="A3" s="448"/>
       <c r="B3" s="449"/>
       <c r="C3" s="450" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D3" s="450"/>
       <c r="E3" s="450"/>
@@ -12513,7 +12654,7 @@
       <c r="A4" s="448"/>
       <c r="B4" s="449"/>
       <c r="C4" s="450" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="D4" s="450"/>
       <c r="E4" s="450"/>
@@ -12545,7 +12686,7 @@
       <c r="A6" s="448"/>
       <c r="B6" s="449"/>
       <c r="C6" s="450" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D6" s="450"/>
       <c r="E6" s="450"/>
@@ -12577,7 +12718,7 @@
       <c r="A8" s="448"/>
       <c r="B8" s="449"/>
       <c r="C8" s="450" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="D8" s="450"/>
       <c r="E8" s="450"/>
@@ -12613,7 +12754,7 @@
       <c r="E10" s="450"/>
       <c r="F10" s="451"/>
       <c r="G10" s="456" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H10" s="456"/>
       <c r="I10" s="456"/>
@@ -12654,11 +12795,11 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="469" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B13" s="470"/>
       <c r="C13" s="471" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D13" s="471"/>
       <c r="E13" s="282"/>
@@ -12679,7 +12820,7 @@
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
       <c r="G14" s="476" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H14" s="456"/>
       <c r="I14" s="456"/>
@@ -12737,7 +12878,7 @@
       <c r="A18" s="484"/>
       <c r="B18" s="485"/>
       <c r="C18" s="492" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="D18" s="492"/>
       <c r="E18" s="493"/>
@@ -12758,7 +12899,7 @@
       <c r="E19" s="493"/>
       <c r="F19" s="494"/>
       <c r="G19" s="476" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H19" s="456"/>
       <c r="I19" s="456"/>
@@ -12776,7 +12917,7 @@
       <c r="F20" s="494"/>
       <c r="G20" s="495"/>
       <c r="H20" s="497" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="I20" s="497"/>
       <c r="J20" s="498"/>
@@ -12792,7 +12933,7 @@
       <c r="E21" s="493"/>
       <c r="F21" s="494"/>
       <c r="G21" s="501" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="H21" s="502"/>
       <c r="I21" s="502"/>
@@ -12809,7 +12950,7 @@
       <c r="E22" s="506"/>
       <c r="F22" s="507"/>
       <c r="G22" s="480" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="H22" s="481"/>
       <c r="I22" s="508"/>
@@ -12820,11 +12961,11 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="510" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="D23" s="510"/>
       <c r="E23" s="510"/>
@@ -12845,7 +12986,7 @@
       <c r="E24" s="512"/>
       <c r="F24" s="513"/>
       <c r="G24" s="476" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H24" s="456"/>
       <c r="I24" s="456"/>
@@ -12886,11 +13027,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B27" s="195"/>
       <c r="C27" s="510" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="D27" s="510"/>
       <c r="E27" s="510"/>
@@ -12911,7 +13052,7 @@
       <c r="E28" s="512"/>
       <c r="F28" s="513"/>
       <c r="G28" s="476" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H28" s="456"/>
       <c r="I28" s="456"/>
@@ -12952,11 +13093,11 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B31" s="195"/>
       <c r="C31" s="510" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D31" s="510"/>
       <c r="E31" s="510"/>
@@ -12977,7 +13118,7 @@
       <c r="E32" s="512"/>
       <c r="F32" s="513"/>
       <c r="G32" s="523" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H32" s="524"/>
       <c r="I32" s="524"/>
@@ -13005,7 +13146,7 @@
       <c r="A34" s="474"/>
       <c r="B34" s="475"/>
       <c r="C34" s="512" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D34" s="512"/>
       <c r="E34" s="512"/>
@@ -13026,7 +13167,7 @@
       <c r="E35" s="512"/>
       <c r="F35" s="513"/>
       <c r="G35" s="523" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H35" s="524"/>
       <c r="I35" s="524"/>
@@ -13052,11 +13193,11 @@
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B37" s="195"/>
       <c r="C37" s="533" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D37" s="533"/>
       <c r="E37" s="533"/>
@@ -13077,7 +13218,7 @@
       <c r="E38" s="471"/>
       <c r="F38" s="535"/>
       <c r="G38" s="476" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="H38" s="456"/>
       <c r="I38" s="456"/>
@@ -13118,11 +13259,11 @@
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="539" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B41" s="540"/>
       <c r="C41" s="512" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D41" s="512"/>
       <c r="E41" s="512"/>
@@ -13153,11 +13294,11 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="544" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B43" s="545"/>
       <c r="C43" s="512" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D43" s="512"/>
       <c r="E43" s="512"/>
@@ -13179,7 +13320,7 @@
       <c r="E44" s="512"/>
       <c r="F44" s="513"/>
       <c r="G44" s="548" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H44" s="549"/>
       <c r="I44" s="528"/>
@@ -13191,11 +13332,11 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="544" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B45" s="545"/>
       <c r="C45" s="513" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D45" s="513"/>
       <c r="E45" s="513"/>
@@ -13217,7 +13358,7 @@
       <c r="E46" s="513"/>
       <c r="F46" s="513"/>
       <c r="G46" s="551" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="H46" s="552"/>
       <c r="I46" s="528"/>
@@ -13229,11 +13370,11 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="544" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B47" s="545"/>
       <c r="C47" s="512" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="D47" s="512"/>
       <c r="E47" s="553"/>
@@ -13255,7 +13396,7 @@
       <c r="E48" s="556"/>
       <c r="F48" s="557"/>
       <c r="G48" s="558" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="H48" s="559"/>
       <c r="I48" s="560"/>
@@ -13283,11 +13424,11 @@
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="568" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B50" s="569"/>
       <c r="C50" s="570" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="D50" s="570"/>
       <c r="E50" s="570"/>
@@ -13303,17 +13444,17 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="575" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B51" s="576"/>
       <c r="C51" s="576"/>
       <c r="D51" s="576"/>
       <c r="E51" s="577"/>
       <c r="F51" s="294" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="G51" s="578" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H51" s="424"/>
       <c r="I51" s="427"/>
@@ -13369,11 +13510,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="440" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="B55" s="441"/>
       <c r="C55" s="599" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="D55" s="599"/>
       <c r="E55" s="599"/>
@@ -13398,7 +13539,7 @@
       <c r="I56" s="604"/>
       <c r="J56" s="605"/>
       <c r="K56" s="606" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="L56" s="606"/>
       <c r="M56" s="607"/>
@@ -13451,7 +13592,7 @@
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="618"/>
       <c r="B60" s="619" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C60" s="620"/>
       <c r="D60" s="621"/>
@@ -13468,7 +13609,7 @@
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="618"/>
       <c r="B61" s="626" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C61" s="627"/>
       <c r="D61" s="628"/>
@@ -13485,7 +13626,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="618"/>
       <c r="B62" s="632" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C62" s="633"/>
       <c r="D62" s="634"/>
@@ -13506,7 +13647,7 @@
       <c r="D63" s="640"/>
       <c r="E63" s="282"/>
       <c r="F63" s="641" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="G63" s="642"/>
       <c r="H63" s="642"/>
@@ -13519,7 +13660,7 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="618"/>
       <c r="B64" s="632" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C64" s="633"/>
       <c r="D64" s="634"/>
@@ -13540,14 +13681,14 @@
       <c r="D65" s="650"/>
       <c r="E65" s="282"/>
       <c r="F65" s="651" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="G65" s="652"/>
       <c r="H65" s="652"/>
       <c r="I65" s="653"/>
       <c r="J65" s="645"/>
       <c r="K65" s="654" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="L65" s="655"/>
       <c r="M65" s="625"/>
@@ -13569,7 +13710,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="660" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B67" s="661"/>
       <c r="C67" s="661"/>
@@ -13605,7 +13746,7 @@
       <c r="C69" s="580"/>
       <c r="D69" s="580"/>
       <c r="E69" s="668" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="F69" s="669"/>
       <c r="G69" s="669"/>
@@ -13633,7 +13774,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="677" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B71" s="677"/>
       <c r="C71" s="677"/>
@@ -13760,35 +13901,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="678" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B1" s="678" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C1" s="678" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -13798,7 +13939,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="456">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -618,9 +618,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -1121,6 +1118,18 @@
 Validity</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>965789678</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1149,6 +1158,15 @@
   </si>
   <si>
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
@@ -2673,7 +2691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="679">
+  <cellXfs count="681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3626,7 +3644,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3634,23 +3652,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3658,7 +3680,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3666,19 +3688,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4799,6 +4825,55 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6696,19 +6771,19 @@
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6724,7 +6799,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6745,7 +6820,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6764,7 +6839,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6783,7 +6858,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6802,7 +6877,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6821,7 +6896,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6840,7 +6915,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6859,7 +6934,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6878,7 +6953,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6897,7 +6972,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6916,7 +6991,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6935,7 +7010,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6954,7 +7029,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6973,7 +7048,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6992,7 +7067,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7011,7 +7086,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7030,7 +7105,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7049,7 +7124,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7068,7 +7143,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7087,7 +7162,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7106,7 +7181,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7125,7 +7200,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7144,7 +7219,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7163,7 +7238,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7182,7 +7257,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7201,7 +7276,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7220,7 +7295,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7239,7 +7314,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7258,7 +7333,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7277,7 +7352,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7296,7 +7371,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7315,7 +7390,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7334,7 +7409,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7353,7 +7428,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7372,7 +7447,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7391,7 +7466,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7410,7 +7485,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7429,7 +7504,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7448,7 +7523,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7467,7 +7542,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7505,7 +7580,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7524,7 +7599,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7543,7 +7618,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7562,7 +7637,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7581,7 +7656,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7600,7 +7675,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7619,7 +7694,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7638,7 +7713,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7657,7 +7732,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7676,7 +7751,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7695,7 +7770,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7714,7 +7789,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7733,7 +7808,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7752,7 +7827,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7771,7 +7846,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7790,7 +7865,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7809,7 +7884,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7828,7 +7903,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7847,7 +7922,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7866,7 +7941,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7885,7 +7960,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7904,7 +7979,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7923,7 +7998,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7942,7 +8017,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7961,7 +8036,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7980,7 +8055,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7999,7 +8074,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8018,7 +8093,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8037,7 +8112,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8056,7 +8131,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8075,7 +8150,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8094,7 +8169,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8113,7 +8188,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8132,7 +8207,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8151,7 +8226,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8170,7 +8245,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8189,7 +8264,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8208,7 +8283,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8227,7 +8302,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8246,7 +8321,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8265,7 +8340,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8284,7 +8359,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8303,7 +8378,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8322,7 +8397,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8341,7 +8416,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8360,7 +8435,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8379,7 +8454,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8398,7 +8473,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8417,7 +8492,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8436,7 +8511,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8455,7 +8530,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8474,7 +8549,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8493,7 +8568,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8512,7 +8587,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8531,7 +8606,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8550,7 +8625,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8569,7 +8644,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8588,7 +8663,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8607,7 +8682,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8626,7 +8701,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8645,7 +8720,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8664,7 +8739,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8683,7 +8758,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8702,7 +8777,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8721,7 +8796,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8740,7 +8815,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8759,7 +8834,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8778,7 +8853,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8797,7 +8872,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8816,7 +8891,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8835,7 +8910,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8854,7 +8929,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8873,7 +8948,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8892,7 +8967,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8911,7 +8986,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8930,7 +9005,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8949,7 +9024,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8968,7 +9043,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8987,7 +9062,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9006,7 +9081,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9025,7 +9100,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9044,7 +9119,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9063,7 +9138,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9082,7 +9157,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9101,7 +9176,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9120,7 +9195,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9139,7 +9214,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9158,7 +9233,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9177,7 +9252,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9196,7 +9271,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9215,7 +9290,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9234,7 +9309,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9253,7 +9328,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9272,7 +9347,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9291,7 +9366,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9310,7 +9385,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9329,7 +9404,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9348,7 +9423,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9367,7 +9442,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9386,7 +9461,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9405,7 +9480,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9424,7 +9499,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9443,7 +9518,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9462,7 +9537,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9481,7 +9556,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9500,7 +9575,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9519,7 +9594,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9538,7 +9613,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9557,7 +9632,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9576,7 +9651,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9595,7 +9670,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9614,7 +9689,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9633,7 +9708,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9652,7 +9727,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9671,7 +9746,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10843,7 +10918,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10860,28 +10935,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="290" t="s">
         <v>350</v>
-      </c>
-      <c r="B3" s="290" t="s">
-        <v>351</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="293" t="s">
         <v>352</v>
-      </c>
-      <c r="G3" s="293" t="s">
-        <v>353</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10898,41 +10973,65 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="302" t="s">
         <v>356</v>
       </c>
-      <c r="M4" s="302" t="s">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="303" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
       <c r="D5" s="304"/>
       <c r="E5" s="304"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="F5" s="305" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="306">
+        <v>45555</v>
+      </c>
       <c r="H5" s="306"/>
-      <c r="I5" s="307"/>
+      <c r="I5" s="307" t="s">
+        <v>358</v>
+      </c>
       <c r="J5" s="307"/>
       <c r="K5" s="307"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="308"/>
+      <c r="L5" s="308" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="309">
+        <v>45542</v>
+      </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="303"/>
+      <c r="A6" s="303" t="s">
+        <v>358</v>
+      </c>
       <c r="B6" s="304"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
       <c r="E6" s="304"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="307"/>
+      <c r="F6" s="305" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="310" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="311"/>
+      <c r="I6" s="307" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="307"/>
       <c r="K6" s="307"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="308"/>
+      <c r="L6" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="309" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="303"/>
@@ -10946,8 +11045,8 @@
       <c r="I7" s="307"/>
       <c r="J7" s="307"/>
       <c r="K7" s="307"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="303"/>
@@ -10961,8 +11060,8 @@
       <c r="I8" s="307"/>
       <c r="J8" s="307"/>
       <c r="K8" s="307"/>
-      <c r="L8" s="304"/>
-      <c r="M8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="309"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="303"/>
@@ -10976,8 +11075,8 @@
       <c r="I9" s="307"/>
       <c r="J9" s="307"/>
       <c r="K9" s="307"/>
-      <c r="L9" s="304"/>
-      <c r="M9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="309"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="303"/>
@@ -10991,44 +11090,44 @@
       <c r="I10" s="307"/>
       <c r="J10" s="307"/>
       <c r="K10" s="307"/>
-      <c r="L10" s="304"/>
-      <c r="M10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="309"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="311"/>
-      <c r="B11" s="312"/>
-      <c r="C11" s="312"/>
-      <c r="D11" s="312"/>
-      <c r="E11" s="312"/>
-      <c r="F11" s="313"/>
-      <c r="G11" s="314"/>
-      <c r="H11" s="314"/>
-      <c r="I11" s="315"/>
-      <c r="J11" s="315"/>
-      <c r="K11" s="315"/>
-      <c r="L11" s="312"/>
-      <c r="M11" s="316"/>
+      <c r="A11" s="312"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="313"/>
+      <c r="D11" s="313"/>
+      <c r="E11" s="313"/>
+      <c r="F11" s="314"/>
+      <c r="G11" s="315"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="316"/>
+      <c r="J11" s="316"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="317"/>
+      <c r="M11" s="318"/>
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="317" t="s">
+      <c r="A12" s="319" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="318"/>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="318"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="318"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="319"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="321"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11044,8 +11143,8 @@
       <c r="M13" s="172"/>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="320" t="s">
-        <v>359</v>
+      <c r="A14" s="322" t="s">
+        <v>362</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11058,60 +11157,60 @@
       <c r="J14" s="203"/>
       <c r="K14" s="203"/>
       <c r="L14" s="203"/>
-      <c r="M14" s="321"/>
+      <c r="M14" s="323"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15" s="322" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="323"/>
-      <c r="D15" s="324" t="s">
-        <v>362</v>
-      </c>
-      <c r="E15" s="322"/>
-      <c r="F15" s="323"/>
-      <c r="G15" s="324" t="s">
         <v>363</v>
       </c>
-      <c r="H15" s="322"/>
-      <c r="I15" s="323"/>
-      <c r="J15" s="325" t="s">
+      <c r="B15" s="324" t="s">
         <v>364</v>
       </c>
-      <c r="K15" s="326" t="s">
+      <c r="C15" s="325"/>
+      <c r="D15" s="326" t="s">
         <v>365</v>
       </c>
-      <c r="L15" s="327" t="s">
+      <c r="E15" s="324"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="326" t="s">
         <v>366</v>
       </c>
-      <c r="M15" s="328" t="s">
+      <c r="H15" s="324"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="327" t="s">
         <v>367</v>
       </c>
+      <c r="K15" s="328" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="329" t="s">
+        <v>369</v>
+      </c>
+      <c r="M15" s="330" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="329"/>
+      <c r="A16" s="331"/>
       <c r="B16" s="297"/>
       <c r="C16" s="298"/>
-      <c r="D16" s="324"/>
-      <c r="E16" s="322"/>
-      <c r="F16" s="323"/>
-      <c r="G16" s="324"/>
-      <c r="H16" s="322"/>
-      <c r="I16" s="323"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="326"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="328"/>
+      <c r="D16" s="326"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="326"/>
+      <c r="H16" s="324"/>
+      <c r="I16" s="325"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="329"/>
+      <c r="M16" s="330"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="331"/>
-      <c r="C17" s="332" t="s">
+      <c r="B17" s="333"/>
+      <c r="C17" s="334" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="300"/>
@@ -11120,485 +11219,503 @@
       <c r="G17" s="300"/>
       <c r="H17" s="297"/>
       <c r="I17" s="298"/>
-      <c r="J17" s="333"/>
-      <c r="K17" s="334"/>
-      <c r="L17" s="335"/>
-      <c r="M17" s="336"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="338"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="304"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="337"/>
+      <c r="M17" s="338"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="340">
+        <v>45548</v>
+      </c>
+      <c r="B18" s="341"/>
+      <c r="C18" s="341">
+        <v>45547</v>
+      </c>
+      <c r="D18" s="304" t="s">
+        <v>358</v>
+      </c>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
+      <c r="G18" s="304" t="s">
+        <v>358</v>
+      </c>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
-      <c r="J18" s="340"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="304"/>
-      <c r="M18" s="341"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="338"/>
-      <c r="B19" s="339"/>
-      <c r="C19" s="339"/>
+      <c r="J18" s="342" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="308" t="s">
+        <v>358</v>
+      </c>
+      <c r="L18" s="308" t="s">
+        <v>372</v>
+      </c>
+      <c r="M18" s="343" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="340"/>
+      <c r="B19" s="341"/>
+      <c r="C19" s="341"/>
       <c r="D19" s="304"/>
       <c r="E19" s="304"/>
       <c r="F19" s="304"/>
       <c r="G19" s="304"/>
       <c r="H19" s="304"/>
       <c r="I19" s="304"/>
-      <c r="J19" s="340"/>
-      <c r="K19" s="304"/>
-      <c r="L19" s="304"/>
-      <c r="M19" s="341"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
-      <c r="B20" s="339"/>
-      <c r="C20" s="339"/>
+      <c r="J19" s="342"/>
+      <c r="K19" s="308"/>
+      <c r="L19" s="308"/>
+      <c r="M19" s="343"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="340"/>
+      <c r="B20" s="341"/>
+      <c r="C20" s="341"/>
       <c r="D20" s="304"/>
       <c r="E20" s="304"/>
       <c r="F20" s="304"/>
       <c r="G20" s="304"/>
       <c r="H20" s="304"/>
       <c r="I20" s="304"/>
-      <c r="J20" s="340"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="304"/>
-      <c r="M20" s="341"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="338"/>
-      <c r="B21" s="339"/>
-      <c r="C21" s="339"/>
+      <c r="J20" s="342"/>
+      <c r="K20" s="308"/>
+      <c r="L20" s="308"/>
+      <c r="M20" s="343"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="340"/>
+      <c r="B21" s="341"/>
+      <c r="C21" s="341"/>
       <c r="D21" s="304"/>
       <c r="E21" s="304"/>
       <c r="F21" s="304"/>
       <c r="G21" s="304"/>
       <c r="H21" s="304"/>
       <c r="I21" s="304"/>
-      <c r="J21" s="340"/>
-      <c r="K21" s="304"/>
-      <c r="L21" s="304"/>
-      <c r="M21" s="341"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="338"/>
-      <c r="B22" s="339"/>
-      <c r="C22" s="339"/>
+      <c r="J21" s="342"/>
+      <c r="K21" s="308"/>
+      <c r="L21" s="308"/>
+      <c r="M21" s="343"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="340"/>
+      <c r="B22" s="341"/>
+      <c r="C22" s="341"/>
       <c r="D22" s="304"/>
       <c r="E22" s="304"/>
       <c r="F22" s="304"/>
       <c r="G22" s="304"/>
       <c r="H22" s="304"/>
       <c r="I22" s="304"/>
-      <c r="J22" s="340"/>
-      <c r="K22" s="304"/>
-      <c r="L22" s="304"/>
-      <c r="M22" s="341"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="338"/>
-      <c r="B23" s="339"/>
-      <c r="C23" s="339"/>
+      <c r="J22" s="342"/>
+      <c r="K22" s="308"/>
+      <c r="L22" s="308"/>
+      <c r="M22" s="343"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="340"/>
+      <c r="B23" s="341"/>
+      <c r="C23" s="341"/>
       <c r="D23" s="304"/>
       <c r="E23" s="304"/>
       <c r="F23" s="304"/>
       <c r="G23" s="304"/>
       <c r="H23" s="304"/>
       <c r="I23" s="304"/>
-      <c r="J23" s="340"/>
-      <c r="K23" s="304"/>
-      <c r="L23" s="304"/>
-      <c r="M23" s="341"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="338"/>
-      <c r="B24" s="339"/>
-      <c r="C24" s="339"/>
+      <c r="J23" s="342"/>
+      <c r="K23" s="308"/>
+      <c r="L23" s="308"/>
+      <c r="M23" s="343"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="340"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="341"/>
       <c r="D24" s="304"/>
       <c r="E24" s="304"/>
       <c r="F24" s="304"/>
       <c r="G24" s="304"/>
       <c r="H24" s="304"/>
       <c r="I24" s="304"/>
-      <c r="J24" s="340"/>
-      <c r="K24" s="304"/>
-      <c r="L24" s="304"/>
-      <c r="M24" s="341"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="338"/>
-      <c r="B25" s="339"/>
-      <c r="C25" s="339"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="308"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="343"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="340"/>
+      <c r="B25" s="341"/>
+      <c r="C25" s="341"/>
       <c r="D25" s="304"/>
       <c r="E25" s="304"/>
       <c r="F25" s="304"/>
       <c r="G25" s="304"/>
       <c r="H25" s="304"/>
       <c r="I25" s="304"/>
-      <c r="J25" s="340"/>
-      <c r="K25" s="304"/>
-      <c r="L25" s="304"/>
-      <c r="M25" s="341"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="338"/>
-      <c r="B26" s="339"/>
-      <c r="C26" s="339"/>
+      <c r="J25" s="342"/>
+      <c r="K25" s="308"/>
+      <c r="L25" s="308"/>
+      <c r="M25" s="343"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="340"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="341"/>
       <c r="D26" s="304"/>
       <c r="E26" s="304"/>
       <c r="F26" s="304"/>
       <c r="G26" s="304"/>
       <c r="H26" s="304"/>
       <c r="I26" s="304"/>
-      <c r="J26" s="340"/>
-      <c r="K26" s="304"/>
-      <c r="L26" s="304"/>
-      <c r="M26" s="341"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="338"/>
-      <c r="B27" s="339"/>
-      <c r="C27" s="339"/>
+      <c r="J26" s="342"/>
+      <c r="K26" s="308"/>
+      <c r="L26" s="308"/>
+      <c r="M26" s="343"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="340"/>
+      <c r="B27" s="341"/>
+      <c r="C27" s="341"/>
       <c r="D27" s="304"/>
       <c r="E27" s="304"/>
       <c r="F27" s="304"/>
       <c r="G27" s="304"/>
       <c r="H27" s="304"/>
       <c r="I27" s="304"/>
-      <c r="J27" s="340"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="304"/>
-      <c r="M27" s="341"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="338"/>
-      <c r="B28" s="339"/>
-      <c r="C28" s="339"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="308"/>
+      <c r="L27" s="308"/>
+      <c r="M27" s="343"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="340"/>
+      <c r="B28" s="341"/>
+      <c r="C28" s="341"/>
       <c r="D28" s="304"/>
       <c r="E28" s="304"/>
       <c r="F28" s="304"/>
       <c r="G28" s="304"/>
       <c r="H28" s="304"/>
       <c r="I28" s="304"/>
-      <c r="J28" s="340"/>
-      <c r="K28" s="304"/>
-      <c r="L28" s="304"/>
-      <c r="M28" s="341"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="338"/>
-      <c r="B29" s="339"/>
-      <c r="C29" s="339"/>
+      <c r="J28" s="342"/>
+      <c r="K28" s="308"/>
+      <c r="L28" s="308"/>
+      <c r="M28" s="343"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="340"/>
+      <c r="B29" s="341"/>
+      <c r="C29" s="341"/>
       <c r="D29" s="304"/>
       <c r="E29" s="304"/>
       <c r="F29" s="304"/>
       <c r="G29" s="304"/>
       <c r="H29" s="304"/>
       <c r="I29" s="304"/>
-      <c r="J29" s="340"/>
-      <c r="K29" s="304"/>
-      <c r="L29" s="304"/>
-      <c r="M29" s="341"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="338"/>
-      <c r="B30" s="339"/>
-      <c r="C30" s="339"/>
+      <c r="J29" s="342"/>
+      <c r="K29" s="308"/>
+      <c r="L29" s="308"/>
+      <c r="M29" s="343"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="340"/>
+      <c r="B30" s="341"/>
+      <c r="C30" s="341"/>
       <c r="D30" s="304"/>
       <c r="E30" s="304"/>
       <c r="F30" s="304"/>
       <c r="G30" s="304"/>
       <c r="H30" s="304"/>
       <c r="I30" s="304"/>
-      <c r="J30" s="340"/>
-      <c r="K30" s="304"/>
-      <c r="L30" s="304"/>
-      <c r="M30" s="341"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="338"/>
-      <c r="B31" s="339"/>
-      <c r="C31" s="339"/>
+      <c r="J30" s="342"/>
+      <c r="K30" s="308"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="343"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="340"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="341"/>
       <c r="D31" s="304"/>
       <c r="E31" s="304"/>
       <c r="F31" s="304"/>
       <c r="G31" s="304"/>
       <c r="H31" s="304"/>
       <c r="I31" s="304"/>
-      <c r="J31" s="340"/>
-      <c r="K31" s="304"/>
-      <c r="L31" s="304"/>
-      <c r="M31" s="341"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="338"/>
-      <c r="B32" s="339"/>
-      <c r="C32" s="339"/>
+      <c r="J31" s="342"/>
+      <c r="K31" s="308"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="343"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="340"/>
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
       <c r="D32" s="304"/>
       <c r="E32" s="304"/>
       <c r="F32" s="304"/>
       <c r="G32" s="304"/>
       <c r="H32" s="304"/>
       <c r="I32" s="304"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="304"/>
-      <c r="L32" s="304"/>
-      <c r="M32" s="341"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="338"/>
-      <c r="B33" s="339"/>
-      <c r="C33" s="339"/>
+      <c r="J32" s="342"/>
+      <c r="K32" s="308"/>
+      <c r="L32" s="308"/>
+      <c r="M32" s="343"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="340"/>
+      <c r="B33" s="341"/>
+      <c r="C33" s="341"/>
       <c r="D33" s="304"/>
       <c r="E33" s="304"/>
       <c r="F33" s="304"/>
       <c r="G33" s="304"/>
       <c r="H33" s="304"/>
       <c r="I33" s="304"/>
-      <c r="J33" s="340"/>
-      <c r="K33" s="304"/>
-      <c r="L33" s="304"/>
-      <c r="M33" s="341"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="338"/>
-      <c r="B34" s="339"/>
-      <c r="C34" s="339"/>
+      <c r="J33" s="342"/>
+      <c r="K33" s="308"/>
+      <c r="L33" s="308"/>
+      <c r="M33" s="343"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="340"/>
+      <c r="B34" s="341"/>
+      <c r="C34" s="341"/>
       <c r="D34" s="304"/>
       <c r="E34" s="304"/>
       <c r="F34" s="304"/>
       <c r="G34" s="304"/>
       <c r="H34" s="304"/>
       <c r="I34" s="304"/>
-      <c r="J34" s="340"/>
-      <c r="K34" s="304"/>
-      <c r="L34" s="304"/>
-      <c r="M34" s="341"/>
-    </row>
-    <row r="35" ht="24.75" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="338"/>
-      <c r="B35" s="339"/>
-      <c r="C35" s="339"/>
+      <c r="J34" s="342"/>
+      <c r="K34" s="308"/>
+      <c r="L34" s="308"/>
+      <c r="M34" s="343"/>
+    </row>
+    <row r="35" ht="24.75" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="340"/>
+      <c r="B35" s="341"/>
+      <c r="C35" s="341"/>
       <c r="D35" s="304"/>
       <c r="E35" s="304"/>
       <c r="F35" s="304"/>
       <c r="G35" s="304"/>
       <c r="H35" s="304"/>
       <c r="I35" s="304"/>
-      <c r="J35" s="340"/>
-      <c r="K35" s="304"/>
-      <c r="L35" s="304"/>
-      <c r="M35" s="341"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="338"/>
-      <c r="B36" s="339"/>
-      <c r="C36" s="339"/>
+      <c r="J35" s="342"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="308"/>
+      <c r="M35" s="343"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="340"/>
+      <c r="B36" s="341"/>
+      <c r="C36" s="341"/>
       <c r="D36" s="304"/>
       <c r="E36" s="304"/>
       <c r="F36" s="304"/>
       <c r="G36" s="304"/>
       <c r="H36" s="304"/>
       <c r="I36" s="304"/>
-      <c r="J36" s="340"/>
-      <c r="K36" s="304"/>
-      <c r="L36" s="304"/>
-      <c r="M36" s="341"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="338"/>
-      <c r="B37" s="339"/>
-      <c r="C37" s="339"/>
+      <c r="J36" s="342"/>
+      <c r="K36" s="308"/>
+      <c r="L36" s="308"/>
+      <c r="M36" s="343"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="340"/>
+      <c r="B37" s="341"/>
+      <c r="C37" s="341"/>
       <c r="D37" s="304"/>
       <c r="E37" s="304"/>
       <c r="F37" s="304"/>
       <c r="G37" s="304"/>
       <c r="H37" s="304"/>
       <c r="I37" s="304"/>
-      <c r="J37" s="340"/>
-      <c r="K37" s="304"/>
-      <c r="L37" s="304"/>
-      <c r="M37" s="341"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="338"/>
-      <c r="B38" s="339"/>
-      <c r="C38" s="339"/>
+      <c r="J37" s="342"/>
+      <c r="K37" s="308"/>
+      <c r="L37" s="308"/>
+      <c r="M37" s="343"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="340"/>
+      <c r="B38" s="341"/>
+      <c r="C38" s="341"/>
       <c r="D38" s="304"/>
       <c r="E38" s="304"/>
       <c r="F38" s="304"/>
       <c r="G38" s="304"/>
       <c r="H38" s="304"/>
       <c r="I38" s="304"/>
-      <c r="J38" s="340"/>
-      <c r="K38" s="304"/>
-      <c r="L38" s="304"/>
-      <c r="M38" s="341"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="338"/>
-      <c r="B39" s="339"/>
-      <c r="C39" s="339"/>
+      <c r="J38" s="342"/>
+      <c r="K38" s="308"/>
+      <c r="L38" s="308"/>
+      <c r="M38" s="343"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="340"/>
+      <c r="B39" s="341"/>
+      <c r="C39" s="341"/>
       <c r="D39" s="304"/>
       <c r="E39" s="304"/>
       <c r="F39" s="304"/>
       <c r="G39" s="304"/>
       <c r="H39" s="304"/>
       <c r="I39" s="304"/>
-      <c r="J39" s="340"/>
-      <c r="K39" s="304"/>
-      <c r="L39" s="304"/>
-      <c r="M39" s="341"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="338"/>
-      <c r="B40" s="339"/>
-      <c r="C40" s="339"/>
+      <c r="J39" s="342"/>
+      <c r="K39" s="308"/>
+      <c r="L39" s="308"/>
+      <c r="M39" s="343"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="340"/>
+      <c r="B40" s="341"/>
+      <c r="C40" s="341"/>
       <c r="D40" s="304"/>
       <c r="E40" s="304"/>
       <c r="F40" s="304"/>
       <c r="G40" s="304"/>
       <c r="H40" s="304"/>
       <c r="I40" s="304"/>
-      <c r="J40" s="340"/>
-      <c r="K40" s="304"/>
-      <c r="L40" s="304"/>
-      <c r="M40" s="341"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="338"/>
-      <c r="B41" s="339"/>
-      <c r="C41" s="339"/>
+      <c r="J40" s="342"/>
+      <c r="K40" s="308"/>
+      <c r="L40" s="308"/>
+      <c r="M40" s="343"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="340"/>
+      <c r="B41" s="341"/>
+      <c r="C41" s="341"/>
       <c r="D41" s="304"/>
       <c r="E41" s="304"/>
       <c r="F41" s="304"/>
       <c r="G41" s="304"/>
       <c r="H41" s="304"/>
       <c r="I41" s="304"/>
-      <c r="J41" s="340"/>
-      <c r="K41" s="304"/>
-      <c r="L41" s="304"/>
-      <c r="M41" s="341"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="338"/>
-      <c r="B42" s="339"/>
-      <c r="C42" s="339"/>
+      <c r="J41" s="342"/>
+      <c r="K41" s="308"/>
+      <c r="L41" s="308"/>
+      <c r="M41" s="343"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="340"/>
+      <c r="B42" s="341"/>
+      <c r="C42" s="341"/>
       <c r="D42" s="304"/>
       <c r="E42" s="304"/>
       <c r="F42" s="304"/>
       <c r="G42" s="304"/>
       <c r="H42" s="304"/>
       <c r="I42" s="304"/>
-      <c r="J42" s="340"/>
-      <c r="K42" s="304"/>
-      <c r="L42" s="304"/>
-      <c r="M42" s="341"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="338"/>
-      <c r="B43" s="339"/>
-      <c r="C43" s="339"/>
+      <c r="J42" s="342"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="308"/>
+      <c r="M42" s="343"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="340"/>
+      <c r="B43" s="341"/>
+      <c r="C43" s="341"/>
       <c r="D43" s="304"/>
       <c r="E43" s="304"/>
       <c r="F43" s="304"/>
       <c r="G43" s="304"/>
       <c r="H43" s="304"/>
       <c r="I43" s="304"/>
-      <c r="J43" s="340"/>
-      <c r="K43" s="304"/>
-      <c r="L43" s="304"/>
-      <c r="M43" s="341"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="338"/>
-      <c r="B44" s="339"/>
-      <c r="C44" s="339"/>
+      <c r="J43" s="342"/>
+      <c r="K43" s="308"/>
+      <c r="L43" s="308"/>
+      <c r="M43" s="343"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="340"/>
+      <c r="B44" s="341"/>
+      <c r="C44" s="341"/>
       <c r="D44" s="304"/>
       <c r="E44" s="304"/>
       <c r="F44" s="304"/>
       <c r="G44" s="304"/>
       <c r="H44" s="304"/>
       <c r="I44" s="304"/>
-      <c r="J44" s="340"/>
+      <c r="J44" s="342"/>
       <c r="K44" s="304"/>
       <c r="L44" s="304"/>
-      <c r="M44" s="341"/>
-    </row>
-    <row r="45" ht="21.75" customHeight="1" spans="1:13" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="342"/>
-      <c r="B45" s="343"/>
-      <c r="C45" s="343"/>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="344"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="345"/>
+      <c r="M44" s="343"/>
+    </row>
+    <row r="45" ht="21.75" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="344"/>
+      <c r="B45" s="345"/>
+      <c r="C45" s="345"/>
+      <c r="D45" s="313"/>
+      <c r="E45" s="313"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="313"/>
+      <c r="I45" s="313"/>
+      <c r="J45" s="346"/>
+      <c r="K45" s="317"/>
+      <c r="L45" s="317"/>
+      <c r="M45" s="347"/>
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="346" t="s">
+      <c r="A46" s="348" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="347"/>
-      <c r="C46" s="347"/>
-      <c r="D46" s="347"/>
-      <c r="E46" s="347"/>
-      <c r="F46" s="347"/>
-      <c r="G46" s="347"/>
-      <c r="H46" s="347"/>
-      <c r="I46" s="347"/>
-      <c r="J46" s="347"/>
-      <c r="K46" s="348"/>
-      <c r="L46" s="348"/>
-      <c r="M46" s="349"/>
-    </row>
-    <row r="47" ht="27.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="349"/>
+      <c r="C46" s="349"/>
+      <c r="D46" s="349"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="349"/>
+      <c r="G46" s="349"/>
+      <c r="H46" s="349"/>
+      <c r="I46" s="349"/>
+      <c r="J46" s="349"/>
+      <c r="K46" s="350"/>
+      <c r="L46" s="350"/>
+      <c r="M46" s="351"/>
+    </row>
+    <row r="47" ht="60" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
         <v>189</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
-      <c r="D47" s="350"/>
-      <c r="E47" s="351"/>
-      <c r="F47" s="351"/>
-      <c r="G47" s="351"/>
-      <c r="H47" s="352"/>
-      <c r="I47" s="353" t="s">
+      <c r="D47" s="352"/>
+      <c r="E47" s="353"/>
+      <c r="F47" s="353"/>
+      <c r="G47" s="353"/>
+      <c r="H47" s="354"/>
+      <c r="I47" s="355" t="s">
         <v>190</v>
       </c>
-      <c r="J47" s="354"/>
-      <c r="K47" s="355"/>
-      <c r="L47" s="355"/>
-      <c r="M47" s="356"/>
-      <c r="N47" s="357"/>
+      <c r="J47" s="356"/>
+      <c r="K47" s="357" t="s">
+        <v>182</v>
+      </c>
+      <c r="L47" s="357"/>
+      <c r="M47" s="358"/>
+      <c r="N47" s="359"/>
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="358" t="s">
-        <v>368</v>
-      </c>
-      <c r="B48" s="358"/>
-      <c r="C48" s="358"/>
-      <c r="D48" s="358"/>
-      <c r="E48" s="358"/>
-      <c r="F48" s="358"/>
-      <c r="G48" s="358"/>
-      <c r="H48" s="358"/>
-      <c r="I48" s="358"/>
-      <c r="J48" s="358"/>
-      <c r="K48" s="358"/>
-      <c r="L48" s="358"/>
-      <c r="M48" s="358"/>
-      <c r="N48" s="359"/>
+      <c r="A48" s="360" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="360"/>
+      <c r="C48" s="360"/>
+      <c r="D48" s="360"/>
+      <c r="E48" s="360"/>
+      <c r="F48" s="360"/>
+      <c r="G48" s="360"/>
+      <c r="H48" s="360"/>
+      <c r="I48" s="360"/>
+      <c r="J48" s="360"/>
+      <c r="K48" s="360"/>
+      <c r="L48" s="360"/>
+      <c r="M48" s="360"/>
+      <c r="N48" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="126">
@@ -11732,6 +11849,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="92" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11764,534 +11882,534 @@
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="360"/>
-      <c r="B1" s="361"/>
-      <c r="C1" s="361"/>
-      <c r="D1" s="361"/>
-      <c r="E1" s="361"/>
-      <c r="F1" s="361"/>
-      <c r="G1" s="361"/>
-      <c r="H1" s="361"/>
-      <c r="I1" s="361"/>
-      <c r="J1" s="361"/>
-      <c r="K1" s="362"/>
+      <c r="A1" s="362"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="364"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="363" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="365"/>
+      <c r="A2" s="365" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="K2" s="367"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="367" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="368"/>
+      <c r="A3" s="368" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="369" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="369"/>
+      <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F3" s="291"/>
-      <c r="G3" s="369" t="s">
-        <v>373</v>
+      <c r="G3" s="371" t="s">
+        <v>379</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
-      <c r="K3" s="371"/>
+        <v>380</v>
+      </c>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="373"/>
     </row>
     <row r="4" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="372"/>
-      <c r="B4" s="373"/>
-      <c r="C4" s="373"/>
-      <c r="D4" s="374"/>
+      <c r="A4" s="374"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="375"/>
+      <c r="D4" s="376"/>
       <c r="E4" s="297"/>
       <c r="F4" s="298"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="375"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="377"/>
       <c r="I4" s="282"/>
       <c r="J4" s="282"/>
-      <c r="K4" s="376"/>
+      <c r="K4" s="378"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="377"/>
-      <c r="B5" s="378"/>
-      <c r="C5" s="378"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="331" t="s">
+      <c r="A5" s="379"/>
+      <c r="B5" s="380"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="381"/>
+      <c r="E5" s="333" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="332" t="s">
+      <c r="F5" s="334" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="334"/>
-      <c r="H5" s="380"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="382"/>
       <c r="I5" s="125"/>
       <c r="J5" s="125"/>
       <c r="K5" s="126"/>
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="381"/>
-      <c r="B6" s="382"/>
-      <c r="C6" s="382"/>
+      <c r="A6" s="383"/>
+      <c r="B6" s="384"/>
+      <c r="C6" s="384"/>
       <c r="D6" s="244"/>
-      <c r="E6" s="383"/>
-      <c r="F6" s="383"/>
-      <c r="G6" s="384"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="386"/>
-      <c r="J6" s="386"/>
-      <c r="K6" s="387"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="386"/>
+      <c r="H6" s="387"/>
+      <c r="I6" s="388"/>
+      <c r="J6" s="388"/>
+      <c r="K6" s="389"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="381"/>
-      <c r="B7" s="382"/>
-      <c r="C7" s="382"/>
+      <c r="A7" s="383"/>
+      <c r="B7" s="384"/>
+      <c r="C7" s="384"/>
       <c r="D7" s="244"/>
-      <c r="E7" s="383"/>
-      <c r="F7" s="383"/>
-      <c r="G7" s="384"/>
-      <c r="H7" s="385"/>
-      <c r="I7" s="386"/>
-      <c r="J7" s="386"/>
-      <c r="K7" s="387"/>
+      <c r="E7" s="385"/>
+      <c r="F7" s="385"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="387"/>
+      <c r="I7" s="388"/>
+      <c r="J7" s="388"/>
+      <c r="K7" s="389"/>
     </row>
     <row r="8" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="381"/>
-      <c r="B8" s="382"/>
-      <c r="C8" s="382"/>
+      <c r="A8" s="383"/>
+      <c r="B8" s="384"/>
+      <c r="C8" s="384"/>
       <c r="D8" s="244"/>
-      <c r="E8" s="383"/>
-      <c r="F8" s="383"/>
-      <c r="G8" s="384"/>
-      <c r="H8" s="385"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
-      <c r="K8" s="387"/>
+      <c r="E8" s="385"/>
+      <c r="F8" s="385"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="387"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="388"/>
+      <c r="K8" s="389"/>
     </row>
     <row r="9" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="381"/>
-      <c r="B9" s="382"/>
-      <c r="C9" s="382"/>
+      <c r="A9" s="383"/>
+      <c r="B9" s="384"/>
+      <c r="C9" s="384"/>
       <c r="D9" s="244"/>
-      <c r="E9" s="383"/>
-      <c r="F9" s="383"/>
-      <c r="G9" s="384"/>
-      <c r="H9" s="385"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="386"/>
-      <c r="K9" s="387"/>
+      <c r="E9" s="385"/>
+      <c r="F9" s="385"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="387"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="388"/>
+      <c r="K9" s="389"/>
     </row>
     <row r="10" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="381"/>
-      <c r="B10" s="382"/>
-      <c r="C10" s="382"/>
+      <c r="A10" s="383"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="384"/>
       <c r="D10" s="244"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="383"/>
-      <c r="G10" s="384"/>
-      <c r="H10" s="385"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="387"/>
+      <c r="E10" s="385"/>
+      <c r="F10" s="385"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="387"/>
+      <c r="I10" s="388"/>
+      <c r="J10" s="388"/>
+      <c r="K10" s="389"/>
     </row>
     <row r="11" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="381"/>
-      <c r="B11" s="382"/>
-      <c r="C11" s="382"/>
+      <c r="A11" s="383"/>
+      <c r="B11" s="384"/>
+      <c r="C11" s="384"/>
       <c r="D11" s="244"/>
-      <c r="E11" s="383"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="384"/>
-      <c r="H11" s="385"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="387"/>
+      <c r="E11" s="385"/>
+      <c r="F11" s="385"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="388"/>
+      <c r="K11" s="389"/>
     </row>
     <row r="12" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="389"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="391"/>
-      <c r="H12" s="392"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="393"/>
-      <c r="K12" s="394"/>
+      <c r="A12" s="390"/>
+      <c r="B12" s="391"/>
+      <c r="C12" s="391"/>
+      <c r="D12" s="392"/>
+      <c r="E12" s="385"/>
+      <c r="F12" s="385"/>
+      <c r="G12" s="393"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="395"/>
+      <c r="J12" s="395"/>
+      <c r="K12" s="396"/>
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="317" t="s">
+      <c r="A13" s="319" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="318"/>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="319"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="320"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="320"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="321"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="395" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="396"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="397"/>
+      <c r="A14" s="397" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="398"/>
+      <c r="C14" s="398"/>
+      <c r="D14" s="398"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="398"/>
+      <c r="H14" s="398"/>
+      <c r="I14" s="398"/>
+      <c r="J14" s="398"/>
+      <c r="K14" s="399"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="372" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="322" t="s">
-        <v>377</v>
+      <c r="A15" s="374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="324" t="s">
+        <v>383</v>
       </c>
       <c r="C15" s="282"/>
-      <c r="D15" s="398"/>
-      <c r="E15" s="322" t="s">
-        <v>378</v>
-      </c>
-      <c r="F15" s="323"/>
-      <c r="G15" s="326" t="s">
-        <v>373</v>
-      </c>
-      <c r="H15" s="325" t="s">
+      <c r="D15" s="400"/>
+      <c r="E15" s="324" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="325"/>
+      <c r="G15" s="328" t="s">
         <v>379</v>
       </c>
-      <c r="I15" s="324" t="s">
-        <v>380</v>
+      <c r="H15" s="327" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" s="326" t="s">
+        <v>386</v>
       </c>
       <c r="J15" s="282"/>
-      <c r="K15" s="376"/>
+      <c r="K15" s="378"/>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="372"/>
+      <c r="A16" s="374"/>
       <c r="B16" s="282"/>
       <c r="C16" s="282"/>
-      <c r="D16" s="398"/>
+      <c r="D16" s="400"/>
       <c r="E16" s="297"/>
       <c r="F16" s="298"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="325"/>
-      <c r="I16" s="375"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="327"/>
+      <c r="I16" s="377"/>
       <c r="J16" s="282"/>
-      <c r="K16" s="376"/>
+      <c r="K16" s="378"/>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="377"/>
+      <c r="A17" s="379"/>
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
-      <c r="D17" s="399"/>
-      <c r="E17" s="331" t="s">
+      <c r="D17" s="401"/>
+      <c r="E17" s="333" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="332" t="s">
+      <c r="F17" s="334" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="334"/>
-      <c r="H17" s="333"/>
-      <c r="I17" s="380"/>
+      <c r="G17" s="336"/>
+      <c r="H17" s="335"/>
+      <c r="I17" s="382"/>
       <c r="J17" s="125"/>
       <c r="K17" s="126"/>
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="400"/>
-      <c r="B18" s="401"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="402"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="407"/>
-      <c r="K18" s="408"/>
+      <c r="A18" s="402"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="404"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="406"/>
+      <c r="H18" s="407"/>
+      <c r="I18" s="408"/>
+      <c r="J18" s="409"/>
+      <c r="K18" s="410"/>
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="409"/>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="411"/>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="404"/>
-      <c r="H19" s="405"/>
-      <c r="I19" s="406"/>
-      <c r="J19" s="407"/>
-      <c r="K19" s="408"/>
+      <c r="A19" s="411"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="405"/>
+      <c r="G19" s="406"/>
+      <c r="H19" s="407"/>
+      <c r="I19" s="408"/>
+      <c r="J19" s="409"/>
+      <c r="K19" s="410"/>
     </row>
     <row r="20" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="409"/>
-      <c r="B20" s="410"/>
-      <c r="C20" s="410"/>
-      <c r="D20" s="411"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="406"/>
-      <c r="J20" s="407"/>
-      <c r="K20" s="408"/>
+      <c r="A20" s="411"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="412"/>
+      <c r="D20" s="413"/>
+      <c r="E20" s="405"/>
+      <c r="F20" s="405"/>
+      <c r="G20" s="406"/>
+      <c r="H20" s="407"/>
+      <c r="I20" s="408"/>
+      <c r="J20" s="409"/>
+      <c r="K20" s="410"/>
     </row>
     <row r="21" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="409"/>
-      <c r="B21" s="410"/>
-      <c r="C21" s="410"/>
-      <c r="D21" s="411"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="405"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="407"/>
-      <c r="K21" s="408"/>
+      <c r="A21" s="411"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="412"/>
+      <c r="D21" s="413"/>
+      <c r="E21" s="405"/>
+      <c r="F21" s="405"/>
+      <c r="G21" s="406"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="408"/>
+      <c r="J21" s="409"/>
+      <c r="K21" s="410"/>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="409"/>
-      <c r="B22" s="410"/>
-      <c r="C22" s="410"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="403"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="404"/>
-      <c r="H22" s="405"/>
-      <c r="I22" s="406"/>
-      <c r="J22" s="407"/>
-      <c r="K22" s="408"/>
+      <c r="A22" s="411"/>
+      <c r="B22" s="412"/>
+      <c r="C22" s="412"/>
+      <c r="D22" s="413"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="405"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="407"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="409"/>
+      <c r="K22" s="410"/>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="409"/>
-      <c r="B23" s="410"/>
-      <c r="C23" s="410"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="404"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="407"/>
-      <c r="K23" s="408"/>
+      <c r="A23" s="411"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="412"/>
+      <c r="D23" s="413"/>
+      <c r="E23" s="405"/>
+      <c r="F23" s="405"/>
+      <c r="G23" s="406"/>
+      <c r="H23" s="407"/>
+      <c r="I23" s="408"/>
+      <c r="J23" s="409"/>
+      <c r="K23" s="410"/>
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="409"/>
-      <c r="B24" s="410"/>
-      <c r="C24" s="410"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="404"/>
-      <c r="H24" s="405"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="407"/>
-      <c r="K24" s="408"/>
+      <c r="A24" s="411"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="412"/>
+      <c r="D24" s="413"/>
+      <c r="E24" s="405"/>
+      <c r="F24" s="405"/>
+      <c r="G24" s="406"/>
+      <c r="H24" s="407"/>
+      <c r="I24" s="408"/>
+      <c r="J24" s="409"/>
+      <c r="K24" s="410"/>
     </row>
     <row r="25" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="409"/>
-      <c r="B25" s="410"/>
-      <c r="C25" s="410"/>
-      <c r="D25" s="411"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="404"/>
-      <c r="H25" s="405"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="407"/>
-      <c r="K25" s="408"/>
+      <c r="A25" s="411"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="412"/>
+      <c r="D25" s="413"/>
+      <c r="E25" s="405"/>
+      <c r="F25" s="405"/>
+      <c r="G25" s="406"/>
+      <c r="H25" s="407"/>
+      <c r="I25" s="408"/>
+      <c r="J25" s="409"/>
+      <c r="K25" s="410"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="400"/>
-      <c r="B26" s="401"/>
-      <c r="C26" s="401"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="404"/>
-      <c r="H26" s="405"/>
-      <c r="I26" s="406"/>
-      <c r="J26" s="407"/>
-      <c r="K26" s="408"/>
+      <c r="A26" s="402"/>
+      <c r="B26" s="403"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="404"/>
+      <c r="E26" s="405"/>
+      <c r="F26" s="405"/>
+      <c r="G26" s="406"/>
+      <c r="H26" s="407"/>
+      <c r="I26" s="408"/>
+      <c r="J26" s="409"/>
+      <c r="K26" s="410"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="400"/>
-      <c r="B27" s="401"/>
-      <c r="C27" s="401"/>
-      <c r="D27" s="402"/>
-      <c r="E27" s="403"/>
-      <c r="F27" s="403"/>
-      <c r="G27" s="404"/>
-      <c r="H27" s="405"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="407"/>
-      <c r="K27" s="408"/>
+      <c r="A27" s="402"/>
+      <c r="B27" s="403"/>
+      <c r="C27" s="403"/>
+      <c r="D27" s="404"/>
+      <c r="E27" s="405"/>
+      <c r="F27" s="405"/>
+      <c r="G27" s="406"/>
+      <c r="H27" s="407"/>
+      <c r="I27" s="408"/>
+      <c r="J27" s="409"/>
+      <c r="K27" s="410"/>
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="400"/>
-      <c r="B28" s="401"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="402"/>
-      <c r="E28" s="403"/>
-      <c r="F28" s="403"/>
-      <c r="G28" s="404"/>
-      <c r="H28" s="405"/>
-      <c r="I28" s="406"/>
-      <c r="J28" s="407"/>
-      <c r="K28" s="408"/>
+      <c r="A28" s="402"/>
+      <c r="B28" s="403"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="404"/>
+      <c r="E28" s="405"/>
+      <c r="F28" s="405"/>
+      <c r="G28" s="406"/>
+      <c r="H28" s="407"/>
+      <c r="I28" s="408"/>
+      <c r="J28" s="409"/>
+      <c r="K28" s="410"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="400"/>
-      <c r="B29" s="401"/>
-      <c r="C29" s="401"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="404"/>
-      <c r="H29" s="405"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="407"/>
-      <c r="K29" s="408"/>
+      <c r="A29" s="402"/>
+      <c r="B29" s="403"/>
+      <c r="C29" s="403"/>
+      <c r="D29" s="404"/>
+      <c r="E29" s="405"/>
+      <c r="F29" s="405"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="409"/>
+      <c r="K29" s="410"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="400"/>
-      <c r="B30" s="401"/>
-      <c r="C30" s="401"/>
-      <c r="D30" s="402"/>
-      <c r="E30" s="403"/>
-      <c r="F30" s="403"/>
-      <c r="G30" s="404"/>
-      <c r="H30" s="405"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="407"/>
-      <c r="K30" s="408"/>
+      <c r="A30" s="402"/>
+      <c r="B30" s="403"/>
+      <c r="C30" s="403"/>
+      <c r="D30" s="404"/>
+      <c r="E30" s="405"/>
+      <c r="F30" s="405"/>
+      <c r="G30" s="406"/>
+      <c r="H30" s="407"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="409"/>
+      <c r="K30" s="410"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="400"/>
-      <c r="B31" s="401"/>
-      <c r="C31" s="401"/>
-      <c r="D31" s="402"/>
-      <c r="E31" s="403"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="404"/>
-      <c r="H31" s="405"/>
-      <c r="I31" s="406"/>
-      <c r="J31" s="407"/>
-      <c r="K31" s="408"/>
+      <c r="A31" s="402"/>
+      <c r="B31" s="403"/>
+      <c r="C31" s="403"/>
+      <c r="D31" s="404"/>
+      <c r="E31" s="405"/>
+      <c r="F31" s="405"/>
+      <c r="G31" s="406"/>
+      <c r="H31" s="407"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="409"/>
+      <c r="K31" s="410"/>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="400"/>
-      <c r="B32" s="401"/>
-      <c r="C32" s="401"/>
-      <c r="D32" s="402"/>
-      <c r="E32" s="403"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="404"/>
-      <c r="H32" s="405"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="407"/>
-      <c r="K32" s="408"/>
+      <c r="A32" s="402"/>
+      <c r="B32" s="403"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="404"/>
+      <c r="E32" s="405"/>
+      <c r="F32" s="405"/>
+      <c r="G32" s="406"/>
+      <c r="H32" s="407"/>
+      <c r="I32" s="408"/>
+      <c r="J32" s="409"/>
+      <c r="K32" s="410"/>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="400"/>
-      <c r="B33" s="401"/>
-      <c r="C33" s="401"/>
-      <c r="D33" s="402"/>
-      <c r="E33" s="403"/>
-      <c r="F33" s="403"/>
-      <c r="G33" s="404"/>
-      <c r="H33" s="405"/>
-      <c r="I33" s="406"/>
-      <c r="J33" s="407"/>
-      <c r="K33" s="408"/>
+      <c r="A33" s="402"/>
+      <c r="B33" s="403"/>
+      <c r="C33" s="403"/>
+      <c r="D33" s="404"/>
+      <c r="E33" s="405"/>
+      <c r="F33" s="405"/>
+      <c r="G33" s="406"/>
+      <c r="H33" s="407"/>
+      <c r="I33" s="408"/>
+      <c r="J33" s="409"/>
+      <c r="K33" s="410"/>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="400"/>
-      <c r="B34" s="401"/>
-      <c r="C34" s="401"/>
-      <c r="D34" s="402"/>
-      <c r="E34" s="403"/>
-      <c r="F34" s="403"/>
-      <c r="G34" s="404"/>
-      <c r="H34" s="405"/>
-      <c r="I34" s="406"/>
-      <c r="J34" s="407"/>
-      <c r="K34" s="408"/>
+      <c r="A34" s="402"/>
+      <c r="B34" s="403"/>
+      <c r="C34" s="403"/>
+      <c r="D34" s="404"/>
+      <c r="E34" s="405"/>
+      <c r="F34" s="405"/>
+      <c r="G34" s="406"/>
+      <c r="H34" s="407"/>
+      <c r="I34" s="408"/>
+      <c r="J34" s="409"/>
+      <c r="K34" s="410"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="400"/>
-      <c r="B35" s="401"/>
-      <c r="C35" s="401"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="403"/>
-      <c r="F35" s="403"/>
-      <c r="G35" s="404"/>
-      <c r="H35" s="405"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="408"/>
+      <c r="A35" s="402"/>
+      <c r="B35" s="403"/>
+      <c r="C35" s="403"/>
+      <c r="D35" s="404"/>
+      <c r="E35" s="405"/>
+      <c r="F35" s="405"/>
+      <c r="G35" s="406"/>
+      <c r="H35" s="407"/>
+      <c r="I35" s="408"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="410"/>
     </row>
     <row r="36" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="400"/>
-      <c r="B36" s="401"/>
-      <c r="C36" s="401"/>
-      <c r="D36" s="402"/>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="404"/>
-      <c r="H36" s="405"/>
-      <c r="I36" s="406"/>
-      <c r="J36" s="407"/>
-      <c r="K36" s="408"/>
+      <c r="A36" s="402"/>
+      <c r="B36" s="403"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="405"/>
+      <c r="F36" s="405"/>
+      <c r="G36" s="406"/>
+      <c r="H36" s="407"/>
+      <c r="I36" s="408"/>
+      <c r="J36" s="409"/>
+      <c r="K36" s="410"/>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="400"/>
-      <c r="B37" s="401"/>
-      <c r="C37" s="401"/>
-      <c r="D37" s="402"/>
-      <c r="E37" s="403"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="404"/>
-      <c r="H37" s="405"/>
-      <c r="I37" s="406"/>
-      <c r="J37" s="407"/>
-      <c r="K37" s="408"/>
+      <c r="A37" s="402"/>
+      <c r="B37" s="403"/>
+      <c r="C37" s="403"/>
+      <c r="D37" s="404"/>
+      <c r="E37" s="405"/>
+      <c r="F37" s="405"/>
+      <c r="G37" s="406"/>
+      <c r="H37" s="407"/>
+      <c r="I37" s="408"/>
+      <c r="J37" s="409"/>
+      <c r="K37" s="410"/>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="412"/>
-      <c r="B38" s="413"/>
-      <c r="C38" s="413"/>
-      <c r="D38" s="414"/>
-      <c r="E38" s="403"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="415"/>
-      <c r="H38" s="416"/>
-      <c r="I38" s="417"/>
-      <c r="J38" s="418"/>
-      <c r="K38" s="419"/>
+      <c r="A38" s="414"/>
+      <c r="B38" s="415"/>
+      <c r="C38" s="415"/>
+      <c r="D38" s="416"/>
+      <c r="E38" s="405"/>
+      <c r="F38" s="405"/>
+      <c r="G38" s="417"/>
+      <c r="H38" s="418"/>
+      <c r="I38" s="419"/>
+      <c r="J38" s="420"/>
+      <c r="K38" s="421"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
@@ -12309,135 +12427,135 @@
       <c r="K39" s="267"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="420" t="s">
-        <v>381</v>
-      </c>
-      <c r="B40" s="421"/>
-      <c r="C40" s="421"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="421"/>
-      <c r="F40" s="421"/>
-      <c r="G40" s="421"/>
-      <c r="H40" s="421"/>
-      <c r="I40" s="421"/>
-      <c r="J40" s="421"/>
-      <c r="K40" s="422"/>
+      <c r="A40" s="422" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="423"/>
+      <c r="C40" s="423"/>
+      <c r="D40" s="423"/>
+      <c r="E40" s="423"/>
+      <c r="F40" s="423"/>
+      <c r="G40" s="423"/>
+      <c r="H40" s="423"/>
+      <c r="I40" s="423"/>
+      <c r="J40" s="423"/>
+      <c r="K40" s="424"/>
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="423" t="s">
-        <v>382</v>
-      </c>
-      <c r="B41" s="424" t="s">
-        <v>383</v>
-      </c>
-      <c r="C41" s="425" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="424" t="s">
-        <v>385</v>
-      </c>
-      <c r="E41" s="424"/>
-      <c r="F41" s="424"/>
-      <c r="G41" s="424"/>
-      <c r="H41" s="426"/>
-      <c r="I41" s="425" t="s">
-        <v>386</v>
-      </c>
-      <c r="J41" s="424" t="s">
-        <v>387</v>
-      </c>
-      <c r="K41" s="427"/>
+      <c r="A41" s="425" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="426" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="427" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="426" t="s">
+        <v>391</v>
+      </c>
+      <c r="E41" s="426"/>
+      <c r="F41" s="426"/>
+      <c r="G41" s="426"/>
+      <c r="H41" s="428"/>
+      <c r="I41" s="427" t="s">
+        <v>392</v>
+      </c>
+      <c r="J41" s="426" t="s">
+        <v>393</v>
+      </c>
+      <c r="K41" s="429"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="428"/>
-      <c r="B42" s="429"/>
-      <c r="C42" s="430"/>
-      <c r="D42" s="431"/>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="431"/>
-      <c r="H42" s="429"/>
-      <c r="I42" s="430"/>
-      <c r="J42" s="431"/>
-      <c r="K42" s="432"/>
+      <c r="A42" s="430"/>
+      <c r="B42" s="431"/>
+      <c r="C42" s="432"/>
+      <c r="D42" s="433"/>
+      <c r="E42" s="433"/>
+      <c r="F42" s="433"/>
+      <c r="G42" s="433"/>
+      <c r="H42" s="431"/>
+      <c r="I42" s="432"/>
+      <c r="J42" s="433"/>
+      <c r="K42" s="434"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="428"/>
-      <c r="B43" s="429"/>
-      <c r="C43" s="430"/>
-      <c r="D43" s="431"/>
-      <c r="E43" s="431"/>
-      <c r="F43" s="431"/>
-      <c r="G43" s="431"/>
-      <c r="H43" s="429"/>
-      <c r="I43" s="430"/>
-      <c r="J43" s="431"/>
-      <c r="K43" s="432"/>
+      <c r="A43" s="430"/>
+      <c r="B43" s="431"/>
+      <c r="C43" s="432"/>
+      <c r="D43" s="433"/>
+      <c r="E43" s="433"/>
+      <c r="F43" s="433"/>
+      <c r="G43" s="433"/>
+      <c r="H43" s="431"/>
+      <c r="I43" s="432"/>
+      <c r="J43" s="433"/>
+      <c r="K43" s="434"/>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="428"/>
-      <c r="B44" s="429"/>
-      <c r="C44" s="430"/>
-      <c r="D44" s="431"/>
-      <c r="E44" s="431"/>
-      <c r="F44" s="431"/>
-      <c r="G44" s="431"/>
-      <c r="H44" s="429"/>
-      <c r="I44" s="430"/>
-      <c r="J44" s="431"/>
-      <c r="K44" s="432"/>
+      <c r="A44" s="430"/>
+      <c r="B44" s="431"/>
+      <c r="C44" s="432"/>
+      <c r="D44" s="433"/>
+      <c r="E44" s="433"/>
+      <c r="F44" s="433"/>
+      <c r="G44" s="433"/>
+      <c r="H44" s="431"/>
+      <c r="I44" s="432"/>
+      <c r="J44" s="433"/>
+      <c r="K44" s="434"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="428"/>
-      <c r="B45" s="429"/>
-      <c r="C45" s="430"/>
-      <c r="D45" s="431"/>
-      <c r="E45" s="431"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="431"/>
-      <c r="H45" s="429"/>
-      <c r="I45" s="430"/>
-      <c r="J45" s="431"/>
-      <c r="K45" s="432"/>
+      <c r="A45" s="430"/>
+      <c r="B45" s="431"/>
+      <c r="C45" s="432"/>
+      <c r="D45" s="433"/>
+      <c r="E45" s="433"/>
+      <c r="F45" s="433"/>
+      <c r="G45" s="433"/>
+      <c r="H45" s="431"/>
+      <c r="I45" s="432"/>
+      <c r="J45" s="433"/>
+      <c r="K45" s="434"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="428"/>
-      <c r="B46" s="429"/>
-      <c r="C46" s="430"/>
-      <c r="D46" s="431"/>
-      <c r="E46" s="431"/>
-      <c r="F46" s="431"/>
-      <c r="G46" s="431"/>
-      <c r="H46" s="429"/>
-      <c r="I46" s="430"/>
-      <c r="J46" s="431"/>
-      <c r="K46" s="432"/>
+      <c r="A46" s="430"/>
+      <c r="B46" s="431"/>
+      <c r="C46" s="432"/>
+      <c r="D46" s="433"/>
+      <c r="E46" s="433"/>
+      <c r="F46" s="433"/>
+      <c r="G46" s="433"/>
+      <c r="H46" s="431"/>
+      <c r="I46" s="432"/>
+      <c r="J46" s="433"/>
+      <c r="K46" s="434"/>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="428"/>
-      <c r="B47" s="429"/>
-      <c r="C47" s="430"/>
-      <c r="D47" s="431"/>
-      <c r="E47" s="431"/>
-      <c r="F47" s="431"/>
-      <c r="G47" s="431"/>
-      <c r="H47" s="429"/>
-      <c r="I47" s="430"/>
-      <c r="J47" s="431"/>
-      <c r="K47" s="432"/>
+      <c r="A47" s="430"/>
+      <c r="B47" s="431"/>
+      <c r="C47" s="432"/>
+      <c r="D47" s="433"/>
+      <c r="E47" s="433"/>
+      <c r="F47" s="433"/>
+      <c r="G47" s="433"/>
+      <c r="H47" s="431"/>
+      <c r="I47" s="432"/>
+      <c r="J47" s="433"/>
+      <c r="K47" s="434"/>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="428"/>
-      <c r="B48" s="429"/>
-      <c r="C48" s="430"/>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
-      <c r="F48" s="431"/>
-      <c r="G48" s="431"/>
-      <c r="H48" s="429"/>
-      <c r="I48" s="430"/>
-      <c r="J48" s="431"/>
-      <c r="K48" s="432"/>
+      <c r="A48" s="430"/>
+      <c r="B48" s="431"/>
+      <c r="C48" s="432"/>
+      <c r="D48" s="433"/>
+      <c r="E48" s="433"/>
+      <c r="F48" s="433"/>
+      <c r="G48" s="433"/>
+      <c r="H48" s="431"/>
+      <c r="I48" s="432"/>
+      <c r="J48" s="433"/>
+      <c r="K48" s="434"/>
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
@@ -12452,30 +12570,30 @@
       <c r="H49" s="266"/>
       <c r="I49" s="266"/>
       <c r="J49" s="266"/>
-      <c r="K49" s="319"/>
+      <c r="K49" s="321"/>
     </row>
     <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
         <v>189</v>
       </c>
       <c r="B50" s="270"/>
-      <c r="C50" s="350"/>
-      <c r="D50" s="351"/>
-      <c r="E50" s="351"/>
-      <c r="F50" s="352"/>
-      <c r="G50" s="433" t="s">
+      <c r="C50" s="352"/>
+      <c r="D50" s="353"/>
+      <c r="E50" s="353"/>
+      <c r="F50" s="354"/>
+      <c r="G50" s="435" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="434"/>
-      <c r="I50" s="350"/>
-      <c r="J50" s="351"/>
-      <c r="K50" s="352"/>
-      <c r="L50" s="435"/>
-      <c r="M50" s="435"/>
+      <c r="H50" s="436"/>
+      <c r="I50" s="352"/>
+      <c r="J50" s="353"/>
+      <c r="K50" s="354"/>
+      <c r="L50" s="437"/>
+      <c r="M50" s="437"/>
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="436" t="s">
-        <v>388</v>
+      <c r="K51" s="438" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12600,1194 +12718,1194 @@
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="437"/>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="438"/>
-      <c r="K1" s="438"/>
-      <c r="L1" s="438"/>
-      <c r="M1" s="439"/>
+      <c r="A1" s="439"/>
+      <c r="B1" s="440"/>
+      <c r="C1" s="440"/>
+      <c r="D1" s="440"/>
+      <c r="E1" s="440"/>
+      <c r="F1" s="440"/>
+      <c r="G1" s="440"/>
+      <c r="H1" s="440"/>
+      <c r="I1" s="440"/>
+      <c r="J1" s="440"/>
+      <c r="K1" s="440"/>
+      <c r="L1" s="440"/>
+      <c r="M1" s="441"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="440" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="441"/>
-      <c r="C2" s="442" t="s">
-        <v>390</v>
-      </c>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="447"/>
+      <c r="A2" s="442" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="443"/>
+      <c r="C2" s="444" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="446"/>
+      <c r="H2" s="446"/>
+      <c r="I2" s="447"/>
+      <c r="J2" s="447"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="449"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="448"/>
-      <c r="B3" s="449"/>
-      <c r="C3" s="450" t="s">
-        <v>391</v>
-      </c>
-      <c r="D3" s="450"/>
-      <c r="E3" s="450"/>
-      <c r="F3" s="451"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="454"/>
-      <c r="L3" s="454"/>
-      <c r="M3" s="455"/>
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="452" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="454"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="455"/>
+      <c r="K3" s="456"/>
+      <c r="L3" s="456"/>
+      <c r="M3" s="457"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="448"/>
-      <c r="B4" s="449"/>
-      <c r="C4" s="450" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="450"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="451"/>
+      <c r="A4" s="450"/>
+      <c r="B4" s="451"/>
+      <c r="C4" s="452" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452"/>
+      <c r="F4" s="453"/>
       <c r="G4" s="282"/>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
       <c r="J4" s="282"/>
       <c r="K4" s="282"/>
       <c r="L4" s="282"/>
-      <c r="M4" s="376"/>
+      <c r="M4" s="378"/>
     </row>
     <row r="5" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="448"/>
-      <c r="B5" s="449"/>
-      <c r="C5" s="450"/>
-      <c r="D5" s="450"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="456"/>
-      <c r="H5" s="456"/>
-      <c r="I5" s="456"/>
-      <c r="J5" s="456"/>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
-      <c r="M5" s="376"/>
+      <c r="A5" s="450"/>
+      <c r="B5" s="451"/>
+      <c r="C5" s="452"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="452"/>
+      <c r="F5" s="453"/>
+      <c r="G5" s="458"/>
+      <c r="H5" s="458"/>
+      <c r="I5" s="458"/>
+      <c r="J5" s="458"/>
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="378"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
-      <c r="B6" s="449"/>
-      <c r="C6" s="450" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="450"/>
-      <c r="E6" s="450"/>
-      <c r="F6" s="451"/>
+      <c r="A6" s="450"/>
+      <c r="B6" s="451"/>
+      <c r="C6" s="452" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="452"/>
+      <c r="E6" s="452"/>
+      <c r="F6" s="453"/>
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
-      <c r="I6" s="457"/>
-      <c r="J6" s="457"/>
-      <c r="K6" s="457"/>
-      <c r="L6" s="457"/>
-      <c r="M6" s="376"/>
+      <c r="I6" s="459"/>
+      <c r="J6" s="459"/>
+      <c r="K6" s="459"/>
+      <c r="L6" s="459"/>
+      <c r="M6" s="378"/>
     </row>
     <row r="7" ht="3" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="448"/>
-      <c r="B7" s="449"/>
-      <c r="C7" s="450"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="451"/>
+      <c r="A7" s="450"/>
+      <c r="B7" s="451"/>
+      <c r="C7" s="452"/>
+      <c r="D7" s="452"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="453"/>
       <c r="G7" s="282"/>
       <c r="H7" s="282"/>
-      <c r="I7" s="457"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="457"/>
-      <c r="L7" s="457"/>
-      <c r="M7" s="376"/>
+      <c r="I7" s="459"/>
+      <c r="J7" s="459"/>
+      <c r="K7" s="459"/>
+      <c r="L7" s="459"/>
+      <c r="M7" s="378"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="448"/>
-      <c r="B8" s="449"/>
-      <c r="C8" s="450" t="s">
-        <v>394</v>
-      </c>
-      <c r="D8" s="450"/>
-      <c r="E8" s="450"/>
-      <c r="F8" s="451"/>
+      <c r="A8" s="450"/>
+      <c r="B8" s="451"/>
+      <c r="C8" s="452" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="453"/>
       <c r="G8" s="282"/>
       <c r="H8" s="282"/>
       <c r="I8" s="282"/>
       <c r="J8" s="282"/>
       <c r="K8" s="282"/>
       <c r="L8" s="282"/>
-      <c r="M8" s="458"/>
+      <c r="M8" s="460"/>
     </row>
     <row r="9" ht="3.75" customHeight="1" hidden="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448"/>
-      <c r="B9" s="449"/>
-      <c r="C9" s="450"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="450"/>
-      <c r="F9" s="451"/>
+      <c r="A9" s="450"/>
+      <c r="B9" s="451"/>
+      <c r="C9" s="452"/>
+      <c r="D9" s="452"/>
+      <c r="E9" s="452"/>
+      <c r="F9" s="453"/>
       <c r="G9" s="282"/>
       <c r="H9" s="282"/>
       <c r="I9" s="282"/>
       <c r="J9" s="282"/>
       <c r="K9" s="282"/>
       <c r="L9" s="282"/>
-      <c r="M9" s="458"/>
+      <c r="M9" s="460"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
-      <c r="B10" s="449"/>
-      <c r="C10" s="450"/>
-      <c r="D10" s="450"/>
-      <c r="E10" s="450"/>
-      <c r="F10" s="451"/>
-      <c r="G10" s="456" t="s">
-        <v>395</v>
-      </c>
-      <c r="H10" s="456"/>
-      <c r="I10" s="456"/>
-      <c r="J10" s="456"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="456"/>
-      <c r="M10" s="459"/>
+      <c r="A10" s="450"/>
+      <c r="B10" s="451"/>
+      <c r="C10" s="452"/>
+      <c r="D10" s="452"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="458" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="458"/>
+      <c r="I10" s="458"/>
+      <c r="J10" s="458"/>
+      <c r="K10" s="458"/>
+      <c r="L10" s="458"/>
+      <c r="M10" s="461"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="448"/>
-      <c r="B11" s="449"/>
-      <c r="C11" s="450"/>
-      <c r="D11" s="450"/>
-      <c r="E11" s="450"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="461"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="462"/>
-      <c r="K11" s="462"/>
-      <c r="L11" s="462"/>
-      <c r="M11" s="459"/>
+      <c r="A11" s="450"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
+      <c r="D11" s="452"/>
+      <c r="E11" s="452"/>
+      <c r="F11" s="453"/>
+      <c r="G11" s="462"/>
+      <c r="H11" s="463"/>
+      <c r="I11" s="464"/>
+      <c r="J11" s="464"/>
+      <c r="K11" s="464"/>
+      <c r="L11" s="464"/>
+      <c r="M11" s="461"/>
     </row>
     <row r="12" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="463"/>
-      <c r="B12" s="464"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="461"/>
-      <c r="H12" s="461"/>
-      <c r="I12" s="467"/>
-      <c r="J12" s="467"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="468"/>
+      <c r="A12" s="465"/>
+      <c r="B12" s="466"/>
+      <c r="C12" s="467"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="467"/>
+      <c r="F12" s="468"/>
+      <c r="G12" s="463"/>
+      <c r="H12" s="463"/>
+      <c r="I12" s="469"/>
+      <c r="J12" s="469"/>
+      <c r="K12" s="469"/>
+      <c r="L12" s="469"/>
+      <c r="M12" s="470"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="469" t="s">
-        <v>396</v>
-      </c>
-      <c r="B13" s="470"/>
-      <c r="C13" s="471" t="s">
-        <v>397</v>
-      </c>
-      <c r="D13" s="471"/>
+      <c r="A13" s="471" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="472"/>
+      <c r="C13" s="473" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="473"/>
       <c r="E13" s="282"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="472"/>
-      <c r="H13" s="472"/>
-      <c r="I13" s="472"/>
-      <c r="J13" s="472"/>
-      <c r="K13" s="472"/>
-      <c r="L13" s="472"/>
-      <c r="M13" s="473"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="474"/>
+      <c r="H13" s="474"/>
+      <c r="I13" s="474"/>
+      <c r="J13" s="474"/>
+      <c r="K13" s="474"/>
+      <c r="L13" s="474"/>
+      <c r="M13" s="475"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="474"/>
-      <c r="B14" s="475"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471"/>
+      <c r="A14" s="476"/>
+      <c r="B14" s="477"/>
+      <c r="C14" s="473"/>
+      <c r="D14" s="473"/>
       <c r="E14" s="282"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="476" t="s">
-        <v>395</v>
-      </c>
-      <c r="H14" s="456"/>
-      <c r="I14" s="456"/>
-      <c r="J14" s="456"/>
-      <c r="K14" s="456"/>
-      <c r="L14" s="456"/>
-      <c r="M14" s="477"/>
+      <c r="F14" s="400"/>
+      <c r="G14" s="478" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="458"/>
+      <c r="I14" s="458"/>
+      <c r="J14" s="458"/>
+      <c r="K14" s="458"/>
+      <c r="L14" s="458"/>
+      <c r="M14" s="479"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="474"/>
-      <c r="B15" s="475"/>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
+      <c r="A15" s="476"/>
+      <c r="B15" s="477"/>
+      <c r="C15" s="473"/>
+      <c r="D15" s="473"/>
       <c r="E15" s="282"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="452"/>
-      <c r="H15" s="478"/>
-      <c r="I15" s="479"/>
-      <c r="J15" s="479"/>
-      <c r="K15" s="479"/>
-      <c r="L15" s="479"/>
-      <c r="M15" s="477"/>
+      <c r="F15" s="400"/>
+      <c r="G15" s="454"/>
+      <c r="H15" s="480"/>
+      <c r="I15" s="481"/>
+      <c r="J15" s="481"/>
+      <c r="K15" s="481"/>
+      <c r="L15" s="481"/>
+      <c r="M15" s="479"/>
     </row>
     <row r="16" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="474"/>
-      <c r="B16" s="475"/>
+      <c r="A16" s="476"/>
+      <c r="B16" s="477"/>
       <c r="C16" s="282"/>
       <c r="D16" s="282"/>
       <c r="E16" s="282"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="480"/>
-      <c r="H16" s="481"/>
-      <c r="I16" s="482"/>
-      <c r="J16" s="482"/>
-      <c r="K16" s="482"/>
-      <c r="L16" s="482"/>
-      <c r="M16" s="483"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="482"/>
+      <c r="H16" s="483"/>
+      <c r="I16" s="484"/>
+      <c r="J16" s="484"/>
+      <c r="K16" s="484"/>
+      <c r="L16" s="484"/>
+      <c r="M16" s="485"/>
     </row>
     <row r="17" ht="6.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="484"/>
-      <c r="B17" s="485"/>
-      <c r="C17" s="486"/>
-      <c r="D17" s="486"/>
-      <c r="E17" s="487"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="490"/>
-      <c r="I17" s="490"/>
-      <c r="J17" s="490"/>
-      <c r="K17" s="490"/>
-      <c r="L17" s="490"/>
-      <c r="M17" s="491"/>
+      <c r="A17" s="486"/>
+      <c r="B17" s="487"/>
+      <c r="C17" s="488"/>
+      <c r="D17" s="488"/>
+      <c r="E17" s="489"/>
+      <c r="F17" s="490"/>
+      <c r="G17" s="491"/>
+      <c r="H17" s="492"/>
+      <c r="I17" s="492"/>
+      <c r="J17" s="492"/>
+      <c r="K17" s="492"/>
+      <c r="L17" s="492"/>
+      <c r="M17" s="493"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="484"/>
-      <c r="B18" s="485"/>
-      <c r="C18" s="492" t="s">
-        <v>398</v>
-      </c>
-      <c r="D18" s="492"/>
-      <c r="E18" s="493"/>
-      <c r="F18" s="494"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
-      <c r="J18" s="495"/>
-      <c r="K18" s="495"/>
-      <c r="L18" s="495"/>
-      <c r="M18" s="496"/>
+      <c r="A18" s="486"/>
+      <c r="B18" s="487"/>
+      <c r="C18" s="494" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" s="494"/>
+      <c r="E18" s="495"/>
+      <c r="F18" s="496"/>
+      <c r="G18" s="497"/>
+      <c r="H18" s="497"/>
+      <c r="I18" s="497"/>
+      <c r="J18" s="497"/>
+      <c r="K18" s="497"/>
+      <c r="L18" s="497"/>
+      <c r="M18" s="498"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="484"/>
-      <c r="B19" s="485"/>
-      <c r="C19" s="492"/>
-      <c r="D19" s="492"/>
-      <c r="E19" s="493"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="476" t="s">
-        <v>395</v>
-      </c>
-      <c r="H19" s="456"/>
-      <c r="I19" s="456"/>
-      <c r="J19" s="456"/>
-      <c r="K19" s="456"/>
-      <c r="L19" s="456"/>
-      <c r="M19" s="496"/>
+      <c r="A19" s="486"/>
+      <c r="B19" s="487"/>
+      <c r="C19" s="494"/>
+      <c r="D19" s="494"/>
+      <c r="E19" s="495"/>
+      <c r="F19" s="496"/>
+      <c r="G19" s="478" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="458"/>
+      <c r="I19" s="458"/>
+      <c r="J19" s="458"/>
+      <c r="K19" s="458"/>
+      <c r="L19" s="458"/>
+      <c r="M19" s="498"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="484"/>
-      <c r="B20" s="485"/>
-      <c r="C20" s="492"/>
-      <c r="D20" s="492"/>
-      <c r="E20" s="493"/>
-      <c r="F20" s="494"/>
-      <c r="G20" s="495"/>
-      <c r="H20" s="497" t="s">
-        <v>399</v>
-      </c>
-      <c r="I20" s="497"/>
-      <c r="J20" s="498"/>
-      <c r="K20" s="499"/>
-      <c r="L20" s="500"/>
-      <c r="M20" s="496"/>
+      <c r="A20" s="486"/>
+      <c r="B20" s="487"/>
+      <c r="C20" s="494"/>
+      <c r="D20" s="494"/>
+      <c r="E20" s="495"/>
+      <c r="F20" s="496"/>
+      <c r="G20" s="497"/>
+      <c r="H20" s="499" t="s">
+        <v>405</v>
+      </c>
+      <c r="I20" s="499"/>
+      <c r="J20" s="500"/>
+      <c r="K20" s="501"/>
+      <c r="L20" s="502"/>
+      <c r="M20" s="498"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="484"/>
-      <c r="B21" s="485"/>
-      <c r="C21" s="492"/>
-      <c r="D21" s="492"/>
-      <c r="E21" s="493"/>
-      <c r="F21" s="494"/>
-      <c r="G21" s="501" t="s">
-        <v>400</v>
-      </c>
-      <c r="H21" s="502"/>
-      <c r="I21" s="502"/>
-      <c r="J21" s="498"/>
-      <c r="K21" s="503"/>
-      <c r="L21" s="500"/>
-      <c r="M21" s="496"/>
+      <c r="A21" s="486"/>
+      <c r="B21" s="487"/>
+      <c r="C21" s="494"/>
+      <c r="D21" s="494"/>
+      <c r="E21" s="495"/>
+      <c r="F21" s="496"/>
+      <c r="G21" s="503" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="504"/>
+      <c r="I21" s="504"/>
+      <c r="J21" s="500"/>
+      <c r="K21" s="505"/>
+      <c r="L21" s="502"/>
+      <c r="M21" s="498"/>
     </row>
     <row r="22" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="504"/>
-      <c r="B22" s="505"/>
-      <c r="C22" s="506"/>
-      <c r="D22" s="506"/>
-      <c r="E22" s="506"/>
-      <c r="F22" s="507"/>
-      <c r="G22" s="480" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="481"/>
-      <c r="I22" s="508"/>
-      <c r="J22" s="508"/>
-      <c r="K22" s="508"/>
-      <c r="L22" s="509"/>
-      <c r="M22" s="483"/>
+      <c r="A22" s="506"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="508"/>
+      <c r="D22" s="508"/>
+      <c r="E22" s="508"/>
+      <c r="F22" s="509"/>
+      <c r="G22" s="482" t="s">
+        <v>407</v>
+      </c>
+      <c r="H22" s="483"/>
+      <c r="I22" s="510"/>
+      <c r="J22" s="510"/>
+      <c r="K22" s="510"/>
+      <c r="L22" s="511"/>
+      <c r="M22" s="485"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B23" s="195"/>
-      <c r="C23" s="510" t="s">
-        <v>403</v>
-      </c>
-      <c r="D23" s="510"/>
-      <c r="E23" s="510"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="472"/>
-      <c r="H23" s="472"/>
-      <c r="I23" s="472"/>
-      <c r="J23" s="472"/>
-      <c r="K23" s="472"/>
-      <c r="L23" s="472"/>
-      <c r="M23" s="473"/>
+      <c r="C23" s="512" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="512"/>
+      <c r="E23" s="512"/>
+      <c r="F23" s="513"/>
+      <c r="G23" s="474"/>
+      <c r="H23" s="474"/>
+      <c r="I23" s="474"/>
+      <c r="J23" s="474"/>
+      <c r="K23" s="474"/>
+      <c r="L23" s="474"/>
+      <c r="M23" s="475"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="474"/>
-      <c r="B24" s="475"/>
-      <c r="C24" s="512"/>
-      <c r="D24" s="512"/>
-      <c r="E24" s="512"/>
-      <c r="F24" s="513"/>
-      <c r="G24" s="476" t="s">
-        <v>395</v>
-      </c>
-      <c r="H24" s="456"/>
-      <c r="I24" s="456"/>
-      <c r="J24" s="456"/>
-      <c r="K24" s="456"/>
-      <c r="L24" s="456"/>
-      <c r="M24" s="514"/>
+      <c r="A24" s="476"/>
+      <c r="B24" s="477"/>
+      <c r="C24" s="514"/>
+      <c r="D24" s="514"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="515"/>
+      <c r="G24" s="478" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="458"/>
+      <c r="I24" s="458"/>
+      <c r="J24" s="458"/>
+      <c r="K24" s="458"/>
+      <c r="L24" s="458"/>
+      <c r="M24" s="516"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="474"/>
-      <c r="B25" s="475"/>
-      <c r="C25" s="512"/>
-      <c r="D25" s="512"/>
-      <c r="E25" s="512"/>
-      <c r="F25" s="513"/>
-      <c r="G25" s="515"/>
-      <c r="H25" s="481"/>
-      <c r="I25" s="516"/>
-      <c r="J25" s="516"/>
-      <c r="K25" s="516"/>
-      <c r="L25" s="516"/>
-      <c r="M25" s="514"/>
+      <c r="A25" s="476"/>
+      <c r="B25" s="477"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="514"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="515"/>
+      <c r="G25" s="517"/>
+      <c r="H25" s="483"/>
+      <c r="I25" s="518"/>
+      <c r="J25" s="518"/>
+      <c r="K25" s="518"/>
+      <c r="L25" s="518"/>
+      <c r="M25" s="516"/>
     </row>
     <row r="26" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="517"/>
-      <c r="B26" s="518"/>
-      <c r="C26" s="519"/>
-      <c r="D26" s="519"/>
-      <c r="E26" s="519"/>
-      <c r="F26" s="520"/>
-      <c r="G26" s="480"/>
-      <c r="H26" s="481"/>
-      <c r="I26" s="482"/>
-      <c r="J26" s="482"/>
-      <c r="K26" s="482"/>
-      <c r="L26" s="482"/>
-      <c r="M26" s="483"/>
+      <c r="A26" s="519"/>
+      <c r="B26" s="520"/>
+      <c r="C26" s="521"/>
+      <c r="D26" s="521"/>
+      <c r="E26" s="521"/>
+      <c r="F26" s="522"/>
+      <c r="G26" s="482"/>
+      <c r="H26" s="483"/>
+      <c r="I26" s="484"/>
+      <c r="J26" s="484"/>
+      <c r="K26" s="484"/>
+      <c r="L26" s="484"/>
+      <c r="M26" s="485"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B27" s="195"/>
-      <c r="C27" s="510" t="s">
-        <v>405</v>
-      </c>
-      <c r="D27" s="510"/>
-      <c r="E27" s="510"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="472"/>
-      <c r="H27" s="472"/>
-      <c r="I27" s="472"/>
-      <c r="J27" s="472"/>
-      <c r="K27" s="472"/>
-      <c r="L27" s="472"/>
-      <c r="M27" s="473"/>
+      <c r="C27" s="512" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="512"/>
+      <c r="E27" s="512"/>
+      <c r="F27" s="513"/>
+      <c r="G27" s="474"/>
+      <c r="H27" s="474"/>
+      <c r="I27" s="474"/>
+      <c r="J27" s="474"/>
+      <c r="K27" s="474"/>
+      <c r="L27" s="474"/>
+      <c r="M27" s="475"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="474"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="512"/>
-      <c r="D28" s="512"/>
-      <c r="E28" s="512"/>
-      <c r="F28" s="513"/>
-      <c r="G28" s="476" t="s">
-        <v>395</v>
-      </c>
-      <c r="H28" s="456"/>
-      <c r="I28" s="456"/>
-      <c r="J28" s="456"/>
-      <c r="K28" s="456"/>
-      <c r="L28" s="456"/>
-      <c r="M28" s="376"/>
+      <c r="A28" s="476"/>
+      <c r="B28" s="477"/>
+      <c r="C28" s="514"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="514"/>
+      <c r="F28" s="515"/>
+      <c r="G28" s="478" t="s">
+        <v>401</v>
+      </c>
+      <c r="H28" s="458"/>
+      <c r="I28" s="458"/>
+      <c r="J28" s="458"/>
+      <c r="K28" s="458"/>
+      <c r="L28" s="458"/>
+      <c r="M28" s="378"/>
     </row>
     <row r="29" ht="11.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="474"/>
-      <c r="B29" s="475"/>
-      <c r="C29" s="512"/>
-      <c r="D29" s="512"/>
-      <c r="E29" s="512"/>
-      <c r="F29" s="513"/>
+      <c r="A29" s="476"/>
+      <c r="B29" s="477"/>
+      <c r="C29" s="514"/>
+      <c r="D29" s="514"/>
+      <c r="E29" s="514"/>
+      <c r="F29" s="515"/>
       <c r="G29" s="282"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="516"/>
-      <c r="J29" s="516"/>
-      <c r="K29" s="516"/>
-      <c r="L29" s="516"/>
-      <c r="M29" s="514"/>
+      <c r="I29" s="518"/>
+      <c r="J29" s="518"/>
+      <c r="K29" s="518"/>
+      <c r="L29" s="518"/>
+      <c r="M29" s="516"/>
     </row>
     <row r="30" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="517"/>
-      <c r="B30" s="518"/>
-      <c r="C30" s="519"/>
-      <c r="D30" s="519"/>
-      <c r="E30" s="519"/>
-      <c r="F30" s="520"/>
-      <c r="G30" s="521"/>
-      <c r="H30" s="522"/>
+      <c r="A30" s="519"/>
+      <c r="B30" s="520"/>
+      <c r="C30" s="521"/>
+      <c r="D30" s="521"/>
+      <c r="E30" s="521"/>
+      <c r="F30" s="522"/>
+      <c r="G30" s="523"/>
+      <c r="H30" s="524"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
-      <c r="M30" s="483"/>
+      <c r="M30" s="485"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B31" s="195"/>
-      <c r="C31" s="510" t="s">
-        <v>407</v>
-      </c>
-      <c r="D31" s="510"/>
-      <c r="E31" s="510"/>
-      <c r="F31" s="511"/>
-      <c r="G31" s="472"/>
-      <c r="H31" s="472"/>
-      <c r="I31" s="472"/>
-      <c r="J31" s="472"/>
-      <c r="K31" s="472"/>
-      <c r="L31" s="472"/>
-      <c r="M31" s="473"/>
+      <c r="C31" s="512" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="512"/>
+      <c r="E31" s="512"/>
+      <c r="F31" s="513"/>
+      <c r="G31" s="474"/>
+      <c r="H31" s="474"/>
+      <c r="I31" s="474"/>
+      <c r="J31" s="474"/>
+      <c r="K31" s="474"/>
+      <c r="L31" s="474"/>
+      <c r="M31" s="475"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="474"/>
-      <c r="B32" s="475"/>
-      <c r="C32" s="512"/>
-      <c r="D32" s="512"/>
-      <c r="E32" s="512"/>
-      <c r="F32" s="513"/>
-      <c r="G32" s="523" t="s">
-        <v>408</v>
-      </c>
-      <c r="H32" s="524"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="524"/>
-      <c r="K32" s="525"/>
-      <c r="L32" s="525"/>
-      <c r="M32" s="514"/>
+      <c r="A32" s="476"/>
+      <c r="B32" s="477"/>
+      <c r="C32" s="514"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="514"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="525" t="s">
+        <v>414</v>
+      </c>
+      <c r="H32" s="526"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="526"/>
+      <c r="K32" s="527"/>
+      <c r="L32" s="527"/>
+      <c r="M32" s="516"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="474"/>
-      <c r="B33" s="475"/>
-      <c r="C33" s="512"/>
-      <c r="D33" s="512"/>
-      <c r="E33" s="512"/>
-      <c r="F33" s="513"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="527"/>
-      <c r="I33" s="528"/>
-      <c r="J33" s="528"/>
-      <c r="K33" s="529"/>
-      <c r="L33" s="529"/>
-      <c r="M33" s="514"/>
+      <c r="A33" s="476"/>
+      <c r="B33" s="477"/>
+      <c r="C33" s="514"/>
+      <c r="D33" s="514"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="515"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="529"/>
+      <c r="I33" s="530"/>
+      <c r="J33" s="530"/>
+      <c r="K33" s="531"/>
+      <c r="L33" s="531"/>
+      <c r="M33" s="516"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="474"/>
-      <c r="B34" s="475"/>
-      <c r="C34" s="512" t="s">
-        <v>409</v>
-      </c>
-      <c r="D34" s="512"/>
-      <c r="E34" s="512"/>
-      <c r="F34" s="513"/>
-      <c r="G34" s="515"/>
-      <c r="H34" s="530"/>
-      <c r="I34" s="531"/>
-      <c r="J34" s="531"/>
-      <c r="K34" s="531"/>
-      <c r="L34" s="531"/>
-      <c r="M34" s="514"/>
+      <c r="A34" s="476"/>
+      <c r="B34" s="477"/>
+      <c r="C34" s="514" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="514"/>
+      <c r="E34" s="514"/>
+      <c r="F34" s="515"/>
+      <c r="G34" s="517"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="533"/>
+      <c r="J34" s="533"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="533"/>
+      <c r="M34" s="516"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="474"/>
-      <c r="B35" s="475"/>
-      <c r="C35" s="512"/>
-      <c r="D35" s="512"/>
-      <c r="E35" s="512"/>
-      <c r="F35" s="513"/>
-      <c r="G35" s="523" t="s">
-        <v>408</v>
-      </c>
-      <c r="H35" s="524"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="524"/>
-      <c r="K35" s="525"/>
-      <c r="L35" s="525"/>
-      <c r="M35" s="514"/>
+      <c r="A35" s="476"/>
+      <c r="B35" s="477"/>
+      <c r="C35" s="514"/>
+      <c r="D35" s="514"/>
+      <c r="E35" s="514"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="525" t="s">
+        <v>414</v>
+      </c>
+      <c r="H35" s="526"/>
+      <c r="I35" s="526"/>
+      <c r="J35" s="526"/>
+      <c r="K35" s="527"/>
+      <c r="L35" s="527"/>
+      <c r="M35" s="516"/>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="517"/>
-      <c r="B36" s="518"/>
-      <c r="C36" s="519"/>
-      <c r="D36" s="519"/>
-      <c r="E36" s="519"/>
-      <c r="F36" s="520"/>
-      <c r="G36" s="526"/>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="528"/>
+      <c r="A36" s="519"/>
+      <c r="B36" s="520"/>
+      <c r="C36" s="521"/>
+      <c r="D36" s="521"/>
+      <c r="E36" s="521"/>
+      <c r="F36" s="522"/>
+      <c r="G36" s="528"/>
+      <c r="H36" s="529"/>
+      <c r="I36" s="530"/>
+      <c r="J36" s="530"/>
       <c r="K36" s="282"/>
-      <c r="L36" s="532"/>
-      <c r="M36" s="483"/>
+      <c r="L36" s="534"/>
+      <c r="M36" s="485"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B37" s="195"/>
-      <c r="C37" s="533" t="s">
-        <v>411</v>
-      </c>
-      <c r="D37" s="533"/>
-      <c r="E37" s="533"/>
-      <c r="F37" s="534"/>
-      <c r="G37" s="472"/>
-      <c r="H37" s="472"/>
-      <c r="I37" s="472"/>
-      <c r="J37" s="472"/>
-      <c r="K37" s="472"/>
-      <c r="L37" s="472"/>
-      <c r="M37" s="473"/>
+      <c r="C37" s="535" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="535"/>
+      <c r="E37" s="535"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="474"/>
+      <c r="H37" s="474"/>
+      <c r="I37" s="474"/>
+      <c r="J37" s="474"/>
+      <c r="K37" s="474"/>
+      <c r="L37" s="474"/>
+      <c r="M37" s="475"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="474"/>
-      <c r="B38" s="475"/>
-      <c r="C38" s="471"/>
-      <c r="D38" s="471"/>
-      <c r="E38" s="471"/>
-      <c r="F38" s="535"/>
-      <c r="G38" s="476" t="s">
-        <v>412</v>
-      </c>
-      <c r="H38" s="456"/>
-      <c r="I38" s="456"/>
-      <c r="J38" s="456"/>
-      <c r="K38" s="456"/>
-      <c r="L38" s="456"/>
-      <c r="M38" s="536"/>
+      <c r="A38" s="476"/>
+      <c r="B38" s="477"/>
+      <c r="C38" s="473"/>
+      <c r="D38" s="473"/>
+      <c r="E38" s="473"/>
+      <c r="F38" s="537"/>
+      <c r="G38" s="478" t="s">
+        <v>418</v>
+      </c>
+      <c r="H38" s="458"/>
+      <c r="I38" s="458"/>
+      <c r="J38" s="458"/>
+      <c r="K38" s="458"/>
+      <c r="L38" s="458"/>
+      <c r="M38" s="538"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="474"/>
-      <c r="B39" s="475"/>
-      <c r="C39" s="471"/>
-      <c r="D39" s="471"/>
-      <c r="E39" s="471"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="515"/>
-      <c r="H39" s="481"/>
-      <c r="I39" s="516"/>
-      <c r="J39" s="516"/>
-      <c r="K39" s="516"/>
-      <c r="L39" s="516"/>
-      <c r="M39" s="514"/>
+      <c r="A39" s="476"/>
+      <c r="B39" s="477"/>
+      <c r="C39" s="473"/>
+      <c r="D39" s="473"/>
+      <c r="E39" s="473"/>
+      <c r="F39" s="537"/>
+      <c r="G39" s="517"/>
+      <c r="H39" s="483"/>
+      <c r="I39" s="518"/>
+      <c r="J39" s="518"/>
+      <c r="K39" s="518"/>
+      <c r="L39" s="518"/>
+      <c r="M39" s="516"/>
     </row>
     <row r="40" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="517"/>
-      <c r="B40" s="518"/>
-      <c r="C40" s="537"/>
-      <c r="D40" s="537"/>
-      <c r="E40" s="537"/>
-      <c r="F40" s="538"/>
-      <c r="G40" s="480"/>
-      <c r="H40" s="481"/>
-      <c r="I40" s="482"/>
-      <c r="J40" s="482"/>
-      <c r="K40" s="482"/>
-      <c r="L40" s="482"/>
-      <c r="M40" s="483"/>
+      <c r="A40" s="519"/>
+      <c r="B40" s="520"/>
+      <c r="C40" s="539"/>
+      <c r="D40" s="539"/>
+      <c r="E40" s="539"/>
+      <c r="F40" s="540"/>
+      <c r="G40" s="482"/>
+      <c r="H40" s="483"/>
+      <c r="I40" s="484"/>
+      <c r="J40" s="484"/>
+      <c r="K40" s="484"/>
+      <c r="L40" s="484"/>
+      <c r="M40" s="485"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="539" t="s">
-        <v>413</v>
-      </c>
-      <c r="B41" s="540"/>
-      <c r="C41" s="512" t="s">
-        <v>414</v>
-      </c>
-      <c r="D41" s="512"/>
-      <c r="E41" s="512"/>
-      <c r="F41" s="513"/>
-      <c r="G41" s="472"/>
-      <c r="H41" s="472"/>
-      <c r="I41" s="541"/>
-      <c r="J41" s="541"/>
-      <c r="K41" s="542"/>
-      <c r="L41" s="542"/>
-      <c r="M41" s="543"/>
+      <c r="A41" s="541" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="542"/>
+      <c r="C41" s="514" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="514"/>
+      <c r="E41" s="514"/>
+      <c r="F41" s="515"/>
+      <c r="G41" s="474"/>
+      <c r="H41" s="474"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="543"/>
+      <c r="K41" s="544"/>
+      <c r="L41" s="544"/>
+      <c r="M41" s="545"/>
     </row>
     <row r="42" ht="0.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="544"/>
-      <c r="B42" s="545"/>
-      <c r="C42" s="512"/>
-      <c r="D42" s="512"/>
-      <c r="E42" s="512"/>
-      <c r="F42" s="513"/>
-      <c r="G42" s="546"/>
-      <c r="H42" s="546"/>
-      <c r="I42" s="546"/>
-      <c r="J42" s="546"/>
-      <c r="K42" s="546"/>
-      <c r="L42" s="546"/>
-      <c r="M42" s="547"/>
+      <c r="A42" s="546"/>
+      <c r="B42" s="547"/>
+      <c r="C42" s="514"/>
+      <c r="D42" s="514"/>
+      <c r="E42" s="514"/>
+      <c r="F42" s="515"/>
+      <c r="G42" s="548"/>
+      <c r="H42" s="548"/>
+      <c r="I42" s="548"/>
+      <c r="J42" s="548"/>
+      <c r="K42" s="548"/>
+      <c r="L42" s="548"/>
+      <c r="M42" s="549"/>
       <c r="N42" s="282"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="544" t="s">
-        <v>415</v>
-      </c>
-      <c r="B43" s="545"/>
-      <c r="C43" s="512" t="s">
-        <v>416</v>
-      </c>
-      <c r="D43" s="512"/>
-      <c r="E43" s="512"/>
-      <c r="F43" s="513"/>
+      <c r="A43" s="546" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="547"/>
+      <c r="C43" s="514" t="s">
+        <v>422</v>
+      </c>
+      <c r="D43" s="514"/>
+      <c r="E43" s="514"/>
+      <c r="F43" s="515"/>
       <c r="G43" s="282"/>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
       <c r="J43" s="282"/>
       <c r="K43" s="282"/>
       <c r="L43" s="282"/>
-      <c r="M43" s="376"/>
+      <c r="M43" s="378"/>
       <c r="N43" s="282"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="544"/>
-      <c r="B44" s="545"/>
-      <c r="C44" s="512"/>
-      <c r="D44" s="512"/>
-      <c r="E44" s="512"/>
-      <c r="F44" s="513"/>
-      <c r="G44" s="548" t="s">
-        <v>417</v>
-      </c>
-      <c r="H44" s="549"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="528"/>
+      <c r="A44" s="546"/>
+      <c r="B44" s="547"/>
+      <c r="C44" s="514"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="514"/>
+      <c r="F44" s="515"/>
+      <c r="G44" s="550" t="s">
+        <v>423</v>
+      </c>
+      <c r="H44" s="551"/>
+      <c r="I44" s="530"/>
+      <c r="J44" s="530"/>
       <c r="K44" s="282"/>
-      <c r="L44" s="532"/>
-      <c r="M44" s="550"/>
-      <c r="N44" s="527"/>
+      <c r="L44" s="534"/>
+      <c r="M44" s="552"/>
+      <c r="N44" s="529"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="544" t="s">
-        <v>418</v>
-      </c>
-      <c r="B45" s="545"/>
-      <c r="C45" s="513" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" s="513"/>
-      <c r="E45" s="513"/>
-      <c r="F45" s="513"/>
+      <c r="A45" s="546" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" s="547"/>
+      <c r="C45" s="515" t="s">
+        <v>425</v>
+      </c>
+      <c r="D45" s="515"/>
+      <c r="E45" s="515"/>
+      <c r="F45" s="515"/>
       <c r="G45" s="282"/>
       <c r="H45" s="282"/>
       <c r="I45" s="282"/>
       <c r="J45" s="282"/>
       <c r="K45" s="282"/>
       <c r="L45" s="282"/>
-      <c r="M45" s="376"/>
+      <c r="M45" s="378"/>
       <c r="N45" s="282"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="544"/>
-      <c r="B46" s="545"/>
-      <c r="C46" s="513"/>
-      <c r="D46" s="513"/>
-      <c r="E46" s="513"/>
-      <c r="F46" s="513"/>
-      <c r="G46" s="551" t="s">
-        <v>420</v>
-      </c>
-      <c r="H46" s="552"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="528"/>
-      <c r="K46" s="528"/>
-      <c r="L46" s="532"/>
-      <c r="M46" s="550"/>
-      <c r="N46" s="527"/>
+      <c r="A46" s="546"/>
+      <c r="B46" s="547"/>
+      <c r="C46" s="515"/>
+      <c r="D46" s="515"/>
+      <c r="E46" s="515"/>
+      <c r="F46" s="515"/>
+      <c r="G46" s="553" t="s">
+        <v>426</v>
+      </c>
+      <c r="H46" s="554"/>
+      <c r="I46" s="530"/>
+      <c r="J46" s="530"/>
+      <c r="K46" s="530"/>
+      <c r="L46" s="534"/>
+      <c r="M46" s="552"/>
+      <c r="N46" s="529"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="544" t="s">
-        <v>421</v>
-      </c>
-      <c r="B47" s="545"/>
-      <c r="C47" s="512" t="s">
-        <v>422</v>
-      </c>
-      <c r="D47" s="512"/>
-      <c r="E47" s="553"/>
-      <c r="F47" s="554"/>
+      <c r="A47" s="546" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" s="547"/>
+      <c r="C47" s="514" t="s">
+        <v>428</v>
+      </c>
+      <c r="D47" s="514"/>
+      <c r="E47" s="555"/>
+      <c r="F47" s="556"/>
       <c r="G47" s="282"/>
       <c r="H47" s="282"/>
       <c r="I47" s="282"/>
       <c r="J47" s="282"/>
       <c r="K47" s="282"/>
       <c r="L47" s="282"/>
-      <c r="M47" s="376"/>
+      <c r="M47" s="378"/>
       <c r="N47" s="282"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="555"/>
-      <c r="B48" s="556"/>
-      <c r="C48" s="556"/>
-      <c r="D48" s="556"/>
-      <c r="E48" s="556"/>
-      <c r="F48" s="557"/>
-      <c r="G48" s="558" t="s">
-        <v>420</v>
-      </c>
-      <c r="H48" s="559"/>
-      <c r="I48" s="560"/>
-      <c r="J48" s="560"/>
-      <c r="K48" s="560"/>
-      <c r="L48" s="532"/>
-      <c r="M48" s="561"/>
-      <c r="N48" s="527"/>
+      <c r="A48" s="557"/>
+      <c r="B48" s="558"/>
+      <c r="C48" s="558"/>
+      <c r="D48" s="558"/>
+      <c r="E48" s="558"/>
+      <c r="F48" s="559"/>
+      <c r="G48" s="560" t="s">
+        <v>426</v>
+      </c>
+      <c r="H48" s="561"/>
+      <c r="I48" s="562"/>
+      <c r="J48" s="562"/>
+      <c r="K48" s="562"/>
+      <c r="L48" s="534"/>
+      <c r="M48" s="563"/>
+      <c r="N48" s="529"/>
     </row>
     <row r="49" ht="6.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="562"/>
-      <c r="B49" s="563"/>
-      <c r="C49" s="563"/>
-      <c r="D49" s="563"/>
-      <c r="E49" s="563"/>
-      <c r="F49" s="564"/>
-      <c r="G49" s="565"/>
-      <c r="H49" s="566"/>
-      <c r="I49" s="566"/>
-      <c r="J49" s="566"/>
-      <c r="K49" s="566"/>
-      <c r="L49" s="566"/>
-      <c r="M49" s="567"/>
-      <c r="N49" s="527"/>
+      <c r="A49" s="564"/>
+      <c r="B49" s="565"/>
+      <c r="C49" s="565"/>
+      <c r="D49" s="565"/>
+      <c r="E49" s="565"/>
+      <c r="F49" s="566"/>
+      <c r="G49" s="567"/>
+      <c r="H49" s="568"/>
+      <c r="I49" s="568"/>
+      <c r="J49" s="568"/>
+      <c r="K49" s="568"/>
+      <c r="L49" s="568"/>
+      <c r="M49" s="569"/>
+      <c r="N49" s="529"/>
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="568" t="s">
-        <v>423</v>
-      </c>
-      <c r="B50" s="569"/>
-      <c r="C50" s="570" t="s">
-        <v>424</v>
-      </c>
-      <c r="D50" s="570"/>
-      <c r="E50" s="570"/>
-      <c r="F50" s="570"/>
-      <c r="G50" s="570"/>
-      <c r="H50" s="570"/>
-      <c r="I50" s="571"/>
-      <c r="J50" s="572"/>
-      <c r="K50" s="573"/>
-      <c r="L50" s="573"/>
-      <c r="M50" s="574"/>
+      <c r="A50" s="570" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="571"/>
+      <c r="C50" s="572" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="572"/>
+      <c r="E50" s="572"/>
+      <c r="F50" s="572"/>
+      <c r="G50" s="572"/>
+      <c r="H50" s="572"/>
+      <c r="I50" s="573"/>
+      <c r="J50" s="574"/>
+      <c r="K50" s="575"/>
+      <c r="L50" s="575"/>
+      <c r="M50" s="576"/>
       <c r="N50" s="282"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="575" t="s">
-        <v>425</v>
-      </c>
-      <c r="B51" s="576"/>
-      <c r="C51" s="576"/>
-      <c r="D51" s="576"/>
-      <c r="E51" s="577"/>
+      <c r="A51" s="577" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51" s="578"/>
+      <c r="C51" s="578"/>
+      <c r="D51" s="578"/>
+      <c r="E51" s="579"/>
       <c r="F51" s="294" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="578" t="s">
-        <v>427</v>
-      </c>
-      <c r="H51" s="424"/>
-      <c r="I51" s="427"/>
-      <c r="J51" s="579"/>
-      <c r="K51" s="580"/>
-      <c r="L51" s="580"/>
-      <c r="M51" s="581"/>
+        <v>432</v>
+      </c>
+      <c r="G51" s="580" t="s">
+        <v>433</v>
+      </c>
+      <c r="H51" s="426"/>
+      <c r="I51" s="429"/>
+      <c r="J51" s="581"/>
+      <c r="K51" s="582"/>
+      <c r="L51" s="582"/>
+      <c r="M51" s="583"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="582"/>
-      <c r="B52" s="583"/>
-      <c r="C52" s="584"/>
-      <c r="D52" s="584"/>
-      <c r="E52" s="585"/>
-      <c r="F52" s="586"/>
-      <c r="G52" s="587"/>
-      <c r="H52" s="588"/>
-      <c r="I52" s="589"/>
-      <c r="J52" s="579"/>
-      <c r="K52" s="580"/>
-      <c r="L52" s="580"/>
-      <c r="M52" s="581"/>
+      <c r="A52" s="584"/>
+      <c r="B52" s="585"/>
+      <c r="C52" s="586"/>
+      <c r="D52" s="586"/>
+      <c r="E52" s="587"/>
+      <c r="F52" s="588"/>
+      <c r="G52" s="589"/>
+      <c r="H52" s="590"/>
+      <c r="I52" s="591"/>
+      <c r="J52" s="581"/>
+      <c r="K52" s="582"/>
+      <c r="L52" s="582"/>
+      <c r="M52" s="583"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="582"/>
-      <c r="B53" s="583"/>
-      <c r="C53" s="583"/>
-      <c r="D53" s="583"/>
-      <c r="E53" s="590"/>
-      <c r="F53" s="586"/>
-      <c r="G53" s="587"/>
-      <c r="H53" s="588"/>
-      <c r="I53" s="589"/>
-      <c r="J53" s="579"/>
-      <c r="K53" s="580"/>
-      <c r="L53" s="580"/>
-      <c r="M53" s="581"/>
+      <c r="A53" s="584"/>
+      <c r="B53" s="585"/>
+      <c r="C53" s="585"/>
+      <c r="D53" s="585"/>
+      <c r="E53" s="592"/>
+      <c r="F53" s="588"/>
+      <c r="G53" s="589"/>
+      <c r="H53" s="590"/>
+      <c r="I53" s="591"/>
+      <c r="J53" s="581"/>
+      <c r="K53" s="582"/>
+      <c r="L53" s="582"/>
+      <c r="M53" s="583"/>
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="591"/>
-      <c r="B54" s="592"/>
-      <c r="C54" s="593"/>
-      <c r="D54" s="593"/>
-      <c r="E54" s="594"/>
-      <c r="F54" s="595"/>
-      <c r="G54" s="596"/>
-      <c r="H54" s="597"/>
-      <c r="I54" s="598"/>
-      <c r="J54" s="579"/>
-      <c r="K54" s="580"/>
-      <c r="L54" s="580"/>
-      <c r="M54" s="581"/>
+      <c r="A54" s="593"/>
+      <c r="B54" s="594"/>
+      <c r="C54" s="595"/>
+      <c r="D54" s="595"/>
+      <c r="E54" s="596"/>
+      <c r="F54" s="597"/>
+      <c r="G54" s="598"/>
+      <c r="H54" s="599"/>
+      <c r="I54" s="600"/>
+      <c r="J54" s="581"/>
+      <c r="K54" s="582"/>
+      <c r="L54" s="582"/>
+      <c r="M54" s="583"/>
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="440" t="s">
-        <v>428</v>
-      </c>
-      <c r="B55" s="441"/>
-      <c r="C55" s="599" t="s">
-        <v>429</v>
-      </c>
-      <c r="D55" s="599"/>
-      <c r="E55" s="599"/>
-      <c r="F55" s="599"/>
-      <c r="G55" s="599"/>
-      <c r="H55" s="599"/>
-      <c r="I55" s="600"/>
-      <c r="J55" s="580"/>
-      <c r="K55" s="580"/>
-      <c r="L55" s="580"/>
-      <c r="M55" s="581"/>
+      <c r="A55" s="442" t="s">
+        <v>434</v>
+      </c>
+      <c r="B55" s="443"/>
+      <c r="C55" s="601" t="s">
+        <v>435</v>
+      </c>
+      <c r="D55" s="601"/>
+      <c r="E55" s="601"/>
+      <c r="F55" s="601"/>
+      <c r="G55" s="601"/>
+      <c r="H55" s="601"/>
+      <c r="I55" s="602"/>
+      <c r="J55" s="582"/>
+      <c r="K55" s="582"/>
+      <c r="L55" s="582"/>
+      <c r="M55" s="583"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="601"/>
-      <c r="B56" s="602"/>
-      <c r="C56" s="603"/>
-      <c r="D56" s="603"/>
-      <c r="E56" s="603"/>
-      <c r="F56" s="603"/>
-      <c r="G56" s="603"/>
-      <c r="H56" s="603"/>
-      <c r="I56" s="604"/>
-      <c r="J56" s="605"/>
-      <c r="K56" s="606" t="s">
-        <v>430</v>
-      </c>
-      <c r="L56" s="606"/>
-      <c r="M56" s="607"/>
+      <c r="A56" s="603"/>
+      <c r="B56" s="604"/>
+      <c r="C56" s="605"/>
+      <c r="D56" s="605"/>
+      <c r="E56" s="605"/>
+      <c r="F56" s="605"/>
+      <c r="G56" s="605"/>
+      <c r="H56" s="605"/>
+      <c r="I56" s="606"/>
+      <c r="J56" s="607"/>
+      <c r="K56" s="608" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" s="608"/>
+      <c r="M56" s="609"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="601"/>
-      <c r="B57" s="602"/>
-      <c r="C57" s="603"/>
-      <c r="D57" s="603"/>
-      <c r="E57" s="603"/>
-      <c r="F57" s="603"/>
-      <c r="G57" s="603"/>
-      <c r="H57" s="603"/>
-      <c r="I57" s="604"/>
-      <c r="J57" s="606"/>
-      <c r="K57" s="606"/>
-      <c r="L57" s="606"/>
-      <c r="M57" s="608"/>
+      <c r="A57" s="603"/>
+      <c r="B57" s="604"/>
+      <c r="C57" s="605"/>
+      <c r="D57" s="605"/>
+      <c r="E57" s="605"/>
+      <c r="F57" s="605"/>
+      <c r="G57" s="605"/>
+      <c r="H57" s="605"/>
+      <c r="I57" s="606"/>
+      <c r="J57" s="608"/>
+      <c r="K57" s="608"/>
+      <c r="L57" s="608"/>
+      <c r="M57" s="610"/>
     </row>
     <row r="58" ht="7.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="609"/>
-      <c r="B58" s="610"/>
-      <c r="C58" s="611"/>
-      <c r="D58" s="611"/>
-      <c r="E58" s="611"/>
-      <c r="F58" s="611"/>
-      <c r="G58" s="611"/>
-      <c r="H58" s="611"/>
-      <c r="I58" s="612"/>
+      <c r="A58" s="611"/>
+      <c r="B58" s="612"/>
+      <c r="C58" s="613"/>
+      <c r="D58" s="613"/>
+      <c r="E58" s="613"/>
+      <c r="F58" s="613"/>
+      <c r="G58" s="613"/>
+      <c r="H58" s="613"/>
+      <c r="I58" s="614"/>
       <c r="J58" s="282"/>
-      <c r="K58" s="613"/>
-      <c r="L58" s="614"/>
-      <c r="M58" s="376"/>
+      <c r="K58" s="615"/>
+      <c r="L58" s="616"/>
+      <c r="M58" s="378"/>
     </row>
     <row r="59" ht="8.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="615"/>
+      <c r="A59" s="617"/>
       <c r="B59" s="282"/>
-      <c r="C59" s="454"/>
-      <c r="D59" s="454"/>
-      <c r="E59" s="454"/>
-      <c r="F59" s="454"/>
-      <c r="G59" s="454"/>
-      <c r="H59" s="454"/>
-      <c r="I59" s="454"/>
+      <c r="C59" s="456"/>
+      <c r="D59" s="456"/>
+      <c r="E59" s="456"/>
+      <c r="F59" s="456"/>
+      <c r="G59" s="456"/>
+      <c r="H59" s="456"/>
+      <c r="I59" s="456"/>
       <c r="J59" s="282"/>
-      <c r="K59" s="616"/>
-      <c r="L59" s="617"/>
-      <c r="M59" s="376"/>
+      <c r="K59" s="618"/>
+      <c r="L59" s="619"/>
+      <c r="M59" s="378"/>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="618"/>
-      <c r="B60" s="619" t="s">
-        <v>431</v>
-      </c>
-      <c r="C60" s="620"/>
-      <c r="D60" s="621"/>
+      <c r="A60" s="620"/>
+      <c r="B60" s="621" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" s="622"/>
+      <c r="D60" s="623"/>
       <c r="E60" s="282"/>
-      <c r="F60" s="622"/>
-      <c r="G60" s="623"/>
-      <c r="H60" s="623"/>
-      <c r="I60" s="624"/>
+      <c r="F60" s="624"/>
+      <c r="G60" s="625"/>
+      <c r="H60" s="625"/>
+      <c r="I60" s="626"/>
       <c r="J60" s="282"/>
-      <c r="K60" s="616"/>
-      <c r="L60" s="617"/>
-      <c r="M60" s="625"/>
+      <c r="K60" s="618"/>
+      <c r="L60" s="619"/>
+      <c r="M60" s="627"/>
     </row>
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="618"/>
-      <c r="B61" s="626" t="s">
-        <v>432</v>
-      </c>
-      <c r="C61" s="627"/>
-      <c r="D61" s="628"/>
+      <c r="A61" s="620"/>
+      <c r="B61" s="628" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="629"/>
+      <c r="D61" s="630"/>
       <c r="E61" s="282"/>
-      <c r="F61" s="629"/>
-      <c r="G61" s="630"/>
-      <c r="H61" s="630"/>
-      <c r="I61" s="631"/>
+      <c r="F61" s="631"/>
+      <c r="G61" s="632"/>
+      <c r="H61" s="632"/>
+      <c r="I61" s="633"/>
       <c r="J61" s="282"/>
-      <c r="K61" s="616"/>
-      <c r="L61" s="617"/>
-      <c r="M61" s="625"/>
+      <c r="K61" s="618"/>
+      <c r="L61" s="619"/>
+      <c r="M61" s="627"/>
     </row>
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="618"/>
-      <c r="B62" s="632" t="s">
-        <v>433</v>
-      </c>
-      <c r="C62" s="633"/>
-      <c r="D62" s="634"/>
+      <c r="A62" s="620"/>
+      <c r="B62" s="634" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="635"/>
+      <c r="D62" s="636"/>
       <c r="E62" s="282"/>
-      <c r="F62" s="635"/>
-      <c r="G62" s="636"/>
-      <c r="H62" s="636"/>
-      <c r="I62" s="637"/>
+      <c r="F62" s="637"/>
+      <c r="G62" s="638"/>
+      <c r="H62" s="638"/>
+      <c r="I62" s="639"/>
       <c r="J62" s="282"/>
-      <c r="K62" s="616"/>
-      <c r="L62" s="617"/>
-      <c r="M62" s="625"/>
+      <c r="K62" s="618"/>
+      <c r="L62" s="619"/>
+      <c r="M62" s="627"/>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="618"/>
-      <c r="B63" s="638"/>
-      <c r="C63" s="639"/>
-      <c r="D63" s="640"/>
+      <c r="A63" s="620"/>
+      <c r="B63" s="640"/>
+      <c r="C63" s="641"/>
+      <c r="D63" s="642"/>
       <c r="E63" s="282"/>
-      <c r="F63" s="641" t="s">
-        <v>434</v>
-      </c>
-      <c r="G63" s="642"/>
-      <c r="H63" s="642"/>
-      <c r="I63" s="643"/>
+      <c r="F63" s="643" t="s">
+        <v>440</v>
+      </c>
+      <c r="G63" s="644"/>
+      <c r="H63" s="644"/>
+      <c r="I63" s="645"/>
       <c r="J63" s="282"/>
-      <c r="K63" s="616"/>
-      <c r="L63" s="617"/>
-      <c r="M63" s="625"/>
+      <c r="K63" s="618"/>
+      <c r="L63" s="619"/>
+      <c r="M63" s="627"/>
     </row>
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="618"/>
-      <c r="B64" s="632" t="s">
-        <v>435</v>
-      </c>
-      <c r="C64" s="633"/>
-      <c r="D64" s="634"/>
+      <c r="A64" s="620"/>
+      <c r="B64" s="634" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="635"/>
+      <c r="D64" s="636"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="644"/>
+      <c r="F64" s="646"/>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
-      <c r="J64" s="645"/>
-      <c r="K64" s="646"/>
-      <c r="L64" s="647"/>
-      <c r="M64" s="625"/>
+      <c r="J64" s="647"/>
+      <c r="K64" s="648"/>
+      <c r="L64" s="649"/>
+      <c r="M64" s="627"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="618"/>
-      <c r="B65" s="648"/>
-      <c r="C65" s="649"/>
-      <c r="D65" s="650"/>
+      <c r="A65" s="620"/>
+      <c r="B65" s="650"/>
+      <c r="C65" s="651"/>
+      <c r="D65" s="652"/>
       <c r="E65" s="282"/>
-      <c r="F65" s="651" t="s">
-        <v>436</v>
-      </c>
-      <c r="G65" s="652"/>
-      <c r="H65" s="652"/>
-      <c r="I65" s="653"/>
-      <c r="J65" s="645"/>
-      <c r="K65" s="654" t="s">
-        <v>437</v>
-      </c>
-      <c r="L65" s="655"/>
-      <c r="M65" s="625"/>
+      <c r="F65" s="653" t="s">
+        <v>442</v>
+      </c>
+      <c r="G65" s="654"/>
+      <c r="H65" s="654"/>
+      <c r="I65" s="655"/>
+      <c r="J65" s="647"/>
+      <c r="K65" s="656" t="s">
+        <v>443</v>
+      </c>
+      <c r="L65" s="657"/>
+      <c r="M65" s="627"/>
     </row>
     <row r="66" ht="8.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="648"/>
-      <c r="B66" s="649"/>
-      <c r="C66" s="656"/>
-      <c r="D66" s="656"/>
-      <c r="E66" s="657"/>
-      <c r="F66" s="656"/>
-      <c r="G66" s="656"/>
-      <c r="H66" s="656"/>
-      <c r="I66" s="656"/>
-      <c r="J66" s="649"/>
-      <c r="K66" s="658"/>
-      <c r="L66" s="658"/>
-      <c r="M66" s="659"/>
+      <c r="A66" s="650"/>
+      <c r="B66" s="651"/>
+      <c r="C66" s="658"/>
+      <c r="D66" s="658"/>
+      <c r="E66" s="659"/>
+      <c r="F66" s="658"/>
+      <c r="G66" s="658"/>
+      <c r="H66" s="658"/>
+      <c r="I66" s="658"/>
+      <c r="J66" s="651"/>
+      <c r="K66" s="660"/>
+      <c r="L66" s="660"/>
+      <c r="M66" s="661"/>
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="660" t="s">
-        <v>438</v>
-      </c>
-      <c r="B67" s="661"/>
-      <c r="C67" s="661"/>
-      <c r="D67" s="661"/>
-      <c r="E67" s="661"/>
-      <c r="F67" s="661"/>
-      <c r="G67" s="661"/>
-      <c r="H67" s="661"/>
-      <c r="I67" s="661"/>
-      <c r="J67" s="661"/>
-      <c r="K67" s="661"/>
-      <c r="L67" s="661"/>
-      <c r="M67" s="662"/>
+      <c r="A67" s="662" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="663"/>
+      <c r="C67" s="663"/>
+      <c r="D67" s="663"/>
+      <c r="E67" s="663"/>
+      <c r="F67" s="663"/>
+      <c r="G67" s="663"/>
+      <c r="H67" s="663"/>
+      <c r="I67" s="663"/>
+      <c r="J67" s="663"/>
+      <c r="K67" s="663"/>
+      <c r="L67" s="663"/>
+      <c r="M67" s="664"/>
     </row>
     <row r="68" ht="53.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="618"/>
-      <c r="B68" s="645"/>
-      <c r="C68" s="663"/>
-      <c r="D68" s="663"/>
-      <c r="E68" s="664"/>
-      <c r="F68" s="665"/>
-      <c r="G68" s="665"/>
-      <c r="H68" s="665"/>
-      <c r="I68" s="666"/>
-      <c r="J68" s="667"/>
-      <c r="K68" s="667"/>
+      <c r="A68" s="620"/>
+      <c r="B68" s="647"/>
+      <c r="C68" s="665"/>
+      <c r="D68" s="665"/>
+      <c r="E68" s="666"/>
+      <c r="F68" s="667"/>
+      <c r="G68" s="667"/>
+      <c r="H68" s="667"/>
+      <c r="I68" s="668"/>
+      <c r="J68" s="669"/>
+      <c r="K68" s="669"/>
       <c r="L68" s="282"/>
-      <c r="M68" s="625"/>
+      <c r="M68" s="627"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="618"/>
-      <c r="B69" s="645"/>
-      <c r="C69" s="580"/>
-      <c r="D69" s="580"/>
-      <c r="E69" s="668" t="s">
-        <v>439</v>
-      </c>
-      <c r="F69" s="669"/>
-      <c r="G69" s="669"/>
-      <c r="H69" s="669"/>
-      <c r="I69" s="670"/>
-      <c r="J69" s="671"/>
-      <c r="K69" s="672"/>
+      <c r="A69" s="620"/>
+      <c r="B69" s="647"/>
+      <c r="C69" s="582"/>
+      <c r="D69" s="582"/>
+      <c r="E69" s="670" t="s">
+        <v>445</v>
+      </c>
+      <c r="F69" s="671"/>
+      <c r="G69" s="671"/>
+      <c r="H69" s="671"/>
+      <c r="I69" s="672"/>
+      <c r="J69" s="673"/>
+      <c r="K69" s="674"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="625"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="673" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="674"/>
-      <c r="B70" s="675"/>
-      <c r="C70" s="675"/>
-      <c r="D70" s="675"/>
-      <c r="E70" s="675"/>
-      <c r="F70" s="675"/>
-      <c r="G70" s="675"/>
-      <c r="H70" s="675"/>
-      <c r="I70" s="675"/>
-      <c r="J70" s="675"/>
-      <c r="K70" s="675"/>
-      <c r="L70" s="675"/>
-      <c r="M70" s="676"/>
+      <c r="M69" s="627"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="675" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="676"/>
+      <c r="B70" s="677"/>
+      <c r="C70" s="677"/>
+      <c r="D70" s="677"/>
+      <c r="E70" s="677"/>
+      <c r="F70" s="677"/>
+      <c r="G70" s="677"/>
+      <c r="H70" s="677"/>
+      <c r="I70" s="677"/>
+      <c r="J70" s="677"/>
+      <c r="K70" s="677"/>
+      <c r="L70" s="677"/>
+      <c r="M70" s="678"/>
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="677" t="s">
-        <v>440</v>
-      </c>
-      <c r="B71" s="677"/>
-      <c r="C71" s="677"/>
-      <c r="D71" s="677"/>
-      <c r="E71" s="677"/>
-      <c r="F71" s="677"/>
-      <c r="G71" s="677"/>
-      <c r="H71" s="677"/>
-      <c r="I71" s="677"/>
-      <c r="J71" s="677"/>
-      <c r="K71" s="677"/>
-      <c r="L71" s="677"/>
-      <c r="M71" s="677"/>
+      <c r="A71" s="679" t="s">
+        <v>446</v>
+      </c>
+      <c r="B71" s="679"/>
+      <c r="C71" s="679"/>
+      <c r="D71" s="679"/>
+      <c r="E71" s="679"/>
+      <c r="F71" s="679"/>
+      <c r="G71" s="679"/>
+      <c r="H71" s="679"/>
+      <c r="I71" s="679"/>
+      <c r="J71" s="679"/>
+      <c r="K71" s="679"/>
+      <c r="L71" s="679"/>
+      <c r="M71" s="679"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -13900,36 +14018,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="678" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="678" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1" s="678" t="s">
-        <v>443</v>
+      <c r="A1" s="680" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="680" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="680" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -13939,7 +14057,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="432">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -79,7 +79,7 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hassan</t>
+    <t xml:space="preserve"> Hatdog</t>
   </si>
   <si>
     <t/>
@@ -88,10 +88,10 @@
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adnan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> asdasdasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123123</t>
   </si>
   <si>
     <t>Married</t>
@@ -103,7 +103,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> T.</t>
+    <t xml:space="preserve"> t</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -119,13 +119,13 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>2024-08-01</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
-    <t xml:space="preserve">☐ Filipino               ☑ Dual Citizenship
+    <t xml:space="preserve">☑ Filipino               ☐ Dual Citizenship
 </t>
   </si>
   <si>
@@ -135,7 +135,7 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>☑ by birth             ☐ by naturalization</t>
+    <t>☐ by birth             ☐ by naturalization</t>
   </si>
   <si>
     <t>4.</t>
@@ -144,7 +144,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>Datu Piang, Maguindanao</t>
+    <t>Maguindanao</t>
   </si>
   <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
@@ -165,13 +165,10 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>☑ Male                 ☐ Female</t>
+    <t>☐ Male                 ☐ Female</t>
   </si>
   <si>
     <t>please indicate the details.</t>
-  </si>
-  <si>
-    <t>Japan</t>
   </si>
   <si>
     <t>Others</t>
@@ -293,7 +290,7 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>12378123782</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>Bangladesh</t>
@@ -308,9 +305,6 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
-    <t>55875695674</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -323,7 +317,7 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
-    <t>2367465856</t>
+    <t>23423423423</t>
   </si>
   <si>
     <t>Belize</t>
@@ -335,7 +329,7 @@
     <t>SSS NO.</t>
   </si>
   <si>
-    <t>47357835345</t>
+    <t>16584657456</t>
   </si>
   <si>
     <t>19. TELEPHONE NO.</t>
@@ -347,13 +341,13 @@
     <t>14. TIN NO.</t>
   </si>
   <si>
-    <t>346738756634</t>
+    <t>32423423423</t>
   </si>
   <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
-    <t>09460994104</t>
+    <t>99999</t>
   </si>
   <si>
     <t>Bhutan</t>
@@ -383,6 +377,9 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
+    <t xml:space="preserve"> asds</t>
+  </si>
+  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -395,13 +392,13 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>Adnan HASsan</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
+    <t>asd</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -410,12 +407,6 @@
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
-    <t>terst</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brunei </t>
   </si>
   <si>
@@ -449,15 +440,9 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ebrahim</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abdulkadir</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
@@ -477,9 +462,6 @@
   </si>
   <si>
     <t>Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anida</t>
   </si>
   <si>
     <t>Chad</t>
@@ -543,33 +525,12 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
-    <t>Example school</t>
-  </si>
-  <si>
-    <t>2024-09-05</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
     <t>SECONDARY</t>
   </si>
   <si>
-    <t>MRTHS</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -582,42 +543,27 @@
     <t>COLLEGE</t>
   </si>
   <si>
-    <t>PUP - Taguig</t>
-  </si>
-  <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADUATE STUDIES </t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
   <si>
     <t>2024-09-28</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRADUATE STUDIES </t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -742,6 +688,9 @@
   </si>
   <si>
     <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -1118,18 +1067,6 @@
 Validity</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>965789678</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1158,15 +1095,6 @@
   </si>
   <si>
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
@@ -2691,7 +2619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="681">
+  <cellXfs count="679">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3891,24 +3819,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3919,8 +3839,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3931,12 +3851,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4874,6 +4794,55 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5636,15 +5605,15 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="31"/>
       <c r="P16" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="57" t="s">
         <v>44</v>
-      </c>
-      <c r="Q16" s="57" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5652,30 +5621,30 @@
         <v>6</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="92"/>
       <c r="F17" s="92"/>
       <c r="G17" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
       <c r="L17" s="96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="97"/>
       <c r="Q17" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5688,17 +5657,17 @@
       <c r="G18" s="102"/>
       <c r="H18" s="103"/>
       <c r="I18" s="104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
       <c r="L18" s="105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="105"/>
       <c r="N18" s="106"/>
       <c r="Q18" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="5.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5716,12 +5685,12 @@
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="109"/>
       <c r="N19" s="111"/>
       <c r="Q19" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5729,7 +5698,7 @@
       <c r="B20" s="107"/>
       <c r="C20" s="112"/>
       <c r="D20" s="113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
@@ -5742,7 +5711,7 @@
       <c r="M20" s="115"/>
       <c r="N20" s="116"/>
       <c r="Q20" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5755,46 +5724,46 @@
       <c r="G21" s="69"/>
       <c r="H21" s="41"/>
       <c r="I21" s="122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="123"/>
       <c r="K21" s="123"/>
       <c r="L21" s="124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="125"/>
       <c r="N21" s="126"/>
       <c r="Q21" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="127" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="129">
-        <v>3.35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
       <c r="G22" s="69"/>
       <c r="H22" s="41"/>
       <c r="I22" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
       <c r="L22" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" s="96"/>
       <c r="N22" s="97"/>
       <c r="Q22" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="8.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5807,38 +5776,38 @@
       <c r="G23" s="69"/>
       <c r="H23" s="41"/>
       <c r="I23" s="134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="135"/>
       <c r="K23" s="135"/>
       <c r="L23" s="136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M23" s="136"/>
       <c r="N23" s="137"/>
       <c r="Q23" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="138" t="s">
         <v>70</v>
-      </c>
-      <c r="B24" s="138" t="s">
-        <v>71</v>
       </c>
       <c r="C24" s="139"/>
       <c r="D24" s="140">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="E24" s="140"/>
       <c r="F24" s="140"/>
       <c r="G24" s="141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="143" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="144"/>
       <c r="K24" s="144"/>
@@ -5846,38 +5815,38 @@
       <c r="M24" s="144"/>
       <c r="N24" s="145"/>
       <c r="Q24" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="127" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="127" t="s">
-        <v>76</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
       <c r="G25" s="148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="127"/>
       <c r="I25" s="95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M25" s="96"/>
       <c r="N25" s="149"/>
       <c r="Q25" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5890,29 +5859,29 @@
       <c r="G26" s="69"/>
       <c r="H26" s="41"/>
       <c r="I26" s="104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
       <c r="L26" s="105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="105"/>
       <c r="N26" s="106"/>
       <c r="Q26" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="127" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>82</v>
       </c>
       <c r="C27" s="128"/>
       <c r="D27" s="147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="147"/>
       <c r="F27" s="147"/>
@@ -5924,12 +5893,12 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
       <c r="L27" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="96"/>
       <c r="N27" s="149"/>
       <c r="Q27" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5942,29 +5911,29 @@
       <c r="G28" s="102"/>
       <c r="H28" s="103"/>
       <c r="I28" s="151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="152"/>
       <c r="K28" s="152"/>
       <c r="L28" s="153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M28" s="152"/>
       <c r="N28" s="154"/>
       <c r="Q28" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="127" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="127" t="s">
-        <v>87</v>
       </c>
       <c r="C29" s="128"/>
       <c r="D29" s="147" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E29" s="147"/>
       <c r="F29" s="147"/>
@@ -5972,16 +5941,16 @@
       <c r="H29" s="155"/>
       <c r="I29" s="156"/>
       <c r="J29" s="157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="157"/>
       <c r="L29" s="157"/>
       <c r="M29" s="157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N29" s="158"/>
       <c r="Q29" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5994,38 +5963,38 @@
       <c r="G30" s="102"/>
       <c r="H30" s="155"/>
       <c r="I30" s="159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="159"/>
       <c r="K30" s="159"/>
       <c r="L30" s="159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M30" s="159"/>
       <c r="N30" s="160"/>
       <c r="Q30" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="147" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="147"/>
       <c r="F31" s="147"/>
       <c r="G31" s="141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
@@ -6033,24 +6002,24 @@
       <c r="M31" s="124"/>
       <c r="N31" s="161"/>
       <c r="Q31" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="140" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="140"/>
       <c r="G32" s="162" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="138"/>
       <c r="I32" s="143" t="s">
@@ -6062,26 +6031,26 @@
       <c r="M32" s="144"/>
       <c r="N32" s="145"/>
       <c r="Q32" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="162" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="139"/>
       <c r="C33" s="163"/>
       <c r="D33" s="140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="140"/>
       <c r="G33" s="164" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H33" s="165"/>
       <c r="I33" s="143" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J33" s="144"/>
       <c r="K33" s="144"/>
@@ -6089,12 +6058,12 @@
       <c r="M33" s="144"/>
       <c r="N33" s="145"/>
       <c r="Q33" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="166" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" s="99"/>
       <c r="C34" s="167"/>
@@ -6104,11 +6073,11 @@
       <c r="E34" s="147"/>
       <c r="F34" s="147"/>
       <c r="G34" s="148" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H34" s="127"/>
       <c r="I34" s="108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J34" s="168"/>
       <c r="K34" s="168"/>
@@ -6116,12 +6085,12 @@
       <c r="M34" s="168"/>
       <c r="N34" s="169"/>
       <c r="Q34" s="57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" s="171"/>
       <c r="C35" s="171"/>
@@ -6137,46 +6106,46 @@
       <c r="M35" s="171"/>
       <c r="N35" s="172"/>
       <c r="Q35" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="173" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="175" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E36" s="175"/>
       <c r="F36" s="175"/>
       <c r="G36" s="175"/>
       <c r="H36" s="175"/>
       <c r="I36" s="176" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J36" s="176"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
       <c r="M36" s="178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N36" s="179"/>
       <c r="Q36" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="180" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
@@ -6191,48 +6160,44 @@
       <c r="K37" s="184"/>
       <c r="L37" s="185"/>
       <c r="M37" s="186" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="N37" s="187"/>
       <c r="Q37" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
       <c r="B38" s="189" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="190"/>
       <c r="D38" s="180" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
       <c r="G38" s="181"/>
       <c r="H38" s="182"/>
-      <c r="I38" s="184" t="s">
-        <v>122</v>
-      </c>
+      <c r="I38" s="184"/>
       <c r="J38" s="184"/>
       <c r="K38" s="184"/>
       <c r="L38" s="185"/>
-      <c r="M38" s="186" t="s">
-        <v>123</v>
-      </c>
+      <c r="M38" s="186"/>
       <c r="N38" s="187"/>
       <c r="Q38" s="57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="191"/>
       <c r="B39" s="73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="83"/>
       <c r="D39" s="192" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E39" s="192"/>
       <c r="F39" s="192"/>
@@ -6245,17 +6210,17 @@
       <c r="M39" s="186"/>
       <c r="N39" s="187"/>
       <c r="Q39" s="57" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="191"/>
       <c r="B40" s="73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="192" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E40" s="192"/>
       <c r="F40" s="192"/>
@@ -6268,17 +6233,17 @@
       <c r="M40" s="186"/>
       <c r="N40" s="187"/>
       <c r="Q40" s="57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="191"/>
       <c r="B41" s="73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="192" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E41" s="192"/>
       <c r="F41" s="192"/>
@@ -6291,17 +6256,17 @@
       <c r="M41" s="186"/>
       <c r="N41" s="187"/>
       <c r="Q41" s="57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
       <c r="B42" s="94" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C42" s="193"/>
       <c r="D42" s="192" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E42" s="192"/>
       <c r="F42" s="192"/>
@@ -6314,19 +6279,19 @@
       <c r="M42" s="186"/>
       <c r="N42" s="187"/>
       <c r="Q42" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="194" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="195" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="192" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -6339,7 +6304,7 @@
       <c r="M43" s="186"/>
       <c r="N43" s="187"/>
       <c r="Q43" s="57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6349,12 +6314,12 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="180" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182"/>
       <c r="G44" s="183" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H44" s="183"/>
       <c r="I44" s="184"/>
@@ -6364,7 +6329,7 @@
       <c r="M44" s="186"/>
       <c r="N44" s="187"/>
       <c r="Q44" s="57" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6374,7 +6339,7 @@
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="180" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="181"/>
@@ -6387,15 +6352,15 @@
       <c r="M45" s="186"/>
       <c r="N45" s="187"/>
       <c r="Q45" s="57" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" s="127"/>
       <c r="D46" s="127"/>
@@ -6410,7 +6375,7 @@
       <c r="M46" s="186"/>
       <c r="N46" s="187"/>
       <c r="Q46" s="57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6420,7 +6385,7 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="196" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E47" s="196"/>
       <c r="F47" s="196"/>
@@ -6433,7 +6398,7 @@
       <c r="M47" s="186"/>
       <c r="N47" s="187"/>
       <c r="Q47" s="57" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6443,7 +6408,7 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="196" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E48" s="196"/>
       <c r="F48" s="196"/>
@@ -6456,7 +6421,7 @@
       <c r="M48" s="186"/>
       <c r="N48" s="187"/>
       <c r="Q48" s="57" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6466,14 +6431,14 @@
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="198" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E49" s="198"/>
       <c r="F49" s="198"/>
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="199" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J49" s="199"/>
       <c r="K49" s="199"/>
@@ -6481,12 +6446,12 @@
       <c r="M49" s="199"/>
       <c r="N49" s="200"/>
       <c r="Q49" s="57" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B50" s="201"/>
       <c r="C50" s="202"/>
@@ -6496,7 +6461,7 @@
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J50" s="204"/>
       <c r="K50" s="204"/>
@@ -6504,42 +6469,42 @@
       <c r="M50" s="204"/>
       <c r="N50" s="205"/>
       <c r="Q50" s="57" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="206" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" s="207" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C51" s="207"/>
       <c r="D51" s="208" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E51" s="209"/>
       <c r="F51" s="210"/>
       <c r="G51" s="208" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H51" s="209"/>
       <c r="I51" s="211"/>
       <c r="J51" s="212" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K51" s="213"/>
       <c r="L51" s="214" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N51" s="216" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q51" s="57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6558,7 +6523,7 @@
       <c r="M52" s="215"/>
       <c r="N52" s="216"/>
       <c r="Q52" s="57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6572,10 +6537,10 @@
       <c r="H53" s="226"/>
       <c r="I53" s="227"/>
       <c r="J53" s="228" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K53" s="229" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L53" s="230"/>
       <c r="M53" s="231"/>
@@ -6583,83 +6548,69 @@
       <c r="O53" s="233"/>
       <c r="P53" s="233"/>
       <c r="Q53" s="57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C54" s="235"/>
-      <c r="D54" s="236" t="s">
-        <v>166</v>
-      </c>
+      <c r="D54" s="236"/>
       <c r="E54" s="237"/>
       <c r="F54" s="238"/>
-      <c r="G54" s="239" t="s">
-        <v>14</v>
-      </c>
+      <c r="G54" s="239"/>
       <c r="H54" s="240"/>
       <c r="I54" s="241"/>
-      <c r="J54" s="242" t="s">
-        <v>167</v>
-      </c>
-      <c r="K54" s="243" t="s">
-        <v>168</v>
-      </c>
-      <c r="L54" s="244" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="245" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="246" t="s">
-        <v>14</v>
-      </c>
+      <c r="J54" s="242"/>
+      <c r="K54" s="243"/>
+      <c r="L54" s="244"/>
+      <c r="M54" s="245"/>
+      <c r="N54" s="246"/>
       <c r="Q54" s="57" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C55" s="235"/>
       <c r="D55" s="236" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="E55" s="237"/>
       <c r="F55" s="238"/>
       <c r="G55" s="239" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H55" s="240"/>
       <c r="I55" s="241"/>
       <c r="J55" s="242" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="K55" s="247" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="L55" s="248" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="249" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="N55" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="57" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C56" s="235"/>
       <c r="D56" s="236"/>
@@ -6674,48 +6625,34 @@
       <c r="M56" s="245"/>
       <c r="N56" s="246"/>
       <c r="Q56" s="57" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C57" s="235"/>
-      <c r="D57" s="236" t="s">
-        <v>179</v>
-      </c>
+      <c r="D57" s="236"/>
       <c r="E57" s="237"/>
       <c r="F57" s="238"/>
-      <c r="G57" s="250" t="s">
-        <v>180</v>
-      </c>
+      <c r="G57" s="250"/>
       <c r="H57" s="251"/>
       <c r="I57" s="252"/>
-      <c r="J57" s="242" t="s">
-        <v>181</v>
-      </c>
-      <c r="K57" s="247" t="s">
-        <v>182</v>
-      </c>
-      <c r="L57" s="244" t="s">
-        <v>183</v>
-      </c>
-      <c r="M57" s="249" t="s">
-        <v>184</v>
-      </c>
-      <c r="N57" s="246" t="s">
-        <v>14</v>
-      </c>
+      <c r="J57" s="242"/>
+      <c r="K57" s="247"/>
+      <c r="L57" s="244"/>
+      <c r="M57" s="249"/>
+      <c r="N57" s="246"/>
       <c r="Q57" s="57" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="253"/>
       <c r="B58" s="254" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="255"/>
@@ -6730,12 +6667,12 @@
       <c r="M58" s="264"/>
       <c r="N58" s="246"/>
       <c r="Q58" s="57" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="265" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B59" s="266"/>
       <c r="C59" s="266"/>
@@ -6751,12 +6688,12 @@
       <c r="M59" s="266"/>
       <c r="N59" s="267"/>
       <c r="Q59" s="57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" ht="90" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B60" s="269"/>
       <c r="C60" s="270"/>
@@ -6767,23 +6704,23 @@
       <c r="H60" s="272"/>
       <c r="I60" s="273"/>
       <c r="J60" s="274" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6799,7 +6736,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6820,7 +6757,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6839,7 +6776,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6858,7 +6795,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6877,7 +6814,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6896,7 +6833,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6915,7 +6852,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6934,7 +6871,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6953,7 +6890,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6972,7 +6909,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6991,7 +6928,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7010,7 +6947,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7029,7 +6966,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7048,7 +6985,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7067,7 +7004,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7086,7 +7023,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7105,7 +7042,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7124,7 +7061,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7143,7 +7080,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7162,7 +7099,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7181,7 +7118,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7200,7 +7137,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7219,7 +7156,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7238,7 +7175,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7257,7 +7194,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7276,7 +7213,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7295,7 +7232,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7314,7 +7251,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7333,7 +7270,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7352,7 +7289,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7371,7 +7308,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7390,7 +7327,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7409,7 +7346,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7428,7 +7365,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7447,7 +7384,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7466,7 +7403,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7485,7 +7422,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7504,7 +7441,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7523,7 +7460,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7542,7 +7479,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7561,7 +7498,7 @@
       <c r="M101" s="281"/>
       <c r="N101" s="281"/>
       <c r="Q101" s="57" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7580,7 +7517,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7599,7 +7536,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7618,7 +7555,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7637,7 +7574,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7656,7 +7593,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7675,7 +7612,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7694,7 +7631,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7713,7 +7650,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7732,7 +7669,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7751,7 +7688,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7770,7 +7707,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7789,7 +7726,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7808,7 +7745,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7827,7 +7764,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7846,7 +7783,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7865,7 +7802,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7884,7 +7821,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7903,7 +7840,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7922,7 +7859,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7941,7 +7878,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7960,7 +7897,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7979,7 +7916,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7998,7 +7935,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8017,7 +7954,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8036,7 +7973,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8055,7 +7992,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8074,7 +8011,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8093,7 +8030,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8112,7 +8049,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8131,7 +8068,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8150,7 +8087,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8169,7 +8106,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8188,7 +8125,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8207,7 +8144,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8226,7 +8163,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8245,7 +8182,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8264,7 +8201,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8283,7 +8220,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8302,7 +8239,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8321,7 +8258,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8340,7 +8277,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8359,7 +8296,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8378,7 +8315,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8397,7 +8334,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8416,7 +8353,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8435,7 +8372,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8454,7 +8391,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8473,7 +8410,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8492,7 +8429,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8511,7 +8448,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8530,7 +8467,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8549,7 +8486,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8568,7 +8505,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8587,7 +8524,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8606,7 +8543,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8625,7 +8562,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8644,7 +8581,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8663,7 +8600,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8682,7 +8619,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8701,7 +8638,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8720,7 +8657,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8739,7 +8676,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8758,7 +8695,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8777,7 +8714,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8796,7 +8733,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8815,7 +8752,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8834,7 +8771,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8853,7 +8790,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8872,7 +8809,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8891,7 +8828,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8910,7 +8847,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8929,7 +8866,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8948,7 +8885,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8967,7 +8904,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8986,7 +8923,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9005,7 +8942,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9024,7 +8961,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9043,7 +8980,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9062,7 +8999,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9081,7 +9018,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9100,7 +9037,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9119,7 +9056,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9138,7 +9075,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9157,7 +9094,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9176,7 +9113,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9195,7 +9132,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9214,7 +9151,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9233,7 +9170,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9252,7 +9189,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9271,7 +9208,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9290,7 +9227,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9309,7 +9246,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9328,7 +9265,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9347,7 +9284,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9366,7 +9303,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9385,7 +9322,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9404,7 +9341,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9423,7 +9360,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9442,7 +9379,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9461,7 +9398,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9480,7 +9417,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9499,7 +9436,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9518,7 +9455,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9537,7 +9474,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9556,7 +9493,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9575,7 +9512,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9594,7 +9531,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9613,7 +9550,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9632,7 +9569,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9651,7 +9588,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9670,7 +9607,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9689,7 +9626,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9708,7 +9645,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9727,7 +9664,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9746,7 +9683,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10918,7 +10855,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10935,28 +10872,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10973,65 +10910,41 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="303" t="s">
-        <v>357</v>
-      </c>
+      <c r="A5" s="303"/>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
       <c r="D5" s="304"/>
       <c r="E5" s="304"/>
-      <c r="F5" s="305" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="306">
-        <v>45555</v>
-      </c>
+      <c r="F5" s="305"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="306"/>
-      <c r="I5" s="307" t="s">
-        <v>358</v>
-      </c>
+      <c r="I5" s="307"/>
       <c r="J5" s="307"/>
       <c r="K5" s="307"/>
-      <c r="L5" s="308" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5" s="309">
-        <v>45542</v>
-      </c>
+      <c r="L5" s="308"/>
+      <c r="M5" s="309"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
-        <v>358</v>
-      </c>
+      <c r="A6" s="303"/>
       <c r="B6" s="304"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
       <c r="E6" s="304"/>
-      <c r="F6" s="305" t="s">
-        <v>360</v>
-      </c>
-      <c r="G6" s="310" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="305"/>
+      <c r="G6" s="310"/>
       <c r="H6" s="311"/>
-      <c r="I6" s="307" t="s">
-        <v>14</v>
-      </c>
+      <c r="I6" s="307"/>
       <c r="J6" s="307"/>
       <c r="K6" s="307"/>
-      <c r="L6" s="308" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="309" t="s">
-        <v>14</v>
-      </c>
+      <c r="L6" s="308"/>
+      <c r="M6" s="309"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="303"/>
@@ -11110,7 +11023,7 @@
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="319" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B12" s="320"/>
       <c r="C12" s="320"/>
@@ -11127,7 +11040,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11144,7 +11057,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11161,33 +11074,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K15" s="328" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="L15" s="329" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="M15" s="330" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11207,11 +11120,11 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="332" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B17" s="333"/>
       <c r="C17" s="334" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17" s="300"/>
       <c r="E17" s="297"/>
@@ -11225,35 +11138,19 @@
       <c r="M17" s="338"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="340">
-        <v>45548</v>
-      </c>
+      <c r="A18" s="340"/>
       <c r="B18" s="341"/>
-      <c r="C18" s="341">
-        <v>45547</v>
-      </c>
-      <c r="D18" s="304" t="s">
-        <v>358</v>
-      </c>
+      <c r="C18" s="341"/>
+      <c r="D18" s="304"/>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
-      <c r="G18" s="304" t="s">
-        <v>358</v>
-      </c>
+      <c r="G18" s="304"/>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
-      <c r="J18" s="342" t="s">
-        <v>371</v>
-      </c>
-      <c r="K18" s="308" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" s="308" t="s">
-        <v>372</v>
-      </c>
-      <c r="M18" s="343" t="s">
-        <v>373</v>
-      </c>
+      <c r="J18" s="342"/>
+      <c r="K18" s="308"/>
+      <c r="L18" s="308"/>
+      <c r="M18" s="343"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="340"/>
@@ -11662,7 +11559,7 @@
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="348" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B46" s="349"/>
       <c r="C46" s="349"/>
@@ -11679,7 +11576,7 @@
     </row>
     <row r="47" ht="60" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
@@ -11689,11 +11586,11 @@
       <c r="G47" s="353"/>
       <c r="H47" s="354"/>
       <c r="I47" s="355" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J47" s="356"/>
       <c r="K47" s="357" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L47" s="357"/>
       <c r="M47" s="358"/>
@@ -11701,7 +11598,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11868,7 +11765,7 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="282" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="282" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="282" customWidth="1"/>
+    <col min="3" max="3" width="10" style="282" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="282" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="282" customWidth="1"/>
     <col min="6" max="7" width="10.140625" style="282" customWidth="1"/>
@@ -11896,7 +11793,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11911,22 +11808,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11951,10 +11848,10 @@
       <c r="C5" s="380"/>
       <c r="D5" s="381"/>
       <c r="E5" s="333" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F5" s="334" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G5" s="336"/>
       <c r="H5" s="382"/>
@@ -11967,95 +11864,95 @@
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
       <c r="D6" s="244"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="387"/>
-      <c r="I6" s="388"/>
-      <c r="J6" s="388"/>
-      <c r="K6" s="389"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="386"/>
+      <c r="J6" s="386"/>
+      <c r="K6" s="387"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="383"/>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
       <c r="D7" s="244"/>
-      <c r="E7" s="385"/>
-      <c r="F7" s="385"/>
-      <c r="G7" s="386"/>
-      <c r="H7" s="387"/>
-      <c r="I7" s="388"/>
-      <c r="J7" s="388"/>
-      <c r="K7" s="389"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="385"/>
+      <c r="I7" s="386"/>
+      <c r="J7" s="386"/>
+      <c r="K7" s="387"/>
     </row>
     <row r="8" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="383"/>
       <c r="B8" s="384"/>
       <c r="C8" s="384"/>
       <c r="D8" s="244"/>
-      <c r="E8" s="385"/>
-      <c r="F8" s="385"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="387"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="388"/>
-      <c r="K8" s="389"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="385"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="386"/>
+      <c r="K8" s="387"/>
     </row>
     <row r="9" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="383"/>
       <c r="B9" s="384"/>
       <c r="C9" s="384"/>
       <c r="D9" s="244"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="385"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
-      <c r="I9" s="388"/>
-      <c r="J9" s="388"/>
-      <c r="K9" s="389"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="385"/>
+      <c r="I9" s="386"/>
+      <c r="J9" s="386"/>
+      <c r="K9" s="387"/>
     </row>
     <row r="10" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="383"/>
       <c r="B10" s="384"/>
       <c r="C10" s="384"/>
       <c r="D10" s="244"/>
-      <c r="E10" s="385"/>
-      <c r="F10" s="385"/>
-      <c r="G10" s="386"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="388"/>
-      <c r="J10" s="388"/>
-      <c r="K10" s="389"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="385"/>
+      <c r="I10" s="386"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="387"/>
     </row>
     <row r="11" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="383"/>
       <c r="B11" s="384"/>
       <c r="C11" s="384"/>
       <c r="D11" s="244"/>
-      <c r="E11" s="385"/>
-      <c r="F11" s="385"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="389"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="305"/>
+      <c r="H11" s="385"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="387"/>
     </row>
     <row r="12" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="391"/>
-      <c r="D12" s="392"/>
-      <c r="E12" s="385"/>
-      <c r="F12" s="385"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="394"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="395"/>
-      <c r="K12" s="396"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="389"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="390"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="391"/>
+      <c r="H12" s="392"/>
+      <c r="I12" s="393"/>
+      <c r="J12" s="393"/>
+      <c r="K12" s="394"/>
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="319" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="320"/>
       <c r="C13" s="320"/>
@@ -12069,41 +11966,41 @@
       <c r="K13" s="321"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="397" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="398"/>
-      <c r="C14" s="398"/>
-      <c r="D14" s="398"/>
-      <c r="E14" s="398"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="398"/>
-      <c r="H14" s="398"/>
-      <c r="I14" s="398"/>
-      <c r="J14" s="398"/>
-      <c r="K14" s="399"/>
+      <c r="A14" s="395" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="396"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="396"/>
+      <c r="E14" s="396"/>
+      <c r="F14" s="396"/>
+      <c r="G14" s="396"/>
+      <c r="H14" s="396"/>
+      <c r="I14" s="396"/>
+      <c r="J14" s="396"/>
+      <c r="K14" s="397"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C15" s="282"/>
-      <c r="D15" s="400"/>
+      <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12112,7 +12009,7 @@
       <c r="A16" s="374"/>
       <c r="B16" s="282"/>
       <c r="C16" s="282"/>
-      <c r="D16" s="400"/>
+      <c r="D16" s="398"/>
       <c r="E16" s="297"/>
       <c r="F16" s="298"/>
       <c r="G16" s="328"/>
@@ -12125,12 +12022,12 @@
       <c r="A17" s="379"/>
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
-      <c r="D17" s="401"/>
+      <c r="D17" s="399"/>
       <c r="E17" s="333" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F17" s="334" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G17" s="336"/>
       <c r="H17" s="335"/>
@@ -12139,281 +12036,281 @@
       <c r="K17" s="126"/>
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="402"/>
-      <c r="B18" s="403"/>
-      <c r="C18" s="403"/>
-      <c r="D18" s="404"/>
-      <c r="E18" s="405"/>
-      <c r="F18" s="405"/>
-      <c r="G18" s="406"/>
-      <c r="H18" s="407"/>
-      <c r="I18" s="408"/>
-      <c r="J18" s="409"/>
-      <c r="K18" s="410"/>
+      <c r="A18" s="400"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="401"/>
+      <c r="D18" s="402"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="404"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="406"/>
+      <c r="J18" s="407"/>
+      <c r="K18" s="408"/>
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="411"/>
-      <c r="B19" s="412"/>
-      <c r="C19" s="412"/>
-      <c r="D19" s="413"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="405"/>
-      <c r="G19" s="406"/>
-      <c r="H19" s="407"/>
-      <c r="I19" s="408"/>
-      <c r="J19" s="409"/>
-      <c r="K19" s="410"/>
+      <c r="A19" s="409"/>
+      <c r="B19" s="410"/>
+      <c r="C19" s="410"/>
+      <c r="D19" s="411"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="404"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="408"/>
     </row>
     <row r="20" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="411"/>
-      <c r="B20" s="412"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="413"/>
-      <c r="E20" s="405"/>
-      <c r="F20" s="405"/>
-      <c r="G20" s="406"/>
-      <c r="H20" s="407"/>
-      <c r="I20" s="408"/>
-      <c r="J20" s="409"/>
-      <c r="K20" s="410"/>
+      <c r="A20" s="409"/>
+      <c r="B20" s="410"/>
+      <c r="C20" s="410"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="404"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="408"/>
     </row>
     <row r="21" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="411"/>
-      <c r="B21" s="412"/>
-      <c r="C21" s="412"/>
-      <c r="D21" s="413"/>
-      <c r="E21" s="405"/>
-      <c r="F21" s="405"/>
-      <c r="G21" s="406"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="408"/>
-      <c r="J21" s="409"/>
-      <c r="K21" s="410"/>
+      <c r="A21" s="409"/>
+      <c r="B21" s="410"/>
+      <c r="C21" s="410"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
+      <c r="K21" s="408"/>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="411"/>
-      <c r="B22" s="412"/>
-      <c r="C22" s="412"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="405"/>
-      <c r="G22" s="406"/>
-      <c r="H22" s="407"/>
-      <c r="I22" s="408"/>
-      <c r="J22" s="409"/>
-      <c r="K22" s="410"/>
+      <c r="A22" s="409"/>
+      <c r="B22" s="410"/>
+      <c r="C22" s="410"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="404"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
+      <c r="K22" s="408"/>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="411"/>
-      <c r="B23" s="412"/>
-      <c r="C23" s="412"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="405"/>
-      <c r="F23" s="405"/>
-      <c r="G23" s="406"/>
-      <c r="H23" s="407"/>
-      <c r="I23" s="408"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="410"/>
+      <c r="A23" s="409"/>
+      <c r="B23" s="410"/>
+      <c r="C23" s="410"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="404"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
+      <c r="K23" s="408"/>
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="411"/>
-      <c r="B24" s="412"/>
-      <c r="C24" s="412"/>
-      <c r="D24" s="413"/>
-      <c r="E24" s="405"/>
-      <c r="F24" s="405"/>
-      <c r="G24" s="406"/>
-      <c r="H24" s="407"/>
-      <c r="I24" s="408"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="410"/>
+      <c r="A24" s="409"/>
+      <c r="B24" s="410"/>
+      <c r="C24" s="410"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="404"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
+      <c r="K24" s="408"/>
     </row>
     <row r="25" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="411"/>
-      <c r="B25" s="412"/>
-      <c r="C25" s="412"/>
-      <c r="D25" s="413"/>
-      <c r="E25" s="405"/>
-      <c r="F25" s="405"/>
-      <c r="G25" s="406"/>
-      <c r="H25" s="407"/>
-      <c r="I25" s="408"/>
-      <c r="J25" s="409"/>
-      <c r="K25" s="410"/>
+      <c r="A25" s="409"/>
+      <c r="B25" s="410"/>
+      <c r="C25" s="410"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="404"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
+      <c r="K25" s="408"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="402"/>
-      <c r="B26" s="403"/>
-      <c r="C26" s="403"/>
-      <c r="D26" s="404"/>
-      <c r="E26" s="405"/>
-      <c r="F26" s="405"/>
-      <c r="G26" s="406"/>
-      <c r="H26" s="407"/>
-      <c r="I26" s="408"/>
-      <c r="J26" s="409"/>
-      <c r="K26" s="410"/>
+      <c r="A26" s="400"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="401"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="404"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
+      <c r="K26" s="408"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="402"/>
-      <c r="B27" s="403"/>
-      <c r="C27" s="403"/>
-      <c r="D27" s="404"/>
-      <c r="E27" s="405"/>
-      <c r="F27" s="405"/>
-      <c r="G27" s="406"/>
-      <c r="H27" s="407"/>
-      <c r="I27" s="408"/>
-      <c r="J27" s="409"/>
-      <c r="K27" s="410"/>
+      <c r="A27" s="400"/>
+      <c r="B27" s="401"/>
+      <c r="C27" s="401"/>
+      <c r="D27" s="402"/>
+      <c r="E27" s="403"/>
+      <c r="F27" s="403"/>
+      <c r="G27" s="404"/>
+      <c r="H27" s="405"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
+      <c r="K27" s="408"/>
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="402"/>
-      <c r="B28" s="403"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="404"/>
-      <c r="E28" s="405"/>
-      <c r="F28" s="405"/>
-      <c r="G28" s="406"/>
-      <c r="H28" s="407"/>
-      <c r="I28" s="408"/>
-      <c r="J28" s="409"/>
-      <c r="K28" s="410"/>
+      <c r="A28" s="400"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="403"/>
+      <c r="F28" s="403"/>
+      <c r="G28" s="404"/>
+      <c r="H28" s="405"/>
+      <c r="I28" s="406"/>
+      <c r="J28" s="407"/>
+      <c r="K28" s="408"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="402"/>
-      <c r="B29" s="403"/>
-      <c r="C29" s="403"/>
-      <c r="D29" s="404"/>
-      <c r="E29" s="405"/>
-      <c r="F29" s="405"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="409"/>
-      <c r="K29" s="410"/>
+      <c r="A29" s="400"/>
+      <c r="B29" s="401"/>
+      <c r="C29" s="401"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="404"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
+      <c r="K29" s="408"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="402"/>
-      <c r="B30" s="403"/>
-      <c r="C30" s="403"/>
-      <c r="D30" s="404"/>
-      <c r="E30" s="405"/>
-      <c r="F30" s="405"/>
-      <c r="G30" s="406"/>
-      <c r="H30" s="407"/>
-      <c r="I30" s="408"/>
-      <c r="J30" s="409"/>
-      <c r="K30" s="410"/>
+      <c r="A30" s="400"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="401"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="403"/>
+      <c r="F30" s="403"/>
+      <c r="G30" s="404"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
+      <c r="K30" s="408"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="402"/>
-      <c r="B31" s="403"/>
-      <c r="C31" s="403"/>
-      <c r="D31" s="404"/>
-      <c r="E31" s="405"/>
-      <c r="F31" s="405"/>
-      <c r="G31" s="406"/>
-      <c r="H31" s="407"/>
-      <c r="I31" s="408"/>
-      <c r="J31" s="409"/>
-      <c r="K31" s="410"/>
+      <c r="A31" s="400"/>
+      <c r="B31" s="401"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="402"/>
+      <c r="E31" s="403"/>
+      <c r="F31" s="403"/>
+      <c r="G31" s="404"/>
+      <c r="H31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
+      <c r="K31" s="408"/>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="402"/>
-      <c r="B32" s="403"/>
-      <c r="C32" s="403"/>
-      <c r="D32" s="404"/>
-      <c r="E32" s="405"/>
-      <c r="F32" s="405"/>
-      <c r="G32" s="406"/>
-      <c r="H32" s="407"/>
-      <c r="I32" s="408"/>
-      <c r="J32" s="409"/>
-      <c r="K32" s="410"/>
+      <c r="A32" s="400"/>
+      <c r="B32" s="401"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="402"/>
+      <c r="E32" s="403"/>
+      <c r="F32" s="403"/>
+      <c r="G32" s="404"/>
+      <c r="H32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
+      <c r="K32" s="408"/>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="402"/>
-      <c r="B33" s="403"/>
-      <c r="C33" s="403"/>
-      <c r="D33" s="404"/>
-      <c r="E33" s="405"/>
-      <c r="F33" s="405"/>
-      <c r="G33" s="406"/>
-      <c r="H33" s="407"/>
-      <c r="I33" s="408"/>
-      <c r="J33" s="409"/>
-      <c r="K33" s="410"/>
+      <c r="A33" s="400"/>
+      <c r="B33" s="401"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="402"/>
+      <c r="E33" s="403"/>
+      <c r="F33" s="403"/>
+      <c r="G33" s="404"/>
+      <c r="H33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
+      <c r="K33" s="408"/>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="402"/>
-      <c r="B34" s="403"/>
-      <c r="C34" s="403"/>
-      <c r="D34" s="404"/>
-      <c r="E34" s="405"/>
-      <c r="F34" s="405"/>
-      <c r="G34" s="406"/>
-      <c r="H34" s="407"/>
-      <c r="I34" s="408"/>
-      <c r="J34" s="409"/>
-      <c r="K34" s="410"/>
+      <c r="A34" s="400"/>
+      <c r="B34" s="401"/>
+      <c r="C34" s="401"/>
+      <c r="D34" s="402"/>
+      <c r="E34" s="403"/>
+      <c r="F34" s="403"/>
+      <c r="G34" s="404"/>
+      <c r="H34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
+      <c r="K34" s="408"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="402"/>
-      <c r="B35" s="403"/>
-      <c r="C35" s="403"/>
-      <c r="D35" s="404"/>
-      <c r="E35" s="405"/>
-      <c r="F35" s="405"/>
-      <c r="G35" s="406"/>
-      <c r="H35" s="407"/>
-      <c r="I35" s="408"/>
-      <c r="J35" s="409"/>
-      <c r="K35" s="410"/>
+      <c r="A35" s="400"/>
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="402"/>
+      <c r="E35" s="403"/>
+      <c r="F35" s="403"/>
+      <c r="G35" s="404"/>
+      <c r="H35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
+      <c r="K35" s="408"/>
     </row>
     <row r="36" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="402"/>
-      <c r="B36" s="403"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="404"/>
-      <c r="E36" s="405"/>
-      <c r="F36" s="405"/>
-      <c r="G36" s="406"/>
-      <c r="H36" s="407"/>
-      <c r="I36" s="408"/>
-      <c r="J36" s="409"/>
-      <c r="K36" s="410"/>
+      <c r="A36" s="400"/>
+      <c r="B36" s="401"/>
+      <c r="C36" s="401"/>
+      <c r="D36" s="402"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="404"/>
+      <c r="H36" s="405"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
+      <c r="K36" s="408"/>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="402"/>
-      <c r="B37" s="403"/>
-      <c r="C37" s="403"/>
-      <c r="D37" s="404"/>
-      <c r="E37" s="405"/>
-      <c r="F37" s="405"/>
-      <c r="G37" s="406"/>
-      <c r="H37" s="407"/>
-      <c r="I37" s="408"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="410"/>
+      <c r="A37" s="400"/>
+      <c r="B37" s="401"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="402"/>
+      <c r="E37" s="403"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="404"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
+      <c r="K37" s="408"/>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="414"/>
-      <c r="B38" s="415"/>
-      <c r="C38" s="415"/>
-      <c r="D38" s="416"/>
-      <c r="E38" s="405"/>
-      <c r="F38" s="405"/>
-      <c r="G38" s="417"/>
-      <c r="H38" s="418"/>
-      <c r="I38" s="419"/>
-      <c r="J38" s="420"/>
-      <c r="K38" s="421"/>
+      <c r="A38" s="412"/>
+      <c r="B38" s="413"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="414"/>
+      <c r="E38" s="403"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="415"/>
+      <c r="H38" s="416"/>
+      <c r="I38" s="417"/>
+      <c r="J38" s="418"/>
+      <c r="K38" s="419"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B39" s="266"/>
       <c r="C39" s="266"/>
@@ -12427,139 +12324,139 @@
       <c r="K39" s="267"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="422" t="s">
-        <v>387</v>
-      </c>
-      <c r="B40" s="423"/>
-      <c r="C40" s="423"/>
-      <c r="D40" s="423"/>
-      <c r="E40" s="423"/>
-      <c r="F40" s="423"/>
-      <c r="G40" s="423"/>
-      <c r="H40" s="423"/>
-      <c r="I40" s="423"/>
-      <c r="J40" s="423"/>
-      <c r="K40" s="424"/>
+      <c r="A40" s="420" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="421"/>
+      <c r="C40" s="421"/>
+      <c r="D40" s="421"/>
+      <c r="E40" s="421"/>
+      <c r="F40" s="421"/>
+      <c r="G40" s="421"/>
+      <c r="H40" s="421"/>
+      <c r="I40" s="421"/>
+      <c r="J40" s="421"/>
+      <c r="K40" s="422"/>
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="425" t="s">
-        <v>388</v>
-      </c>
-      <c r="B41" s="426" t="s">
-        <v>389</v>
-      </c>
-      <c r="C41" s="427" t="s">
-        <v>390</v>
-      </c>
-      <c r="D41" s="426" t="s">
-        <v>391</v>
-      </c>
-      <c r="E41" s="426"/>
-      <c r="F41" s="426"/>
-      <c r="G41" s="426"/>
-      <c r="H41" s="428"/>
-      <c r="I41" s="427" t="s">
-        <v>392</v>
-      </c>
-      <c r="J41" s="426" t="s">
-        <v>393</v>
-      </c>
-      <c r="K41" s="429"/>
+      <c r="A41" s="423" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" s="424" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="425" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="424" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="424"/>
+      <c r="F41" s="424"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="426"/>
+      <c r="I41" s="425" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" s="424" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="427"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="430"/>
-      <c r="B42" s="431"/>
-      <c r="C42" s="432"/>
-      <c r="D42" s="433"/>
-      <c r="E42" s="433"/>
-      <c r="F42" s="433"/>
-      <c r="G42" s="433"/>
-      <c r="H42" s="431"/>
-      <c r="I42" s="432"/>
-      <c r="J42" s="433"/>
-      <c r="K42" s="434"/>
+      <c r="A42" s="428"/>
+      <c r="B42" s="429"/>
+      <c r="C42" s="430"/>
+      <c r="D42" s="431"/>
+      <c r="E42" s="431"/>
+      <c r="F42" s="431"/>
+      <c r="G42" s="431"/>
+      <c r="H42" s="429"/>
+      <c r="I42" s="430"/>
+      <c r="J42" s="431"/>
+      <c r="K42" s="432"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="430"/>
-      <c r="B43" s="431"/>
-      <c r="C43" s="432"/>
-      <c r="D43" s="433"/>
-      <c r="E43" s="433"/>
-      <c r="F43" s="433"/>
-      <c r="G43" s="433"/>
-      <c r="H43" s="431"/>
-      <c r="I43" s="432"/>
-      <c r="J43" s="433"/>
-      <c r="K43" s="434"/>
+      <c r="A43" s="428"/>
+      <c r="B43" s="429"/>
+      <c r="C43" s="430"/>
+      <c r="D43" s="431"/>
+      <c r="E43" s="431"/>
+      <c r="F43" s="431"/>
+      <c r="G43" s="431"/>
+      <c r="H43" s="429"/>
+      <c r="I43" s="430"/>
+      <c r="J43" s="431"/>
+      <c r="K43" s="432"/>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="430"/>
-      <c r="B44" s="431"/>
-      <c r="C44" s="432"/>
-      <c r="D44" s="433"/>
-      <c r="E44" s="433"/>
-      <c r="F44" s="433"/>
-      <c r="G44" s="433"/>
-      <c r="H44" s="431"/>
-      <c r="I44" s="432"/>
-      <c r="J44" s="433"/>
-      <c r="K44" s="434"/>
+      <c r="A44" s="428"/>
+      <c r="B44" s="429"/>
+      <c r="C44" s="430"/>
+      <c r="D44" s="431"/>
+      <c r="E44" s="431"/>
+      <c r="F44" s="431"/>
+      <c r="G44" s="431"/>
+      <c r="H44" s="429"/>
+      <c r="I44" s="430"/>
+      <c r="J44" s="431"/>
+      <c r="K44" s="432"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="430"/>
-      <c r="B45" s="431"/>
-      <c r="C45" s="432"/>
-      <c r="D45" s="433"/>
-      <c r="E45" s="433"/>
-      <c r="F45" s="433"/>
-      <c r="G45" s="433"/>
-      <c r="H45" s="431"/>
-      <c r="I45" s="432"/>
-      <c r="J45" s="433"/>
-      <c r="K45" s="434"/>
+      <c r="A45" s="428"/>
+      <c r="B45" s="429"/>
+      <c r="C45" s="430"/>
+      <c r="D45" s="431"/>
+      <c r="E45" s="431"/>
+      <c r="F45" s="431"/>
+      <c r="G45" s="431"/>
+      <c r="H45" s="429"/>
+      <c r="I45" s="430"/>
+      <c r="J45" s="431"/>
+      <c r="K45" s="432"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="430"/>
-      <c r="B46" s="431"/>
-      <c r="C46" s="432"/>
-      <c r="D46" s="433"/>
-      <c r="E46" s="433"/>
-      <c r="F46" s="433"/>
-      <c r="G46" s="433"/>
-      <c r="H46" s="431"/>
-      <c r="I46" s="432"/>
-      <c r="J46" s="433"/>
-      <c r="K46" s="434"/>
+      <c r="A46" s="428"/>
+      <c r="B46" s="429"/>
+      <c r="C46" s="430"/>
+      <c r="D46" s="431"/>
+      <c r="E46" s="431"/>
+      <c r="F46" s="431"/>
+      <c r="G46" s="431"/>
+      <c r="H46" s="429"/>
+      <c r="I46" s="430"/>
+      <c r="J46" s="431"/>
+      <c r="K46" s="432"/>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="430"/>
-      <c r="B47" s="431"/>
-      <c r="C47" s="432"/>
-      <c r="D47" s="433"/>
-      <c r="E47" s="433"/>
-      <c r="F47" s="433"/>
-      <c r="G47" s="433"/>
-      <c r="H47" s="431"/>
-      <c r="I47" s="432"/>
-      <c r="J47" s="433"/>
-      <c r="K47" s="434"/>
+      <c r="A47" s="428"/>
+      <c r="B47" s="429"/>
+      <c r="C47" s="430"/>
+      <c r="D47" s="431"/>
+      <c r="E47" s="431"/>
+      <c r="F47" s="431"/>
+      <c r="G47" s="431"/>
+      <c r="H47" s="429"/>
+      <c r="I47" s="430"/>
+      <c r="J47" s="431"/>
+      <c r="K47" s="432"/>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="430"/>
-      <c r="B48" s="431"/>
-      <c r="C48" s="432"/>
-      <c r="D48" s="433"/>
-      <c r="E48" s="433"/>
-      <c r="F48" s="433"/>
-      <c r="G48" s="433"/>
-      <c r="H48" s="431"/>
-      <c r="I48" s="432"/>
-      <c r="J48" s="433"/>
-      <c r="K48" s="434"/>
+      <c r="A48" s="428"/>
+      <c r="B48" s="429"/>
+      <c r="C48" s="430"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
+      <c r="F48" s="431"/>
+      <c r="G48" s="431"/>
+      <c r="H48" s="429"/>
+      <c r="I48" s="430"/>
+      <c r="J48" s="431"/>
+      <c r="K48" s="432"/>
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -12572,28 +12469,30 @@
       <c r="J49" s="266"/>
       <c r="K49" s="321"/>
     </row>
-    <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" ht="70" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B50" s="270"/>
       <c r="C50" s="352"/>
       <c r="D50" s="353"/>
       <c r="E50" s="353"/>
       <c r="F50" s="354"/>
-      <c r="G50" s="435" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" s="436"/>
-      <c r="I50" s="352"/>
+      <c r="G50" s="433" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="434"/>
+      <c r="I50" s="352" t="s">
+        <v>172</v>
+      </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
-      <c r="L50" s="437"/>
-      <c r="M50" s="437"/>
+      <c r="L50" s="435"/>
+      <c r="M50" s="435"/>
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="438" t="s">
-        <v>394</v>
+      <c r="K51" s="436" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12686,6 +12585,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="81" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12718,65 +12618,65 @@
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="439"/>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="440"/>
-      <c r="E1" s="440"/>
-      <c r="F1" s="440"/>
-      <c r="G1" s="440"/>
-      <c r="H1" s="440"/>
-      <c r="I1" s="440"/>
-      <c r="J1" s="440"/>
-      <c r="K1" s="440"/>
-      <c r="L1" s="440"/>
-      <c r="M1" s="441"/>
+      <c r="A1" s="437"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
+      <c r="I1" s="438"/>
+      <c r="J1" s="438"/>
+      <c r="K1" s="438"/>
+      <c r="L1" s="438"/>
+      <c r="M1" s="439"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="442" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="444" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446"/>
-      <c r="I2" s="447"/>
-      <c r="J2" s="447"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="449"/>
+      <c r="A2" s="440" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="441"/>
+      <c r="C2" s="442" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="447"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="450"/>
-      <c r="B3" s="451"/>
-      <c r="C3" s="452" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="453"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="456"/>
-      <c r="L3" s="456"/>
-      <c r="M3" s="457"/>
+      <c r="A3" s="448"/>
+      <c r="B3" s="449"/>
+      <c r="C3" s="450" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="450"/>
+      <c r="E3" s="450"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="453"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="454"/>
+      <c r="L3" s="454"/>
+      <c r="M3" s="455"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="450"/>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452"/>
-      <c r="F4" s="453"/>
+      <c r="A4" s="448"/>
+      <c r="B4" s="449"/>
+      <c r="C4" s="450" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="450"/>
+      <c r="E4" s="450"/>
+      <c r="F4" s="451"/>
       <c r="G4" s="282"/>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
@@ -12786,641 +12686,641 @@
       <c r="M4" s="378"/>
     </row>
     <row r="5" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="450"/>
-      <c r="B5" s="451"/>
-      <c r="C5" s="452"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="452"/>
-      <c r="F5" s="453"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
+      <c r="A5" s="448"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="450"/>
+      <c r="D5" s="450"/>
+      <c r="E5" s="450"/>
+      <c r="F5" s="451"/>
+      <c r="G5" s="456"/>
+      <c r="H5" s="456"/>
+      <c r="I5" s="456"/>
+      <c r="J5" s="456"/>
+      <c r="K5" s="456"/>
+      <c r="L5" s="456"/>
       <c r="M5" s="378"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="450"/>
-      <c r="B6" s="451"/>
-      <c r="C6" s="452" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="452"/>
-      <c r="E6" s="452"/>
-      <c r="F6" s="453"/>
+      <c r="A6" s="448"/>
+      <c r="B6" s="449"/>
+      <c r="C6" s="450" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="450"/>
+      <c r="E6" s="450"/>
+      <c r="F6" s="451"/>
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
-      <c r="I6" s="459"/>
-      <c r="J6" s="459"/>
-      <c r="K6" s="459"/>
-      <c r="L6" s="459"/>
+      <c r="I6" s="457"/>
+      <c r="J6" s="457"/>
+      <c r="K6" s="457"/>
+      <c r="L6" s="457"/>
       <c r="M6" s="378"/>
     </row>
     <row r="7" ht="3" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="450"/>
-      <c r="B7" s="451"/>
-      <c r="C7" s="452"/>
-      <c r="D7" s="452"/>
-      <c r="E7" s="452"/>
-      <c r="F7" s="453"/>
+      <c r="A7" s="448"/>
+      <c r="B7" s="449"/>
+      <c r="C7" s="450"/>
+      <c r="D7" s="450"/>
+      <c r="E7" s="450"/>
+      <c r="F7" s="451"/>
       <c r="G7" s="282"/>
       <c r="H7" s="282"/>
-      <c r="I7" s="459"/>
-      <c r="J7" s="459"/>
-      <c r="K7" s="459"/>
-      <c r="L7" s="459"/>
+      <c r="I7" s="457"/>
+      <c r="J7" s="457"/>
+      <c r="K7" s="457"/>
+      <c r="L7" s="457"/>
       <c r="M7" s="378"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="450"/>
-      <c r="B8" s="451"/>
-      <c r="C8" s="452" t="s">
-        <v>400</v>
-      </c>
-      <c r="D8" s="452"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="453"/>
+      <c r="A8" s="448"/>
+      <c r="B8" s="449"/>
+      <c r="C8" s="450" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="450"/>
+      <c r="E8" s="450"/>
+      <c r="F8" s="451"/>
       <c r="G8" s="282"/>
       <c r="H8" s="282"/>
       <c r="I8" s="282"/>
       <c r="J8" s="282"/>
       <c r="K8" s="282"/>
       <c r="L8" s="282"/>
-      <c r="M8" s="460"/>
+      <c r="M8" s="458"/>
     </row>
     <row r="9" ht="3.75" customHeight="1" hidden="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="450"/>
-      <c r="B9" s="451"/>
-      <c r="C9" s="452"/>
-      <c r="D9" s="452"/>
-      <c r="E9" s="452"/>
-      <c r="F9" s="453"/>
+      <c r="A9" s="448"/>
+      <c r="B9" s="449"/>
+      <c r="C9" s="450"/>
+      <c r="D9" s="450"/>
+      <c r="E9" s="450"/>
+      <c r="F9" s="451"/>
       <c r="G9" s="282"/>
       <c r="H9" s="282"/>
       <c r="I9" s="282"/>
       <c r="J9" s="282"/>
       <c r="K9" s="282"/>
       <c r="L9" s="282"/>
-      <c r="M9" s="460"/>
+      <c r="M9" s="458"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="450"/>
-      <c r="B10" s="451"/>
-      <c r="C10" s="452"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="458" t="s">
-        <v>401</v>
-      </c>
-      <c r="H10" s="458"/>
-      <c r="I10" s="458"/>
-      <c r="J10" s="458"/>
-      <c r="K10" s="458"/>
-      <c r="L10" s="458"/>
-      <c r="M10" s="461"/>
+      <c r="A10" s="448"/>
+      <c r="B10" s="449"/>
+      <c r="C10" s="450"/>
+      <c r="D10" s="450"/>
+      <c r="E10" s="450"/>
+      <c r="F10" s="451"/>
+      <c r="G10" s="456" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="456"/>
+      <c r="I10" s="456"/>
+      <c r="J10" s="456"/>
+      <c r="K10" s="456"/>
+      <c r="L10" s="456"/>
+      <c r="M10" s="459"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="450"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="452"/>
-      <c r="E11" s="452"/>
-      <c r="F11" s="453"/>
-      <c r="G11" s="462"/>
-      <c r="H11" s="463"/>
-      <c r="I11" s="464"/>
-      <c r="J11" s="464"/>
-      <c r="K11" s="464"/>
-      <c r="L11" s="464"/>
-      <c r="M11" s="461"/>
+      <c r="A11" s="448"/>
+      <c r="B11" s="449"/>
+      <c r="C11" s="450"/>
+      <c r="D11" s="450"/>
+      <c r="E11" s="450"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="461"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="462"/>
+      <c r="L11" s="462"/>
+      <c r="M11" s="459"/>
     </row>
     <row r="12" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="465"/>
-      <c r="B12" s="466"/>
-      <c r="C12" s="467"/>
-      <c r="D12" s="467"/>
-      <c r="E12" s="467"/>
-      <c r="F12" s="468"/>
-      <c r="G12" s="463"/>
-      <c r="H12" s="463"/>
-      <c r="I12" s="469"/>
-      <c r="J12" s="469"/>
-      <c r="K12" s="469"/>
-      <c r="L12" s="469"/>
-      <c r="M12" s="470"/>
+      <c r="A12" s="463"/>
+      <c r="B12" s="464"/>
+      <c r="C12" s="465"/>
+      <c r="D12" s="465"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="466"/>
+      <c r="G12" s="461"/>
+      <c r="H12" s="461"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="467"/>
+      <c r="K12" s="467"/>
+      <c r="L12" s="467"/>
+      <c r="M12" s="468"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="471" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="472"/>
-      <c r="C13" s="473" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" s="473"/>
+      <c r="A13" s="469" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="470"/>
+      <c r="C13" s="471" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="471"/>
       <c r="E13" s="282"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="474"/>
-      <c r="H13" s="474"/>
-      <c r="I13" s="474"/>
-      <c r="J13" s="474"/>
-      <c r="K13" s="474"/>
-      <c r="L13" s="474"/>
-      <c r="M13" s="475"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="472"/>
+      <c r="H13" s="472"/>
+      <c r="I13" s="472"/>
+      <c r="J13" s="472"/>
+      <c r="K13" s="472"/>
+      <c r="L13" s="472"/>
+      <c r="M13" s="473"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="476"/>
-      <c r="B14" s="477"/>
-      <c r="C14" s="473"/>
-      <c r="D14" s="473"/>
+      <c r="A14" s="474"/>
+      <c r="B14" s="475"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
       <c r="E14" s="282"/>
-      <c r="F14" s="400"/>
-      <c r="G14" s="478" t="s">
-        <v>401</v>
-      </c>
-      <c r="H14" s="458"/>
-      <c r="I14" s="458"/>
-      <c r="J14" s="458"/>
-      <c r="K14" s="458"/>
-      <c r="L14" s="458"/>
-      <c r="M14" s="479"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="476" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="456"/>
+      <c r="I14" s="456"/>
+      <c r="J14" s="456"/>
+      <c r="K14" s="456"/>
+      <c r="L14" s="456"/>
+      <c r="M14" s="477"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="476"/>
-      <c r="B15" s="477"/>
-      <c r="C15" s="473"/>
-      <c r="D15" s="473"/>
+      <c r="A15" s="474"/>
+      <c r="B15" s="475"/>
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
       <c r="E15" s="282"/>
-      <c r="F15" s="400"/>
-      <c r="G15" s="454"/>
-      <c r="H15" s="480"/>
-      <c r="I15" s="481"/>
-      <c r="J15" s="481"/>
-      <c r="K15" s="481"/>
-      <c r="L15" s="481"/>
-      <c r="M15" s="479"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="452"/>
+      <c r="H15" s="478"/>
+      <c r="I15" s="479"/>
+      <c r="J15" s="479"/>
+      <c r="K15" s="479"/>
+      <c r="L15" s="479"/>
+      <c r="M15" s="477"/>
     </row>
     <row r="16" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="476"/>
-      <c r="B16" s="477"/>
+      <c r="A16" s="474"/>
+      <c r="B16" s="475"/>
       <c r="C16" s="282"/>
       <c r="D16" s="282"/>
       <c r="E16" s="282"/>
-      <c r="F16" s="400"/>
-      <c r="G16" s="482"/>
-      <c r="H16" s="483"/>
-      <c r="I16" s="484"/>
-      <c r="J16" s="484"/>
-      <c r="K16" s="484"/>
-      <c r="L16" s="484"/>
-      <c r="M16" s="485"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="480"/>
+      <c r="H16" s="481"/>
+      <c r="I16" s="482"/>
+      <c r="J16" s="482"/>
+      <c r="K16" s="482"/>
+      <c r="L16" s="482"/>
+      <c r="M16" s="483"/>
     </row>
     <row r="17" ht="6.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="486"/>
-      <c r="B17" s="487"/>
-      <c r="C17" s="488"/>
-      <c r="D17" s="488"/>
-      <c r="E17" s="489"/>
-      <c r="F17" s="490"/>
-      <c r="G17" s="491"/>
-      <c r="H17" s="492"/>
-      <c r="I17" s="492"/>
-      <c r="J17" s="492"/>
-      <c r="K17" s="492"/>
-      <c r="L17" s="492"/>
-      <c r="M17" s="493"/>
+      <c r="A17" s="484"/>
+      <c r="B17" s="485"/>
+      <c r="C17" s="486"/>
+      <c r="D17" s="486"/>
+      <c r="E17" s="487"/>
+      <c r="F17" s="488"/>
+      <c r="G17" s="489"/>
+      <c r="H17" s="490"/>
+      <c r="I17" s="490"/>
+      <c r="J17" s="490"/>
+      <c r="K17" s="490"/>
+      <c r="L17" s="490"/>
+      <c r="M17" s="491"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="486"/>
-      <c r="B18" s="487"/>
-      <c r="C18" s="494" t="s">
-        <v>404</v>
-      </c>
-      <c r="D18" s="494"/>
-      <c r="E18" s="495"/>
-      <c r="F18" s="496"/>
-      <c r="G18" s="497"/>
-      <c r="H18" s="497"/>
-      <c r="I18" s="497"/>
-      <c r="J18" s="497"/>
-      <c r="K18" s="497"/>
-      <c r="L18" s="497"/>
-      <c r="M18" s="498"/>
+      <c r="A18" s="484"/>
+      <c r="B18" s="485"/>
+      <c r="C18" s="492" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="492"/>
+      <c r="E18" s="493"/>
+      <c r="F18" s="494"/>
+      <c r="G18" s="495"/>
+      <c r="H18" s="495"/>
+      <c r="I18" s="495"/>
+      <c r="J18" s="495"/>
+      <c r="K18" s="495"/>
+      <c r="L18" s="495"/>
+      <c r="M18" s="496"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="486"/>
-      <c r="B19" s="487"/>
-      <c r="C19" s="494"/>
-      <c r="D19" s="494"/>
-      <c r="E19" s="495"/>
-      <c r="F19" s="496"/>
-      <c r="G19" s="478" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="458"/>
-      <c r="I19" s="458"/>
-      <c r="J19" s="458"/>
-      <c r="K19" s="458"/>
-      <c r="L19" s="458"/>
-      <c r="M19" s="498"/>
+      <c r="A19" s="484"/>
+      <c r="B19" s="485"/>
+      <c r="C19" s="492"/>
+      <c r="D19" s="492"/>
+      <c r="E19" s="493"/>
+      <c r="F19" s="494"/>
+      <c r="G19" s="476" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="456"/>
+      <c r="I19" s="456"/>
+      <c r="J19" s="456"/>
+      <c r="K19" s="456"/>
+      <c r="L19" s="456"/>
+      <c r="M19" s="496"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="486"/>
-      <c r="B20" s="487"/>
-      <c r="C20" s="494"/>
-      <c r="D20" s="494"/>
-      <c r="E20" s="495"/>
-      <c r="F20" s="496"/>
-      <c r="G20" s="497"/>
-      <c r="H20" s="499" t="s">
-        <v>405</v>
-      </c>
-      <c r="I20" s="499"/>
-      <c r="J20" s="500"/>
-      <c r="K20" s="501"/>
-      <c r="L20" s="502"/>
-      <c r="M20" s="498"/>
+      <c r="A20" s="484"/>
+      <c r="B20" s="485"/>
+      <c r="C20" s="492"/>
+      <c r="D20" s="492"/>
+      <c r="E20" s="493"/>
+      <c r="F20" s="494"/>
+      <c r="G20" s="495"/>
+      <c r="H20" s="497" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20" s="497"/>
+      <c r="J20" s="498"/>
+      <c r="K20" s="499"/>
+      <c r="L20" s="500"/>
+      <c r="M20" s="496"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="486"/>
-      <c r="B21" s="487"/>
-      <c r="C21" s="494"/>
-      <c r="D21" s="494"/>
-      <c r="E21" s="495"/>
-      <c r="F21" s="496"/>
-      <c r="G21" s="503" t="s">
-        <v>406</v>
-      </c>
-      <c r="H21" s="504"/>
-      <c r="I21" s="504"/>
-      <c r="J21" s="500"/>
-      <c r="K21" s="505"/>
-      <c r="L21" s="502"/>
-      <c r="M21" s="498"/>
+      <c r="A21" s="484"/>
+      <c r="B21" s="485"/>
+      <c r="C21" s="492"/>
+      <c r="D21" s="492"/>
+      <c r="E21" s="493"/>
+      <c r="F21" s="494"/>
+      <c r="G21" s="501" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" s="502"/>
+      <c r="I21" s="502"/>
+      <c r="J21" s="498"/>
+      <c r="K21" s="503"/>
+      <c r="L21" s="500"/>
+      <c r="M21" s="496"/>
     </row>
     <row r="22" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="506"/>
-      <c r="B22" s="507"/>
-      <c r="C22" s="508"/>
-      <c r="D22" s="508"/>
-      <c r="E22" s="508"/>
-      <c r="F22" s="509"/>
-      <c r="G22" s="482" t="s">
-        <v>407</v>
-      </c>
-      <c r="H22" s="483"/>
-      <c r="I22" s="510"/>
-      <c r="J22" s="510"/>
-      <c r="K22" s="510"/>
-      <c r="L22" s="511"/>
-      <c r="M22" s="485"/>
+      <c r="A22" s="504"/>
+      <c r="B22" s="505"/>
+      <c r="C22" s="506"/>
+      <c r="D22" s="506"/>
+      <c r="E22" s="506"/>
+      <c r="F22" s="507"/>
+      <c r="G22" s="480" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" s="481"/>
+      <c r="I22" s="508"/>
+      <c r="J22" s="508"/>
+      <c r="K22" s="508"/>
+      <c r="L22" s="509"/>
+      <c r="M22" s="483"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B23" s="195"/>
-      <c r="C23" s="512" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="512"/>
-      <c r="E23" s="512"/>
-      <c r="F23" s="513"/>
-      <c r="G23" s="474"/>
-      <c r="H23" s="474"/>
-      <c r="I23" s="474"/>
-      <c r="J23" s="474"/>
-      <c r="K23" s="474"/>
-      <c r="L23" s="474"/>
-      <c r="M23" s="475"/>
+      <c r="C23" s="510" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="510"/>
+      <c r="E23" s="510"/>
+      <c r="F23" s="511"/>
+      <c r="G23" s="472"/>
+      <c r="H23" s="472"/>
+      <c r="I23" s="472"/>
+      <c r="J23" s="472"/>
+      <c r="K23" s="472"/>
+      <c r="L23" s="472"/>
+      <c r="M23" s="473"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="476"/>
-      <c r="B24" s="477"/>
-      <c r="C24" s="514"/>
-      <c r="D24" s="514"/>
-      <c r="E24" s="514"/>
-      <c r="F24" s="515"/>
-      <c r="G24" s="478" t="s">
-        <v>401</v>
-      </c>
-      <c r="H24" s="458"/>
-      <c r="I24" s="458"/>
-      <c r="J24" s="458"/>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
-      <c r="M24" s="516"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="475"/>
+      <c r="C24" s="512"/>
+      <c r="D24" s="512"/>
+      <c r="E24" s="512"/>
+      <c r="F24" s="513"/>
+      <c r="G24" s="476" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" s="456"/>
+      <c r="I24" s="456"/>
+      <c r="J24" s="456"/>
+      <c r="K24" s="456"/>
+      <c r="L24" s="456"/>
+      <c r="M24" s="514"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="476"/>
-      <c r="B25" s="477"/>
-      <c r="C25" s="514"/>
-      <c r="D25" s="514"/>
-      <c r="E25" s="514"/>
-      <c r="F25" s="515"/>
-      <c r="G25" s="517"/>
-      <c r="H25" s="483"/>
-      <c r="I25" s="518"/>
-      <c r="J25" s="518"/>
-      <c r="K25" s="518"/>
-      <c r="L25" s="518"/>
-      <c r="M25" s="516"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="475"/>
+      <c r="C25" s="512"/>
+      <c r="D25" s="512"/>
+      <c r="E25" s="512"/>
+      <c r="F25" s="513"/>
+      <c r="G25" s="515"/>
+      <c r="H25" s="481"/>
+      <c r="I25" s="516"/>
+      <c r="J25" s="516"/>
+      <c r="K25" s="516"/>
+      <c r="L25" s="516"/>
+      <c r="M25" s="514"/>
     </row>
     <row r="26" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="519"/>
-      <c r="B26" s="520"/>
-      <c r="C26" s="521"/>
-      <c r="D26" s="521"/>
-      <c r="E26" s="521"/>
-      <c r="F26" s="522"/>
-      <c r="G26" s="482"/>
-      <c r="H26" s="483"/>
-      <c r="I26" s="484"/>
-      <c r="J26" s="484"/>
-      <c r="K26" s="484"/>
-      <c r="L26" s="484"/>
-      <c r="M26" s="485"/>
+      <c r="A26" s="517"/>
+      <c r="B26" s="518"/>
+      <c r="C26" s="519"/>
+      <c r="D26" s="519"/>
+      <c r="E26" s="519"/>
+      <c r="F26" s="520"/>
+      <c r="G26" s="480"/>
+      <c r="H26" s="481"/>
+      <c r="I26" s="482"/>
+      <c r="J26" s="482"/>
+      <c r="K26" s="482"/>
+      <c r="L26" s="482"/>
+      <c r="M26" s="483"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B27" s="195"/>
-      <c r="C27" s="512" t="s">
-        <v>411</v>
-      </c>
-      <c r="D27" s="512"/>
-      <c r="E27" s="512"/>
-      <c r="F27" s="513"/>
-      <c r="G27" s="474"/>
-      <c r="H27" s="474"/>
-      <c r="I27" s="474"/>
-      <c r="J27" s="474"/>
-      <c r="K27" s="474"/>
-      <c r="L27" s="474"/>
-      <c r="M27" s="475"/>
+      <c r="C27" s="510" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="510"/>
+      <c r="E27" s="510"/>
+      <c r="F27" s="511"/>
+      <c r="G27" s="472"/>
+      <c r="H27" s="472"/>
+      <c r="I27" s="472"/>
+      <c r="J27" s="472"/>
+      <c r="K27" s="472"/>
+      <c r="L27" s="472"/>
+      <c r="M27" s="473"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="476"/>
-      <c r="B28" s="477"/>
-      <c r="C28" s="514"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="514"/>
-      <c r="F28" s="515"/>
-      <c r="G28" s="478" t="s">
-        <v>401</v>
-      </c>
-      <c r="H28" s="458"/>
-      <c r="I28" s="458"/>
-      <c r="J28" s="458"/>
-      <c r="K28" s="458"/>
-      <c r="L28" s="458"/>
+      <c r="A28" s="474"/>
+      <c r="B28" s="475"/>
+      <c r="C28" s="512"/>
+      <c r="D28" s="512"/>
+      <c r="E28" s="512"/>
+      <c r="F28" s="513"/>
+      <c r="G28" s="476" t="s">
+        <v>377</v>
+      </c>
+      <c r="H28" s="456"/>
+      <c r="I28" s="456"/>
+      <c r="J28" s="456"/>
+      <c r="K28" s="456"/>
+      <c r="L28" s="456"/>
       <c r="M28" s="378"/>
     </row>
     <row r="29" ht="11.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="476"/>
-      <c r="B29" s="477"/>
-      <c r="C29" s="514"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="514"/>
-      <c r="F29" s="515"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="475"/>
+      <c r="C29" s="512"/>
+      <c r="D29" s="512"/>
+      <c r="E29" s="512"/>
+      <c r="F29" s="513"/>
       <c r="G29" s="282"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="518"/>
-      <c r="J29" s="518"/>
-      <c r="K29" s="518"/>
-      <c r="L29" s="518"/>
-      <c r="M29" s="516"/>
+      <c r="I29" s="516"/>
+      <c r="J29" s="516"/>
+      <c r="K29" s="516"/>
+      <c r="L29" s="516"/>
+      <c r="M29" s="514"/>
     </row>
     <row r="30" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="519"/>
-      <c r="B30" s="520"/>
-      <c r="C30" s="521"/>
-      <c r="D30" s="521"/>
-      <c r="E30" s="521"/>
-      <c r="F30" s="522"/>
-      <c r="G30" s="523"/>
-      <c r="H30" s="524"/>
+      <c r="A30" s="517"/>
+      <c r="B30" s="518"/>
+      <c r="C30" s="519"/>
+      <c r="D30" s="519"/>
+      <c r="E30" s="519"/>
+      <c r="F30" s="520"/>
+      <c r="G30" s="521"/>
+      <c r="H30" s="522"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
-      <c r="M30" s="485"/>
+      <c r="M30" s="483"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B31" s="195"/>
-      <c r="C31" s="512" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" s="512"/>
-      <c r="E31" s="512"/>
-      <c r="F31" s="513"/>
-      <c r="G31" s="474"/>
-      <c r="H31" s="474"/>
-      <c r="I31" s="474"/>
-      <c r="J31" s="474"/>
-      <c r="K31" s="474"/>
-      <c r="L31" s="474"/>
-      <c r="M31" s="475"/>
+      <c r="C31" s="510" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="510"/>
+      <c r="E31" s="510"/>
+      <c r="F31" s="511"/>
+      <c r="G31" s="472"/>
+      <c r="H31" s="472"/>
+      <c r="I31" s="472"/>
+      <c r="J31" s="472"/>
+      <c r="K31" s="472"/>
+      <c r="L31" s="472"/>
+      <c r="M31" s="473"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="476"/>
-      <c r="B32" s="477"/>
-      <c r="C32" s="514"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="514"/>
-      <c r="F32" s="515"/>
-      <c r="G32" s="525" t="s">
-        <v>414</v>
-      </c>
-      <c r="H32" s="526"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="526"/>
-      <c r="K32" s="527"/>
-      <c r="L32" s="527"/>
-      <c r="M32" s="516"/>
+      <c r="A32" s="474"/>
+      <c r="B32" s="475"/>
+      <c r="C32" s="512"/>
+      <c r="D32" s="512"/>
+      <c r="E32" s="512"/>
+      <c r="F32" s="513"/>
+      <c r="G32" s="523" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="524"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="524"/>
+      <c r="K32" s="525"/>
+      <c r="L32" s="525"/>
+      <c r="M32" s="514"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="476"/>
-      <c r="B33" s="477"/>
-      <c r="C33" s="514"/>
-      <c r="D33" s="514"/>
-      <c r="E33" s="514"/>
-      <c r="F33" s="515"/>
-      <c r="G33" s="528"/>
-      <c r="H33" s="529"/>
-      <c r="I33" s="530"/>
-      <c r="J33" s="530"/>
-      <c r="K33" s="531"/>
-      <c r="L33" s="531"/>
-      <c r="M33" s="516"/>
+      <c r="A33" s="474"/>
+      <c r="B33" s="475"/>
+      <c r="C33" s="512"/>
+      <c r="D33" s="512"/>
+      <c r="E33" s="512"/>
+      <c r="F33" s="513"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="527"/>
+      <c r="I33" s="528"/>
+      <c r="J33" s="528"/>
+      <c r="K33" s="529"/>
+      <c r="L33" s="529"/>
+      <c r="M33" s="514"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="476"/>
-      <c r="B34" s="477"/>
-      <c r="C34" s="514" t="s">
-        <v>415</v>
-      </c>
-      <c r="D34" s="514"/>
-      <c r="E34" s="514"/>
-      <c r="F34" s="515"/>
-      <c r="G34" s="517"/>
-      <c r="H34" s="532"/>
-      <c r="I34" s="533"/>
-      <c r="J34" s="533"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="533"/>
-      <c r="M34" s="516"/>
+      <c r="A34" s="474"/>
+      <c r="B34" s="475"/>
+      <c r="C34" s="512" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="512"/>
+      <c r="E34" s="512"/>
+      <c r="F34" s="513"/>
+      <c r="G34" s="515"/>
+      <c r="H34" s="530"/>
+      <c r="I34" s="531"/>
+      <c r="J34" s="531"/>
+      <c r="K34" s="531"/>
+      <c r="L34" s="531"/>
+      <c r="M34" s="514"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="476"/>
-      <c r="B35" s="477"/>
-      <c r="C35" s="514"/>
-      <c r="D35" s="514"/>
-      <c r="E35" s="514"/>
-      <c r="F35" s="515"/>
-      <c r="G35" s="525" t="s">
-        <v>414</v>
-      </c>
-      <c r="H35" s="526"/>
-      <c r="I35" s="526"/>
-      <c r="J35" s="526"/>
-      <c r="K35" s="527"/>
-      <c r="L35" s="527"/>
-      <c r="M35" s="516"/>
+      <c r="A35" s="474"/>
+      <c r="B35" s="475"/>
+      <c r="C35" s="512"/>
+      <c r="D35" s="512"/>
+      <c r="E35" s="512"/>
+      <c r="F35" s="513"/>
+      <c r="G35" s="523" t="s">
+        <v>390</v>
+      </c>
+      <c r="H35" s="524"/>
+      <c r="I35" s="524"/>
+      <c r="J35" s="524"/>
+      <c r="K35" s="525"/>
+      <c r="L35" s="525"/>
+      <c r="M35" s="514"/>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="519"/>
-      <c r="B36" s="520"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
-      <c r="E36" s="521"/>
-      <c r="F36" s="522"/>
-      <c r="G36" s="528"/>
-      <c r="H36" s="529"/>
-      <c r="I36" s="530"/>
-      <c r="J36" s="530"/>
+      <c r="A36" s="517"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="519"/>
+      <c r="D36" s="519"/>
+      <c r="E36" s="519"/>
+      <c r="F36" s="520"/>
+      <c r="G36" s="526"/>
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="528"/>
       <c r="K36" s="282"/>
-      <c r="L36" s="534"/>
-      <c r="M36" s="485"/>
+      <c r="L36" s="532"/>
+      <c r="M36" s="483"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B37" s="195"/>
-      <c r="C37" s="535" t="s">
-        <v>417</v>
-      </c>
-      <c r="D37" s="535"/>
-      <c r="E37" s="535"/>
-      <c r="F37" s="536"/>
-      <c r="G37" s="474"/>
-      <c r="H37" s="474"/>
-      <c r="I37" s="474"/>
-      <c r="J37" s="474"/>
-      <c r="K37" s="474"/>
-      <c r="L37" s="474"/>
-      <c r="M37" s="475"/>
+      <c r="C37" s="533" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="533"/>
+      <c r="E37" s="533"/>
+      <c r="F37" s="534"/>
+      <c r="G37" s="472"/>
+      <c r="H37" s="472"/>
+      <c r="I37" s="472"/>
+      <c r="J37" s="472"/>
+      <c r="K37" s="472"/>
+      <c r="L37" s="472"/>
+      <c r="M37" s="473"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="476"/>
-      <c r="B38" s="477"/>
-      <c r="C38" s="473"/>
-      <c r="D38" s="473"/>
-      <c r="E38" s="473"/>
-      <c r="F38" s="537"/>
-      <c r="G38" s="478" t="s">
-        <v>418</v>
-      </c>
-      <c r="H38" s="458"/>
-      <c r="I38" s="458"/>
-      <c r="J38" s="458"/>
-      <c r="K38" s="458"/>
-      <c r="L38" s="458"/>
-      <c r="M38" s="538"/>
+      <c r="A38" s="474"/>
+      <c r="B38" s="475"/>
+      <c r="C38" s="471"/>
+      <c r="D38" s="471"/>
+      <c r="E38" s="471"/>
+      <c r="F38" s="535"/>
+      <c r="G38" s="476" t="s">
+        <v>394</v>
+      </c>
+      <c r="H38" s="456"/>
+      <c r="I38" s="456"/>
+      <c r="J38" s="456"/>
+      <c r="K38" s="456"/>
+      <c r="L38" s="456"/>
+      <c r="M38" s="536"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="476"/>
-      <c r="B39" s="477"/>
-      <c r="C39" s="473"/>
-      <c r="D39" s="473"/>
-      <c r="E39" s="473"/>
-      <c r="F39" s="537"/>
-      <c r="G39" s="517"/>
-      <c r="H39" s="483"/>
-      <c r="I39" s="518"/>
-      <c r="J39" s="518"/>
-      <c r="K39" s="518"/>
-      <c r="L39" s="518"/>
-      <c r="M39" s="516"/>
+      <c r="A39" s="474"/>
+      <c r="B39" s="475"/>
+      <c r="C39" s="471"/>
+      <c r="D39" s="471"/>
+      <c r="E39" s="471"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="515"/>
+      <c r="H39" s="481"/>
+      <c r="I39" s="516"/>
+      <c r="J39" s="516"/>
+      <c r="K39" s="516"/>
+      <c r="L39" s="516"/>
+      <c r="M39" s="514"/>
     </row>
     <row r="40" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="519"/>
-      <c r="B40" s="520"/>
-      <c r="C40" s="539"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="539"/>
-      <c r="F40" s="540"/>
-      <c r="G40" s="482"/>
-      <c r="H40" s="483"/>
-      <c r="I40" s="484"/>
-      <c r="J40" s="484"/>
-      <c r="K40" s="484"/>
-      <c r="L40" s="484"/>
-      <c r="M40" s="485"/>
+      <c r="A40" s="517"/>
+      <c r="B40" s="518"/>
+      <c r="C40" s="537"/>
+      <c r="D40" s="537"/>
+      <c r="E40" s="537"/>
+      <c r="F40" s="538"/>
+      <c r="G40" s="480"/>
+      <c r="H40" s="481"/>
+      <c r="I40" s="482"/>
+      <c r="J40" s="482"/>
+      <c r="K40" s="482"/>
+      <c r="L40" s="482"/>
+      <c r="M40" s="483"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="541" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" s="542"/>
-      <c r="C41" s="514" t="s">
-        <v>420</v>
-      </c>
-      <c r="D41" s="514"/>
-      <c r="E41" s="514"/>
-      <c r="F41" s="515"/>
-      <c r="G41" s="474"/>
-      <c r="H41" s="474"/>
-      <c r="I41" s="543"/>
-      <c r="J41" s="543"/>
-      <c r="K41" s="544"/>
-      <c r="L41" s="544"/>
-      <c r="M41" s="545"/>
+      <c r="A41" s="539" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="540"/>
+      <c r="C41" s="512" t="s">
+        <v>396</v>
+      </c>
+      <c r="D41" s="512"/>
+      <c r="E41" s="512"/>
+      <c r="F41" s="513"/>
+      <c r="G41" s="472"/>
+      <c r="H41" s="472"/>
+      <c r="I41" s="541"/>
+      <c r="J41" s="541"/>
+      <c r="K41" s="542"/>
+      <c r="L41" s="542"/>
+      <c r="M41" s="543"/>
     </row>
     <row r="42" ht="0.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="546"/>
-      <c r="B42" s="547"/>
-      <c r="C42" s="514"/>
-      <c r="D42" s="514"/>
-      <c r="E42" s="514"/>
-      <c r="F42" s="515"/>
-      <c r="G42" s="548"/>
-      <c r="H42" s="548"/>
-      <c r="I42" s="548"/>
-      <c r="J42" s="548"/>
-      <c r="K42" s="548"/>
-      <c r="L42" s="548"/>
-      <c r="M42" s="549"/>
+      <c r="A42" s="544"/>
+      <c r="B42" s="545"/>
+      <c r="C42" s="512"/>
+      <c r="D42" s="512"/>
+      <c r="E42" s="512"/>
+      <c r="F42" s="513"/>
+      <c r="G42" s="546"/>
+      <c r="H42" s="546"/>
+      <c r="I42" s="546"/>
+      <c r="J42" s="546"/>
+      <c r="K42" s="546"/>
+      <c r="L42" s="546"/>
+      <c r="M42" s="547"/>
       <c r="N42" s="282"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="546" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" s="547"/>
-      <c r="C43" s="514" t="s">
-        <v>422</v>
-      </c>
-      <c r="D43" s="514"/>
-      <c r="E43" s="514"/>
-      <c r="F43" s="515"/>
+      <c r="A43" s="544" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="545"/>
+      <c r="C43" s="512" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="512"/>
+      <c r="E43" s="512"/>
+      <c r="F43" s="513"/>
       <c r="G43" s="282"/>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
@@ -13431,34 +13331,34 @@
       <c r="N43" s="282"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="546"/>
-      <c r="B44" s="547"/>
-      <c r="C44" s="514"/>
-      <c r="D44" s="514"/>
-      <c r="E44" s="514"/>
-      <c r="F44" s="515"/>
-      <c r="G44" s="550" t="s">
-        <v>423</v>
-      </c>
-      <c r="H44" s="551"/>
-      <c r="I44" s="530"/>
-      <c r="J44" s="530"/>
+      <c r="A44" s="544"/>
+      <c r="B44" s="545"/>
+      <c r="C44" s="512"/>
+      <c r="D44" s="512"/>
+      <c r="E44" s="512"/>
+      <c r="F44" s="513"/>
+      <c r="G44" s="548" t="s">
+        <v>399</v>
+      </c>
+      <c r="H44" s="549"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="528"/>
       <c r="K44" s="282"/>
-      <c r="L44" s="534"/>
-      <c r="M44" s="552"/>
-      <c r="N44" s="529"/>
+      <c r="L44" s="532"/>
+      <c r="M44" s="550"/>
+      <c r="N44" s="527"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="546" t="s">
-        <v>424</v>
-      </c>
-      <c r="B45" s="547"/>
-      <c r="C45" s="515" t="s">
-        <v>425</v>
-      </c>
-      <c r="D45" s="515"/>
-      <c r="E45" s="515"/>
-      <c r="F45" s="515"/>
+      <c r="A45" s="544" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="545"/>
+      <c r="C45" s="513" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="513"/>
+      <c r="E45" s="513"/>
+      <c r="F45" s="513"/>
       <c r="G45" s="282"/>
       <c r="H45" s="282"/>
       <c r="I45" s="282"/>
@@ -13469,34 +13369,34 @@
       <c r="N45" s="282"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="546"/>
-      <c r="B46" s="547"/>
-      <c r="C46" s="515"/>
-      <c r="D46" s="515"/>
-      <c r="E46" s="515"/>
-      <c r="F46" s="515"/>
-      <c r="G46" s="553" t="s">
-        <v>426</v>
-      </c>
-      <c r="H46" s="554"/>
-      <c r="I46" s="530"/>
-      <c r="J46" s="530"/>
-      <c r="K46" s="530"/>
-      <c r="L46" s="534"/>
-      <c r="M46" s="552"/>
-      <c r="N46" s="529"/>
+      <c r="A46" s="544"/>
+      <c r="B46" s="545"/>
+      <c r="C46" s="513"/>
+      <c r="D46" s="513"/>
+      <c r="E46" s="513"/>
+      <c r="F46" s="513"/>
+      <c r="G46" s="551" t="s">
+        <v>402</v>
+      </c>
+      <c r="H46" s="552"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="528"/>
+      <c r="K46" s="528"/>
+      <c r="L46" s="532"/>
+      <c r="M46" s="550"/>
+      <c r="N46" s="527"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="546" t="s">
-        <v>427</v>
-      </c>
-      <c r="B47" s="547"/>
-      <c r="C47" s="514" t="s">
-        <v>428</v>
-      </c>
-      <c r="D47" s="514"/>
-      <c r="E47" s="555"/>
-      <c r="F47" s="556"/>
+      <c r="A47" s="544" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47" s="545"/>
+      <c r="C47" s="512" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="512"/>
+      <c r="E47" s="553"/>
+      <c r="F47" s="554"/>
       <c r="G47" s="282"/>
       <c r="H47" s="282"/>
       <c r="I47" s="282"/>
@@ -13507,405 +13407,405 @@
       <c r="N47" s="282"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="557"/>
-      <c r="B48" s="558"/>
-      <c r="C48" s="558"/>
-      <c r="D48" s="558"/>
-      <c r="E48" s="558"/>
-      <c r="F48" s="559"/>
-      <c r="G48" s="560" t="s">
-        <v>426</v>
-      </c>
-      <c r="H48" s="561"/>
-      <c r="I48" s="562"/>
-      <c r="J48" s="562"/>
-      <c r="K48" s="562"/>
-      <c r="L48" s="534"/>
-      <c r="M48" s="563"/>
-      <c r="N48" s="529"/>
+      <c r="A48" s="555"/>
+      <c r="B48" s="556"/>
+      <c r="C48" s="556"/>
+      <c r="D48" s="556"/>
+      <c r="E48" s="556"/>
+      <c r="F48" s="557"/>
+      <c r="G48" s="558" t="s">
+        <v>402</v>
+      </c>
+      <c r="H48" s="559"/>
+      <c r="I48" s="560"/>
+      <c r="J48" s="560"/>
+      <c r="K48" s="560"/>
+      <c r="L48" s="532"/>
+      <c r="M48" s="561"/>
+      <c r="N48" s="527"/>
     </row>
     <row r="49" ht="6.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="564"/>
-      <c r="B49" s="565"/>
-      <c r="C49" s="565"/>
-      <c r="D49" s="565"/>
-      <c r="E49" s="565"/>
-      <c r="F49" s="566"/>
-      <c r="G49" s="567"/>
-      <c r="H49" s="568"/>
-      <c r="I49" s="568"/>
-      <c r="J49" s="568"/>
-      <c r="K49" s="568"/>
-      <c r="L49" s="568"/>
-      <c r="M49" s="569"/>
-      <c r="N49" s="529"/>
+      <c r="A49" s="562"/>
+      <c r="B49" s="563"/>
+      <c r="C49" s="563"/>
+      <c r="D49" s="563"/>
+      <c r="E49" s="563"/>
+      <c r="F49" s="564"/>
+      <c r="G49" s="565"/>
+      <c r="H49" s="566"/>
+      <c r="I49" s="566"/>
+      <c r="J49" s="566"/>
+      <c r="K49" s="566"/>
+      <c r="L49" s="566"/>
+      <c r="M49" s="567"/>
+      <c r="N49" s="527"/>
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="570" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" s="571"/>
-      <c r="C50" s="572" t="s">
-        <v>430</v>
-      </c>
-      <c r="D50" s="572"/>
-      <c r="E50" s="572"/>
-      <c r="F50" s="572"/>
-      <c r="G50" s="572"/>
-      <c r="H50" s="572"/>
-      <c r="I50" s="573"/>
-      <c r="J50" s="574"/>
-      <c r="K50" s="575"/>
-      <c r="L50" s="575"/>
-      <c r="M50" s="576"/>
+      <c r="A50" s="568" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" s="569"/>
+      <c r="C50" s="570" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="570"/>
+      <c r="E50" s="570"/>
+      <c r="F50" s="570"/>
+      <c r="G50" s="570"/>
+      <c r="H50" s="570"/>
+      <c r="I50" s="571"/>
+      <c r="J50" s="572"/>
+      <c r="K50" s="573"/>
+      <c r="L50" s="573"/>
+      <c r="M50" s="574"/>
       <c r="N50" s="282"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="577" t="s">
-        <v>431</v>
-      </c>
-      <c r="B51" s="578"/>
-      <c r="C51" s="578"/>
-      <c r="D51" s="578"/>
-      <c r="E51" s="579"/>
+      <c r="A51" s="575" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" s="576"/>
+      <c r="C51" s="576"/>
+      <c r="D51" s="576"/>
+      <c r="E51" s="577"/>
       <c r="F51" s="294" t="s">
-        <v>432</v>
-      </c>
-      <c r="G51" s="580" t="s">
-        <v>433</v>
-      </c>
-      <c r="H51" s="426"/>
-      <c r="I51" s="429"/>
-      <c r="J51" s="581"/>
-      <c r="K51" s="582"/>
-      <c r="L51" s="582"/>
-      <c r="M51" s="583"/>
+        <v>408</v>
+      </c>
+      <c r="G51" s="578" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51" s="424"/>
+      <c r="I51" s="427"/>
+      <c r="J51" s="579"/>
+      <c r="K51" s="580"/>
+      <c r="L51" s="580"/>
+      <c r="M51" s="581"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="584"/>
-      <c r="B52" s="585"/>
-      <c r="C52" s="586"/>
-      <c r="D52" s="586"/>
-      <c r="E52" s="587"/>
-      <c r="F52" s="588"/>
-      <c r="G52" s="589"/>
-      <c r="H52" s="590"/>
-      <c r="I52" s="591"/>
-      <c r="J52" s="581"/>
-      <c r="K52" s="582"/>
-      <c r="L52" s="582"/>
-      <c r="M52" s="583"/>
+      <c r="A52" s="582"/>
+      <c r="B52" s="583"/>
+      <c r="C52" s="584"/>
+      <c r="D52" s="584"/>
+      <c r="E52" s="585"/>
+      <c r="F52" s="586"/>
+      <c r="G52" s="587"/>
+      <c r="H52" s="588"/>
+      <c r="I52" s="589"/>
+      <c r="J52" s="579"/>
+      <c r="K52" s="580"/>
+      <c r="L52" s="580"/>
+      <c r="M52" s="581"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="584"/>
-      <c r="B53" s="585"/>
-      <c r="C53" s="585"/>
-      <c r="D53" s="585"/>
-      <c r="E53" s="592"/>
-      <c r="F53" s="588"/>
-      <c r="G53" s="589"/>
-      <c r="H53" s="590"/>
-      <c r="I53" s="591"/>
-      <c r="J53" s="581"/>
-      <c r="K53" s="582"/>
-      <c r="L53" s="582"/>
-      <c r="M53" s="583"/>
+      <c r="A53" s="582"/>
+      <c r="B53" s="583"/>
+      <c r="C53" s="583"/>
+      <c r="D53" s="583"/>
+      <c r="E53" s="590"/>
+      <c r="F53" s="586"/>
+      <c r="G53" s="587"/>
+      <c r="H53" s="588"/>
+      <c r="I53" s="589"/>
+      <c r="J53" s="579"/>
+      <c r="K53" s="580"/>
+      <c r="L53" s="580"/>
+      <c r="M53" s="581"/>
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="593"/>
-      <c r="B54" s="594"/>
-      <c r="C54" s="595"/>
-      <c r="D54" s="595"/>
-      <c r="E54" s="596"/>
-      <c r="F54" s="597"/>
-      <c r="G54" s="598"/>
-      <c r="H54" s="599"/>
-      <c r="I54" s="600"/>
-      <c r="J54" s="581"/>
-      <c r="K54" s="582"/>
-      <c r="L54" s="582"/>
-      <c r="M54" s="583"/>
+      <c r="A54" s="591"/>
+      <c r="B54" s="592"/>
+      <c r="C54" s="593"/>
+      <c r="D54" s="593"/>
+      <c r="E54" s="594"/>
+      <c r="F54" s="595"/>
+      <c r="G54" s="596"/>
+      <c r="H54" s="597"/>
+      <c r="I54" s="598"/>
+      <c r="J54" s="579"/>
+      <c r="K54" s="580"/>
+      <c r="L54" s="580"/>
+      <c r="M54" s="581"/>
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="442" t="s">
-        <v>434</v>
-      </c>
-      <c r="B55" s="443"/>
-      <c r="C55" s="601" t="s">
-        <v>435</v>
-      </c>
-      <c r="D55" s="601"/>
-      <c r="E55" s="601"/>
-      <c r="F55" s="601"/>
-      <c r="G55" s="601"/>
-      <c r="H55" s="601"/>
-      <c r="I55" s="602"/>
-      <c r="J55" s="582"/>
-      <c r="K55" s="582"/>
-      <c r="L55" s="582"/>
-      <c r="M55" s="583"/>
+      <c r="A55" s="440" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" s="441"/>
+      <c r="C55" s="599" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="599"/>
+      <c r="E55" s="599"/>
+      <c r="F55" s="599"/>
+      <c r="G55" s="599"/>
+      <c r="H55" s="599"/>
+      <c r="I55" s="600"/>
+      <c r="J55" s="580"/>
+      <c r="K55" s="580"/>
+      <c r="L55" s="580"/>
+      <c r="M55" s="581"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="603"/>
-      <c r="B56" s="604"/>
-      <c r="C56" s="605"/>
-      <c r="D56" s="605"/>
-      <c r="E56" s="605"/>
-      <c r="F56" s="605"/>
-      <c r="G56" s="605"/>
-      <c r="H56" s="605"/>
-      <c r="I56" s="606"/>
-      <c r="J56" s="607"/>
-      <c r="K56" s="608" t="s">
-        <v>436</v>
-      </c>
-      <c r="L56" s="608"/>
-      <c r="M56" s="609"/>
+      <c r="A56" s="601"/>
+      <c r="B56" s="602"/>
+      <c r="C56" s="603"/>
+      <c r="D56" s="603"/>
+      <c r="E56" s="603"/>
+      <c r="F56" s="603"/>
+      <c r="G56" s="603"/>
+      <c r="H56" s="603"/>
+      <c r="I56" s="604"/>
+      <c r="J56" s="605"/>
+      <c r="K56" s="606" t="s">
+        <v>412</v>
+      </c>
+      <c r="L56" s="606"/>
+      <c r="M56" s="607"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="603"/>
-      <c r="B57" s="604"/>
-      <c r="C57" s="605"/>
-      <c r="D57" s="605"/>
-      <c r="E57" s="605"/>
-      <c r="F57" s="605"/>
-      <c r="G57" s="605"/>
-      <c r="H57" s="605"/>
-      <c r="I57" s="606"/>
-      <c r="J57" s="608"/>
-      <c r="K57" s="608"/>
-      <c r="L57" s="608"/>
-      <c r="M57" s="610"/>
+      <c r="A57" s="601"/>
+      <c r="B57" s="602"/>
+      <c r="C57" s="603"/>
+      <c r="D57" s="603"/>
+      <c r="E57" s="603"/>
+      <c r="F57" s="603"/>
+      <c r="G57" s="603"/>
+      <c r="H57" s="603"/>
+      <c r="I57" s="604"/>
+      <c r="J57" s="606"/>
+      <c r="K57" s="606"/>
+      <c r="L57" s="606"/>
+      <c r="M57" s="608"/>
     </row>
     <row r="58" ht="7.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="611"/>
-      <c r="B58" s="612"/>
-      <c r="C58" s="613"/>
-      <c r="D58" s="613"/>
-      <c r="E58" s="613"/>
-      <c r="F58" s="613"/>
-      <c r="G58" s="613"/>
-      <c r="H58" s="613"/>
-      <c r="I58" s="614"/>
+      <c r="A58" s="609"/>
+      <c r="B58" s="610"/>
+      <c r="C58" s="611"/>
+      <c r="D58" s="611"/>
+      <c r="E58" s="611"/>
+      <c r="F58" s="611"/>
+      <c r="G58" s="611"/>
+      <c r="H58" s="611"/>
+      <c r="I58" s="612"/>
       <c r="J58" s="282"/>
-      <c r="K58" s="615"/>
-      <c r="L58" s="616"/>
+      <c r="K58" s="613"/>
+      <c r="L58" s="614"/>
       <c r="M58" s="378"/>
     </row>
     <row r="59" ht="8.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="617"/>
+      <c r="A59" s="615"/>
       <c r="B59" s="282"/>
-      <c r="C59" s="456"/>
-      <c r="D59" s="456"/>
-      <c r="E59" s="456"/>
-      <c r="F59" s="456"/>
-      <c r="G59" s="456"/>
-      <c r="H59" s="456"/>
-      <c r="I59" s="456"/>
+      <c r="C59" s="454"/>
+      <c r="D59" s="454"/>
+      <c r="E59" s="454"/>
+      <c r="F59" s="454"/>
+      <c r="G59" s="454"/>
+      <c r="H59" s="454"/>
+      <c r="I59" s="454"/>
       <c r="J59" s="282"/>
-      <c r="K59" s="618"/>
-      <c r="L59" s="619"/>
+      <c r="K59" s="616"/>
+      <c r="L59" s="617"/>
       <c r="M59" s="378"/>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="620"/>
-      <c r="B60" s="621" t="s">
-        <v>437</v>
-      </c>
-      <c r="C60" s="622"/>
-      <c r="D60" s="623"/>
+      <c r="A60" s="618"/>
+      <c r="B60" s="619" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" s="620"/>
+      <c r="D60" s="621"/>
       <c r="E60" s="282"/>
-      <c r="F60" s="624"/>
-      <c r="G60" s="625"/>
-      <c r="H60" s="625"/>
-      <c r="I60" s="626"/>
+      <c r="F60" s="622"/>
+      <c r="G60" s="623"/>
+      <c r="H60" s="623"/>
+      <c r="I60" s="624"/>
       <c r="J60" s="282"/>
-      <c r="K60" s="618"/>
-      <c r="L60" s="619"/>
-      <c r="M60" s="627"/>
+      <c r="K60" s="616"/>
+      <c r="L60" s="617"/>
+      <c r="M60" s="625"/>
     </row>
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="620"/>
-      <c r="B61" s="628" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" s="629"/>
-      <c r="D61" s="630"/>
+      <c r="A61" s="618"/>
+      <c r="B61" s="626" t="s">
+        <v>414</v>
+      </c>
+      <c r="C61" s="627"/>
+      <c r="D61" s="628"/>
       <c r="E61" s="282"/>
-      <c r="F61" s="631"/>
-      <c r="G61" s="632"/>
-      <c r="H61" s="632"/>
-      <c r="I61" s="633"/>
+      <c r="F61" s="629"/>
+      <c r="G61" s="630"/>
+      <c r="H61" s="630"/>
+      <c r="I61" s="631"/>
       <c r="J61" s="282"/>
-      <c r="K61" s="618"/>
-      <c r="L61" s="619"/>
-      <c r="M61" s="627"/>
+      <c r="K61" s="616"/>
+      <c r="L61" s="617"/>
+      <c r="M61" s="625"/>
     </row>
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="620"/>
-      <c r="B62" s="634" t="s">
-        <v>439</v>
-      </c>
-      <c r="C62" s="635"/>
-      <c r="D62" s="636"/>
+      <c r="A62" s="618"/>
+      <c r="B62" s="632" t="s">
+        <v>415</v>
+      </c>
+      <c r="C62" s="633"/>
+      <c r="D62" s="634"/>
       <c r="E62" s="282"/>
-      <c r="F62" s="637"/>
-      <c r="G62" s="638"/>
-      <c r="H62" s="638"/>
-      <c r="I62" s="639"/>
+      <c r="F62" s="635"/>
+      <c r="G62" s="636"/>
+      <c r="H62" s="636"/>
+      <c r="I62" s="637"/>
       <c r="J62" s="282"/>
-      <c r="K62" s="618"/>
-      <c r="L62" s="619"/>
-      <c r="M62" s="627"/>
+      <c r="K62" s="616"/>
+      <c r="L62" s="617"/>
+      <c r="M62" s="625"/>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="620"/>
-      <c r="B63" s="640"/>
-      <c r="C63" s="641"/>
-      <c r="D63" s="642"/>
+      <c r="A63" s="618"/>
+      <c r="B63" s="638"/>
+      <c r="C63" s="639"/>
+      <c r="D63" s="640"/>
       <c r="E63" s="282"/>
-      <c r="F63" s="643" t="s">
-        <v>440</v>
-      </c>
-      <c r="G63" s="644"/>
-      <c r="H63" s="644"/>
-      <c r="I63" s="645"/>
+      <c r="F63" s="641" t="s">
+        <v>416</v>
+      </c>
+      <c r="G63" s="642"/>
+      <c r="H63" s="642"/>
+      <c r="I63" s="643"/>
       <c r="J63" s="282"/>
-      <c r="K63" s="618"/>
-      <c r="L63" s="619"/>
-      <c r="M63" s="627"/>
+      <c r="K63" s="616"/>
+      <c r="L63" s="617"/>
+      <c r="M63" s="625"/>
     </row>
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="620"/>
-      <c r="B64" s="634" t="s">
-        <v>441</v>
-      </c>
-      <c r="C64" s="635"/>
-      <c r="D64" s="636"/>
+      <c r="A64" s="618"/>
+      <c r="B64" s="632" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="633"/>
+      <c r="D64" s="634"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="646"/>
+      <c r="F64" s="644"/>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
-      <c r="J64" s="647"/>
-      <c r="K64" s="648"/>
-      <c r="L64" s="649"/>
-      <c r="M64" s="627"/>
+      <c r="J64" s="645"/>
+      <c r="K64" s="646"/>
+      <c r="L64" s="647"/>
+      <c r="M64" s="625"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="620"/>
-      <c r="B65" s="650"/>
-      <c r="C65" s="651"/>
-      <c r="D65" s="652"/>
+      <c r="A65" s="618"/>
+      <c r="B65" s="648"/>
+      <c r="C65" s="649"/>
+      <c r="D65" s="650"/>
       <c r="E65" s="282"/>
-      <c r="F65" s="653" t="s">
-        <v>442</v>
-      </c>
-      <c r="G65" s="654"/>
-      <c r="H65" s="654"/>
-      <c r="I65" s="655"/>
-      <c r="J65" s="647"/>
-      <c r="K65" s="656" t="s">
-        <v>443</v>
-      </c>
-      <c r="L65" s="657"/>
-      <c r="M65" s="627"/>
+      <c r="F65" s="651" t="s">
+        <v>418</v>
+      </c>
+      <c r="G65" s="652"/>
+      <c r="H65" s="652"/>
+      <c r="I65" s="653"/>
+      <c r="J65" s="645"/>
+      <c r="K65" s="654" t="s">
+        <v>419</v>
+      </c>
+      <c r="L65" s="655"/>
+      <c r="M65" s="625"/>
     </row>
     <row r="66" ht="8.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="650"/>
-      <c r="B66" s="651"/>
-      <c r="C66" s="658"/>
-      <c r="D66" s="658"/>
-      <c r="E66" s="659"/>
-      <c r="F66" s="658"/>
-      <c r="G66" s="658"/>
-      <c r="H66" s="658"/>
-      <c r="I66" s="658"/>
-      <c r="J66" s="651"/>
-      <c r="K66" s="660"/>
-      <c r="L66" s="660"/>
-      <c r="M66" s="661"/>
+      <c r="A66" s="648"/>
+      <c r="B66" s="649"/>
+      <c r="C66" s="656"/>
+      <c r="D66" s="656"/>
+      <c r="E66" s="657"/>
+      <c r="F66" s="656"/>
+      <c r="G66" s="656"/>
+      <c r="H66" s="656"/>
+      <c r="I66" s="656"/>
+      <c r="J66" s="649"/>
+      <c r="K66" s="658"/>
+      <c r="L66" s="658"/>
+      <c r="M66" s="659"/>
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="662" t="s">
-        <v>444</v>
-      </c>
-      <c r="B67" s="663"/>
-      <c r="C67" s="663"/>
-      <c r="D67" s="663"/>
-      <c r="E67" s="663"/>
-      <c r="F67" s="663"/>
-      <c r="G67" s="663"/>
-      <c r="H67" s="663"/>
-      <c r="I67" s="663"/>
-      <c r="J67" s="663"/>
-      <c r="K67" s="663"/>
-      <c r="L67" s="663"/>
-      <c r="M67" s="664"/>
+      <c r="A67" s="660" t="s">
+        <v>420</v>
+      </c>
+      <c r="B67" s="661"/>
+      <c r="C67" s="661"/>
+      <c r="D67" s="661"/>
+      <c r="E67" s="661"/>
+      <c r="F67" s="661"/>
+      <c r="G67" s="661"/>
+      <c r="H67" s="661"/>
+      <c r="I67" s="661"/>
+      <c r="J67" s="661"/>
+      <c r="K67" s="661"/>
+      <c r="L67" s="661"/>
+      <c r="M67" s="662"/>
     </row>
     <row r="68" ht="53.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="620"/>
-      <c r="B68" s="647"/>
-      <c r="C68" s="665"/>
-      <c r="D68" s="665"/>
-      <c r="E68" s="666"/>
-      <c r="F68" s="667"/>
-      <c r="G68" s="667"/>
-      <c r="H68" s="667"/>
-      <c r="I68" s="668"/>
-      <c r="J68" s="669"/>
-      <c r="K68" s="669"/>
+      <c r="A68" s="618"/>
+      <c r="B68" s="645"/>
+      <c r="C68" s="663"/>
+      <c r="D68" s="663"/>
+      <c r="E68" s="664"/>
+      <c r="F68" s="665"/>
+      <c r="G68" s="665"/>
+      <c r="H68" s="665"/>
+      <c r="I68" s="666"/>
+      <c r="J68" s="667"/>
+      <c r="K68" s="667"/>
       <c r="L68" s="282"/>
-      <c r="M68" s="627"/>
+      <c r="M68" s="625"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="620"/>
-      <c r="B69" s="647"/>
-      <c r="C69" s="582"/>
-      <c r="D69" s="582"/>
-      <c r="E69" s="670" t="s">
-        <v>445</v>
-      </c>
-      <c r="F69" s="671"/>
-      <c r="G69" s="671"/>
-      <c r="H69" s="671"/>
-      <c r="I69" s="672"/>
-      <c r="J69" s="673"/>
-      <c r="K69" s="674"/>
+      <c r="A69" s="618"/>
+      <c r="B69" s="645"/>
+      <c r="C69" s="580"/>
+      <c r="D69" s="580"/>
+      <c r="E69" s="668" t="s">
+        <v>421</v>
+      </c>
+      <c r="F69" s="669"/>
+      <c r="G69" s="669"/>
+      <c r="H69" s="669"/>
+      <c r="I69" s="670"/>
+      <c r="J69" s="671"/>
+      <c r="K69" s="672"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="627"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="675" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="676"/>
-      <c r="B70" s="677"/>
-      <c r="C70" s="677"/>
-      <c r="D70" s="677"/>
-      <c r="E70" s="677"/>
-      <c r="F70" s="677"/>
-      <c r="G70" s="677"/>
-      <c r="H70" s="677"/>
-      <c r="I70" s="677"/>
-      <c r="J70" s="677"/>
-      <c r="K70" s="677"/>
-      <c r="L70" s="677"/>
-      <c r="M70" s="678"/>
+      <c r="M69" s="625"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="673" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="674"/>
+      <c r="B70" s="675"/>
+      <c r="C70" s="675"/>
+      <c r="D70" s="675"/>
+      <c r="E70" s="675"/>
+      <c r="F70" s="675"/>
+      <c r="G70" s="675"/>
+      <c r="H70" s="675"/>
+      <c r="I70" s="675"/>
+      <c r="J70" s="675"/>
+      <c r="K70" s="675"/>
+      <c r="L70" s="675"/>
+      <c r="M70" s="676"/>
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="679" t="s">
-        <v>446</v>
-      </c>
-      <c r="B71" s="679"/>
-      <c r="C71" s="679"/>
-      <c r="D71" s="679"/>
-      <c r="E71" s="679"/>
-      <c r="F71" s="679"/>
-      <c r="G71" s="679"/>
-      <c r="H71" s="679"/>
-      <c r="I71" s="679"/>
-      <c r="J71" s="679"/>
-      <c r="K71" s="679"/>
-      <c r="L71" s="679"/>
-      <c r="M71" s="679"/>
+      <c r="A71" s="677" t="s">
+        <v>422</v>
+      </c>
+      <c r="B71" s="677"/>
+      <c r="C71" s="677"/>
+      <c r="D71" s="677"/>
+      <c r="E71" s="677"/>
+      <c r="F71" s="677"/>
+      <c r="G71" s="677"/>
+      <c r="H71" s="677"/>
+      <c r="I71" s="677"/>
+      <c r="J71" s="677"/>
+      <c r="K71" s="677"/>
+      <c r="L71" s="677"/>
+      <c r="M71" s="677"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -14018,36 +13918,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="680" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="680" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="680" t="s">
-        <v>449</v>
+      <c r="A1" s="678" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="678" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="678" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14057,7 +13957,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="459">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -79,7 +79,7 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hatdog</t>
+    <t xml:space="preserve"> Hassan</t>
   </si>
   <si>
     <t/>
@@ -88,10 +88,10 @@
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> asdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123123</t>
+    <t xml:space="preserve"> Adnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Married</t>
@@ -103,7 +103,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> t</t>
+    <t xml:space="preserve"> T.</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -119,13 +119,13 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>2024-08-01</t>
+    <t>2024-08-15</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
-    <t xml:space="preserve">☑ Filipino               ☐ Dual Citizenship
+    <t xml:space="preserve">☐ Filipino               ☑ Dual Citizenship
 </t>
   </si>
   <si>
@@ -135,7 +135,7 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>☐ by birth             ☐ by naturalization</t>
+    <t>☑ by birth             ☐ by naturalization</t>
   </si>
   <si>
     <t>4.</t>
@@ -144,7 +144,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>Maguindanao</t>
+    <t>Datu Piang, Maguindanao</t>
   </si>
   <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
@@ -165,10 +165,13 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>☐ Male                 ☐ Female</t>
+    <t>☑ Male                 ☐ Female</t>
   </si>
   <si>
     <t>please indicate the details.</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Others</t>
@@ -290,7 +293,7 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>12378123782</t>
   </si>
   <si>
     <t>Bangladesh</t>
@@ -305,6 +308,9 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
+    <t>55875695674</t>
+  </si>
+  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -317,7 +323,7 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
-    <t>23423423423</t>
+    <t>2367465856</t>
   </si>
   <si>
     <t>Belize</t>
@@ -329,7 +335,7 @@
     <t>SSS NO.</t>
   </si>
   <si>
-    <t>16584657456</t>
+    <t>47357835345</t>
   </si>
   <si>
     <t>19. TELEPHONE NO.</t>
@@ -341,13 +347,13 @@
     <t>14. TIN NO.</t>
   </si>
   <si>
-    <t>32423423423</t>
+    <t>346738756634</t>
   </si>
   <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
-    <t>99999</t>
+    <t>09460994104</t>
   </si>
   <si>
     <t>Bhutan</t>
@@ -377,9 +383,6 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> asds</t>
-  </si>
-  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -392,13 +395,13 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Adnan HASsan</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -407,6 +410,12 @@
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
+    <t>terst</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brunei </t>
   </si>
   <si>
@@ -440,9 +449,15 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ebrahim</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve"> Abdulkadir</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
@@ -462,6 +477,9 @@
   </si>
   <si>
     <t>Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anida</t>
   </si>
   <si>
     <t>Chad</t>
@@ -525,12 +543,33 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
+    <t>Example school</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
     <t>SECONDARY</t>
   </si>
   <si>
+    <t>MRTHS</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -543,6 +582,24 @@
     <t>COLLEGE</t>
   </si>
   <si>
+    <t>PUP - Taguig</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -561,9 +618,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-09-28</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -688,9 +742,6 @@
   </si>
   <si>
     <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -1067,6 +1118,18 @@
 Validity</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>965789678</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1097,6 +1160,15 @@
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
   </si>
   <si>
@@ -1116,6 +1188,15 @@
   </si>
   <si>
     <t>POSITION / NATURE OF WORK</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>123123</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -2619,7 +2700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="679">
+  <cellXfs count="669">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3878,10 +3959,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3890,30 +3967,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3924,27 +3981,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5605,15 +5646,15 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="31"/>
       <c r="P16" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5621,30 +5662,30 @@
         <v>6</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="92"/>
       <c r="F17" s="92"/>
       <c r="G17" s="93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
       <c r="L17" s="96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="97"/>
       <c r="Q17" s="57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5657,17 +5698,17 @@
       <c r="G18" s="102"/>
       <c r="H18" s="103"/>
       <c r="I18" s="104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
       <c r="L18" s="105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="105"/>
       <c r="N18" s="106"/>
       <c r="Q18" s="57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="5.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5685,12 +5726,12 @@
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" s="109"/>
       <c r="N19" s="111"/>
       <c r="Q19" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5698,7 +5739,7 @@
       <c r="B20" s="107"/>
       <c r="C20" s="112"/>
       <c r="D20" s="113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
@@ -5711,7 +5752,7 @@
       <c r="M20" s="115"/>
       <c r="N20" s="116"/>
       <c r="Q20" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5724,46 +5765,46 @@
       <c r="G21" s="69"/>
       <c r="H21" s="41"/>
       <c r="I21" s="122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="123"/>
       <c r="K21" s="123"/>
       <c r="L21" s="124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="125"/>
       <c r="N21" s="126"/>
       <c r="Q21" s="57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="129">
-        <v>32</v>
+        <v>3.35</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
       <c r="G22" s="69"/>
       <c r="H22" s="41"/>
       <c r="I22" s="95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
       <c r="L22" s="96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="96"/>
       <c r="N22" s="97"/>
       <c r="Q22" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="8.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5776,38 +5817,38 @@
       <c r="G23" s="69"/>
       <c r="H23" s="41"/>
       <c r="I23" s="134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="135"/>
       <c r="K23" s="135"/>
       <c r="L23" s="136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M23" s="136"/>
       <c r="N23" s="137"/>
       <c r="Q23" s="57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="139"/>
       <c r="D24" s="140">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="E24" s="140"/>
       <c r="F24" s="140"/>
       <c r="G24" s="141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="143" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" s="144"/>
       <c r="K24" s="144"/>
@@ -5815,38 +5856,38 @@
       <c r="M24" s="144"/>
       <c r="N24" s="145"/>
       <c r="Q24" s="57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="146" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
       <c r="G25" s="148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="127"/>
       <c r="I25" s="95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="96"/>
       <c r="N25" s="149"/>
       <c r="Q25" s="57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5859,29 +5900,29 @@
       <c r="G26" s="69"/>
       <c r="H26" s="41"/>
       <c r="I26" s="104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
       <c r="L26" s="105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="105"/>
       <c r="N26" s="106"/>
       <c r="Q26" s="57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="128"/>
       <c r="D27" s="147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="147"/>
       <c r="F27" s="147"/>
@@ -5893,12 +5934,12 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
       <c r="L27" s="96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="96"/>
       <c r="N27" s="149"/>
       <c r="Q27" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="9" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5911,29 +5952,29 @@
       <c r="G28" s="102"/>
       <c r="H28" s="103"/>
       <c r="I28" s="151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J28" s="152"/>
       <c r="K28" s="152"/>
       <c r="L28" s="153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M28" s="152"/>
       <c r="N28" s="154"/>
       <c r="Q28" s="57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="146" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="128"/>
       <c r="D29" s="147" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E29" s="147"/>
       <c r="F29" s="147"/>
@@ -5941,16 +5982,16 @@
       <c r="H29" s="155"/>
       <c r="I29" s="156"/>
       <c r="J29" s="157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" s="157"/>
       <c r="L29" s="157"/>
       <c r="M29" s="157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N29" s="158"/>
       <c r="Q29" s="57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="9.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5963,38 +6004,38 @@
       <c r="G30" s="102"/>
       <c r="H30" s="155"/>
       <c r="I30" s="159" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J30" s="159"/>
       <c r="K30" s="159"/>
       <c r="L30" s="159" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M30" s="159"/>
       <c r="N30" s="160"/>
       <c r="Q30" s="57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="147" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="147"/>
       <c r="F31" s="147"/>
       <c r="G31" s="141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
@@ -6002,24 +6043,24 @@
       <c r="M31" s="124"/>
       <c r="N31" s="161"/>
       <c r="Q31" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="140"/>
       <c r="G32" s="162" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H32" s="138"/>
       <c r="I32" s="143" t="s">
@@ -6031,26 +6072,26 @@
       <c r="M32" s="144"/>
       <c r="N32" s="145"/>
       <c r="Q32" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="162" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B33" s="139"/>
       <c r="C33" s="163"/>
       <c r="D33" s="140" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="140"/>
       <c r="G33" s="164" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H33" s="165"/>
       <c r="I33" s="143" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J33" s="144"/>
       <c r="K33" s="144"/>
@@ -6058,12 +6099,12 @@
       <c r="M33" s="144"/>
       <c r="N33" s="145"/>
       <c r="Q33" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="166" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="99"/>
       <c r="C34" s="167"/>
@@ -6073,11 +6114,11 @@
       <c r="E34" s="147"/>
       <c r="F34" s="147"/>
       <c r="G34" s="148" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H34" s="127"/>
       <c r="I34" s="108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J34" s="168"/>
       <c r="K34" s="168"/>
@@ -6085,12 +6126,12 @@
       <c r="M34" s="168"/>
       <c r="N34" s="169"/>
       <c r="Q34" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B35" s="171"/>
       <c r="C35" s="171"/>
@@ -6106,46 +6147,46 @@
       <c r="M35" s="171"/>
       <c r="N35" s="172"/>
       <c r="Q35" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="173" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="175" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="E36" s="175"/>
       <c r="F36" s="175"/>
       <c r="G36" s="175"/>
       <c r="H36" s="175"/>
       <c r="I36" s="176" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J36" s="176"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
       <c r="M36" s="178" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N36" s="179"/>
       <c r="Q36" s="57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
@@ -6160,44 +6201,48 @@
       <c r="K37" s="184"/>
       <c r="L37" s="185"/>
       <c r="M37" s="186" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="N37" s="187"/>
       <c r="Q37" s="57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
       <c r="B38" s="189" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="190"/>
       <c r="D38" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
       <c r="G38" s="181"/>
       <c r="H38" s="182"/>
-      <c r="I38" s="184"/>
+      <c r="I38" s="184" t="s">
+        <v>122</v>
+      </c>
       <c r="J38" s="184"/>
       <c r="K38" s="184"/>
       <c r="L38" s="185"/>
-      <c r="M38" s="186"/>
+      <c r="M38" s="186" t="s">
+        <v>123</v>
+      </c>
       <c r="N38" s="187"/>
       <c r="Q38" s="57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="191"/>
       <c r="B39" s="73" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C39" s="83"/>
       <c r="D39" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E39" s="192"/>
       <c r="F39" s="192"/>
@@ -6210,17 +6255,17 @@
       <c r="M39" s="186"/>
       <c r="N39" s="187"/>
       <c r="Q39" s="57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="191"/>
       <c r="B40" s="73" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E40" s="192"/>
       <c r="F40" s="192"/>
@@ -6233,17 +6278,17 @@
       <c r="M40" s="186"/>
       <c r="N40" s="187"/>
       <c r="Q40" s="57" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="191"/>
       <c r="B41" s="73" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E41" s="192"/>
       <c r="F41" s="192"/>
@@ -6256,17 +6301,17 @@
       <c r="M41" s="186"/>
       <c r="N41" s="187"/>
       <c r="Q41" s="57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
       <c r="B42" s="94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C42" s="193"/>
       <c r="D42" s="192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E42" s="192"/>
       <c r="F42" s="192"/>
@@ -6279,19 +6324,19 @@
       <c r="M42" s="186"/>
       <c r="N42" s="187"/>
       <c r="Q42" s="57" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="194" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B43" s="195" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="192" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -6304,7 +6349,7 @@
       <c r="M43" s="186"/>
       <c r="N43" s="187"/>
       <c r="Q43" s="57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6314,12 +6359,12 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="180" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182"/>
       <c r="G44" s="183" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H44" s="183"/>
       <c r="I44" s="184"/>
@@ -6329,7 +6374,7 @@
       <c r="M44" s="186"/>
       <c r="N44" s="187"/>
       <c r="Q44" s="57" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6339,7 +6384,7 @@
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="180" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="181"/>
@@ -6352,15 +6397,15 @@
       <c r="M45" s="186"/>
       <c r="N45" s="187"/>
       <c r="Q45" s="57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="127"/>
       <c r="D46" s="127"/>
@@ -6375,7 +6420,7 @@
       <c r="M46" s="186"/>
       <c r="N46" s="187"/>
       <c r="Q46" s="57" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6385,7 +6430,7 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="196" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E47" s="196"/>
       <c r="F47" s="196"/>
@@ -6398,7 +6443,7 @@
       <c r="M47" s="186"/>
       <c r="N47" s="187"/>
       <c r="Q47" s="57" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6408,7 +6453,7 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="196" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E48" s="196"/>
       <c r="F48" s="196"/>
@@ -6421,7 +6466,7 @@
       <c r="M48" s="186"/>
       <c r="N48" s="187"/>
       <c r="Q48" s="57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6431,14 +6476,14 @@
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="198" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E49" s="198"/>
       <c r="F49" s="198"/>
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="199" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J49" s="199"/>
       <c r="K49" s="199"/>
@@ -6446,12 +6491,12 @@
       <c r="M49" s="199"/>
       <c r="N49" s="200"/>
       <c r="Q49" s="57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B50" s="201"/>
       <c r="C50" s="202"/>
@@ -6461,7 +6506,7 @@
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J50" s="204"/>
       <c r="K50" s="204"/>
@@ -6469,42 +6514,42 @@
       <c r="M50" s="204"/>
       <c r="N50" s="205"/>
       <c r="Q50" s="57" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="206" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B51" s="207" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C51" s="207"/>
       <c r="D51" s="208" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E51" s="209"/>
       <c r="F51" s="210"/>
       <c r="G51" s="208" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H51" s="209"/>
       <c r="I51" s="211"/>
       <c r="J51" s="212" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K51" s="213"/>
       <c r="L51" s="214" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N51" s="216" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q51" s="57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6523,7 +6568,7 @@
       <c r="M52" s="215"/>
       <c r="N52" s="216"/>
       <c r="Q52" s="57" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6537,10 +6582,10 @@
       <c r="H53" s="226"/>
       <c r="I53" s="227"/>
       <c r="J53" s="228" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K53" s="229" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L53" s="230"/>
       <c r="M53" s="231"/>
@@ -6548,69 +6593,83 @@
       <c r="O53" s="233"/>
       <c r="P53" s="233"/>
       <c r="Q53" s="57" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C54" s="235"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="236" t="s">
+        <v>166</v>
+      </c>
       <c r="E54" s="237"/>
       <c r="F54" s="238"/>
-      <c r="G54" s="239"/>
+      <c r="G54" s="239" t="s">
+        <v>14</v>
+      </c>
       <c r="H54" s="240"/>
       <c r="I54" s="241"/>
-      <c r="J54" s="242"/>
-      <c r="K54" s="243"/>
-      <c r="L54" s="244"/>
-      <c r="M54" s="245"/>
-      <c r="N54" s="246"/>
+      <c r="J54" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="K54" s="243" t="s">
+        <v>168</v>
+      </c>
+      <c r="L54" s="244" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="245" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="246" t="s">
+        <v>14</v>
+      </c>
       <c r="Q54" s="57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C55" s="235"/>
       <c r="D55" s="236" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E55" s="237"/>
       <c r="F55" s="238"/>
       <c r="G55" s="239" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H55" s="240"/>
       <c r="I55" s="241"/>
       <c r="J55" s="242" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="K55" s="247" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L55" s="248" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="249" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="N55" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="57" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C56" s="235"/>
       <c r="D56" s="236"/>
@@ -6625,34 +6684,48 @@
       <c r="M56" s="245"/>
       <c r="N56" s="246"/>
       <c r="Q56" s="57" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C57" s="235"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="236" t="s">
+        <v>179</v>
+      </c>
       <c r="E57" s="237"/>
       <c r="F57" s="238"/>
-      <c r="G57" s="250"/>
+      <c r="G57" s="250" t="s">
+        <v>180</v>
+      </c>
       <c r="H57" s="251"/>
       <c r="I57" s="252"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="247"/>
-      <c r="L57" s="244"/>
-      <c r="M57" s="249"/>
-      <c r="N57" s="246"/>
+      <c r="J57" s="242" t="s">
+        <v>181</v>
+      </c>
+      <c r="K57" s="247" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="244" t="s">
+        <v>183</v>
+      </c>
+      <c r="M57" s="249" t="s">
+        <v>184</v>
+      </c>
+      <c r="N57" s="246" t="s">
+        <v>14</v>
+      </c>
       <c r="Q57" s="57" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="253"/>
       <c r="B58" s="254" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="255"/>
@@ -6667,12 +6740,12 @@
       <c r="M58" s="264"/>
       <c r="N58" s="246"/>
       <c r="Q58" s="57" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B59" s="266"/>
       <c r="C59" s="266"/>
@@ -6688,12 +6761,12 @@
       <c r="M59" s="266"/>
       <c r="N59" s="267"/>
       <c r="Q59" s="57" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="90" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B60" s="269"/>
       <c r="C60" s="270"/>
@@ -6704,23 +6777,23 @@
       <c r="H60" s="272"/>
       <c r="I60" s="273"/>
       <c r="J60" s="274" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6736,7 +6809,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6757,7 +6830,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6776,7 +6849,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6795,7 +6868,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6814,7 +6887,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6833,7 +6906,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6852,7 +6925,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6871,7 +6944,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6890,7 +6963,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6909,7 +6982,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6928,7 +7001,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6947,7 +7020,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6966,7 +7039,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6985,7 +7058,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7004,7 +7077,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7023,7 +7096,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7042,7 +7115,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7061,7 +7134,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7080,7 +7153,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7099,7 +7172,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7118,7 +7191,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7137,7 +7210,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7156,7 +7229,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7175,7 +7248,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7194,7 +7267,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7213,7 +7286,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7232,7 +7305,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7251,7 +7324,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7270,7 +7343,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7289,7 +7362,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7308,7 +7381,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7327,7 +7400,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7346,7 +7419,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7365,7 +7438,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7384,7 +7457,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7403,7 +7476,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7422,7 +7495,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7441,7 +7514,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7460,7 +7533,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7479,7 +7552,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7498,7 +7571,7 @@
       <c r="M101" s="281"/>
       <c r="N101" s="281"/>
       <c r="Q101" s="57" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7517,7 +7590,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7536,7 +7609,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7555,7 +7628,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7574,7 +7647,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7593,7 +7666,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7612,7 +7685,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7631,7 +7704,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7650,7 +7723,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7669,7 +7742,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7688,7 +7761,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7707,7 +7780,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7726,7 +7799,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7745,7 +7818,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7764,7 +7837,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7783,7 +7856,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7802,7 +7875,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7821,7 +7894,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7840,7 +7913,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7859,7 +7932,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7878,7 +7951,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7897,7 +7970,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7916,7 +7989,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7935,7 +8008,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7954,7 +8027,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7973,7 +8046,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7992,7 +8065,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8011,7 +8084,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8030,7 +8103,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8049,7 +8122,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8068,7 +8141,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8087,7 +8160,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8106,7 +8179,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8125,7 +8198,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8144,7 +8217,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8163,7 +8236,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8182,7 +8255,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8201,7 +8274,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8220,7 +8293,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8239,7 +8312,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8258,7 +8331,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8277,7 +8350,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8296,7 +8369,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8315,7 +8388,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8334,7 +8407,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8353,7 +8426,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8372,7 +8445,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8391,7 +8464,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8410,7 +8483,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8429,7 +8502,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8448,7 +8521,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8467,7 +8540,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8486,7 +8559,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8505,7 +8578,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8524,7 +8597,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8543,7 +8616,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8562,7 +8635,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8581,7 +8654,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8600,7 +8673,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8619,7 +8692,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8638,7 +8711,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8657,7 +8730,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8676,7 +8749,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8695,7 +8768,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8714,7 +8787,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8733,7 +8806,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8752,7 +8825,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8771,7 +8844,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8790,7 +8863,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8809,7 +8882,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8828,7 +8901,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8847,7 +8920,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8866,7 +8939,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8885,7 +8958,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8904,7 +8977,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8923,7 +8996,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8942,7 +9015,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8961,7 +9034,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8980,7 +9053,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8999,7 +9072,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9018,7 +9091,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9037,7 +9110,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9056,7 +9129,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9075,7 +9148,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9094,7 +9167,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9113,7 +9186,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9132,7 +9205,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9151,7 +9224,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9170,7 +9243,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9189,7 +9262,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9208,7 +9281,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9227,7 +9300,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9246,7 +9319,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9265,7 +9338,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9284,7 +9357,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9303,7 +9376,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9322,7 +9395,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9341,7 +9414,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9360,7 +9433,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9379,7 +9452,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9398,7 +9471,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9417,7 +9490,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9436,7 +9509,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9455,7 +9528,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9474,7 +9547,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9493,7 +9566,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9512,7 +9585,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9531,7 +9604,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9550,7 +9623,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9569,7 +9642,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9588,7 +9661,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9607,7 +9680,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9626,7 +9699,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9645,7 +9718,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9664,7 +9737,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9683,7 +9756,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10855,7 +10928,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10872,28 +10945,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10910,41 +10983,65 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
+      <c r="A5" s="303" t="s">
+        <v>357</v>
+      </c>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
       <c r="D5" s="304"/>
       <c r="E5" s="304"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="F5" s="305" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="306">
+        <v>45555</v>
+      </c>
       <c r="H5" s="306"/>
-      <c r="I5" s="307"/>
+      <c r="I5" s="307" t="s">
+        <v>358</v>
+      </c>
       <c r="J5" s="307"/>
       <c r="K5" s="307"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="309"/>
+      <c r="L5" s="308" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="309">
+        <v>45542</v>
+      </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="303"/>
+      <c r="A6" s="303" t="s">
+        <v>358</v>
+      </c>
       <c r="B6" s="304"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
       <c r="E6" s="304"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="310"/>
+      <c r="F6" s="305" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="310" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="311"/>
-      <c r="I6" s="307"/>
+      <c r="I6" s="307" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="307"/>
       <c r="K6" s="307"/>
-      <c r="L6" s="308"/>
-      <c r="M6" s="309"/>
+      <c r="L6" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="309" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="303"/>
@@ -11023,7 +11120,7 @@
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="319" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B12" s="320"/>
       <c r="C12" s="320"/>
@@ -11040,7 +11137,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11057,7 +11154,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11074,33 +11171,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="K15" s="328" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L15" s="329" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M15" s="330" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11120,11 +11217,11 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="332" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B17" s="333"/>
       <c r="C17" s="334" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D17" s="300"/>
       <c r="E17" s="297"/>
@@ -11138,19 +11235,35 @@
       <c r="M17" s="338"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="340"/>
+      <c r="A18" s="340">
+        <v>45548</v>
+      </c>
       <c r="B18" s="341"/>
-      <c r="C18" s="341"/>
-      <c r="D18" s="304"/>
+      <c r="C18" s="341">
+        <v>45547</v>
+      </c>
+      <c r="D18" s="304" t="s">
+        <v>358</v>
+      </c>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
+      <c r="G18" s="304" t="s">
+        <v>358</v>
+      </c>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
-      <c r="J18" s="342"/>
-      <c r="K18" s="308"/>
-      <c r="L18" s="308"/>
-      <c r="M18" s="343"/>
+      <c r="J18" s="342" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="308" t="s">
+        <v>358</v>
+      </c>
+      <c r="L18" s="308" t="s">
+        <v>372</v>
+      </c>
+      <c r="M18" s="343" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="340"/>
@@ -11559,7 +11672,7 @@
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="348" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B46" s="349"/>
       <c r="C46" s="349"/>
@@ -11576,7 +11689,7 @@
     </row>
     <row r="47" ht="60" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
@@ -11586,11 +11699,11 @@
       <c r="G47" s="353"/>
       <c r="H47" s="354"/>
       <c r="I47" s="355" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J47" s="356"/>
       <c r="K47" s="357" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L47" s="357"/>
       <c r="M47" s="358"/>
@@ -11598,7 +11711,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11793,7 +11906,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11808,22 +11921,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11848,10 +11961,10 @@
       <c r="C5" s="380"/>
       <c r="D5" s="381"/>
       <c r="E5" s="333" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F5" s="334" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G5" s="336"/>
       <c r="H5" s="382"/>
@@ -11860,27 +11973,47 @@
       <c r="K5" s="126"/>
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="383"/>
+      <c r="A6" s="383" t="s">
+        <v>381</v>
+      </c>
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
       <c r="D6" s="244"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="385"/>
+      <c r="E6" s="306">
+        <v>45554</v>
+      </c>
+      <c r="F6" s="306">
+        <v>45560</v>
+      </c>
+      <c r="G6" s="305">
+        <v>123</v>
+      </c>
+      <c r="H6" s="385" t="s">
+        <v>382</v>
+      </c>
       <c r="I6" s="386"/>
       <c r="J6" s="386"/>
       <c r="K6" s="387"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="383"/>
+      <c r="A7" s="383" t="s">
+        <v>383</v>
+      </c>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
       <c r="D7" s="244"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="385"/>
+      <c r="E7" s="306">
+        <v>45540</v>
+      </c>
+      <c r="F7" s="306">
+        <v>45549</v>
+      </c>
+      <c r="G7" s="305">
+        <v>23</v>
+      </c>
+      <c r="H7" s="385" t="s">
+        <v>358</v>
+      </c>
       <c r="I7" s="386"/>
       <c r="J7" s="386"/>
       <c r="K7" s="387"/>
@@ -11952,7 +12085,7 @@
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="319" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" s="320"/>
       <c r="C13" s="320"/>
@@ -11967,7 +12100,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -11982,25 +12115,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12024,10 +12157,10 @@
       <c r="C17" s="125"/>
       <c r="D17" s="399"/>
       <c r="E17" s="333" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F17" s="334" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G17" s="336"/>
       <c r="H17" s="335"/>
@@ -12036,281 +12169,293 @@
       <c r="K17" s="126"/>
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="400"/>
-      <c r="B18" s="401"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="402"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="407"/>
-      <c r="K18" s="408"/>
+      <c r="A18" s="383" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="400"/>
+      <c r="C18" s="400"/>
+      <c r="D18" s="401"/>
+      <c r="E18" s="306">
+        <v>45554</v>
+      </c>
+      <c r="F18" s="306">
+        <v>45540</v>
+      </c>
+      <c r="G18" s="305">
+        <v>32</v>
+      </c>
+      <c r="H18" s="308" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" s="385" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="402"/>
+      <c r="K18" s="403"/>
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="409"/>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="411"/>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="404"/>
-      <c r="H19" s="405"/>
-      <c r="I19" s="406"/>
-      <c r="J19" s="407"/>
-      <c r="K19" s="408"/>
+      <c r="A19" s="383"/>
+      <c r="B19" s="404"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="405"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="306"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="385"/>
+      <c r="J19" s="402"/>
+      <c r="K19" s="403"/>
     </row>
     <row r="20" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="409"/>
-      <c r="B20" s="410"/>
-      <c r="C20" s="410"/>
-      <c r="D20" s="411"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="406"/>
-      <c r="J20" s="407"/>
-      <c r="K20" s="408"/>
+      <c r="A20" s="383"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="385"/>
+      <c r="J20" s="402"/>
+      <c r="K20" s="403"/>
     </row>
     <row r="21" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="409"/>
-      <c r="B21" s="410"/>
-      <c r="C21" s="410"/>
-      <c r="D21" s="411"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="405"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="407"/>
-      <c r="K21" s="408"/>
+      <c r="A21" s="383"/>
+      <c r="B21" s="404"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="405"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="308"/>
+      <c r="I21" s="385"/>
+      <c r="J21" s="402"/>
+      <c r="K21" s="403"/>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="409"/>
-      <c r="B22" s="410"/>
-      <c r="C22" s="410"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="403"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="404"/>
-      <c r="H22" s="405"/>
-      <c r="I22" s="406"/>
-      <c r="J22" s="407"/>
-      <c r="K22" s="408"/>
+      <c r="A22" s="383"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="306"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="308"/>
+      <c r="I22" s="385"/>
+      <c r="J22" s="402"/>
+      <c r="K22" s="403"/>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="409"/>
-      <c r="B23" s="410"/>
-      <c r="C23" s="410"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="404"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="407"/>
-      <c r="K23" s="408"/>
+      <c r="A23" s="383"/>
+      <c r="B23" s="404"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="405"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="308"/>
+      <c r="I23" s="385"/>
+      <c r="J23" s="402"/>
+      <c r="K23" s="403"/>
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="409"/>
-      <c r="B24" s="410"/>
-      <c r="C24" s="410"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="404"/>
-      <c r="H24" s="405"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="407"/>
-      <c r="K24" s="408"/>
+      <c r="A24" s="383"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="404"/>
+      <c r="D24" s="405"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="308"/>
+      <c r="I24" s="385"/>
+      <c r="J24" s="402"/>
+      <c r="K24" s="403"/>
     </row>
     <row r="25" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="409"/>
-      <c r="B25" s="410"/>
-      <c r="C25" s="410"/>
-      <c r="D25" s="411"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="404"/>
-      <c r="H25" s="405"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="407"/>
-      <c r="K25" s="408"/>
+      <c r="A25" s="383"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="404"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="308"/>
+      <c r="I25" s="385"/>
+      <c r="J25" s="402"/>
+      <c r="K25" s="403"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="400"/>
-      <c r="B26" s="401"/>
-      <c r="C26" s="401"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="404"/>
-      <c r="H26" s="405"/>
-      <c r="I26" s="406"/>
-      <c r="J26" s="407"/>
-      <c r="K26" s="408"/>
+      <c r="A26" s="383"/>
+      <c r="B26" s="400"/>
+      <c r="C26" s="400"/>
+      <c r="D26" s="401"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="385"/>
+      <c r="J26" s="402"/>
+      <c r="K26" s="403"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="400"/>
-      <c r="B27" s="401"/>
-      <c r="C27" s="401"/>
-      <c r="D27" s="402"/>
-      <c r="E27" s="403"/>
-      <c r="F27" s="403"/>
-      <c r="G27" s="404"/>
-      <c r="H27" s="405"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="407"/>
-      <c r="K27" s="408"/>
+      <c r="A27" s="383"/>
+      <c r="B27" s="400"/>
+      <c r="C27" s="400"/>
+      <c r="D27" s="401"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="308"/>
+      <c r="I27" s="385"/>
+      <c r="J27" s="402"/>
+      <c r="K27" s="403"/>
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="400"/>
-      <c r="B28" s="401"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="402"/>
-      <c r="E28" s="403"/>
-      <c r="F28" s="403"/>
-      <c r="G28" s="404"/>
-      <c r="H28" s="405"/>
-      <c r="I28" s="406"/>
-      <c r="J28" s="407"/>
-      <c r="K28" s="408"/>
+      <c r="A28" s="383"/>
+      <c r="B28" s="400"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="401"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="306"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="385"/>
+      <c r="J28" s="402"/>
+      <c r="K28" s="403"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="400"/>
-      <c r="B29" s="401"/>
-      <c r="C29" s="401"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="404"/>
-      <c r="H29" s="405"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="407"/>
-      <c r="K29" s="408"/>
+      <c r="A29" s="383"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="400"/>
+      <c r="D29" s="401"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="402"/>
+      <c r="K29" s="403"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="400"/>
-      <c r="B30" s="401"/>
-      <c r="C30" s="401"/>
-      <c r="D30" s="402"/>
-      <c r="E30" s="403"/>
-      <c r="F30" s="403"/>
-      <c r="G30" s="404"/>
-      <c r="H30" s="405"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="407"/>
-      <c r="K30" s="408"/>
+      <c r="A30" s="383"/>
+      <c r="B30" s="400"/>
+      <c r="C30" s="400"/>
+      <c r="D30" s="401"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="306"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="308"/>
+      <c r="I30" s="385"/>
+      <c r="J30" s="402"/>
+      <c r="K30" s="403"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="400"/>
-      <c r="B31" s="401"/>
-      <c r="C31" s="401"/>
-      <c r="D31" s="402"/>
-      <c r="E31" s="403"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="404"/>
-      <c r="H31" s="405"/>
-      <c r="I31" s="406"/>
-      <c r="J31" s="407"/>
-      <c r="K31" s="408"/>
+      <c r="A31" s="383"/>
+      <c r="B31" s="400"/>
+      <c r="C31" s="400"/>
+      <c r="D31" s="401"/>
+      <c r="E31" s="306"/>
+      <c r="F31" s="306"/>
+      <c r="G31" s="305"/>
+      <c r="H31" s="308"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="402"/>
+      <c r="K31" s="403"/>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="400"/>
-      <c r="B32" s="401"/>
-      <c r="C32" s="401"/>
-      <c r="D32" s="402"/>
-      <c r="E32" s="403"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="404"/>
-      <c r="H32" s="405"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="407"/>
-      <c r="K32" s="408"/>
+      <c r="A32" s="383"/>
+      <c r="B32" s="400"/>
+      <c r="C32" s="400"/>
+      <c r="D32" s="401"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="306"/>
+      <c r="G32" s="305"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="385"/>
+      <c r="J32" s="402"/>
+      <c r="K32" s="403"/>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="400"/>
-      <c r="B33" s="401"/>
-      <c r="C33" s="401"/>
-      <c r="D33" s="402"/>
-      <c r="E33" s="403"/>
-      <c r="F33" s="403"/>
-      <c r="G33" s="404"/>
-      <c r="H33" s="405"/>
-      <c r="I33" s="406"/>
-      <c r="J33" s="407"/>
-      <c r="K33" s="408"/>
+      <c r="A33" s="383"/>
+      <c r="B33" s="400"/>
+      <c r="C33" s="400"/>
+      <c r="D33" s="401"/>
+      <c r="E33" s="306"/>
+      <c r="F33" s="306"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="308"/>
+      <c r="I33" s="385"/>
+      <c r="J33" s="402"/>
+      <c r="K33" s="403"/>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="400"/>
-      <c r="B34" s="401"/>
-      <c r="C34" s="401"/>
-      <c r="D34" s="402"/>
-      <c r="E34" s="403"/>
-      <c r="F34" s="403"/>
-      <c r="G34" s="404"/>
-      <c r="H34" s="405"/>
-      <c r="I34" s="406"/>
-      <c r="J34" s="407"/>
-      <c r="K34" s="408"/>
+      <c r="A34" s="383"/>
+      <c r="B34" s="400"/>
+      <c r="C34" s="400"/>
+      <c r="D34" s="401"/>
+      <c r="E34" s="306"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="305"/>
+      <c r="H34" s="308"/>
+      <c r="I34" s="385"/>
+      <c r="J34" s="402"/>
+      <c r="K34" s="403"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="400"/>
-      <c r="B35" s="401"/>
-      <c r="C35" s="401"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="403"/>
-      <c r="F35" s="403"/>
-      <c r="G35" s="404"/>
-      <c r="H35" s="405"/>
-      <c r="I35" s="406"/>
-      <c r="J35" s="407"/>
-      <c r="K35" s="408"/>
+      <c r="A35" s="383"/>
+      <c r="B35" s="400"/>
+      <c r="C35" s="400"/>
+      <c r="D35" s="401"/>
+      <c r="E35" s="306"/>
+      <c r="F35" s="306"/>
+      <c r="G35" s="305"/>
+      <c r="H35" s="308"/>
+      <c r="I35" s="385"/>
+      <c r="J35" s="402"/>
+      <c r="K35" s="403"/>
     </row>
     <row r="36" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="400"/>
-      <c r="B36" s="401"/>
-      <c r="C36" s="401"/>
-      <c r="D36" s="402"/>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="404"/>
-      <c r="H36" s="405"/>
-      <c r="I36" s="406"/>
-      <c r="J36" s="407"/>
-      <c r="K36" s="408"/>
+      <c r="A36" s="383"/>
+      <c r="B36" s="400"/>
+      <c r="C36" s="400"/>
+      <c r="D36" s="401"/>
+      <c r="E36" s="306"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="308"/>
+      <c r="I36" s="385"/>
+      <c r="J36" s="402"/>
+      <c r="K36" s="403"/>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="400"/>
-      <c r="B37" s="401"/>
-      <c r="C37" s="401"/>
-      <c r="D37" s="402"/>
-      <c r="E37" s="403"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="404"/>
-      <c r="H37" s="405"/>
-      <c r="I37" s="406"/>
-      <c r="J37" s="407"/>
-      <c r="K37" s="408"/>
+      <c r="A37" s="383"/>
+      <c r="B37" s="400"/>
+      <c r="C37" s="400"/>
+      <c r="D37" s="401"/>
+      <c r="E37" s="306"/>
+      <c r="F37" s="306"/>
+      <c r="G37" s="305"/>
+      <c r="H37" s="308"/>
+      <c r="I37" s="385"/>
+      <c r="J37" s="402"/>
+      <c r="K37" s="403"/>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="412"/>
-      <c r="B38" s="413"/>
-      <c r="C38" s="413"/>
-      <c r="D38" s="414"/>
-      <c r="E38" s="403"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="415"/>
-      <c r="H38" s="416"/>
-      <c r="I38" s="417"/>
-      <c r="J38" s="418"/>
-      <c r="K38" s="419"/>
+      <c r="A38" s="388"/>
+      <c r="B38" s="406"/>
+      <c r="C38" s="406"/>
+      <c r="D38" s="407"/>
+      <c r="E38" s="306"/>
+      <c r="F38" s="306"/>
+      <c r="G38" s="391"/>
+      <c r="H38" s="317"/>
+      <c r="I38" s="392"/>
+      <c r="J38" s="408"/>
+      <c r="K38" s="409"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B39" s="266"/>
       <c r="C39" s="266"/>
@@ -12324,139 +12469,139 @@
       <c r="K39" s="267"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="420" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" s="421"/>
-      <c r="C40" s="421"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="421"/>
-      <c r="F40" s="421"/>
-      <c r="G40" s="421"/>
-      <c r="H40" s="421"/>
-      <c r="I40" s="421"/>
-      <c r="J40" s="421"/>
-      <c r="K40" s="422"/>
+      <c r="A40" s="410" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" s="411"/>
+      <c r="C40" s="411"/>
+      <c r="D40" s="411"/>
+      <c r="E40" s="411"/>
+      <c r="F40" s="411"/>
+      <c r="G40" s="411"/>
+      <c r="H40" s="411"/>
+      <c r="I40" s="411"/>
+      <c r="J40" s="411"/>
+      <c r="K40" s="412"/>
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="423" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="424" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="425" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="424" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="424"/>
-      <c r="F41" s="424"/>
-      <c r="G41" s="424"/>
-      <c r="H41" s="426"/>
-      <c r="I41" s="425" t="s">
-        <v>368</v>
-      </c>
-      <c r="J41" s="424" t="s">
-        <v>369</v>
-      </c>
-      <c r="K41" s="427"/>
+      <c r="A41" s="413" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="414" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" s="415" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="414" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="414"/>
+      <c r="F41" s="414"/>
+      <c r="G41" s="414"/>
+      <c r="H41" s="416"/>
+      <c r="I41" s="415" t="s">
+        <v>395</v>
+      </c>
+      <c r="J41" s="414" t="s">
+        <v>396</v>
+      </c>
+      <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="428"/>
-      <c r="B42" s="429"/>
-      <c r="C42" s="430"/>
-      <c r="D42" s="431"/>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="431"/>
-      <c r="H42" s="429"/>
-      <c r="I42" s="430"/>
-      <c r="J42" s="431"/>
-      <c r="K42" s="432"/>
+      <c r="A42" s="418"/>
+      <c r="B42" s="419"/>
+      <c r="C42" s="420"/>
+      <c r="D42" s="421"/>
+      <c r="E42" s="421"/>
+      <c r="F42" s="421"/>
+      <c r="G42" s="421"/>
+      <c r="H42" s="419"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="421"/>
+      <c r="K42" s="422"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="428"/>
-      <c r="B43" s="429"/>
-      <c r="C43" s="430"/>
-      <c r="D43" s="431"/>
-      <c r="E43" s="431"/>
-      <c r="F43" s="431"/>
-      <c r="G43" s="431"/>
-      <c r="H43" s="429"/>
-      <c r="I43" s="430"/>
-      <c r="J43" s="431"/>
-      <c r="K43" s="432"/>
+      <c r="A43" s="418"/>
+      <c r="B43" s="419"/>
+      <c r="C43" s="420"/>
+      <c r="D43" s="421"/>
+      <c r="E43" s="421"/>
+      <c r="F43" s="421"/>
+      <c r="G43" s="421"/>
+      <c r="H43" s="419"/>
+      <c r="I43" s="420"/>
+      <c r="J43" s="421"/>
+      <c r="K43" s="422"/>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="428"/>
-      <c r="B44" s="429"/>
-      <c r="C44" s="430"/>
-      <c r="D44" s="431"/>
-      <c r="E44" s="431"/>
-      <c r="F44" s="431"/>
-      <c r="G44" s="431"/>
-      <c r="H44" s="429"/>
-      <c r="I44" s="430"/>
-      <c r="J44" s="431"/>
-      <c r="K44" s="432"/>
+      <c r="A44" s="418"/>
+      <c r="B44" s="419"/>
+      <c r="C44" s="420"/>
+      <c r="D44" s="421"/>
+      <c r="E44" s="421"/>
+      <c r="F44" s="421"/>
+      <c r="G44" s="421"/>
+      <c r="H44" s="419"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="421"/>
+      <c r="K44" s="422"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="428"/>
-      <c r="B45" s="429"/>
-      <c r="C45" s="430"/>
-      <c r="D45" s="431"/>
-      <c r="E45" s="431"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="431"/>
-      <c r="H45" s="429"/>
-      <c r="I45" s="430"/>
-      <c r="J45" s="431"/>
-      <c r="K45" s="432"/>
+      <c r="A45" s="418"/>
+      <c r="B45" s="419"/>
+      <c r="C45" s="420"/>
+      <c r="D45" s="421"/>
+      <c r="E45" s="421"/>
+      <c r="F45" s="421"/>
+      <c r="G45" s="421"/>
+      <c r="H45" s="419"/>
+      <c r="I45" s="420"/>
+      <c r="J45" s="421"/>
+      <c r="K45" s="422"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="428"/>
-      <c r="B46" s="429"/>
-      <c r="C46" s="430"/>
-      <c r="D46" s="431"/>
-      <c r="E46" s="431"/>
-      <c r="F46" s="431"/>
-      <c r="G46" s="431"/>
-      <c r="H46" s="429"/>
-      <c r="I46" s="430"/>
-      <c r="J46" s="431"/>
-      <c r="K46" s="432"/>
+      <c r="A46" s="418"/>
+      <c r="B46" s="419"/>
+      <c r="C46" s="420"/>
+      <c r="D46" s="421"/>
+      <c r="E46" s="421"/>
+      <c r="F46" s="421"/>
+      <c r="G46" s="421"/>
+      <c r="H46" s="419"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="421"/>
+      <c r="K46" s="422"/>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="428"/>
-      <c r="B47" s="429"/>
-      <c r="C47" s="430"/>
-      <c r="D47" s="431"/>
-      <c r="E47" s="431"/>
-      <c r="F47" s="431"/>
-      <c r="G47" s="431"/>
-      <c r="H47" s="429"/>
-      <c r="I47" s="430"/>
-      <c r="J47" s="431"/>
-      <c r="K47" s="432"/>
+      <c r="A47" s="418"/>
+      <c r="B47" s="419"/>
+      <c r="C47" s="420"/>
+      <c r="D47" s="421"/>
+      <c r="E47" s="421"/>
+      <c r="F47" s="421"/>
+      <c r="G47" s="421"/>
+      <c r="H47" s="419"/>
+      <c r="I47" s="420"/>
+      <c r="J47" s="421"/>
+      <c r="K47" s="422"/>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="428"/>
-      <c r="B48" s="429"/>
-      <c r="C48" s="430"/>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
-      <c r="F48" s="431"/>
-      <c r="G48" s="431"/>
-      <c r="H48" s="429"/>
-      <c r="I48" s="430"/>
-      <c r="J48" s="431"/>
-      <c r="K48" s="432"/>
+      <c r="A48" s="418"/>
+      <c r="B48" s="419"/>
+      <c r="C48" s="420"/>
+      <c r="D48" s="421"/>
+      <c r="E48" s="421"/>
+      <c r="F48" s="421"/>
+      <c r="G48" s="421"/>
+      <c r="H48" s="419"/>
+      <c r="I48" s="420"/>
+      <c r="J48" s="421"/>
+      <c r="K48" s="422"/>
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -12471,28 +12616,28 @@
     </row>
     <row r="50" ht="70" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B50" s="270"/>
       <c r="C50" s="352"/>
       <c r="D50" s="353"/>
       <c r="E50" s="353"/>
       <c r="F50" s="354"/>
-      <c r="G50" s="433" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="434"/>
+      <c r="G50" s="423" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="424"/>
       <c r="I50" s="352" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
-      <c r="L50" s="435"/>
-      <c r="M50" s="435"/>
+      <c r="L50" s="425"/>
+      <c r="M50" s="425"/>
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="436" t="s">
-        <v>370</v>
+      <c r="K51" s="426" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12618,65 +12763,65 @@
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="437"/>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="438"/>
-      <c r="K1" s="438"/>
-      <c r="L1" s="438"/>
-      <c r="M1" s="439"/>
+      <c r="A1" s="427"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="428"/>
+      <c r="G1" s="428"/>
+      <c r="H1" s="428"/>
+      <c r="I1" s="428"/>
+      <c r="J1" s="428"/>
+      <c r="K1" s="428"/>
+      <c r="L1" s="428"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="440" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" s="441"/>
-      <c r="C2" s="442" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="447"/>
+      <c r="A2" s="430" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="431"/>
+      <c r="C2" s="432" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="437"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="448"/>
-      <c r="B3" s="449"/>
-      <c r="C3" s="450" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="450"/>
-      <c r="E3" s="450"/>
-      <c r="F3" s="451"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="454"/>
-      <c r="L3" s="454"/>
-      <c r="M3" s="455"/>
+      <c r="A3" s="438"/>
+      <c r="B3" s="439"/>
+      <c r="C3" s="440" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="441"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="444"/>
+      <c r="M3" s="445"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="448"/>
-      <c r="B4" s="449"/>
-      <c r="C4" s="450" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="450"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="451"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="439"/>
+      <c r="C4" s="440" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="441"/>
       <c r="G4" s="282"/>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
@@ -12686,641 +12831,641 @@
       <c r="M4" s="378"/>
     </row>
     <row r="5" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="448"/>
-      <c r="B5" s="449"/>
-      <c r="C5" s="450"/>
-      <c r="D5" s="450"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="451"/>
-      <c r="G5" s="456"/>
-      <c r="H5" s="456"/>
-      <c r="I5" s="456"/>
-      <c r="J5" s="456"/>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="439"/>
+      <c r="C5" s="440"/>
+      <c r="D5" s="440"/>
+      <c r="E5" s="440"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="446"/>
+      <c r="H5" s="446"/>
+      <c r="I5" s="446"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="446"/>
       <c r="M5" s="378"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
-      <c r="B6" s="449"/>
-      <c r="C6" s="450" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="450"/>
-      <c r="E6" s="450"/>
-      <c r="F6" s="451"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="439"/>
+      <c r="C6" s="440" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="440"/>
+      <c r="E6" s="440"/>
+      <c r="F6" s="441"/>
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
-      <c r="I6" s="457"/>
-      <c r="J6" s="457"/>
-      <c r="K6" s="457"/>
-      <c r="L6" s="457"/>
+      <c r="I6" s="447"/>
+      <c r="J6" s="447"/>
+      <c r="K6" s="447"/>
+      <c r="L6" s="447"/>
       <c r="M6" s="378"/>
     </row>
     <row r="7" ht="3" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="448"/>
-      <c r="B7" s="449"/>
-      <c r="C7" s="450"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="451"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="439"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="440"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="441"/>
       <c r="G7" s="282"/>
       <c r="H7" s="282"/>
-      <c r="I7" s="457"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="457"/>
-      <c r="L7" s="457"/>
+      <c r="I7" s="447"/>
+      <c r="J7" s="447"/>
+      <c r="K7" s="447"/>
+      <c r="L7" s="447"/>
       <c r="M7" s="378"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="448"/>
-      <c r="B8" s="449"/>
-      <c r="C8" s="450" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="450"/>
-      <c r="E8" s="450"/>
-      <c r="F8" s="451"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="439"/>
+      <c r="C8" s="440" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="440"/>
+      <c r="E8" s="440"/>
+      <c r="F8" s="441"/>
       <c r="G8" s="282"/>
       <c r="H8" s="282"/>
       <c r="I8" s="282"/>
       <c r="J8" s="282"/>
       <c r="K8" s="282"/>
       <c r="L8" s="282"/>
-      <c r="M8" s="458"/>
+      <c r="M8" s="448"/>
     </row>
     <row r="9" ht="3.75" customHeight="1" hidden="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448"/>
-      <c r="B9" s="449"/>
-      <c r="C9" s="450"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="450"/>
-      <c r="F9" s="451"/>
+      <c r="A9" s="438"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="440"/>
+      <c r="D9" s="440"/>
+      <c r="E9" s="440"/>
+      <c r="F9" s="441"/>
       <c r="G9" s="282"/>
       <c r="H9" s="282"/>
       <c r="I9" s="282"/>
       <c r="J9" s="282"/>
       <c r="K9" s="282"/>
       <c r="L9" s="282"/>
-      <c r="M9" s="458"/>
+      <c r="M9" s="448"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
-      <c r="B10" s="449"/>
-      <c r="C10" s="450"/>
-      <c r="D10" s="450"/>
-      <c r="E10" s="450"/>
-      <c r="F10" s="451"/>
-      <c r="G10" s="456" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="456"/>
-      <c r="I10" s="456"/>
-      <c r="J10" s="456"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="456"/>
-      <c r="M10" s="459"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="439"/>
+      <c r="C10" s="440"/>
+      <c r="D10" s="440"/>
+      <c r="E10" s="440"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="446" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="446"/>
+      <c r="I10" s="446"/>
+      <c r="J10" s="446"/>
+      <c r="K10" s="446"/>
+      <c r="L10" s="446"/>
+      <c r="M10" s="449"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="448"/>
-      <c r="B11" s="449"/>
-      <c r="C11" s="450"/>
-      <c r="D11" s="450"/>
-      <c r="E11" s="450"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="461"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="462"/>
-      <c r="K11" s="462"/>
-      <c r="L11" s="462"/>
-      <c r="M11" s="459"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="439"/>
+      <c r="C11" s="440"/>
+      <c r="D11" s="440"/>
+      <c r="E11" s="440"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="450"/>
+      <c r="H11" s="451"/>
+      <c r="I11" s="452"/>
+      <c r="J11" s="452"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="452"/>
+      <c r="M11" s="449"/>
     </row>
     <row r="12" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="463"/>
-      <c r="B12" s="464"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="461"/>
-      <c r="H12" s="461"/>
-      <c r="I12" s="467"/>
-      <c r="J12" s="467"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="468"/>
+      <c r="A12" s="453"/>
+      <c r="B12" s="454"/>
+      <c r="C12" s="455"/>
+      <c r="D12" s="455"/>
+      <c r="E12" s="455"/>
+      <c r="F12" s="456"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="451"/>
+      <c r="I12" s="457"/>
+      <c r="J12" s="457"/>
+      <c r="K12" s="457"/>
+      <c r="L12" s="457"/>
+      <c r="M12" s="458"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="469" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="470"/>
-      <c r="C13" s="471" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="471"/>
+      <c r="A13" s="459" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="460"/>
+      <c r="C13" s="461" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="461"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
-      <c r="G13" s="472"/>
-      <c r="H13" s="472"/>
-      <c r="I13" s="472"/>
-      <c r="J13" s="472"/>
-      <c r="K13" s="472"/>
-      <c r="L13" s="472"/>
-      <c r="M13" s="473"/>
+      <c r="G13" s="462"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="462"/>
+      <c r="J13" s="462"/>
+      <c r="K13" s="462"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="463"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="474"/>
-      <c r="B14" s="475"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471"/>
+      <c r="A14" s="464"/>
+      <c r="B14" s="465"/>
+      <c r="C14" s="461"/>
+      <c r="D14" s="461"/>
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
-      <c r="G14" s="476" t="s">
-        <v>377</v>
-      </c>
-      <c r="H14" s="456"/>
-      <c r="I14" s="456"/>
-      <c r="J14" s="456"/>
-      <c r="K14" s="456"/>
-      <c r="L14" s="456"/>
-      <c r="M14" s="477"/>
+      <c r="G14" s="466" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="446"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="446"/>
+      <c r="K14" s="446"/>
+      <c r="L14" s="446"/>
+      <c r="M14" s="467"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="474"/>
-      <c r="B15" s="475"/>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
+      <c r="A15" s="464"/>
+      <c r="B15" s="465"/>
+      <c r="C15" s="461"/>
+      <c r="D15" s="461"/>
       <c r="E15" s="282"/>
       <c r="F15" s="398"/>
-      <c r="G15" s="452"/>
-      <c r="H15" s="478"/>
-      <c r="I15" s="479"/>
-      <c r="J15" s="479"/>
-      <c r="K15" s="479"/>
-      <c r="L15" s="479"/>
-      <c r="M15" s="477"/>
+      <c r="G15" s="442"/>
+      <c r="H15" s="468"/>
+      <c r="I15" s="469"/>
+      <c r="J15" s="469"/>
+      <c r="K15" s="469"/>
+      <c r="L15" s="469"/>
+      <c r="M15" s="467"/>
     </row>
     <row r="16" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="474"/>
-      <c r="B16" s="475"/>
+      <c r="A16" s="464"/>
+      <c r="B16" s="465"/>
       <c r="C16" s="282"/>
       <c r="D16" s="282"/>
       <c r="E16" s="282"/>
       <c r="F16" s="398"/>
-      <c r="G16" s="480"/>
-      <c r="H16" s="481"/>
-      <c r="I16" s="482"/>
-      <c r="J16" s="482"/>
-      <c r="K16" s="482"/>
-      <c r="L16" s="482"/>
-      <c r="M16" s="483"/>
+      <c r="G16" s="470"/>
+      <c r="H16" s="471"/>
+      <c r="I16" s="472"/>
+      <c r="J16" s="472"/>
+      <c r="K16" s="472"/>
+      <c r="L16" s="472"/>
+      <c r="M16" s="473"/>
     </row>
     <row r="17" ht="6.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="484"/>
-      <c r="B17" s="485"/>
-      <c r="C17" s="486"/>
-      <c r="D17" s="486"/>
-      <c r="E17" s="487"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="490"/>
-      <c r="I17" s="490"/>
-      <c r="J17" s="490"/>
-      <c r="K17" s="490"/>
-      <c r="L17" s="490"/>
-      <c r="M17" s="491"/>
+      <c r="A17" s="474"/>
+      <c r="B17" s="475"/>
+      <c r="C17" s="476"/>
+      <c r="D17" s="476"/>
+      <c r="E17" s="477"/>
+      <c r="F17" s="478"/>
+      <c r="G17" s="479"/>
+      <c r="H17" s="480"/>
+      <c r="I17" s="480"/>
+      <c r="J17" s="480"/>
+      <c r="K17" s="480"/>
+      <c r="L17" s="480"/>
+      <c r="M17" s="481"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="484"/>
-      <c r="B18" s="485"/>
-      <c r="C18" s="492" t="s">
-        <v>380</v>
-      </c>
-      <c r="D18" s="492"/>
-      <c r="E18" s="493"/>
-      <c r="F18" s="494"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
-      <c r="J18" s="495"/>
-      <c r="K18" s="495"/>
-      <c r="L18" s="495"/>
-      <c r="M18" s="496"/>
+      <c r="A18" s="474"/>
+      <c r="B18" s="475"/>
+      <c r="C18" s="482" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="482"/>
+      <c r="E18" s="483"/>
+      <c r="F18" s="484"/>
+      <c r="G18" s="485"/>
+      <c r="H18" s="485"/>
+      <c r="I18" s="485"/>
+      <c r="J18" s="485"/>
+      <c r="K18" s="485"/>
+      <c r="L18" s="485"/>
+      <c r="M18" s="486"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="484"/>
-      <c r="B19" s="485"/>
-      <c r="C19" s="492"/>
-      <c r="D19" s="492"/>
-      <c r="E19" s="493"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="476" t="s">
-        <v>377</v>
-      </c>
-      <c r="H19" s="456"/>
-      <c r="I19" s="456"/>
-      <c r="J19" s="456"/>
-      <c r="K19" s="456"/>
-      <c r="L19" s="456"/>
-      <c r="M19" s="496"/>
+      <c r="A19" s="474"/>
+      <c r="B19" s="475"/>
+      <c r="C19" s="482"/>
+      <c r="D19" s="482"/>
+      <c r="E19" s="483"/>
+      <c r="F19" s="484"/>
+      <c r="G19" s="466" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="446"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="446"/>
+      <c r="K19" s="446"/>
+      <c r="L19" s="446"/>
+      <c r="M19" s="486"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="484"/>
-      <c r="B20" s="485"/>
-      <c r="C20" s="492"/>
-      <c r="D20" s="492"/>
-      <c r="E20" s="493"/>
-      <c r="F20" s="494"/>
-      <c r="G20" s="495"/>
-      <c r="H20" s="497" t="s">
-        <v>381</v>
-      </c>
-      <c r="I20" s="497"/>
-      <c r="J20" s="498"/>
-      <c r="K20" s="499"/>
-      <c r="L20" s="500"/>
-      <c r="M20" s="496"/>
+      <c r="A20" s="474"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="482"/>
+      <c r="D20" s="482"/>
+      <c r="E20" s="483"/>
+      <c r="F20" s="484"/>
+      <c r="G20" s="485"/>
+      <c r="H20" s="487" t="s">
+        <v>408</v>
+      </c>
+      <c r="I20" s="487"/>
+      <c r="J20" s="488"/>
+      <c r="K20" s="489"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="486"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="484"/>
-      <c r="B21" s="485"/>
-      <c r="C21" s="492"/>
-      <c r="D21" s="492"/>
-      <c r="E21" s="493"/>
-      <c r="F21" s="494"/>
-      <c r="G21" s="501" t="s">
-        <v>382</v>
-      </c>
-      <c r="H21" s="502"/>
-      <c r="I21" s="502"/>
-      <c r="J21" s="498"/>
-      <c r="K21" s="503"/>
-      <c r="L21" s="500"/>
-      <c r="M21" s="496"/>
+      <c r="A21" s="474"/>
+      <c r="B21" s="475"/>
+      <c r="C21" s="482"/>
+      <c r="D21" s="482"/>
+      <c r="E21" s="483"/>
+      <c r="F21" s="484"/>
+      <c r="G21" s="491" t="s">
+        <v>409</v>
+      </c>
+      <c r="H21" s="492"/>
+      <c r="I21" s="492"/>
+      <c r="J21" s="488"/>
+      <c r="K21" s="493"/>
+      <c r="L21" s="490"/>
+      <c r="M21" s="486"/>
     </row>
     <row r="22" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="504"/>
-      <c r="B22" s="505"/>
-      <c r="C22" s="506"/>
-      <c r="D22" s="506"/>
-      <c r="E22" s="506"/>
-      <c r="F22" s="507"/>
-      <c r="G22" s="480" t="s">
-        <v>383</v>
-      </c>
-      <c r="H22" s="481"/>
-      <c r="I22" s="508"/>
-      <c r="J22" s="508"/>
-      <c r="K22" s="508"/>
-      <c r="L22" s="509"/>
-      <c r="M22" s="483"/>
+      <c r="A22" s="494"/>
+      <c r="B22" s="495"/>
+      <c r="C22" s="496"/>
+      <c r="D22" s="496"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="497"/>
+      <c r="G22" s="470" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="471"/>
+      <c r="I22" s="498"/>
+      <c r="J22" s="498"/>
+      <c r="K22" s="498"/>
+      <c r="L22" s="499"/>
+      <c r="M22" s="473"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="B23" s="195"/>
-      <c r="C23" s="510" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" s="510"/>
-      <c r="E23" s="510"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="472"/>
-      <c r="H23" s="472"/>
-      <c r="I23" s="472"/>
-      <c r="J23" s="472"/>
-      <c r="K23" s="472"/>
-      <c r="L23" s="472"/>
-      <c r="M23" s="473"/>
+      <c r="C23" s="500" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="500"/>
+      <c r="E23" s="500"/>
+      <c r="F23" s="501"/>
+      <c r="G23" s="462"/>
+      <c r="H23" s="462"/>
+      <c r="I23" s="462"/>
+      <c r="J23" s="462"/>
+      <c r="K23" s="462"/>
+      <c r="L23" s="462"/>
+      <c r="M23" s="463"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="474"/>
-      <c r="B24" s="475"/>
-      <c r="C24" s="512"/>
-      <c r="D24" s="512"/>
-      <c r="E24" s="512"/>
-      <c r="F24" s="513"/>
-      <c r="G24" s="476" t="s">
-        <v>377</v>
-      </c>
-      <c r="H24" s="456"/>
-      <c r="I24" s="456"/>
-      <c r="J24" s="456"/>
-      <c r="K24" s="456"/>
-      <c r="L24" s="456"/>
-      <c r="M24" s="514"/>
+      <c r="A24" s="464"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="502"/>
+      <c r="D24" s="502"/>
+      <c r="E24" s="502"/>
+      <c r="F24" s="503"/>
+      <c r="G24" s="466" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="446"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="446"/>
+      <c r="K24" s="446"/>
+      <c r="L24" s="446"/>
+      <c r="M24" s="504"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="474"/>
-      <c r="B25" s="475"/>
-      <c r="C25" s="512"/>
-      <c r="D25" s="512"/>
-      <c r="E25" s="512"/>
-      <c r="F25" s="513"/>
-      <c r="G25" s="515"/>
-      <c r="H25" s="481"/>
-      <c r="I25" s="516"/>
-      <c r="J25" s="516"/>
-      <c r="K25" s="516"/>
-      <c r="L25" s="516"/>
-      <c r="M25" s="514"/>
+      <c r="A25" s="464"/>
+      <c r="B25" s="465"/>
+      <c r="C25" s="502"/>
+      <c r="D25" s="502"/>
+      <c r="E25" s="502"/>
+      <c r="F25" s="503"/>
+      <c r="G25" s="505"/>
+      <c r="H25" s="471"/>
+      <c r="I25" s="506"/>
+      <c r="J25" s="506"/>
+      <c r="K25" s="506"/>
+      <c r="L25" s="506"/>
+      <c r="M25" s="504"/>
     </row>
     <row r="26" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="517"/>
-      <c r="B26" s="518"/>
-      <c r="C26" s="519"/>
-      <c r="D26" s="519"/>
-      <c r="E26" s="519"/>
-      <c r="F26" s="520"/>
-      <c r="G26" s="480"/>
-      <c r="H26" s="481"/>
-      <c r="I26" s="482"/>
-      <c r="J26" s="482"/>
-      <c r="K26" s="482"/>
-      <c r="L26" s="482"/>
-      <c r="M26" s="483"/>
+      <c r="A26" s="507"/>
+      <c r="B26" s="508"/>
+      <c r="C26" s="509"/>
+      <c r="D26" s="509"/>
+      <c r="E26" s="509"/>
+      <c r="F26" s="510"/>
+      <c r="G26" s="470"/>
+      <c r="H26" s="471"/>
+      <c r="I26" s="472"/>
+      <c r="J26" s="472"/>
+      <c r="K26" s="472"/>
+      <c r="L26" s="472"/>
+      <c r="M26" s="473"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B27" s="195"/>
-      <c r="C27" s="510" t="s">
-        <v>387</v>
-      </c>
-      <c r="D27" s="510"/>
-      <c r="E27" s="510"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="472"/>
-      <c r="H27" s="472"/>
-      <c r="I27" s="472"/>
-      <c r="J27" s="472"/>
-      <c r="K27" s="472"/>
-      <c r="L27" s="472"/>
-      <c r="M27" s="473"/>
+      <c r="C27" s="500" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" s="500"/>
+      <c r="E27" s="500"/>
+      <c r="F27" s="501"/>
+      <c r="G27" s="462"/>
+      <c r="H27" s="462"/>
+      <c r="I27" s="462"/>
+      <c r="J27" s="462"/>
+      <c r="K27" s="462"/>
+      <c r="L27" s="462"/>
+      <c r="M27" s="463"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="474"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="512"/>
-      <c r="D28" s="512"/>
-      <c r="E28" s="512"/>
-      <c r="F28" s="513"/>
-      <c r="G28" s="476" t="s">
-        <v>377</v>
-      </c>
-      <c r="H28" s="456"/>
-      <c r="I28" s="456"/>
-      <c r="J28" s="456"/>
-      <c r="K28" s="456"/>
-      <c r="L28" s="456"/>
+      <c r="A28" s="464"/>
+      <c r="B28" s="465"/>
+      <c r="C28" s="502"/>
+      <c r="D28" s="502"/>
+      <c r="E28" s="502"/>
+      <c r="F28" s="503"/>
+      <c r="G28" s="466" t="s">
+        <v>404</v>
+      </c>
+      <c r="H28" s="446"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="446"/>
+      <c r="K28" s="446"/>
+      <c r="L28" s="446"/>
       <c r="M28" s="378"/>
     </row>
     <row r="29" ht="11.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="474"/>
-      <c r="B29" s="475"/>
-      <c r="C29" s="512"/>
-      <c r="D29" s="512"/>
-      <c r="E29" s="512"/>
-      <c r="F29" s="513"/>
+      <c r="A29" s="464"/>
+      <c r="B29" s="465"/>
+      <c r="C29" s="502"/>
+      <c r="D29" s="502"/>
+      <c r="E29" s="502"/>
+      <c r="F29" s="503"/>
       <c r="G29" s="282"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="516"/>
-      <c r="J29" s="516"/>
-      <c r="K29" s="516"/>
-      <c r="L29" s="516"/>
-      <c r="M29" s="514"/>
+      <c r="I29" s="506"/>
+      <c r="J29" s="506"/>
+      <c r="K29" s="506"/>
+      <c r="L29" s="506"/>
+      <c r="M29" s="504"/>
     </row>
     <row r="30" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="517"/>
-      <c r="B30" s="518"/>
-      <c r="C30" s="519"/>
-      <c r="D30" s="519"/>
-      <c r="E30" s="519"/>
-      <c r="F30" s="520"/>
-      <c r="G30" s="521"/>
-      <c r="H30" s="522"/>
+      <c r="A30" s="507"/>
+      <c r="B30" s="508"/>
+      <c r="C30" s="509"/>
+      <c r="D30" s="509"/>
+      <c r="E30" s="509"/>
+      <c r="F30" s="510"/>
+      <c r="G30" s="511"/>
+      <c r="H30" s="512"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
-      <c r="M30" s="483"/>
+      <c r="M30" s="473"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="B31" s="195"/>
-      <c r="C31" s="510" t="s">
-        <v>389</v>
-      </c>
-      <c r="D31" s="510"/>
-      <c r="E31" s="510"/>
-      <c r="F31" s="511"/>
-      <c r="G31" s="472"/>
-      <c r="H31" s="472"/>
-      <c r="I31" s="472"/>
-      <c r="J31" s="472"/>
-      <c r="K31" s="472"/>
-      <c r="L31" s="472"/>
-      <c r="M31" s="473"/>
+      <c r="C31" s="500" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="500"/>
+      <c r="E31" s="500"/>
+      <c r="F31" s="501"/>
+      <c r="G31" s="462"/>
+      <c r="H31" s="462"/>
+      <c r="I31" s="462"/>
+      <c r="J31" s="462"/>
+      <c r="K31" s="462"/>
+      <c r="L31" s="462"/>
+      <c r="M31" s="463"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="474"/>
-      <c r="B32" s="475"/>
-      <c r="C32" s="512"/>
-      <c r="D32" s="512"/>
-      <c r="E32" s="512"/>
-      <c r="F32" s="513"/>
-      <c r="G32" s="523" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" s="524"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="524"/>
-      <c r="K32" s="525"/>
-      <c r="L32" s="525"/>
-      <c r="M32" s="514"/>
+      <c r="A32" s="464"/>
+      <c r="B32" s="465"/>
+      <c r="C32" s="502"/>
+      <c r="D32" s="502"/>
+      <c r="E32" s="502"/>
+      <c r="F32" s="503"/>
+      <c r="G32" s="513" t="s">
+        <v>417</v>
+      </c>
+      <c r="H32" s="514"/>
+      <c r="I32" s="514"/>
+      <c r="J32" s="514"/>
+      <c r="K32" s="515"/>
+      <c r="L32" s="515"/>
+      <c r="M32" s="504"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="474"/>
-      <c r="B33" s="475"/>
-      <c r="C33" s="512"/>
-      <c r="D33" s="512"/>
-      <c r="E33" s="512"/>
-      <c r="F33" s="513"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="527"/>
-      <c r="I33" s="528"/>
-      <c r="J33" s="528"/>
-      <c r="K33" s="529"/>
-      <c r="L33" s="529"/>
-      <c r="M33" s="514"/>
+      <c r="A33" s="464"/>
+      <c r="B33" s="465"/>
+      <c r="C33" s="502"/>
+      <c r="D33" s="502"/>
+      <c r="E33" s="502"/>
+      <c r="F33" s="503"/>
+      <c r="G33" s="516"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="518"/>
+      <c r="J33" s="518"/>
+      <c r="K33" s="519"/>
+      <c r="L33" s="519"/>
+      <c r="M33" s="504"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="474"/>
-      <c r="B34" s="475"/>
-      <c r="C34" s="512" t="s">
-        <v>391</v>
-      </c>
-      <c r="D34" s="512"/>
-      <c r="E34" s="512"/>
-      <c r="F34" s="513"/>
-      <c r="G34" s="515"/>
-      <c r="H34" s="530"/>
-      <c r="I34" s="531"/>
-      <c r="J34" s="531"/>
-      <c r="K34" s="531"/>
-      <c r="L34" s="531"/>
-      <c r="M34" s="514"/>
+      <c r="A34" s="464"/>
+      <c r="B34" s="465"/>
+      <c r="C34" s="502" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="502"/>
+      <c r="E34" s="502"/>
+      <c r="F34" s="503"/>
+      <c r="G34" s="505"/>
+      <c r="H34" s="520"/>
+      <c r="I34" s="521"/>
+      <c r="J34" s="521"/>
+      <c r="K34" s="521"/>
+      <c r="L34" s="521"/>
+      <c r="M34" s="504"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="474"/>
-      <c r="B35" s="475"/>
-      <c r="C35" s="512"/>
-      <c r="D35" s="512"/>
-      <c r="E35" s="512"/>
-      <c r="F35" s="513"/>
-      <c r="G35" s="523" t="s">
-        <v>390</v>
-      </c>
-      <c r="H35" s="524"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="524"/>
-      <c r="K35" s="525"/>
-      <c r="L35" s="525"/>
-      <c r="M35" s="514"/>
+      <c r="A35" s="464"/>
+      <c r="B35" s="465"/>
+      <c r="C35" s="502"/>
+      <c r="D35" s="502"/>
+      <c r="E35" s="502"/>
+      <c r="F35" s="503"/>
+      <c r="G35" s="513" t="s">
+        <v>417</v>
+      </c>
+      <c r="H35" s="514"/>
+      <c r="I35" s="514"/>
+      <c r="J35" s="514"/>
+      <c r="K35" s="515"/>
+      <c r="L35" s="515"/>
+      <c r="M35" s="504"/>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="517"/>
-      <c r="B36" s="518"/>
-      <c r="C36" s="519"/>
-      <c r="D36" s="519"/>
-      <c r="E36" s="519"/>
-      <c r="F36" s="520"/>
-      <c r="G36" s="526"/>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="528"/>
+      <c r="A36" s="507"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="509"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="509"/>
+      <c r="F36" s="510"/>
+      <c r="G36" s="516"/>
+      <c r="H36" s="517"/>
+      <c r="I36" s="518"/>
+      <c r="J36" s="518"/>
       <c r="K36" s="282"/>
-      <c r="L36" s="532"/>
-      <c r="M36" s="483"/>
+      <c r="L36" s="522"/>
+      <c r="M36" s="473"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B37" s="195"/>
-      <c r="C37" s="533" t="s">
-        <v>393</v>
-      </c>
-      <c r="D37" s="533"/>
-      <c r="E37" s="533"/>
-      <c r="F37" s="534"/>
-      <c r="G37" s="472"/>
-      <c r="H37" s="472"/>
-      <c r="I37" s="472"/>
-      <c r="J37" s="472"/>
-      <c r="K37" s="472"/>
-      <c r="L37" s="472"/>
-      <c r="M37" s="473"/>
+      <c r="C37" s="523" t="s">
+        <v>420</v>
+      </c>
+      <c r="D37" s="523"/>
+      <c r="E37" s="523"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="462"/>
+      <c r="H37" s="462"/>
+      <c r="I37" s="462"/>
+      <c r="J37" s="462"/>
+      <c r="K37" s="462"/>
+      <c r="L37" s="462"/>
+      <c r="M37" s="463"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="474"/>
-      <c r="B38" s="475"/>
-      <c r="C38" s="471"/>
-      <c r="D38" s="471"/>
-      <c r="E38" s="471"/>
-      <c r="F38" s="535"/>
-      <c r="G38" s="476" t="s">
-        <v>394</v>
-      </c>
-      <c r="H38" s="456"/>
-      <c r="I38" s="456"/>
-      <c r="J38" s="456"/>
-      <c r="K38" s="456"/>
-      <c r="L38" s="456"/>
-      <c r="M38" s="536"/>
+      <c r="A38" s="464"/>
+      <c r="B38" s="465"/>
+      <c r="C38" s="461"/>
+      <c r="D38" s="461"/>
+      <c r="E38" s="461"/>
+      <c r="F38" s="525"/>
+      <c r="G38" s="466" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" s="446"/>
+      <c r="I38" s="446"/>
+      <c r="J38" s="446"/>
+      <c r="K38" s="446"/>
+      <c r="L38" s="446"/>
+      <c r="M38" s="526"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="474"/>
-      <c r="B39" s="475"/>
-      <c r="C39" s="471"/>
-      <c r="D39" s="471"/>
-      <c r="E39" s="471"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="515"/>
-      <c r="H39" s="481"/>
-      <c r="I39" s="516"/>
-      <c r="J39" s="516"/>
-      <c r="K39" s="516"/>
-      <c r="L39" s="516"/>
-      <c r="M39" s="514"/>
+      <c r="A39" s="464"/>
+      <c r="B39" s="465"/>
+      <c r="C39" s="461"/>
+      <c r="D39" s="461"/>
+      <c r="E39" s="461"/>
+      <c r="F39" s="525"/>
+      <c r="G39" s="505"/>
+      <c r="H39" s="471"/>
+      <c r="I39" s="506"/>
+      <c r="J39" s="506"/>
+      <c r="K39" s="506"/>
+      <c r="L39" s="506"/>
+      <c r="M39" s="504"/>
     </row>
     <row r="40" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="517"/>
-      <c r="B40" s="518"/>
-      <c r="C40" s="537"/>
-      <c r="D40" s="537"/>
-      <c r="E40" s="537"/>
-      <c r="F40" s="538"/>
-      <c r="G40" s="480"/>
-      <c r="H40" s="481"/>
-      <c r="I40" s="482"/>
-      <c r="J40" s="482"/>
-      <c r="K40" s="482"/>
-      <c r="L40" s="482"/>
-      <c r="M40" s="483"/>
+      <c r="A40" s="507"/>
+      <c r="B40" s="508"/>
+      <c r="C40" s="527"/>
+      <c r="D40" s="527"/>
+      <c r="E40" s="527"/>
+      <c r="F40" s="528"/>
+      <c r="G40" s="470"/>
+      <c r="H40" s="471"/>
+      <c r="I40" s="472"/>
+      <c r="J40" s="472"/>
+      <c r="K40" s="472"/>
+      <c r="L40" s="472"/>
+      <c r="M40" s="473"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="539" t="s">
-        <v>395</v>
-      </c>
-      <c r="B41" s="540"/>
-      <c r="C41" s="512" t="s">
-        <v>396</v>
-      </c>
-      <c r="D41" s="512"/>
-      <c r="E41" s="512"/>
-      <c r="F41" s="513"/>
-      <c r="G41" s="472"/>
-      <c r="H41" s="472"/>
-      <c r="I41" s="541"/>
-      <c r="J41" s="541"/>
-      <c r="K41" s="542"/>
-      <c r="L41" s="542"/>
-      <c r="M41" s="543"/>
+      <c r="A41" s="529" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="530"/>
+      <c r="C41" s="502" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="502"/>
+      <c r="E41" s="502"/>
+      <c r="F41" s="503"/>
+      <c r="G41" s="462"/>
+      <c r="H41" s="462"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="531"/>
+      <c r="K41" s="532"/>
+      <c r="L41" s="532"/>
+      <c r="M41" s="533"/>
     </row>
     <row r="42" ht="0.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="544"/>
-      <c r="B42" s="545"/>
-      <c r="C42" s="512"/>
-      <c r="D42" s="512"/>
-      <c r="E42" s="512"/>
-      <c r="F42" s="513"/>
-      <c r="G42" s="546"/>
-      <c r="H42" s="546"/>
-      <c r="I42" s="546"/>
-      <c r="J42" s="546"/>
-      <c r="K42" s="546"/>
-      <c r="L42" s="546"/>
-      <c r="M42" s="547"/>
+      <c r="A42" s="534"/>
+      <c r="B42" s="535"/>
+      <c r="C42" s="502"/>
+      <c r="D42" s="502"/>
+      <c r="E42" s="502"/>
+      <c r="F42" s="503"/>
+      <c r="G42" s="536"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="536"/>
+      <c r="J42" s="536"/>
+      <c r="K42" s="536"/>
+      <c r="L42" s="536"/>
+      <c r="M42" s="537"/>
       <c r="N42" s="282"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="544" t="s">
-        <v>397</v>
-      </c>
-      <c r="B43" s="545"/>
-      <c r="C43" s="512" t="s">
-        <v>398</v>
-      </c>
-      <c r="D43" s="512"/>
-      <c r="E43" s="512"/>
-      <c r="F43" s="513"/>
+      <c r="A43" s="534" t="s">
+        <v>424</v>
+      </c>
+      <c r="B43" s="535"/>
+      <c r="C43" s="502" t="s">
+        <v>425</v>
+      </c>
+      <c r="D43" s="502"/>
+      <c r="E43" s="502"/>
+      <c r="F43" s="503"/>
       <c r="G43" s="282"/>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
@@ -13331,34 +13476,34 @@
       <c r="N43" s="282"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="544"/>
-      <c r="B44" s="545"/>
-      <c r="C44" s="512"/>
-      <c r="D44" s="512"/>
-      <c r="E44" s="512"/>
-      <c r="F44" s="513"/>
-      <c r="G44" s="548" t="s">
-        <v>399</v>
-      </c>
-      <c r="H44" s="549"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="528"/>
+      <c r="A44" s="534"/>
+      <c r="B44" s="535"/>
+      <c r="C44" s="502"/>
+      <c r="D44" s="502"/>
+      <c r="E44" s="502"/>
+      <c r="F44" s="503"/>
+      <c r="G44" s="538" t="s">
+        <v>426</v>
+      </c>
+      <c r="H44" s="539"/>
+      <c r="I44" s="518"/>
+      <c r="J44" s="518"/>
       <c r="K44" s="282"/>
-      <c r="L44" s="532"/>
-      <c r="M44" s="550"/>
-      <c r="N44" s="527"/>
+      <c r="L44" s="522"/>
+      <c r="M44" s="540"/>
+      <c r="N44" s="517"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="544" t="s">
-        <v>400</v>
-      </c>
-      <c r="B45" s="545"/>
-      <c r="C45" s="513" t="s">
-        <v>401</v>
-      </c>
-      <c r="D45" s="513"/>
-      <c r="E45" s="513"/>
-      <c r="F45" s="513"/>
+      <c r="A45" s="534" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" s="535"/>
+      <c r="C45" s="503" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" s="503"/>
+      <c r="E45" s="503"/>
+      <c r="F45" s="503"/>
       <c r="G45" s="282"/>
       <c r="H45" s="282"/>
       <c r="I45" s="282"/>
@@ -13369,34 +13514,34 @@
       <c r="N45" s="282"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="544"/>
-      <c r="B46" s="545"/>
-      <c r="C46" s="513"/>
-      <c r="D46" s="513"/>
-      <c r="E46" s="513"/>
-      <c r="F46" s="513"/>
-      <c r="G46" s="551" t="s">
-        <v>402</v>
-      </c>
-      <c r="H46" s="552"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="528"/>
-      <c r="K46" s="528"/>
-      <c r="L46" s="532"/>
-      <c r="M46" s="550"/>
-      <c r="N46" s="527"/>
+      <c r="A46" s="534"/>
+      <c r="B46" s="535"/>
+      <c r="C46" s="503"/>
+      <c r="D46" s="503"/>
+      <c r="E46" s="503"/>
+      <c r="F46" s="503"/>
+      <c r="G46" s="541" t="s">
+        <v>429</v>
+      </c>
+      <c r="H46" s="542"/>
+      <c r="I46" s="518"/>
+      <c r="J46" s="518"/>
+      <c r="K46" s="518"/>
+      <c r="L46" s="522"/>
+      <c r="M46" s="540"/>
+      <c r="N46" s="517"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="544" t="s">
-        <v>403</v>
-      </c>
-      <c r="B47" s="545"/>
-      <c r="C47" s="512" t="s">
-        <v>404</v>
-      </c>
-      <c r="D47" s="512"/>
-      <c r="E47" s="553"/>
-      <c r="F47" s="554"/>
+      <c r="A47" s="534" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47" s="535"/>
+      <c r="C47" s="502" t="s">
+        <v>431</v>
+      </c>
+      <c r="D47" s="502"/>
+      <c r="E47" s="543"/>
+      <c r="F47" s="544"/>
       <c r="G47" s="282"/>
       <c r="H47" s="282"/>
       <c r="I47" s="282"/>
@@ -13407,405 +13552,405 @@
       <c r="N47" s="282"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="555"/>
-      <c r="B48" s="556"/>
-      <c r="C48" s="556"/>
-      <c r="D48" s="556"/>
-      <c r="E48" s="556"/>
-      <c r="F48" s="557"/>
-      <c r="G48" s="558" t="s">
-        <v>402</v>
-      </c>
-      <c r="H48" s="559"/>
-      <c r="I48" s="560"/>
-      <c r="J48" s="560"/>
-      <c r="K48" s="560"/>
-      <c r="L48" s="532"/>
-      <c r="M48" s="561"/>
-      <c r="N48" s="527"/>
+      <c r="A48" s="545"/>
+      <c r="B48" s="546"/>
+      <c r="C48" s="546"/>
+      <c r="D48" s="546"/>
+      <c r="E48" s="546"/>
+      <c r="F48" s="547"/>
+      <c r="G48" s="548" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" s="549"/>
+      <c r="I48" s="550"/>
+      <c r="J48" s="550"/>
+      <c r="K48" s="550"/>
+      <c r="L48" s="522"/>
+      <c r="M48" s="551"/>
+      <c r="N48" s="517"/>
     </row>
     <row r="49" ht="6.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="562"/>
-      <c r="B49" s="563"/>
-      <c r="C49" s="563"/>
-      <c r="D49" s="563"/>
-      <c r="E49" s="563"/>
-      <c r="F49" s="564"/>
-      <c r="G49" s="565"/>
-      <c r="H49" s="566"/>
-      <c r="I49" s="566"/>
-      <c r="J49" s="566"/>
-      <c r="K49" s="566"/>
-      <c r="L49" s="566"/>
-      <c r="M49" s="567"/>
-      <c r="N49" s="527"/>
+      <c r="A49" s="552"/>
+      <c r="B49" s="553"/>
+      <c r="C49" s="553"/>
+      <c r="D49" s="553"/>
+      <c r="E49" s="553"/>
+      <c r="F49" s="554"/>
+      <c r="G49" s="555"/>
+      <c r="H49" s="556"/>
+      <c r="I49" s="556"/>
+      <c r="J49" s="556"/>
+      <c r="K49" s="556"/>
+      <c r="L49" s="556"/>
+      <c r="M49" s="557"/>
+      <c r="N49" s="517"/>
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="568" t="s">
-        <v>405</v>
-      </c>
-      <c r="B50" s="569"/>
-      <c r="C50" s="570" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" s="570"/>
-      <c r="E50" s="570"/>
-      <c r="F50" s="570"/>
-      <c r="G50" s="570"/>
-      <c r="H50" s="570"/>
-      <c r="I50" s="571"/>
-      <c r="J50" s="572"/>
-      <c r="K50" s="573"/>
-      <c r="L50" s="573"/>
-      <c r="M50" s="574"/>
+      <c r="A50" s="558" t="s">
+        <v>432</v>
+      </c>
+      <c r="B50" s="559"/>
+      <c r="C50" s="560" t="s">
+        <v>433</v>
+      </c>
+      <c r="D50" s="560"/>
+      <c r="E50" s="560"/>
+      <c r="F50" s="560"/>
+      <c r="G50" s="560"/>
+      <c r="H50" s="560"/>
+      <c r="I50" s="561"/>
+      <c r="J50" s="562"/>
+      <c r="K50" s="563"/>
+      <c r="L50" s="563"/>
+      <c r="M50" s="564"/>
       <c r="N50" s="282"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="575" t="s">
-        <v>407</v>
-      </c>
-      <c r="B51" s="576"/>
-      <c r="C51" s="576"/>
-      <c r="D51" s="576"/>
-      <c r="E51" s="577"/>
+      <c r="A51" s="565" t="s">
+        <v>434</v>
+      </c>
+      <c r="B51" s="566"/>
+      <c r="C51" s="566"/>
+      <c r="D51" s="566"/>
+      <c r="E51" s="567"/>
       <c r="F51" s="294" t="s">
-        <v>408</v>
-      </c>
-      <c r="G51" s="578" t="s">
-        <v>409</v>
-      </c>
-      <c r="H51" s="424"/>
-      <c r="I51" s="427"/>
-      <c r="J51" s="579"/>
-      <c r="K51" s="580"/>
-      <c r="L51" s="580"/>
-      <c r="M51" s="581"/>
+        <v>435</v>
+      </c>
+      <c r="G51" s="568" t="s">
+        <v>436</v>
+      </c>
+      <c r="H51" s="414"/>
+      <c r="I51" s="417"/>
+      <c r="J51" s="569"/>
+      <c r="K51" s="570"/>
+      <c r="L51" s="570"/>
+      <c r="M51" s="571"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="582"/>
-      <c r="B52" s="583"/>
-      <c r="C52" s="584"/>
-      <c r="D52" s="584"/>
-      <c r="E52" s="585"/>
-      <c r="F52" s="586"/>
-      <c r="G52" s="587"/>
-      <c r="H52" s="588"/>
-      <c r="I52" s="589"/>
-      <c r="J52" s="579"/>
-      <c r="K52" s="580"/>
-      <c r="L52" s="580"/>
-      <c r="M52" s="581"/>
+      <c r="A52" s="572"/>
+      <c r="B52" s="573"/>
+      <c r="C52" s="574"/>
+      <c r="D52" s="574"/>
+      <c r="E52" s="575"/>
+      <c r="F52" s="576"/>
+      <c r="G52" s="577"/>
+      <c r="H52" s="578"/>
+      <c r="I52" s="579"/>
+      <c r="J52" s="569"/>
+      <c r="K52" s="570"/>
+      <c r="L52" s="570"/>
+      <c r="M52" s="571"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="582"/>
-      <c r="B53" s="583"/>
-      <c r="C53" s="583"/>
-      <c r="D53" s="583"/>
-      <c r="E53" s="590"/>
-      <c r="F53" s="586"/>
-      <c r="G53" s="587"/>
-      <c r="H53" s="588"/>
-      <c r="I53" s="589"/>
-      <c r="J53" s="579"/>
-      <c r="K53" s="580"/>
-      <c r="L53" s="580"/>
-      <c r="M53" s="581"/>
+      <c r="A53" s="572"/>
+      <c r="B53" s="573"/>
+      <c r="C53" s="573"/>
+      <c r="D53" s="573"/>
+      <c r="E53" s="580"/>
+      <c r="F53" s="576"/>
+      <c r="G53" s="577"/>
+      <c r="H53" s="578"/>
+      <c r="I53" s="579"/>
+      <c r="J53" s="569"/>
+      <c r="K53" s="570"/>
+      <c r="L53" s="570"/>
+      <c r="M53" s="571"/>
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="591"/>
-      <c r="B54" s="592"/>
-      <c r="C54" s="593"/>
-      <c r="D54" s="593"/>
-      <c r="E54" s="594"/>
-      <c r="F54" s="595"/>
-      <c r="G54" s="596"/>
-      <c r="H54" s="597"/>
-      <c r="I54" s="598"/>
-      <c r="J54" s="579"/>
-      <c r="K54" s="580"/>
-      <c r="L54" s="580"/>
-      <c r="M54" s="581"/>
+      <c r="A54" s="581"/>
+      <c r="B54" s="582"/>
+      <c r="C54" s="583"/>
+      <c r="D54" s="583"/>
+      <c r="E54" s="584"/>
+      <c r="F54" s="585"/>
+      <c r="G54" s="586"/>
+      <c r="H54" s="587"/>
+      <c r="I54" s="588"/>
+      <c r="J54" s="569"/>
+      <c r="K54" s="570"/>
+      <c r="L54" s="570"/>
+      <c r="M54" s="571"/>
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="440" t="s">
-        <v>410</v>
-      </c>
-      <c r="B55" s="441"/>
-      <c r="C55" s="599" t="s">
-        <v>411</v>
-      </c>
-      <c r="D55" s="599"/>
-      <c r="E55" s="599"/>
-      <c r="F55" s="599"/>
-      <c r="G55" s="599"/>
-      <c r="H55" s="599"/>
-      <c r="I55" s="600"/>
-      <c r="J55" s="580"/>
-      <c r="K55" s="580"/>
-      <c r="L55" s="580"/>
-      <c r="M55" s="581"/>
+      <c r="A55" s="430" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="431"/>
+      <c r="C55" s="589" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" s="589"/>
+      <c r="E55" s="589"/>
+      <c r="F55" s="589"/>
+      <c r="G55" s="589"/>
+      <c r="H55" s="589"/>
+      <c r="I55" s="590"/>
+      <c r="J55" s="570"/>
+      <c r="K55" s="570"/>
+      <c r="L55" s="570"/>
+      <c r="M55" s="571"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="601"/>
-      <c r="B56" s="602"/>
-      <c r="C56" s="603"/>
-      <c r="D56" s="603"/>
-      <c r="E56" s="603"/>
-      <c r="F56" s="603"/>
-      <c r="G56" s="603"/>
-      <c r="H56" s="603"/>
-      <c r="I56" s="604"/>
-      <c r="J56" s="605"/>
-      <c r="K56" s="606" t="s">
-        <v>412</v>
-      </c>
-      <c r="L56" s="606"/>
-      <c r="M56" s="607"/>
+      <c r="A56" s="591"/>
+      <c r="B56" s="592"/>
+      <c r="C56" s="593"/>
+      <c r="D56" s="593"/>
+      <c r="E56" s="593"/>
+      <c r="F56" s="593"/>
+      <c r="G56" s="593"/>
+      <c r="H56" s="593"/>
+      <c r="I56" s="594"/>
+      <c r="J56" s="595"/>
+      <c r="K56" s="596" t="s">
+        <v>439</v>
+      </c>
+      <c r="L56" s="596"/>
+      <c r="M56" s="597"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="601"/>
-      <c r="B57" s="602"/>
-      <c r="C57" s="603"/>
-      <c r="D57" s="603"/>
-      <c r="E57" s="603"/>
-      <c r="F57" s="603"/>
-      <c r="G57" s="603"/>
-      <c r="H57" s="603"/>
-      <c r="I57" s="604"/>
-      <c r="J57" s="606"/>
-      <c r="K57" s="606"/>
-      <c r="L57" s="606"/>
-      <c r="M57" s="608"/>
+      <c r="A57" s="591"/>
+      <c r="B57" s="592"/>
+      <c r="C57" s="593"/>
+      <c r="D57" s="593"/>
+      <c r="E57" s="593"/>
+      <c r="F57" s="593"/>
+      <c r="G57" s="593"/>
+      <c r="H57" s="593"/>
+      <c r="I57" s="594"/>
+      <c r="J57" s="596"/>
+      <c r="K57" s="596"/>
+      <c r="L57" s="596"/>
+      <c r="M57" s="598"/>
     </row>
     <row r="58" ht="7.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="609"/>
-      <c r="B58" s="610"/>
-      <c r="C58" s="611"/>
-      <c r="D58" s="611"/>
-      <c r="E58" s="611"/>
-      <c r="F58" s="611"/>
-      <c r="G58" s="611"/>
-      <c r="H58" s="611"/>
-      <c r="I58" s="612"/>
+      <c r="A58" s="599"/>
+      <c r="B58" s="600"/>
+      <c r="C58" s="601"/>
+      <c r="D58" s="601"/>
+      <c r="E58" s="601"/>
+      <c r="F58" s="601"/>
+      <c r="G58" s="601"/>
+      <c r="H58" s="601"/>
+      <c r="I58" s="602"/>
       <c r="J58" s="282"/>
-      <c r="K58" s="613"/>
-      <c r="L58" s="614"/>
+      <c r="K58" s="603"/>
+      <c r="L58" s="604"/>
       <c r="M58" s="378"/>
     </row>
     <row r="59" ht="8.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="615"/>
+      <c r="A59" s="605"/>
       <c r="B59" s="282"/>
-      <c r="C59" s="454"/>
-      <c r="D59" s="454"/>
-      <c r="E59" s="454"/>
-      <c r="F59" s="454"/>
-      <c r="G59" s="454"/>
-      <c r="H59" s="454"/>
-      <c r="I59" s="454"/>
+      <c r="C59" s="444"/>
+      <c r="D59" s="444"/>
+      <c r="E59" s="444"/>
+      <c r="F59" s="444"/>
+      <c r="G59" s="444"/>
+      <c r="H59" s="444"/>
+      <c r="I59" s="444"/>
       <c r="J59" s="282"/>
-      <c r="K59" s="616"/>
-      <c r="L59" s="617"/>
+      <c r="K59" s="606"/>
+      <c r="L59" s="607"/>
       <c r="M59" s="378"/>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="618"/>
-      <c r="B60" s="619" t="s">
-        <v>413</v>
-      </c>
-      <c r="C60" s="620"/>
-      <c r="D60" s="621"/>
+      <c r="A60" s="608"/>
+      <c r="B60" s="609" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" s="610"/>
+      <c r="D60" s="611"/>
       <c r="E60" s="282"/>
-      <c r="F60" s="622"/>
-      <c r="G60" s="623"/>
-      <c r="H60" s="623"/>
-      <c r="I60" s="624"/>
+      <c r="F60" s="612"/>
+      <c r="G60" s="613"/>
+      <c r="H60" s="613"/>
+      <c r="I60" s="614"/>
       <c r="J60" s="282"/>
-      <c r="K60" s="616"/>
-      <c r="L60" s="617"/>
-      <c r="M60" s="625"/>
+      <c r="K60" s="606"/>
+      <c r="L60" s="607"/>
+      <c r="M60" s="615"/>
     </row>
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="618"/>
-      <c r="B61" s="626" t="s">
-        <v>414</v>
-      </c>
-      <c r="C61" s="627"/>
-      <c r="D61" s="628"/>
+      <c r="A61" s="608"/>
+      <c r="B61" s="616" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="617"/>
+      <c r="D61" s="618"/>
       <c r="E61" s="282"/>
-      <c r="F61" s="629"/>
-      <c r="G61" s="630"/>
-      <c r="H61" s="630"/>
-      <c r="I61" s="631"/>
+      <c r="F61" s="619"/>
+      <c r="G61" s="620"/>
+      <c r="H61" s="620"/>
+      <c r="I61" s="621"/>
       <c r="J61" s="282"/>
-      <c r="K61" s="616"/>
-      <c r="L61" s="617"/>
-      <c r="M61" s="625"/>
+      <c r="K61" s="606"/>
+      <c r="L61" s="607"/>
+      <c r="M61" s="615"/>
     </row>
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="618"/>
-      <c r="B62" s="632" t="s">
-        <v>415</v>
-      </c>
-      <c r="C62" s="633"/>
-      <c r="D62" s="634"/>
+      <c r="A62" s="608"/>
+      <c r="B62" s="622" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" s="623"/>
+      <c r="D62" s="624"/>
       <c r="E62" s="282"/>
-      <c r="F62" s="635"/>
-      <c r="G62" s="636"/>
-      <c r="H62" s="636"/>
-      <c r="I62" s="637"/>
+      <c r="F62" s="625"/>
+      <c r="G62" s="626"/>
+      <c r="H62" s="626"/>
+      <c r="I62" s="627"/>
       <c r="J62" s="282"/>
-      <c r="K62" s="616"/>
-      <c r="L62" s="617"/>
-      <c r="M62" s="625"/>
+      <c r="K62" s="606"/>
+      <c r="L62" s="607"/>
+      <c r="M62" s="615"/>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="618"/>
-      <c r="B63" s="638"/>
-      <c r="C63" s="639"/>
-      <c r="D63" s="640"/>
+      <c r="A63" s="608"/>
+      <c r="B63" s="628"/>
+      <c r="C63" s="629"/>
+      <c r="D63" s="630"/>
       <c r="E63" s="282"/>
-      <c r="F63" s="641" t="s">
-        <v>416</v>
-      </c>
-      <c r="G63" s="642"/>
-      <c r="H63" s="642"/>
-      <c r="I63" s="643"/>
+      <c r="F63" s="631" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" s="632"/>
+      <c r="H63" s="632"/>
+      <c r="I63" s="633"/>
       <c r="J63" s="282"/>
-      <c r="K63" s="616"/>
-      <c r="L63" s="617"/>
-      <c r="M63" s="625"/>
+      <c r="K63" s="606"/>
+      <c r="L63" s="607"/>
+      <c r="M63" s="615"/>
     </row>
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="618"/>
-      <c r="B64" s="632" t="s">
-        <v>417</v>
-      </c>
-      <c r="C64" s="633"/>
-      <c r="D64" s="634"/>
+      <c r="A64" s="608"/>
+      <c r="B64" s="622" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" s="623"/>
+      <c r="D64" s="624"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="644"/>
+      <c r="F64" s="634"/>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
-      <c r="J64" s="645"/>
-      <c r="K64" s="646"/>
-      <c r="L64" s="647"/>
-      <c r="M64" s="625"/>
+      <c r="J64" s="635"/>
+      <c r="K64" s="636"/>
+      <c r="L64" s="637"/>
+      <c r="M64" s="615"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="618"/>
-      <c r="B65" s="648"/>
-      <c r="C65" s="649"/>
-      <c r="D65" s="650"/>
+      <c r="A65" s="608"/>
+      <c r="B65" s="638"/>
+      <c r="C65" s="639"/>
+      <c r="D65" s="640"/>
       <c r="E65" s="282"/>
-      <c r="F65" s="651" t="s">
-        <v>418</v>
-      </c>
-      <c r="G65" s="652"/>
-      <c r="H65" s="652"/>
-      <c r="I65" s="653"/>
-      <c r="J65" s="645"/>
-      <c r="K65" s="654" t="s">
-        <v>419</v>
-      </c>
-      <c r="L65" s="655"/>
-      <c r="M65" s="625"/>
+      <c r="F65" s="641" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" s="642"/>
+      <c r="H65" s="642"/>
+      <c r="I65" s="643"/>
+      <c r="J65" s="635"/>
+      <c r="K65" s="644" t="s">
+        <v>446</v>
+      </c>
+      <c r="L65" s="645"/>
+      <c r="M65" s="615"/>
     </row>
     <row r="66" ht="8.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="648"/>
-      <c r="B66" s="649"/>
-      <c r="C66" s="656"/>
-      <c r="D66" s="656"/>
-      <c r="E66" s="657"/>
-      <c r="F66" s="656"/>
-      <c r="G66" s="656"/>
-      <c r="H66" s="656"/>
-      <c r="I66" s="656"/>
-      <c r="J66" s="649"/>
-      <c r="K66" s="658"/>
-      <c r="L66" s="658"/>
-      <c r="M66" s="659"/>
+      <c r="A66" s="638"/>
+      <c r="B66" s="639"/>
+      <c r="C66" s="646"/>
+      <c r="D66" s="646"/>
+      <c r="E66" s="647"/>
+      <c r="F66" s="646"/>
+      <c r="G66" s="646"/>
+      <c r="H66" s="646"/>
+      <c r="I66" s="646"/>
+      <c r="J66" s="639"/>
+      <c r="K66" s="648"/>
+      <c r="L66" s="648"/>
+      <c r="M66" s="649"/>
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="660" t="s">
-        <v>420</v>
-      </c>
-      <c r="B67" s="661"/>
-      <c r="C67" s="661"/>
-      <c r="D67" s="661"/>
-      <c r="E67" s="661"/>
-      <c r="F67" s="661"/>
-      <c r="G67" s="661"/>
-      <c r="H67" s="661"/>
-      <c r="I67" s="661"/>
-      <c r="J67" s="661"/>
-      <c r="K67" s="661"/>
-      <c r="L67" s="661"/>
-      <c r="M67" s="662"/>
+      <c r="A67" s="650" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" s="651"/>
+      <c r="C67" s="651"/>
+      <c r="D67" s="651"/>
+      <c r="E67" s="651"/>
+      <c r="F67" s="651"/>
+      <c r="G67" s="651"/>
+      <c r="H67" s="651"/>
+      <c r="I67" s="651"/>
+      <c r="J67" s="651"/>
+      <c r="K67" s="651"/>
+      <c r="L67" s="651"/>
+      <c r="M67" s="652"/>
     </row>
     <row r="68" ht="53.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="618"/>
-      <c r="B68" s="645"/>
-      <c r="C68" s="663"/>
-      <c r="D68" s="663"/>
-      <c r="E68" s="664"/>
-      <c r="F68" s="665"/>
-      <c r="G68" s="665"/>
-      <c r="H68" s="665"/>
-      <c r="I68" s="666"/>
-      <c r="J68" s="667"/>
-      <c r="K68" s="667"/>
+      <c r="A68" s="608"/>
+      <c r="B68" s="635"/>
+      <c r="C68" s="653"/>
+      <c r="D68" s="653"/>
+      <c r="E68" s="654"/>
+      <c r="F68" s="655"/>
+      <c r="G68" s="655"/>
+      <c r="H68" s="655"/>
+      <c r="I68" s="656"/>
+      <c r="J68" s="657"/>
+      <c r="K68" s="657"/>
       <c r="L68" s="282"/>
-      <c r="M68" s="625"/>
+      <c r="M68" s="615"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="618"/>
-      <c r="B69" s="645"/>
-      <c r="C69" s="580"/>
-      <c r="D69" s="580"/>
-      <c r="E69" s="668" t="s">
-        <v>421</v>
-      </c>
-      <c r="F69" s="669"/>
-      <c r="G69" s="669"/>
-      <c r="H69" s="669"/>
-      <c r="I69" s="670"/>
-      <c r="J69" s="671"/>
-      <c r="K69" s="672"/>
+      <c r="A69" s="608"/>
+      <c r="B69" s="635"/>
+      <c r="C69" s="570"/>
+      <c r="D69" s="570"/>
+      <c r="E69" s="658" t="s">
+        <v>448</v>
+      </c>
+      <c r="F69" s="659"/>
+      <c r="G69" s="659"/>
+      <c r="H69" s="659"/>
+      <c r="I69" s="660"/>
+      <c r="J69" s="661"/>
+      <c r="K69" s="662"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="625"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="673" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="674"/>
-      <c r="B70" s="675"/>
-      <c r="C70" s="675"/>
-      <c r="D70" s="675"/>
-      <c r="E70" s="675"/>
-      <c r="F70" s="675"/>
-      <c r="G70" s="675"/>
-      <c r="H70" s="675"/>
-      <c r="I70" s="675"/>
-      <c r="J70" s="675"/>
-      <c r="K70" s="675"/>
-      <c r="L70" s="675"/>
-      <c r="M70" s="676"/>
+      <c r="M69" s="615"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="663" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="664"/>
+      <c r="B70" s="665"/>
+      <c r="C70" s="665"/>
+      <c r="D70" s="665"/>
+      <c r="E70" s="665"/>
+      <c r="F70" s="665"/>
+      <c r="G70" s="665"/>
+      <c r="H70" s="665"/>
+      <c r="I70" s="665"/>
+      <c r="J70" s="665"/>
+      <c r="K70" s="665"/>
+      <c r="L70" s="665"/>
+      <c r="M70" s="666"/>
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="677" t="s">
-        <v>422</v>
-      </c>
-      <c r="B71" s="677"/>
-      <c r="C71" s="677"/>
-      <c r="D71" s="677"/>
-      <c r="E71" s="677"/>
-      <c r="F71" s="677"/>
-      <c r="G71" s="677"/>
-      <c r="H71" s="677"/>
-      <c r="I71" s="677"/>
-      <c r="J71" s="677"/>
-      <c r="K71" s="677"/>
-      <c r="L71" s="677"/>
-      <c r="M71" s="677"/>
+      <c r="A71" s="667" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" s="667"/>
+      <c r="C71" s="667"/>
+      <c r="D71" s="667"/>
+      <c r="E71" s="667"/>
+      <c r="F71" s="667"/>
+      <c r="G71" s="667"/>
+      <c r="H71" s="667"/>
+      <c r="I71" s="667"/>
+      <c r="J71" s="667"/>
+      <c r="K71" s="667"/>
+      <c r="L71" s="667"/>
+      <c r="M71" s="667"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -13918,36 +14063,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="678" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="678" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1" s="678" t="s">
-        <v>425</v>
+      <c r="A1" s="668" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="668" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="668" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -13957,7 +14102,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="459">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -2700,7 +2700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="669">
+  <cellXfs count="668">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4019,15 +4019,11 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -12509,95 +12505,107 @@
       <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="418"/>
+      <c r="A42" s="418" t="s">
+        <v>358</v>
+      </c>
       <c r="B42" s="419"/>
-      <c r="C42" s="420"/>
-      <c r="D42" s="421"/>
-      <c r="E42" s="421"/>
-      <c r="F42" s="421"/>
-      <c r="G42" s="421"/>
+      <c r="C42" s="385" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="420"/>
+      <c r="E42" s="420"/>
+      <c r="F42" s="420"/>
+      <c r="G42" s="420"/>
       <c r="H42" s="419"/>
-      <c r="I42" s="420"/>
-      <c r="J42" s="421"/>
-      <c r="K42" s="422"/>
+      <c r="I42" s="385" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" s="420"/>
+      <c r="K42" s="421"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="418"/>
+      <c r="A43" s="418" t="s">
+        <v>358</v>
+      </c>
       <c r="B43" s="419"/>
-      <c r="C43" s="420"/>
-      <c r="D43" s="421"/>
-      <c r="E43" s="421"/>
-      <c r="F43" s="421"/>
-      <c r="G43" s="421"/>
+      <c r="C43" s="385" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" s="420"/>
+      <c r="E43" s="420"/>
+      <c r="F43" s="420"/>
+      <c r="G43" s="420"/>
       <c r="H43" s="419"/>
-      <c r="I43" s="420"/>
-      <c r="J43" s="421"/>
-      <c r="K43" s="422"/>
+      <c r="I43" s="385" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" s="420"/>
+      <c r="K43" s="421"/>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="418"/>
       <c r="B44" s="419"/>
-      <c r="C44" s="420"/>
-      <c r="D44" s="421"/>
-      <c r="E44" s="421"/>
-      <c r="F44" s="421"/>
-      <c r="G44" s="421"/>
+      <c r="C44" s="385"/>
+      <c r="D44" s="420"/>
+      <c r="E44" s="420"/>
+      <c r="F44" s="420"/>
+      <c r="G44" s="420"/>
       <c r="H44" s="419"/>
-      <c r="I44" s="420"/>
-      <c r="J44" s="421"/>
-      <c r="K44" s="422"/>
+      <c r="I44" s="385"/>
+      <c r="J44" s="420"/>
+      <c r="K44" s="421"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="418"/>
       <c r="B45" s="419"/>
-      <c r="C45" s="420"/>
-      <c r="D45" s="421"/>
-      <c r="E45" s="421"/>
-      <c r="F45" s="421"/>
-      <c r="G45" s="421"/>
+      <c r="C45" s="385"/>
+      <c r="D45" s="420"/>
+      <c r="E45" s="420"/>
+      <c r="F45" s="420"/>
+      <c r="G45" s="420"/>
       <c r="H45" s="419"/>
-      <c r="I45" s="420"/>
-      <c r="J45" s="421"/>
-      <c r="K45" s="422"/>
+      <c r="I45" s="385"/>
+      <c r="J45" s="420"/>
+      <c r="K45" s="421"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="418"/>
       <c r="B46" s="419"/>
-      <c r="C46" s="420"/>
-      <c r="D46" s="421"/>
-      <c r="E46" s="421"/>
-      <c r="F46" s="421"/>
-      <c r="G46" s="421"/>
+      <c r="C46" s="385"/>
+      <c r="D46" s="420"/>
+      <c r="E46" s="420"/>
+      <c r="F46" s="420"/>
+      <c r="G46" s="420"/>
       <c r="H46" s="419"/>
-      <c r="I46" s="420"/>
-      <c r="J46" s="421"/>
-      <c r="K46" s="422"/>
+      <c r="I46" s="385"/>
+      <c r="J46" s="420"/>
+      <c r="K46" s="421"/>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="418"/>
       <c r="B47" s="419"/>
-      <c r="C47" s="420"/>
-      <c r="D47" s="421"/>
-      <c r="E47" s="421"/>
-      <c r="F47" s="421"/>
-      <c r="G47" s="421"/>
+      <c r="C47" s="385"/>
+      <c r="D47" s="420"/>
+      <c r="E47" s="420"/>
+      <c r="F47" s="420"/>
+      <c r="G47" s="420"/>
       <c r="H47" s="419"/>
-      <c r="I47" s="420"/>
-      <c r="J47" s="421"/>
-      <c r="K47" s="422"/>
+      <c r="I47" s="385"/>
+      <c r="J47" s="420"/>
+      <c r="K47" s="421"/>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="418"/>
       <c r="B48" s="419"/>
-      <c r="C48" s="420"/>
-      <c r="D48" s="421"/>
-      <c r="E48" s="421"/>
-      <c r="F48" s="421"/>
-      <c r="G48" s="421"/>
+      <c r="C48" s="385"/>
+      <c r="D48" s="420"/>
+      <c r="E48" s="420"/>
+      <c r="F48" s="420"/>
+      <c r="G48" s="420"/>
       <c r="H48" s="419"/>
-      <c r="I48" s="420"/>
-      <c r="J48" s="421"/>
-      <c r="K48" s="422"/>
+      <c r="I48" s="385"/>
+      <c r="J48" s="420"/>
+      <c r="K48" s="421"/>
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
@@ -12623,20 +12631,20 @@
       <c r="D50" s="353"/>
       <c r="E50" s="353"/>
       <c r="F50" s="354"/>
-      <c r="G50" s="423" t="s">
+      <c r="G50" s="422" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="424"/>
+      <c r="H50" s="423"/>
       <c r="I50" s="352" t="s">
         <v>182</v>
       </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
-      <c r="L50" s="425"/>
-      <c r="M50" s="425"/>
+      <c r="L50" s="424"/>
+      <c r="M50" s="424"/>
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="426" t="s">
+      <c r="K51" s="425" t="s">
         <v>397</v>
       </c>
     </row>
@@ -12763,65 +12771,65 @@
   </cols>
   <sheetData>
     <row r="1" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="427"/>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="429"/>
+      <c r="A1" s="426"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="427"/>
+      <c r="F1" s="427"/>
+      <c r="G1" s="427"/>
+      <c r="H1" s="427"/>
+      <c r="I1" s="427"/>
+      <c r="J1" s="427"/>
+      <c r="K1" s="427"/>
+      <c r="L1" s="427"/>
+      <c r="M1" s="428"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="429" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="431"/>
-      <c r="C2" s="432" t="s">
+      <c r="B2" s="430"/>
+      <c r="C2" s="431" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="433"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
-      <c r="K2" s="436"/>
-      <c r="L2" s="436"/>
-      <c r="M2" s="437"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="435"/>
+      <c r="L2" s="435"/>
+      <c r="M2" s="436"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="438"/>
-      <c r="B3" s="439"/>
-      <c r="C3" s="440" t="s">
+      <c r="A3" s="437"/>
+      <c r="B3" s="438"/>
+      <c r="C3" s="439" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="441"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="442"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="444"/>
-      <c r="M3" s="445"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="441"/>
+      <c r="I3" s="442"/>
+      <c r="J3" s="442"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
+      <c r="M3" s="444"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="440" t="s">
+      <c r="A4" s="437"/>
+      <c r="B4" s="438"/>
+      <c r="C4" s="439" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="440"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="441"/>
+      <c r="D4" s="439"/>
+      <c r="E4" s="439"/>
+      <c r="F4" s="440"/>
       <c r="G4" s="282"/>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
@@ -12831,641 +12839,641 @@
       <c r="M4" s="378"/>
     </row>
     <row r="5" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="439"/>
-      <c r="C5" s="440"/>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="446"/>
-      <c r="H5" s="446"/>
-      <c r="I5" s="446"/>
-      <c r="J5" s="446"/>
-      <c r="K5" s="446"/>
-      <c r="L5" s="446"/>
+      <c r="A5" s="437"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="439"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="440"/>
+      <c r="G5" s="445"/>
+      <c r="H5" s="445"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="445"/>
+      <c r="K5" s="445"/>
+      <c r="L5" s="445"/>
       <c r="M5" s="378"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
-      <c r="B6" s="439"/>
-      <c r="C6" s="440" t="s">
+      <c r="A6" s="437"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="439" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="440"/>
-      <c r="E6" s="440"/>
-      <c r="F6" s="441"/>
+      <c r="D6" s="439"/>
+      <c r="E6" s="439"/>
+      <c r="F6" s="440"/>
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
-      <c r="I6" s="447"/>
-      <c r="J6" s="447"/>
-      <c r="K6" s="447"/>
-      <c r="L6" s="447"/>
+      <c r="I6" s="446"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="446"/>
+      <c r="L6" s="446"/>
       <c r="M6" s="378"/>
     </row>
     <row r="7" ht="3" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="439"/>
-      <c r="C7" s="440"/>
-      <c r="D7" s="440"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="441"/>
+      <c r="A7" s="437"/>
+      <c r="B7" s="438"/>
+      <c r="C7" s="439"/>
+      <c r="D7" s="439"/>
+      <c r="E7" s="439"/>
+      <c r="F7" s="440"/>
       <c r="G7" s="282"/>
       <c r="H7" s="282"/>
-      <c r="I7" s="447"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="447"/>
-      <c r="L7" s="447"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="446"/>
+      <c r="K7" s="446"/>
+      <c r="L7" s="446"/>
       <c r="M7" s="378"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="439"/>
-      <c r="C8" s="440" t="s">
+      <c r="A8" s="437"/>
+      <c r="B8" s="438"/>
+      <c r="C8" s="439" t="s">
         <v>403</v>
       </c>
-      <c r="D8" s="440"/>
-      <c r="E8" s="440"/>
-      <c r="F8" s="441"/>
+      <c r="D8" s="439"/>
+      <c r="E8" s="439"/>
+      <c r="F8" s="440"/>
       <c r="G8" s="282"/>
       <c r="H8" s="282"/>
       <c r="I8" s="282"/>
       <c r="J8" s="282"/>
       <c r="K8" s="282"/>
       <c r="L8" s="282"/>
-      <c r="M8" s="448"/>
+      <c r="M8" s="447"/>
     </row>
     <row r="9" ht="3.75" customHeight="1" hidden="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="439"/>
-      <c r="C9" s="440"/>
-      <c r="D9" s="440"/>
-      <c r="E9" s="440"/>
-      <c r="F9" s="441"/>
+      <c r="A9" s="437"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="439"/>
+      <c r="D9" s="439"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="440"/>
       <c r="G9" s="282"/>
       <c r="H9" s="282"/>
       <c r="I9" s="282"/>
       <c r="J9" s="282"/>
       <c r="K9" s="282"/>
       <c r="L9" s="282"/>
-      <c r="M9" s="448"/>
+      <c r="M9" s="447"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="438"/>
-      <c r="B10" s="439"/>
-      <c r="C10" s="440"/>
-      <c r="D10" s="440"/>
-      <c r="E10" s="440"/>
-      <c r="F10" s="441"/>
-      <c r="G10" s="446" t="s">
+      <c r="A10" s="437"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="439"/>
+      <c r="D10" s="439"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="440"/>
+      <c r="G10" s="445" t="s">
         <v>404</v>
       </c>
-      <c r="H10" s="446"/>
-      <c r="I10" s="446"/>
-      <c r="J10" s="446"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="449"/>
+      <c r="H10" s="445"/>
+      <c r="I10" s="445"/>
+      <c r="J10" s="445"/>
+      <c r="K10" s="445"/>
+      <c r="L10" s="445"/>
+      <c r="M10" s="448"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="438"/>
-      <c r="B11" s="439"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="440"/>
-      <c r="E11" s="440"/>
-      <c r="F11" s="441"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="451"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="452"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="452"/>
-      <c r="M11" s="449"/>
+      <c r="A11" s="437"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="439"/>
+      <c r="D11" s="439"/>
+      <c r="E11" s="439"/>
+      <c r="F11" s="440"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="450"/>
+      <c r="I11" s="451"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="451"/>
+      <c r="L11" s="451"/>
+      <c r="M11" s="448"/>
     </row>
     <row r="12" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="453"/>
-      <c r="B12" s="454"/>
-      <c r="C12" s="455"/>
-      <c r="D12" s="455"/>
-      <c r="E12" s="455"/>
-      <c r="F12" s="456"/>
-      <c r="G12" s="451"/>
-      <c r="H12" s="451"/>
-      <c r="I12" s="457"/>
-      <c r="J12" s="457"/>
-      <c r="K12" s="457"/>
-      <c r="L12" s="457"/>
-      <c r="M12" s="458"/>
+      <c r="A12" s="452"/>
+      <c r="B12" s="453"/>
+      <c r="C12" s="454"/>
+      <c r="D12" s="454"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="455"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="456"/>
+      <c r="J12" s="456"/>
+      <c r="K12" s="456"/>
+      <c r="L12" s="456"/>
+      <c r="M12" s="457"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="459" t="s">
+      <c r="A13" s="458" t="s">
         <v>405</v>
       </c>
-      <c r="B13" s="460"/>
-      <c r="C13" s="461" t="s">
+      <c r="B13" s="459"/>
+      <c r="C13" s="460" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="461"/>
+      <c r="D13" s="460"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
-      <c r="G13" s="462"/>
-      <c r="H13" s="462"/>
-      <c r="I13" s="462"/>
-      <c r="J13" s="462"/>
-      <c r="K13" s="462"/>
-      <c r="L13" s="462"/>
-      <c r="M13" s="463"/>
+      <c r="G13" s="461"/>
+      <c r="H13" s="461"/>
+      <c r="I13" s="461"/>
+      <c r="J13" s="461"/>
+      <c r="K13" s="461"/>
+      <c r="L13" s="461"/>
+      <c r="M13" s="462"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="464"/>
-      <c r="B14" s="465"/>
-      <c r="C14" s="461"/>
-      <c r="D14" s="461"/>
+      <c r="A14" s="463"/>
+      <c r="B14" s="464"/>
+      <c r="C14" s="460"/>
+      <c r="D14" s="460"/>
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
-      <c r="G14" s="466" t="s">
+      <c r="G14" s="465" t="s">
         <v>404</v>
       </c>
-      <c r="H14" s="446"/>
-      <c r="I14" s="446"/>
-      <c r="J14" s="446"/>
-      <c r="K14" s="446"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="467"/>
+      <c r="H14" s="445"/>
+      <c r="I14" s="445"/>
+      <c r="J14" s="445"/>
+      <c r="K14" s="445"/>
+      <c r="L14" s="445"/>
+      <c r="M14" s="466"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="464"/>
-      <c r="B15" s="465"/>
-      <c r="C15" s="461"/>
-      <c r="D15" s="461"/>
+      <c r="A15" s="463"/>
+      <c r="B15" s="464"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
       <c r="E15" s="282"/>
       <c r="F15" s="398"/>
-      <c r="G15" s="442"/>
-      <c r="H15" s="468"/>
-      <c r="I15" s="469"/>
-      <c r="J15" s="469"/>
-      <c r="K15" s="469"/>
-      <c r="L15" s="469"/>
-      <c r="M15" s="467"/>
+      <c r="G15" s="441"/>
+      <c r="H15" s="467"/>
+      <c r="I15" s="468"/>
+      <c r="J15" s="468"/>
+      <c r="K15" s="468"/>
+      <c r="L15" s="468"/>
+      <c r="M15" s="466"/>
     </row>
     <row r="16" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="464"/>
-      <c r="B16" s="465"/>
+      <c r="A16" s="463"/>
+      <c r="B16" s="464"/>
       <c r="C16" s="282"/>
       <c r="D16" s="282"/>
       <c r="E16" s="282"/>
       <c r="F16" s="398"/>
-      <c r="G16" s="470"/>
-      <c r="H16" s="471"/>
-      <c r="I16" s="472"/>
-      <c r="J16" s="472"/>
-      <c r="K16" s="472"/>
-      <c r="L16" s="472"/>
-      <c r="M16" s="473"/>
+      <c r="G16" s="469"/>
+      <c r="H16" s="470"/>
+      <c r="I16" s="471"/>
+      <c r="J16" s="471"/>
+      <c r="K16" s="471"/>
+      <c r="L16" s="471"/>
+      <c r="M16" s="472"/>
     </row>
     <row r="17" ht="6.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="474"/>
-      <c r="B17" s="475"/>
-      <c r="C17" s="476"/>
-      <c r="D17" s="476"/>
-      <c r="E17" s="477"/>
-      <c r="F17" s="478"/>
-      <c r="G17" s="479"/>
-      <c r="H17" s="480"/>
-      <c r="I17" s="480"/>
-      <c r="J17" s="480"/>
-      <c r="K17" s="480"/>
-      <c r="L17" s="480"/>
-      <c r="M17" s="481"/>
+      <c r="A17" s="473"/>
+      <c r="B17" s="474"/>
+      <c r="C17" s="475"/>
+      <c r="D17" s="475"/>
+      <c r="E17" s="476"/>
+      <c r="F17" s="477"/>
+      <c r="G17" s="478"/>
+      <c r="H17" s="479"/>
+      <c r="I17" s="479"/>
+      <c r="J17" s="479"/>
+      <c r="K17" s="479"/>
+      <c r="L17" s="479"/>
+      <c r="M17" s="480"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="474"/>
-      <c r="B18" s="475"/>
-      <c r="C18" s="482" t="s">
+      <c r="A18" s="473"/>
+      <c r="B18" s="474"/>
+      <c r="C18" s="481" t="s">
         <v>407</v>
       </c>
-      <c r="D18" s="482"/>
-      <c r="E18" s="483"/>
-      <c r="F18" s="484"/>
-      <c r="G18" s="485"/>
-      <c r="H18" s="485"/>
-      <c r="I18" s="485"/>
-      <c r="J18" s="485"/>
-      <c r="K18" s="485"/>
-      <c r="L18" s="485"/>
-      <c r="M18" s="486"/>
+      <c r="D18" s="481"/>
+      <c r="E18" s="482"/>
+      <c r="F18" s="483"/>
+      <c r="G18" s="484"/>
+      <c r="H18" s="484"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="484"/>
+      <c r="K18" s="484"/>
+      <c r="L18" s="484"/>
+      <c r="M18" s="485"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="474"/>
-      <c r="B19" s="475"/>
-      <c r="C19" s="482"/>
-      <c r="D19" s="482"/>
-      <c r="E19" s="483"/>
-      <c r="F19" s="484"/>
-      <c r="G19" s="466" t="s">
+      <c r="A19" s="473"/>
+      <c r="B19" s="474"/>
+      <c r="C19" s="481"/>
+      <c r="D19" s="481"/>
+      <c r="E19" s="482"/>
+      <c r="F19" s="483"/>
+      <c r="G19" s="465" t="s">
         <v>404</v>
       </c>
-      <c r="H19" s="446"/>
-      <c r="I19" s="446"/>
-      <c r="J19" s="446"/>
-      <c r="K19" s="446"/>
-      <c r="L19" s="446"/>
-      <c r="M19" s="486"/>
+      <c r="H19" s="445"/>
+      <c r="I19" s="445"/>
+      <c r="J19" s="445"/>
+      <c r="K19" s="445"/>
+      <c r="L19" s="445"/>
+      <c r="M19" s="485"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="474"/>
-      <c r="B20" s="475"/>
-      <c r="C20" s="482"/>
-      <c r="D20" s="482"/>
-      <c r="E20" s="483"/>
-      <c r="F20" s="484"/>
-      <c r="G20" s="485"/>
-      <c r="H20" s="487" t="s">
+      <c r="A20" s="473"/>
+      <c r="B20" s="474"/>
+      <c r="C20" s="481"/>
+      <c r="D20" s="481"/>
+      <c r="E20" s="482"/>
+      <c r="F20" s="483"/>
+      <c r="G20" s="484"/>
+      <c r="H20" s="486" t="s">
         <v>408</v>
       </c>
-      <c r="I20" s="487"/>
-      <c r="J20" s="488"/>
-      <c r="K20" s="489"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="486"/>
+      <c r="I20" s="486"/>
+      <c r="J20" s="487"/>
+      <c r="K20" s="488"/>
+      <c r="L20" s="489"/>
+      <c r="M20" s="485"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="474"/>
-      <c r="B21" s="475"/>
-      <c r="C21" s="482"/>
-      <c r="D21" s="482"/>
-      <c r="E21" s="483"/>
-      <c r="F21" s="484"/>
-      <c r="G21" s="491" t="s">
+      <c r="A21" s="473"/>
+      <c r="B21" s="474"/>
+      <c r="C21" s="481"/>
+      <c r="D21" s="481"/>
+      <c r="E21" s="482"/>
+      <c r="F21" s="483"/>
+      <c r="G21" s="490" t="s">
         <v>409</v>
       </c>
-      <c r="H21" s="492"/>
-      <c r="I21" s="492"/>
-      <c r="J21" s="488"/>
-      <c r="K21" s="493"/>
-      <c r="L21" s="490"/>
-      <c r="M21" s="486"/>
+      <c r="H21" s="491"/>
+      <c r="I21" s="491"/>
+      <c r="J21" s="487"/>
+      <c r="K21" s="492"/>
+      <c r="L21" s="489"/>
+      <c r="M21" s="485"/>
     </row>
     <row r="22" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="494"/>
-      <c r="B22" s="495"/>
-      <c r="C22" s="496"/>
-      <c r="D22" s="496"/>
-      <c r="E22" s="496"/>
-      <c r="F22" s="497"/>
-      <c r="G22" s="470" t="s">
+      <c r="A22" s="493"/>
+      <c r="B22" s="494"/>
+      <c r="C22" s="495"/>
+      <c r="D22" s="495"/>
+      <c r="E22" s="495"/>
+      <c r="F22" s="496"/>
+      <c r="G22" s="469" t="s">
         <v>410</v>
       </c>
-      <c r="H22" s="471"/>
-      <c r="I22" s="498"/>
-      <c r="J22" s="498"/>
-      <c r="K22" s="498"/>
-      <c r="L22" s="499"/>
-      <c r="M22" s="473"/>
+      <c r="H22" s="470"/>
+      <c r="I22" s="497"/>
+      <c r="J22" s="497"/>
+      <c r="K22" s="497"/>
+      <c r="L22" s="498"/>
+      <c r="M22" s="472"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
         <v>411</v>
       </c>
       <c r="B23" s="195"/>
-      <c r="C23" s="500" t="s">
+      <c r="C23" s="499" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="500"/>
-      <c r="E23" s="500"/>
-      <c r="F23" s="501"/>
-      <c r="G23" s="462"/>
-      <c r="H23" s="462"/>
-      <c r="I23" s="462"/>
-      <c r="J23" s="462"/>
-      <c r="K23" s="462"/>
-      <c r="L23" s="462"/>
-      <c r="M23" s="463"/>
+      <c r="D23" s="499"/>
+      <c r="E23" s="499"/>
+      <c r="F23" s="500"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="461"/>
+      <c r="I23" s="461"/>
+      <c r="J23" s="461"/>
+      <c r="K23" s="461"/>
+      <c r="L23" s="461"/>
+      <c r="M23" s="462"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="464"/>
-      <c r="B24" s="465"/>
-      <c r="C24" s="502"/>
-      <c r="D24" s="502"/>
-      <c r="E24" s="502"/>
-      <c r="F24" s="503"/>
-      <c r="G24" s="466" t="s">
+      <c r="A24" s="463"/>
+      <c r="B24" s="464"/>
+      <c r="C24" s="501"/>
+      <c r="D24" s="501"/>
+      <c r="E24" s="501"/>
+      <c r="F24" s="502"/>
+      <c r="G24" s="465" t="s">
         <v>404</v>
       </c>
-      <c r="H24" s="446"/>
-      <c r="I24" s="446"/>
-      <c r="J24" s="446"/>
-      <c r="K24" s="446"/>
-      <c r="L24" s="446"/>
-      <c r="M24" s="504"/>
+      <c r="H24" s="445"/>
+      <c r="I24" s="445"/>
+      <c r="J24" s="445"/>
+      <c r="K24" s="445"/>
+      <c r="L24" s="445"/>
+      <c r="M24" s="503"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="464"/>
-      <c r="B25" s="465"/>
-      <c r="C25" s="502"/>
-      <c r="D25" s="502"/>
-      <c r="E25" s="502"/>
-      <c r="F25" s="503"/>
-      <c r="G25" s="505"/>
-      <c r="H25" s="471"/>
-      <c r="I25" s="506"/>
-      <c r="J25" s="506"/>
-      <c r="K25" s="506"/>
-      <c r="L25" s="506"/>
-      <c r="M25" s="504"/>
+      <c r="A25" s="463"/>
+      <c r="B25" s="464"/>
+      <c r="C25" s="501"/>
+      <c r="D25" s="501"/>
+      <c r="E25" s="501"/>
+      <c r="F25" s="502"/>
+      <c r="G25" s="504"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="505"/>
+      <c r="J25" s="505"/>
+      <c r="K25" s="505"/>
+      <c r="L25" s="505"/>
+      <c r="M25" s="503"/>
     </row>
     <row r="26" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="507"/>
-      <c r="B26" s="508"/>
-      <c r="C26" s="509"/>
-      <c r="D26" s="509"/>
-      <c r="E26" s="509"/>
-      <c r="F26" s="510"/>
-      <c r="G26" s="470"/>
-      <c r="H26" s="471"/>
-      <c r="I26" s="472"/>
-      <c r="J26" s="472"/>
-      <c r="K26" s="472"/>
-      <c r="L26" s="472"/>
-      <c r="M26" s="473"/>
+      <c r="A26" s="506"/>
+      <c r="B26" s="507"/>
+      <c r="C26" s="508"/>
+      <c r="D26" s="508"/>
+      <c r="E26" s="508"/>
+      <c r="F26" s="509"/>
+      <c r="G26" s="469"/>
+      <c r="H26" s="470"/>
+      <c r="I26" s="471"/>
+      <c r="J26" s="471"/>
+      <c r="K26" s="471"/>
+      <c r="L26" s="471"/>
+      <c r="M26" s="472"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
         <v>413</v>
       </c>
       <c r="B27" s="195"/>
-      <c r="C27" s="500" t="s">
+      <c r="C27" s="499" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="500"/>
-      <c r="E27" s="500"/>
-      <c r="F27" s="501"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="462"/>
-      <c r="I27" s="462"/>
-      <c r="J27" s="462"/>
-      <c r="K27" s="462"/>
-      <c r="L27" s="462"/>
-      <c r="M27" s="463"/>
+      <c r="D27" s="499"/>
+      <c r="E27" s="499"/>
+      <c r="F27" s="500"/>
+      <c r="G27" s="461"/>
+      <c r="H27" s="461"/>
+      <c r="I27" s="461"/>
+      <c r="J27" s="461"/>
+      <c r="K27" s="461"/>
+      <c r="L27" s="461"/>
+      <c r="M27" s="462"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="464"/>
-      <c r="B28" s="465"/>
-      <c r="C28" s="502"/>
-      <c r="D28" s="502"/>
-      <c r="E28" s="502"/>
-      <c r="F28" s="503"/>
-      <c r="G28" s="466" t="s">
+      <c r="A28" s="463"/>
+      <c r="B28" s="464"/>
+      <c r="C28" s="501"/>
+      <c r="D28" s="501"/>
+      <c r="E28" s="501"/>
+      <c r="F28" s="502"/>
+      <c r="G28" s="465" t="s">
         <v>404</v>
       </c>
-      <c r="H28" s="446"/>
-      <c r="I28" s="446"/>
-      <c r="J28" s="446"/>
-      <c r="K28" s="446"/>
-      <c r="L28" s="446"/>
+      <c r="H28" s="445"/>
+      <c r="I28" s="445"/>
+      <c r="J28" s="445"/>
+      <c r="K28" s="445"/>
+      <c r="L28" s="445"/>
       <c r="M28" s="378"/>
     </row>
     <row r="29" ht="11.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="464"/>
-      <c r="B29" s="465"/>
-      <c r="C29" s="502"/>
-      <c r="D29" s="502"/>
-      <c r="E29" s="502"/>
-      <c r="F29" s="503"/>
+      <c r="A29" s="463"/>
+      <c r="B29" s="464"/>
+      <c r="C29" s="501"/>
+      <c r="D29" s="501"/>
+      <c r="E29" s="501"/>
+      <c r="F29" s="502"/>
       <c r="G29" s="282"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="506"/>
-      <c r="J29" s="506"/>
-      <c r="K29" s="506"/>
-      <c r="L29" s="506"/>
-      <c r="M29" s="504"/>
+      <c r="I29" s="505"/>
+      <c r="J29" s="505"/>
+      <c r="K29" s="505"/>
+      <c r="L29" s="505"/>
+      <c r="M29" s="503"/>
     </row>
     <row r="30" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="507"/>
-      <c r="B30" s="508"/>
-      <c r="C30" s="509"/>
-      <c r="D30" s="509"/>
-      <c r="E30" s="509"/>
-      <c r="F30" s="510"/>
-      <c r="G30" s="511"/>
-      <c r="H30" s="512"/>
+      <c r="A30" s="506"/>
+      <c r="B30" s="507"/>
+      <c r="C30" s="508"/>
+      <c r="D30" s="508"/>
+      <c r="E30" s="508"/>
+      <c r="F30" s="509"/>
+      <c r="G30" s="510"/>
+      <c r="H30" s="511"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
-      <c r="M30" s="473"/>
+      <c r="M30" s="472"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
         <v>415</v>
       </c>
       <c r="B31" s="195"/>
-      <c r="C31" s="500" t="s">
+      <c r="C31" s="499" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="500"/>
-      <c r="E31" s="500"/>
-      <c r="F31" s="501"/>
-      <c r="G31" s="462"/>
-      <c r="H31" s="462"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="462"/>
-      <c r="K31" s="462"/>
-      <c r="L31" s="462"/>
-      <c r="M31" s="463"/>
+      <c r="D31" s="499"/>
+      <c r="E31" s="499"/>
+      <c r="F31" s="500"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="461"/>
+      <c r="J31" s="461"/>
+      <c r="K31" s="461"/>
+      <c r="L31" s="461"/>
+      <c r="M31" s="462"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="464"/>
-      <c r="B32" s="465"/>
-      <c r="C32" s="502"/>
-      <c r="D32" s="502"/>
-      <c r="E32" s="502"/>
-      <c r="F32" s="503"/>
-      <c r="G32" s="513" t="s">
+      <c r="A32" s="463"/>
+      <c r="B32" s="464"/>
+      <c r="C32" s="501"/>
+      <c r="D32" s="501"/>
+      <c r="E32" s="501"/>
+      <c r="F32" s="502"/>
+      <c r="G32" s="512" t="s">
         <v>417</v>
       </c>
-      <c r="H32" s="514"/>
-      <c r="I32" s="514"/>
-      <c r="J32" s="514"/>
-      <c r="K32" s="515"/>
-      <c r="L32" s="515"/>
-      <c r="M32" s="504"/>
+      <c r="H32" s="513"/>
+      <c r="I32" s="513"/>
+      <c r="J32" s="513"/>
+      <c r="K32" s="514"/>
+      <c r="L32" s="514"/>
+      <c r="M32" s="503"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="464"/>
-      <c r="B33" s="465"/>
-      <c r="C33" s="502"/>
-      <c r="D33" s="502"/>
-      <c r="E33" s="502"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="516"/>
-      <c r="H33" s="517"/>
-      <c r="I33" s="518"/>
-      <c r="J33" s="518"/>
-      <c r="K33" s="519"/>
-      <c r="L33" s="519"/>
-      <c r="M33" s="504"/>
+      <c r="A33" s="463"/>
+      <c r="B33" s="464"/>
+      <c r="C33" s="501"/>
+      <c r="D33" s="501"/>
+      <c r="E33" s="501"/>
+      <c r="F33" s="502"/>
+      <c r="G33" s="515"/>
+      <c r="H33" s="516"/>
+      <c r="I33" s="517"/>
+      <c r="J33" s="517"/>
+      <c r="K33" s="518"/>
+      <c r="L33" s="518"/>
+      <c r="M33" s="503"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="464"/>
-      <c r="B34" s="465"/>
-      <c r="C34" s="502" t="s">
+      <c r="A34" s="463"/>
+      <c r="B34" s="464"/>
+      <c r="C34" s="501" t="s">
         <v>418</v>
       </c>
-      <c r="D34" s="502"/>
-      <c r="E34" s="502"/>
-      <c r="F34" s="503"/>
-      <c r="G34" s="505"/>
-      <c r="H34" s="520"/>
-      <c r="I34" s="521"/>
-      <c r="J34" s="521"/>
-      <c r="K34" s="521"/>
-      <c r="L34" s="521"/>
-      <c r="M34" s="504"/>
+      <c r="D34" s="501"/>
+      <c r="E34" s="501"/>
+      <c r="F34" s="502"/>
+      <c r="G34" s="504"/>
+      <c r="H34" s="519"/>
+      <c r="I34" s="520"/>
+      <c r="J34" s="520"/>
+      <c r="K34" s="520"/>
+      <c r="L34" s="520"/>
+      <c r="M34" s="503"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="464"/>
-      <c r="B35" s="465"/>
-      <c r="C35" s="502"/>
-      <c r="D35" s="502"/>
-      <c r="E35" s="502"/>
-      <c r="F35" s="503"/>
-      <c r="G35" s="513" t="s">
+      <c r="A35" s="463"/>
+      <c r="B35" s="464"/>
+      <c r="C35" s="501"/>
+      <c r="D35" s="501"/>
+      <c r="E35" s="501"/>
+      <c r="F35" s="502"/>
+      <c r="G35" s="512" t="s">
         <v>417</v>
       </c>
-      <c r="H35" s="514"/>
-      <c r="I35" s="514"/>
-      <c r="J35" s="514"/>
-      <c r="K35" s="515"/>
-      <c r="L35" s="515"/>
-      <c r="M35" s="504"/>
+      <c r="H35" s="513"/>
+      <c r="I35" s="513"/>
+      <c r="J35" s="513"/>
+      <c r="K35" s="514"/>
+      <c r="L35" s="514"/>
+      <c r="M35" s="503"/>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="507"/>
-      <c r="B36" s="508"/>
-      <c r="C36" s="509"/>
-      <c r="D36" s="509"/>
-      <c r="E36" s="509"/>
-      <c r="F36" s="510"/>
-      <c r="G36" s="516"/>
-      <c r="H36" s="517"/>
-      <c r="I36" s="518"/>
-      <c r="J36" s="518"/>
+      <c r="A36" s="506"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
+      <c r="E36" s="508"/>
+      <c r="F36" s="509"/>
+      <c r="G36" s="515"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="517"/>
+      <c r="J36" s="517"/>
       <c r="K36" s="282"/>
-      <c r="L36" s="522"/>
-      <c r="M36" s="473"/>
+      <c r="L36" s="521"/>
+      <c r="M36" s="472"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
         <v>419</v>
       </c>
       <c r="B37" s="195"/>
-      <c r="C37" s="523" t="s">
+      <c r="C37" s="522" t="s">
         <v>420</v>
       </c>
-      <c r="D37" s="523"/>
-      <c r="E37" s="523"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="462"/>
-      <c r="H37" s="462"/>
-      <c r="I37" s="462"/>
-      <c r="J37" s="462"/>
-      <c r="K37" s="462"/>
-      <c r="L37" s="462"/>
-      <c r="M37" s="463"/>
+      <c r="D37" s="522"/>
+      <c r="E37" s="522"/>
+      <c r="F37" s="523"/>
+      <c r="G37" s="461"/>
+      <c r="H37" s="461"/>
+      <c r="I37" s="461"/>
+      <c r="J37" s="461"/>
+      <c r="K37" s="461"/>
+      <c r="L37" s="461"/>
+      <c r="M37" s="462"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="464"/>
-      <c r="B38" s="465"/>
-      <c r="C38" s="461"/>
-      <c r="D38" s="461"/>
-      <c r="E38" s="461"/>
-      <c r="F38" s="525"/>
-      <c r="G38" s="466" t="s">
+      <c r="A38" s="463"/>
+      <c r="B38" s="464"/>
+      <c r="C38" s="460"/>
+      <c r="D38" s="460"/>
+      <c r="E38" s="460"/>
+      <c r="F38" s="524"/>
+      <c r="G38" s="465" t="s">
         <v>421</v>
       </c>
-      <c r="H38" s="446"/>
-      <c r="I38" s="446"/>
-      <c r="J38" s="446"/>
-      <c r="K38" s="446"/>
-      <c r="L38" s="446"/>
-      <c r="M38" s="526"/>
+      <c r="H38" s="445"/>
+      <c r="I38" s="445"/>
+      <c r="J38" s="445"/>
+      <c r="K38" s="445"/>
+      <c r="L38" s="445"/>
+      <c r="M38" s="525"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="464"/>
-      <c r="B39" s="465"/>
-      <c r="C39" s="461"/>
-      <c r="D39" s="461"/>
-      <c r="E39" s="461"/>
-      <c r="F39" s="525"/>
-      <c r="G39" s="505"/>
-      <c r="H39" s="471"/>
-      <c r="I39" s="506"/>
-      <c r="J39" s="506"/>
-      <c r="K39" s="506"/>
-      <c r="L39" s="506"/>
-      <c r="M39" s="504"/>
+      <c r="A39" s="463"/>
+      <c r="B39" s="464"/>
+      <c r="C39" s="460"/>
+      <c r="D39" s="460"/>
+      <c r="E39" s="460"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="504"/>
+      <c r="H39" s="470"/>
+      <c r="I39" s="505"/>
+      <c r="J39" s="505"/>
+      <c r="K39" s="505"/>
+      <c r="L39" s="505"/>
+      <c r="M39" s="503"/>
     </row>
     <row r="40" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="507"/>
-      <c r="B40" s="508"/>
-      <c r="C40" s="527"/>
-      <c r="D40" s="527"/>
-      <c r="E40" s="527"/>
-      <c r="F40" s="528"/>
-      <c r="G40" s="470"/>
-      <c r="H40" s="471"/>
-      <c r="I40" s="472"/>
-      <c r="J40" s="472"/>
-      <c r="K40" s="472"/>
-      <c r="L40" s="472"/>
-      <c r="M40" s="473"/>
+      <c r="A40" s="506"/>
+      <c r="B40" s="507"/>
+      <c r="C40" s="526"/>
+      <c r="D40" s="526"/>
+      <c r="E40" s="526"/>
+      <c r="F40" s="527"/>
+      <c r="G40" s="469"/>
+      <c r="H40" s="470"/>
+      <c r="I40" s="471"/>
+      <c r="J40" s="471"/>
+      <c r="K40" s="471"/>
+      <c r="L40" s="471"/>
+      <c r="M40" s="472"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="529" t="s">
+      <c r="A41" s="528" t="s">
         <v>422</v>
       </c>
-      <c r="B41" s="530"/>
-      <c r="C41" s="502" t="s">
+      <c r="B41" s="529"/>
+      <c r="C41" s="501" t="s">
         <v>423</v>
       </c>
-      <c r="D41" s="502"/>
-      <c r="E41" s="502"/>
-      <c r="F41" s="503"/>
-      <c r="G41" s="462"/>
-      <c r="H41" s="462"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="531"/>
-      <c r="K41" s="532"/>
-      <c r="L41" s="532"/>
-      <c r="M41" s="533"/>
+      <c r="D41" s="501"/>
+      <c r="E41" s="501"/>
+      <c r="F41" s="502"/>
+      <c r="G41" s="461"/>
+      <c r="H41" s="461"/>
+      <c r="I41" s="530"/>
+      <c r="J41" s="530"/>
+      <c r="K41" s="531"/>
+      <c r="L41" s="531"/>
+      <c r="M41" s="532"/>
     </row>
     <row r="42" ht="0.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="534"/>
-      <c r="B42" s="535"/>
-      <c r="C42" s="502"/>
-      <c r="D42" s="502"/>
-      <c r="E42" s="502"/>
-      <c r="F42" s="503"/>
-      <c r="G42" s="536"/>
-      <c r="H42" s="536"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="536"/>
-      <c r="K42" s="536"/>
-      <c r="L42" s="536"/>
-      <c r="M42" s="537"/>
+      <c r="A42" s="533"/>
+      <c r="B42" s="534"/>
+      <c r="C42" s="501"/>
+      <c r="D42" s="501"/>
+      <c r="E42" s="501"/>
+      <c r="F42" s="502"/>
+      <c r="G42" s="535"/>
+      <c r="H42" s="535"/>
+      <c r="I42" s="535"/>
+      <c r="J42" s="535"/>
+      <c r="K42" s="535"/>
+      <c r="L42" s="535"/>
+      <c r="M42" s="536"/>
       <c r="N42" s="282"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="534" t="s">
+      <c r="A43" s="533" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="535"/>
-      <c r="C43" s="502" t="s">
+      <c r="B43" s="534"/>
+      <c r="C43" s="501" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="502"/>
-      <c r="E43" s="502"/>
-      <c r="F43" s="503"/>
+      <c r="D43" s="501"/>
+      <c r="E43" s="501"/>
+      <c r="F43" s="502"/>
       <c r="G43" s="282"/>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
@@ -13476,34 +13484,34 @@
       <c r="N43" s="282"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="534"/>
-      <c r="B44" s="535"/>
-      <c r="C44" s="502"/>
-      <c r="D44" s="502"/>
-      <c r="E44" s="502"/>
-      <c r="F44" s="503"/>
-      <c r="G44" s="538" t="s">
+      <c r="A44" s="533"/>
+      <c r="B44" s="534"/>
+      <c r="C44" s="501"/>
+      <c r="D44" s="501"/>
+      <c r="E44" s="501"/>
+      <c r="F44" s="502"/>
+      <c r="G44" s="537" t="s">
         <v>426</v>
       </c>
-      <c r="H44" s="539"/>
-      <c r="I44" s="518"/>
-      <c r="J44" s="518"/>
+      <c r="H44" s="538"/>
+      <c r="I44" s="517"/>
+      <c r="J44" s="517"/>
       <c r="K44" s="282"/>
-      <c r="L44" s="522"/>
-      <c r="M44" s="540"/>
-      <c r="N44" s="517"/>
+      <c r="L44" s="521"/>
+      <c r="M44" s="539"/>
+      <c r="N44" s="516"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="534" t="s">
+      <c r="A45" s="533" t="s">
         <v>427</v>
       </c>
-      <c r="B45" s="535"/>
-      <c r="C45" s="503" t="s">
+      <c r="B45" s="534"/>
+      <c r="C45" s="502" t="s">
         <v>428</v>
       </c>
-      <c r="D45" s="503"/>
-      <c r="E45" s="503"/>
-      <c r="F45" s="503"/>
+      <c r="D45" s="502"/>
+      <c r="E45" s="502"/>
+      <c r="F45" s="502"/>
       <c r="G45" s="282"/>
       <c r="H45" s="282"/>
       <c r="I45" s="282"/>
@@ -13514,34 +13522,34 @@
       <c r="N45" s="282"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="534"/>
-      <c r="B46" s="535"/>
-      <c r="C46" s="503"/>
-      <c r="D46" s="503"/>
-      <c r="E46" s="503"/>
-      <c r="F46" s="503"/>
-      <c r="G46" s="541" t="s">
+      <c r="A46" s="533"/>
+      <c r="B46" s="534"/>
+      <c r="C46" s="502"/>
+      <c r="D46" s="502"/>
+      <c r="E46" s="502"/>
+      <c r="F46" s="502"/>
+      <c r="G46" s="540" t="s">
         <v>429</v>
       </c>
-      <c r="H46" s="542"/>
-      <c r="I46" s="518"/>
-      <c r="J46" s="518"/>
-      <c r="K46" s="518"/>
-      <c r="L46" s="522"/>
-      <c r="M46" s="540"/>
-      <c r="N46" s="517"/>
+      <c r="H46" s="541"/>
+      <c r="I46" s="517"/>
+      <c r="J46" s="517"/>
+      <c r="K46" s="517"/>
+      <c r="L46" s="521"/>
+      <c r="M46" s="539"/>
+      <c r="N46" s="516"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="534" t="s">
+      <c r="A47" s="533" t="s">
         <v>430</v>
       </c>
-      <c r="B47" s="535"/>
-      <c r="C47" s="502" t="s">
+      <c r="B47" s="534"/>
+      <c r="C47" s="501" t="s">
         <v>431</v>
       </c>
-      <c r="D47" s="502"/>
-      <c r="E47" s="543"/>
-      <c r="F47" s="544"/>
+      <c r="D47" s="501"/>
+      <c r="E47" s="542"/>
+      <c r="F47" s="543"/>
       <c r="G47" s="282"/>
       <c r="H47" s="282"/>
       <c r="I47" s="282"/>
@@ -13552,405 +13560,405 @@
       <c r="N47" s="282"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="545"/>
-      <c r="B48" s="546"/>
-      <c r="C48" s="546"/>
-      <c r="D48" s="546"/>
-      <c r="E48" s="546"/>
-      <c r="F48" s="547"/>
-      <c r="G48" s="548" t="s">
+      <c r="A48" s="544"/>
+      <c r="B48" s="545"/>
+      <c r="C48" s="545"/>
+      <c r="D48" s="545"/>
+      <c r="E48" s="545"/>
+      <c r="F48" s="546"/>
+      <c r="G48" s="547" t="s">
         <v>429</v>
       </c>
-      <c r="H48" s="549"/>
-      <c r="I48" s="550"/>
-      <c r="J48" s="550"/>
-      <c r="K48" s="550"/>
-      <c r="L48" s="522"/>
-      <c r="M48" s="551"/>
-      <c r="N48" s="517"/>
+      <c r="H48" s="548"/>
+      <c r="I48" s="549"/>
+      <c r="J48" s="549"/>
+      <c r="K48" s="549"/>
+      <c r="L48" s="521"/>
+      <c r="M48" s="550"/>
+      <c r="N48" s="516"/>
     </row>
     <row r="49" ht="6.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="552"/>
-      <c r="B49" s="553"/>
-      <c r="C49" s="553"/>
-      <c r="D49" s="553"/>
-      <c r="E49" s="553"/>
-      <c r="F49" s="554"/>
-      <c r="G49" s="555"/>
-      <c r="H49" s="556"/>
-      <c r="I49" s="556"/>
-      <c r="J49" s="556"/>
-      <c r="K49" s="556"/>
-      <c r="L49" s="556"/>
-      <c r="M49" s="557"/>
-      <c r="N49" s="517"/>
+      <c r="A49" s="551"/>
+      <c r="B49" s="552"/>
+      <c r="C49" s="552"/>
+      <c r="D49" s="552"/>
+      <c r="E49" s="552"/>
+      <c r="F49" s="553"/>
+      <c r="G49" s="554"/>
+      <c r="H49" s="555"/>
+      <c r="I49" s="555"/>
+      <c r="J49" s="555"/>
+      <c r="K49" s="555"/>
+      <c r="L49" s="555"/>
+      <c r="M49" s="556"/>
+      <c r="N49" s="516"/>
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="558" t="s">
+      <c r="A50" s="557" t="s">
         <v>432</v>
       </c>
-      <c r="B50" s="559"/>
-      <c r="C50" s="560" t="s">
+      <c r="B50" s="558"/>
+      <c r="C50" s="559" t="s">
         <v>433</v>
       </c>
-      <c r="D50" s="560"/>
-      <c r="E50" s="560"/>
-      <c r="F50" s="560"/>
-      <c r="G50" s="560"/>
-      <c r="H50" s="560"/>
-      <c r="I50" s="561"/>
-      <c r="J50" s="562"/>
-      <c r="K50" s="563"/>
-      <c r="L50" s="563"/>
-      <c r="M50" s="564"/>
+      <c r="D50" s="559"/>
+      <c r="E50" s="559"/>
+      <c r="F50" s="559"/>
+      <c r="G50" s="559"/>
+      <c r="H50" s="559"/>
+      <c r="I50" s="560"/>
+      <c r="J50" s="561"/>
+      <c r="K50" s="562"/>
+      <c r="L50" s="562"/>
+      <c r="M50" s="563"/>
       <c r="N50" s="282"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="565" t="s">
+      <c r="A51" s="564" t="s">
         <v>434</v>
       </c>
-      <c r="B51" s="566"/>
-      <c r="C51" s="566"/>
-      <c r="D51" s="566"/>
-      <c r="E51" s="567"/>
+      <c r="B51" s="565"/>
+      <c r="C51" s="565"/>
+      <c r="D51" s="565"/>
+      <c r="E51" s="566"/>
       <c r="F51" s="294" t="s">
         <v>435</v>
       </c>
-      <c r="G51" s="568" t="s">
+      <c r="G51" s="567" t="s">
         <v>436</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
-      <c r="J51" s="569"/>
-      <c r="K51" s="570"/>
-      <c r="L51" s="570"/>
-      <c r="M51" s="571"/>
+      <c r="J51" s="568"/>
+      <c r="K51" s="569"/>
+      <c r="L51" s="569"/>
+      <c r="M51" s="570"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="572"/>
-      <c r="B52" s="573"/>
-      <c r="C52" s="574"/>
-      <c r="D52" s="574"/>
-      <c r="E52" s="575"/>
-      <c r="F52" s="576"/>
-      <c r="G52" s="577"/>
-      <c r="H52" s="578"/>
-      <c r="I52" s="579"/>
-      <c r="J52" s="569"/>
-      <c r="K52" s="570"/>
-      <c r="L52" s="570"/>
-      <c r="M52" s="571"/>
+      <c r="A52" s="571"/>
+      <c r="B52" s="572"/>
+      <c r="C52" s="573"/>
+      <c r="D52" s="573"/>
+      <c r="E52" s="574"/>
+      <c r="F52" s="575"/>
+      <c r="G52" s="576"/>
+      <c r="H52" s="577"/>
+      <c r="I52" s="578"/>
+      <c r="J52" s="568"/>
+      <c r="K52" s="569"/>
+      <c r="L52" s="569"/>
+      <c r="M52" s="570"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="572"/>
-      <c r="B53" s="573"/>
-      <c r="C53" s="573"/>
-      <c r="D53" s="573"/>
-      <c r="E53" s="580"/>
-      <c r="F53" s="576"/>
-      <c r="G53" s="577"/>
-      <c r="H53" s="578"/>
-      <c r="I53" s="579"/>
-      <c r="J53" s="569"/>
-      <c r="K53" s="570"/>
-      <c r="L53" s="570"/>
-      <c r="M53" s="571"/>
+      <c r="A53" s="571"/>
+      <c r="B53" s="572"/>
+      <c r="C53" s="572"/>
+      <c r="D53" s="572"/>
+      <c r="E53" s="579"/>
+      <c r="F53" s="575"/>
+      <c r="G53" s="576"/>
+      <c r="H53" s="577"/>
+      <c r="I53" s="578"/>
+      <c r="J53" s="568"/>
+      <c r="K53" s="569"/>
+      <c r="L53" s="569"/>
+      <c r="M53" s="570"/>
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="581"/>
-      <c r="B54" s="582"/>
-      <c r="C54" s="583"/>
-      <c r="D54" s="583"/>
-      <c r="E54" s="584"/>
-      <c r="F54" s="585"/>
-      <c r="G54" s="586"/>
-      <c r="H54" s="587"/>
-      <c r="I54" s="588"/>
-      <c r="J54" s="569"/>
-      <c r="K54" s="570"/>
-      <c r="L54" s="570"/>
-      <c r="M54" s="571"/>
+      <c r="A54" s="580"/>
+      <c r="B54" s="581"/>
+      <c r="C54" s="582"/>
+      <c r="D54" s="582"/>
+      <c r="E54" s="583"/>
+      <c r="F54" s="584"/>
+      <c r="G54" s="585"/>
+      <c r="H54" s="586"/>
+      <c r="I54" s="587"/>
+      <c r="J54" s="568"/>
+      <c r="K54" s="569"/>
+      <c r="L54" s="569"/>
+      <c r="M54" s="570"/>
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="430" t="s">
+      <c r="A55" s="429" t="s">
         <v>437</v>
       </c>
-      <c r="B55" s="431"/>
-      <c r="C55" s="589" t="s">
+      <c r="B55" s="430"/>
+      <c r="C55" s="588" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="589"/>
-      <c r="E55" s="589"/>
-      <c r="F55" s="589"/>
-      <c r="G55" s="589"/>
-      <c r="H55" s="589"/>
-      <c r="I55" s="590"/>
-      <c r="J55" s="570"/>
-      <c r="K55" s="570"/>
-      <c r="L55" s="570"/>
-      <c r="M55" s="571"/>
+      <c r="D55" s="588"/>
+      <c r="E55" s="588"/>
+      <c r="F55" s="588"/>
+      <c r="G55" s="588"/>
+      <c r="H55" s="588"/>
+      <c r="I55" s="589"/>
+      <c r="J55" s="569"/>
+      <c r="K55" s="569"/>
+      <c r="L55" s="569"/>
+      <c r="M55" s="570"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="591"/>
-      <c r="B56" s="592"/>
-      <c r="C56" s="593"/>
-      <c r="D56" s="593"/>
-      <c r="E56" s="593"/>
-      <c r="F56" s="593"/>
-      <c r="G56" s="593"/>
-      <c r="H56" s="593"/>
-      <c r="I56" s="594"/>
-      <c r="J56" s="595"/>
-      <c r="K56" s="596" t="s">
+      <c r="A56" s="590"/>
+      <c r="B56" s="591"/>
+      <c r="C56" s="592"/>
+      <c r="D56" s="592"/>
+      <c r="E56" s="592"/>
+      <c r="F56" s="592"/>
+      <c r="G56" s="592"/>
+      <c r="H56" s="592"/>
+      <c r="I56" s="593"/>
+      <c r="J56" s="594"/>
+      <c r="K56" s="595" t="s">
         <v>439</v>
       </c>
-      <c r="L56" s="596"/>
-      <c r="M56" s="597"/>
+      <c r="L56" s="595"/>
+      <c r="M56" s="596"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="591"/>
-      <c r="B57" s="592"/>
-      <c r="C57" s="593"/>
-      <c r="D57" s="593"/>
-      <c r="E57" s="593"/>
-      <c r="F57" s="593"/>
-      <c r="G57" s="593"/>
-      <c r="H57" s="593"/>
-      <c r="I57" s="594"/>
-      <c r="J57" s="596"/>
-      <c r="K57" s="596"/>
-      <c r="L57" s="596"/>
-      <c r="M57" s="598"/>
+      <c r="A57" s="590"/>
+      <c r="B57" s="591"/>
+      <c r="C57" s="592"/>
+      <c r="D57" s="592"/>
+      <c r="E57" s="592"/>
+      <c r="F57" s="592"/>
+      <c r="G57" s="592"/>
+      <c r="H57" s="592"/>
+      <c r="I57" s="593"/>
+      <c r="J57" s="595"/>
+      <c r="K57" s="595"/>
+      <c r="L57" s="595"/>
+      <c r="M57" s="597"/>
     </row>
     <row r="58" ht="7.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="599"/>
-      <c r="B58" s="600"/>
-      <c r="C58" s="601"/>
-      <c r="D58" s="601"/>
-      <c r="E58" s="601"/>
-      <c r="F58" s="601"/>
-      <c r="G58" s="601"/>
-      <c r="H58" s="601"/>
-      <c r="I58" s="602"/>
+      <c r="A58" s="598"/>
+      <c r="B58" s="599"/>
+      <c r="C58" s="600"/>
+      <c r="D58" s="600"/>
+      <c r="E58" s="600"/>
+      <c r="F58" s="600"/>
+      <c r="G58" s="600"/>
+      <c r="H58" s="600"/>
+      <c r="I58" s="601"/>
       <c r="J58" s="282"/>
-      <c r="K58" s="603"/>
-      <c r="L58" s="604"/>
+      <c r="K58" s="602"/>
+      <c r="L58" s="603"/>
       <c r="M58" s="378"/>
     </row>
     <row r="59" ht="8.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="605"/>
+      <c r="A59" s="604"/>
       <c r="B59" s="282"/>
-      <c r="C59" s="444"/>
-      <c r="D59" s="444"/>
-      <c r="E59" s="444"/>
-      <c r="F59" s="444"/>
-      <c r="G59" s="444"/>
-      <c r="H59" s="444"/>
-      <c r="I59" s="444"/>
+      <c r="C59" s="443"/>
+      <c r="D59" s="443"/>
+      <c r="E59" s="443"/>
+      <c r="F59" s="443"/>
+      <c r="G59" s="443"/>
+      <c r="H59" s="443"/>
+      <c r="I59" s="443"/>
       <c r="J59" s="282"/>
-      <c r="K59" s="606"/>
-      <c r="L59" s="607"/>
+      <c r="K59" s="605"/>
+      <c r="L59" s="606"/>
       <c r="M59" s="378"/>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="608"/>
-      <c r="B60" s="609" t="s">
+      <c r="A60" s="607"/>
+      <c r="B60" s="608" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="610"/>
-      <c r="D60" s="611"/>
+      <c r="C60" s="609"/>
+      <c r="D60" s="610"/>
       <c r="E60" s="282"/>
-      <c r="F60" s="612"/>
-      <c r="G60" s="613"/>
-      <c r="H60" s="613"/>
-      <c r="I60" s="614"/>
+      <c r="F60" s="611"/>
+      <c r="G60" s="612"/>
+      <c r="H60" s="612"/>
+      <c r="I60" s="613"/>
       <c r="J60" s="282"/>
-      <c r="K60" s="606"/>
-      <c r="L60" s="607"/>
-      <c r="M60" s="615"/>
+      <c r="K60" s="605"/>
+      <c r="L60" s="606"/>
+      <c r="M60" s="614"/>
     </row>
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="608"/>
-      <c r="B61" s="616" t="s">
+      <c r="A61" s="607"/>
+      <c r="B61" s="615" t="s">
         <v>441</v>
       </c>
-      <c r="C61" s="617"/>
-      <c r="D61" s="618"/>
+      <c r="C61" s="616"/>
+      <c r="D61" s="617"/>
       <c r="E61" s="282"/>
-      <c r="F61" s="619"/>
-      <c r="G61" s="620"/>
-      <c r="H61" s="620"/>
-      <c r="I61" s="621"/>
+      <c r="F61" s="618"/>
+      <c r="G61" s="619"/>
+      <c r="H61" s="619"/>
+      <c r="I61" s="620"/>
       <c r="J61" s="282"/>
-      <c r="K61" s="606"/>
-      <c r="L61" s="607"/>
-      <c r="M61" s="615"/>
+      <c r="K61" s="605"/>
+      <c r="L61" s="606"/>
+      <c r="M61" s="614"/>
     </row>
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="608"/>
-      <c r="B62" s="622" t="s">
+      <c r="A62" s="607"/>
+      <c r="B62" s="621" t="s">
         <v>442</v>
       </c>
-      <c r="C62" s="623"/>
-      <c r="D62" s="624"/>
+      <c r="C62" s="622"/>
+      <c r="D62" s="623"/>
       <c r="E62" s="282"/>
-      <c r="F62" s="625"/>
-      <c r="G62" s="626"/>
-      <c r="H62" s="626"/>
-      <c r="I62" s="627"/>
+      <c r="F62" s="624"/>
+      <c r="G62" s="625"/>
+      <c r="H62" s="625"/>
+      <c r="I62" s="626"/>
       <c r="J62" s="282"/>
-      <c r="K62" s="606"/>
-      <c r="L62" s="607"/>
-      <c r="M62" s="615"/>
+      <c r="K62" s="605"/>
+      <c r="L62" s="606"/>
+      <c r="M62" s="614"/>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="608"/>
-      <c r="B63" s="628"/>
-      <c r="C63" s="629"/>
-      <c r="D63" s="630"/>
+      <c r="A63" s="607"/>
+      <c r="B63" s="627"/>
+      <c r="C63" s="628"/>
+      <c r="D63" s="629"/>
       <c r="E63" s="282"/>
-      <c r="F63" s="631" t="s">
+      <c r="F63" s="630" t="s">
         <v>443</v>
       </c>
-      <c r="G63" s="632"/>
-      <c r="H63" s="632"/>
-      <c r="I63" s="633"/>
+      <c r="G63" s="631"/>
+      <c r="H63" s="631"/>
+      <c r="I63" s="632"/>
       <c r="J63" s="282"/>
-      <c r="K63" s="606"/>
-      <c r="L63" s="607"/>
-      <c r="M63" s="615"/>
+      <c r="K63" s="605"/>
+      <c r="L63" s="606"/>
+      <c r="M63" s="614"/>
     </row>
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="608"/>
-      <c r="B64" s="622" t="s">
+      <c r="A64" s="607"/>
+      <c r="B64" s="621" t="s">
         <v>444</v>
       </c>
-      <c r="C64" s="623"/>
-      <c r="D64" s="624"/>
+      <c r="C64" s="622"/>
+      <c r="D64" s="623"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="634"/>
+      <c r="F64" s="633"/>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
-      <c r="J64" s="635"/>
-      <c r="K64" s="636"/>
-      <c r="L64" s="637"/>
-      <c r="M64" s="615"/>
+      <c r="J64" s="634"/>
+      <c r="K64" s="635"/>
+      <c r="L64" s="636"/>
+      <c r="M64" s="614"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="608"/>
-      <c r="B65" s="638"/>
-      <c r="C65" s="639"/>
-      <c r="D65" s="640"/>
+      <c r="A65" s="607"/>
+      <c r="B65" s="637"/>
+      <c r="C65" s="638"/>
+      <c r="D65" s="639"/>
       <c r="E65" s="282"/>
-      <c r="F65" s="641" t="s">
+      <c r="F65" s="640" t="s">
         <v>445</v>
       </c>
-      <c r="G65" s="642"/>
-      <c r="H65" s="642"/>
-      <c r="I65" s="643"/>
-      <c r="J65" s="635"/>
-      <c r="K65" s="644" t="s">
+      <c r="G65" s="641"/>
+      <c r="H65" s="641"/>
+      <c r="I65" s="642"/>
+      <c r="J65" s="634"/>
+      <c r="K65" s="643" t="s">
         <v>446</v>
       </c>
-      <c r="L65" s="645"/>
-      <c r="M65" s="615"/>
+      <c r="L65" s="644"/>
+      <c r="M65" s="614"/>
     </row>
     <row r="66" ht="8.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="638"/>
-      <c r="B66" s="639"/>
-      <c r="C66" s="646"/>
-      <c r="D66" s="646"/>
-      <c r="E66" s="647"/>
-      <c r="F66" s="646"/>
-      <c r="G66" s="646"/>
-      <c r="H66" s="646"/>
-      <c r="I66" s="646"/>
-      <c r="J66" s="639"/>
-      <c r="K66" s="648"/>
-      <c r="L66" s="648"/>
-      <c r="M66" s="649"/>
+      <c r="A66" s="637"/>
+      <c r="B66" s="638"/>
+      <c r="C66" s="645"/>
+      <c r="D66" s="645"/>
+      <c r="E66" s="646"/>
+      <c r="F66" s="645"/>
+      <c r="G66" s="645"/>
+      <c r="H66" s="645"/>
+      <c r="I66" s="645"/>
+      <c r="J66" s="638"/>
+      <c r="K66" s="647"/>
+      <c r="L66" s="647"/>
+      <c r="M66" s="648"/>
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="650" t="s">
+      <c r="A67" s="649" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="651"/>
-      <c r="C67" s="651"/>
-      <c r="D67" s="651"/>
-      <c r="E67" s="651"/>
-      <c r="F67" s="651"/>
-      <c r="G67" s="651"/>
-      <c r="H67" s="651"/>
-      <c r="I67" s="651"/>
-      <c r="J67" s="651"/>
-      <c r="K67" s="651"/>
-      <c r="L67" s="651"/>
-      <c r="M67" s="652"/>
+      <c r="B67" s="650"/>
+      <c r="C67" s="650"/>
+      <c r="D67" s="650"/>
+      <c r="E67" s="650"/>
+      <c r="F67" s="650"/>
+      <c r="G67" s="650"/>
+      <c r="H67" s="650"/>
+      <c r="I67" s="650"/>
+      <c r="J67" s="650"/>
+      <c r="K67" s="650"/>
+      <c r="L67" s="650"/>
+      <c r="M67" s="651"/>
     </row>
     <row r="68" ht="53.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="608"/>
-      <c r="B68" s="635"/>
-      <c r="C68" s="653"/>
-      <c r="D68" s="653"/>
-      <c r="E68" s="654"/>
-      <c r="F68" s="655"/>
-      <c r="G68" s="655"/>
-      <c r="H68" s="655"/>
-      <c r="I68" s="656"/>
-      <c r="J68" s="657"/>
-      <c r="K68" s="657"/>
+      <c r="A68" s="607"/>
+      <c r="B68" s="634"/>
+      <c r="C68" s="652"/>
+      <c r="D68" s="652"/>
+      <c r="E68" s="653"/>
+      <c r="F68" s="654"/>
+      <c r="G68" s="654"/>
+      <c r="H68" s="654"/>
+      <c r="I68" s="655"/>
+      <c r="J68" s="656"/>
+      <c r="K68" s="656"/>
       <c r="L68" s="282"/>
-      <c r="M68" s="615"/>
+      <c r="M68" s="614"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="608"/>
-      <c r="B69" s="635"/>
-      <c r="C69" s="570"/>
-      <c r="D69" s="570"/>
-      <c r="E69" s="658" t="s">
+      <c r="A69" s="607"/>
+      <c r="B69" s="634"/>
+      <c r="C69" s="569"/>
+      <c r="D69" s="569"/>
+      <c r="E69" s="657" t="s">
         <v>448</v>
       </c>
-      <c r="F69" s="659"/>
-      <c r="G69" s="659"/>
-      <c r="H69" s="659"/>
-      <c r="I69" s="660"/>
-      <c r="J69" s="661"/>
-      <c r="K69" s="662"/>
+      <c r="F69" s="658"/>
+      <c r="G69" s="658"/>
+      <c r="H69" s="658"/>
+      <c r="I69" s="659"/>
+      <c r="J69" s="660"/>
+      <c r="K69" s="661"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="615"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="663" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="664"/>
-      <c r="B70" s="665"/>
-      <c r="C70" s="665"/>
-      <c r="D70" s="665"/>
-      <c r="E70" s="665"/>
-      <c r="F70" s="665"/>
-      <c r="G70" s="665"/>
-      <c r="H70" s="665"/>
-      <c r="I70" s="665"/>
-      <c r="J70" s="665"/>
-      <c r="K70" s="665"/>
-      <c r="L70" s="665"/>
-      <c r="M70" s="666"/>
+      <c r="M69" s="614"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="662" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="663"/>
+      <c r="B70" s="664"/>
+      <c r="C70" s="664"/>
+      <c r="D70" s="664"/>
+      <c r="E70" s="664"/>
+      <c r="F70" s="664"/>
+      <c r="G70" s="664"/>
+      <c r="H70" s="664"/>
+      <c r="I70" s="664"/>
+      <c r="J70" s="664"/>
+      <c r="K70" s="664"/>
+      <c r="L70" s="664"/>
+      <c r="M70" s="665"/>
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="667" t="s">
+      <c r="A71" s="666" t="s">
         <v>449</v>
       </c>
-      <c r="B71" s="667"/>
-      <c r="C71" s="667"/>
-      <c r="D71" s="667"/>
-      <c r="E71" s="667"/>
-      <c r="F71" s="667"/>
-      <c r="G71" s="667"/>
-      <c r="H71" s="667"/>
-      <c r="I71" s="667"/>
-      <c r="J71" s="667"/>
-      <c r="K71" s="667"/>
-      <c r="L71" s="667"/>
-      <c r="M71" s="667"/>
+      <c r="B71" s="666"/>
+      <c r="C71" s="666"/>
+      <c r="D71" s="666"/>
+      <c r="E71" s="666"/>
+      <c r="F71" s="666"/>
+      <c r="G71" s="666"/>
+      <c r="H71" s="666"/>
+      <c r="I71" s="666"/>
+      <c r="J71" s="666"/>
+      <c r="K71" s="666"/>
+      <c r="L71" s="666"/>
+      <c r="M71" s="666"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -14063,13 +14071,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="668" t="s">
+      <c r="A1" s="667" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="668" t="s">
+      <c r="B1" s="667" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="668" t="s">
+      <c r="C1" s="667" t="s">
         <v>452</v>
       </c>
     </row>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="461">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -1381,6 +1381,12 @@
   </si>
   <si>
     <t>TEL. NO.</t>
+  </si>
+  <si>
+    <t>079678575467</t>
+  </si>
+  <si>
+    <t>879567463</t>
   </si>
   <si>
     <t>42.</t>
@@ -4485,7 +4491,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4497,10 +4503,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4512,7 +4518,7 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4524,10 +4530,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4771,19 +4777,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -4814,105 +4815,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6760,7 +6663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" ht="90" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" ht="27.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
         <v>189</v>
       </c>
@@ -10875,7 +10778,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.3" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="80" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <drawing r:id="rId205"/>
 </worksheet>
 </file>
 
@@ -11683,7 +11585,7 @@
       <c r="L46" s="350"/>
       <c r="M46" s="351"/>
     </row>
-    <row r="47" ht="60" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" ht="27.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
         <v>189</v>
       </c>
@@ -11855,7 +11757,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="92" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11874,7 +11775,7 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="282" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="282" customWidth="1"/>
-    <col min="3" max="3" width="10" style="282" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="282" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="282" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="282" customWidth="1"/>
     <col min="6" max="7" width="10.140625" style="282" customWidth="1"/>
@@ -12622,7 +12523,7 @@
       <c r="J49" s="266"/>
       <c r="K49" s="321"/>
     </row>
-    <row r="50" ht="70" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
         <v>189</v>
       </c>
@@ -12738,7 +12639,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="81" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13635,13 +13535,19 @@
       <c r="M51" s="570"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="571"/>
+      <c r="A52" s="571" t="s">
+        <v>358</v>
+      </c>
       <c r="B52" s="572"/>
       <c r="C52" s="573"/>
       <c r="D52" s="573"/>
       <c r="E52" s="574"/>
-      <c r="F52" s="575"/>
-      <c r="G52" s="576"/>
+      <c r="F52" s="575" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="576" t="s">
+        <v>437</v>
+      </c>
       <c r="H52" s="577"/>
       <c r="I52" s="578"/>
       <c r="J52" s="568"/>
@@ -13650,13 +13556,19 @@
       <c r="M52" s="570"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="571"/>
+      <c r="A53" s="571" t="s">
+        <v>358</v>
+      </c>
       <c r="B53" s="572"/>
       <c r="C53" s="572"/>
       <c r="D53" s="572"/>
       <c r="E53" s="579"/>
-      <c r="F53" s="575"/>
-      <c r="G53" s="576"/>
+      <c r="F53" s="575" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" s="576" t="s">
+        <v>438</v>
+      </c>
       <c r="H53" s="577"/>
       <c r="I53" s="578"/>
       <c r="J53" s="568"/>
@@ -13681,11 +13593,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B55" s="430"/>
       <c r="C55" s="588" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D55" s="588"/>
       <c r="E55" s="588"/>
@@ -13710,7 +13622,7 @@
       <c r="I56" s="593"/>
       <c r="J56" s="594"/>
       <c r="K56" s="595" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L56" s="595"/>
       <c r="M56" s="596"/>
@@ -13763,7 +13675,7 @@
     <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="607"/>
       <c r="B60" s="608" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C60" s="609"/>
       <c r="D60" s="610"/>
@@ -13777,10 +13689,10 @@
       <c r="L60" s="606"/>
       <c r="M60" s="614"/>
     </row>
-    <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="607"/>
       <c r="B61" s="615" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C61" s="616"/>
       <c r="D61" s="617"/>
@@ -13797,7 +13709,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="607"/>
       <c r="B62" s="621" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C62" s="622"/>
       <c r="D62" s="623"/>
@@ -13818,7 +13730,7 @@
       <c r="D63" s="629"/>
       <c r="E63" s="282"/>
       <c r="F63" s="630" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G63" s="631"/>
       <c r="H63" s="631"/>
@@ -13831,12 +13743,14 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="607"/>
       <c r="B64" s="621" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C64" s="622"/>
       <c r="D64" s="623"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="633"/>
+      <c r="F64" s="633" t="s">
+        <v>182</v>
+      </c>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
@@ -13852,14 +13766,14 @@
       <c r="D65" s="639"/>
       <c r="E65" s="282"/>
       <c r="F65" s="640" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G65" s="641"/>
       <c r="H65" s="641"/>
       <c r="I65" s="642"/>
       <c r="J65" s="634"/>
       <c r="K65" s="643" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L65" s="644"/>
       <c r="M65" s="614"/>
@@ -13881,7 +13795,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="649" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B67" s="650"/>
       <c r="C67" s="650"/>
@@ -13917,7 +13831,7 @@
       <c r="C69" s="569"/>
       <c r="D69" s="569"/>
       <c r="E69" s="657" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F69" s="658"/>
       <c r="G69" s="658"/>
@@ -13945,7 +13859,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="666" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B71" s="666"/>
       <c r="C71" s="666"/>
@@ -14051,6 +13965,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.12" right="0" top="0.34" bottom="0" header="0.17" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="97" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14072,35 +13987,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="667" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B1" s="667" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C1" s="667" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14110,7 +14025,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="463">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -1258,6 +1258,9 @@
     <t>a. within the third degree?</t>
   </si>
   <si>
+    <t>☐ Yes    ☑ No</t>
+  </si>
+  <si>
     <t>b. within the fourth degree (for Local Government Unit - Career Employees)?</t>
   </si>
   <si>
@@ -1355,6 +1358,9 @@
   </si>
   <si>
     <t>Are you a solo parent?</t>
+  </si>
+  <si>
+    <t>☑ Yes    ☐ No</t>
   </si>
   <si>
     <t>41.</t>
@@ -2706,7 +2712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="668">
+  <cellXfs count="670">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4104,8 +4110,15 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4120,8 +4133,8 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12730,12 +12743,12 @@
       <c r="D4" s="439"/>
       <c r="E4" s="439"/>
       <c r="F4" s="440"/>
-      <c r="G4" s="282"/>
+      <c r="G4" s="445"/>
       <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
+      <c r="I4" s="445"/>
+      <c r="J4" s="445"/>
+      <c r="K4" s="445"/>
+      <c r="L4" s="445"/>
       <c r="M4" s="378"/>
     </row>
     <row r="5" ht="3" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -12745,12 +12758,12 @@
       <c r="D5" s="439"/>
       <c r="E5" s="439"/>
       <c r="F5" s="440"/>
-      <c r="G5" s="445"/>
-      <c r="H5" s="445"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="445"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="445"/>
+      <c r="G5" s="446"/>
+      <c r="H5" s="446"/>
+      <c r="I5" s="446"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="446"/>
       <c r="M5" s="378"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -12763,11 +12776,13 @@
       <c r="E6" s="439"/>
       <c r="F6" s="440"/>
       <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="446"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="446"/>
-      <c r="L6" s="446"/>
+      <c r="H6" s="282" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="447"/>
+      <c r="J6" s="447"/>
+      <c r="K6" s="447"/>
+      <c r="L6" s="447"/>
       <c r="M6" s="378"/>
     </row>
     <row r="7" ht="3" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
@@ -12779,28 +12794,30 @@
       <c r="F7" s="440"/>
       <c r="G7" s="282"/>
       <c r="H7" s="282"/>
-      <c r="I7" s="446"/>
-      <c r="J7" s="446"/>
-      <c r="K7" s="446"/>
-      <c r="L7" s="446"/>
+      <c r="I7" s="448"/>
+      <c r="J7" s="448"/>
+      <c r="K7" s="448"/>
+      <c r="L7" s="448"/>
       <c r="M7" s="378"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="437"/>
       <c r="B8" s="438"/>
       <c r="C8" s="439" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D8" s="439"/>
       <c r="E8" s="439"/>
       <c r="F8" s="440"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="447"/>
+      <c r="G8" s="445"/>
+      <c r="H8" s="282" t="s">
+        <v>403</v>
+      </c>
+      <c r="I8" s="445"/>
+      <c r="J8" s="445"/>
+      <c r="K8" s="445"/>
+      <c r="L8" s="445"/>
+      <c r="M8" s="449"/>
     </row>
     <row r="9" ht="3.75" customHeight="1" hidden="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="437"/>
@@ -12809,13 +12826,13 @@
       <c r="D9" s="439"/>
       <c r="E9" s="439"/>
       <c r="F9" s="440"/>
-      <c r="G9" s="282"/>
+      <c r="G9" s="445"/>
       <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="447"/>
+      <c r="I9" s="445"/>
+      <c r="J9" s="445"/>
+      <c r="K9" s="445"/>
+      <c r="L9" s="445"/>
+      <c r="M9" s="449"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="437"/>
@@ -12824,842 +12841,858 @@
       <c r="D10" s="439"/>
       <c r="E10" s="439"/>
       <c r="F10" s="440"/>
-      <c r="G10" s="445" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="445"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="445"/>
-      <c r="K10" s="445"/>
-      <c r="L10" s="445"/>
-      <c r="M10" s="448"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="446" t="s">
+        <v>405</v>
+      </c>
+      <c r="H10" s="446"/>
+      <c r="I10" s="446"/>
+      <c r="J10" s="446"/>
+      <c r="K10" s="446"/>
+      <c r="L10" s="446"/>
+      <c r="M10" s="450"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="437"/>
       <c r="B11" s="438"/>
       <c r="C11" s="439"/>
       <c r="D11" s="439"/>
       <c r="E11" s="439"/>
       <c r="F11" s="440"/>
-      <c r="G11" s="449"/>
-      <c r="H11" s="450"/>
-      <c r="I11" s="451"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="451"/>
-      <c r="L11" s="451"/>
-      <c r="M11" s="448"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="452" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="453"/>
+      <c r="J11" s="453"/>
+      <c r="K11" s="453"/>
+      <c r="L11" s="453"/>
+      <c r="M11" s="450"/>
     </row>
     <row r="12" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="452"/>
-      <c r="B12" s="453"/>
-      <c r="C12" s="454"/>
-      <c r="D12" s="454"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="455"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="456"/>
-      <c r="J12" s="456"/>
-      <c r="K12" s="456"/>
-      <c r="L12" s="456"/>
-      <c r="M12" s="457"/>
+      <c r="A12" s="454"/>
+      <c r="B12" s="455"/>
+      <c r="C12" s="456"/>
+      <c r="D12" s="456"/>
+      <c r="E12" s="456"/>
+      <c r="F12" s="457"/>
+      <c r="G12" s="452"/>
+      <c r="H12" s="452"/>
+      <c r="I12" s="458"/>
+      <c r="J12" s="458"/>
+      <c r="K12" s="458"/>
+      <c r="L12" s="458"/>
+      <c r="M12" s="459"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="458" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="459"/>
-      <c r="C13" s="460" t="s">
+      <c r="A13" s="460" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="460"/>
+      <c r="B13" s="461"/>
+      <c r="C13" s="462" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="462"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
-      <c r="G13" s="461"/>
-      <c r="H13" s="461"/>
-      <c r="I13" s="461"/>
-      <c r="J13" s="461"/>
-      <c r="K13" s="461"/>
-      <c r="L13" s="461"/>
-      <c r="M13" s="462"/>
+      <c r="G13" s="463"/>
+      <c r="H13" s="463" t="s">
+        <v>403</v>
+      </c>
+      <c r="I13" s="463"/>
+      <c r="J13" s="463"/>
+      <c r="K13" s="463"/>
+      <c r="L13" s="463"/>
+      <c r="M13" s="464"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="463"/>
-      <c r="B14" s="464"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="460"/>
+      <c r="A14" s="465"/>
+      <c r="B14" s="466"/>
+      <c r="C14" s="462"/>
+      <c r="D14" s="462"/>
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
-      <c r="G14" s="465" t="s">
-        <v>404</v>
-      </c>
-      <c r="H14" s="445"/>
-      <c r="I14" s="445"/>
-      <c r="J14" s="445"/>
-      <c r="K14" s="445"/>
-      <c r="L14" s="445"/>
-      <c r="M14" s="466"/>
+      <c r="G14" s="467" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="446"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="446"/>
+      <c r="K14" s="446"/>
+      <c r="L14" s="446"/>
+      <c r="M14" s="468"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="463"/>
-      <c r="B15" s="464"/>
-      <c r="C15" s="460"/>
-      <c r="D15" s="460"/>
+      <c r="A15" s="465"/>
+      <c r="B15" s="466"/>
+      <c r="C15" s="462"/>
+      <c r="D15" s="462"/>
       <c r="E15" s="282"/>
       <c r="F15" s="398"/>
       <c r="G15" s="441"/>
-      <c r="H15" s="467"/>
-      <c r="I15" s="468"/>
-      <c r="J15" s="468"/>
-      <c r="K15" s="468"/>
-      <c r="L15" s="468"/>
-      <c r="M15" s="466"/>
+      <c r="H15" s="469"/>
+      <c r="I15" s="470"/>
+      <c r="J15" s="470"/>
+      <c r="K15" s="470"/>
+      <c r="L15" s="470"/>
+      <c r="M15" s="468"/>
     </row>
     <row r="16" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="463"/>
-      <c r="B16" s="464"/>
+      <c r="A16" s="465"/>
+      <c r="B16" s="466"/>
       <c r="C16" s="282"/>
       <c r="D16" s="282"/>
       <c r="E16" s="282"/>
       <c r="F16" s="398"/>
-      <c r="G16" s="469"/>
-      <c r="H16" s="470"/>
-      <c r="I16" s="471"/>
-      <c r="J16" s="471"/>
-      <c r="K16" s="471"/>
-      <c r="L16" s="471"/>
-      <c r="M16" s="472"/>
+      <c r="G16" s="471"/>
+      <c r="H16" s="472"/>
+      <c r="I16" s="473"/>
+      <c r="J16" s="473"/>
+      <c r="K16" s="473"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="474"/>
     </row>
     <row r="17" ht="6.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="473"/>
-      <c r="B17" s="474"/>
-      <c r="C17" s="475"/>
-      <c r="D17" s="475"/>
-      <c r="E17" s="476"/>
-      <c r="F17" s="477"/>
-      <c r="G17" s="478"/>
-      <c r="H17" s="479"/>
-      <c r="I17" s="479"/>
-      <c r="J17" s="479"/>
-      <c r="K17" s="479"/>
-      <c r="L17" s="479"/>
-      <c r="M17" s="480"/>
+      <c r="A17" s="475"/>
+      <c r="B17" s="476"/>
+      <c r="C17" s="477"/>
+      <c r="D17" s="477"/>
+      <c r="E17" s="478"/>
+      <c r="F17" s="479"/>
+      <c r="G17" s="480"/>
+      <c r="H17" s="481"/>
+      <c r="I17" s="481"/>
+      <c r="J17" s="481"/>
+      <c r="K17" s="481"/>
+      <c r="L17" s="481"/>
+      <c r="M17" s="482"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="473"/>
-      <c r="B18" s="474"/>
-      <c r="C18" s="481" t="s">
-        <v>407</v>
-      </c>
-      <c r="D18" s="481"/>
-      <c r="E18" s="482"/>
-      <c r="F18" s="483"/>
-      <c r="G18" s="484"/>
-      <c r="H18" s="484"/>
-      <c r="I18" s="484"/>
-      <c r="J18" s="484"/>
-      <c r="K18" s="484"/>
-      <c r="L18" s="484"/>
-      <c r="M18" s="485"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="476"/>
+      <c r="C18" s="483" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="483"/>
+      <c r="E18" s="484"/>
+      <c r="F18" s="485"/>
+      <c r="G18" s="486"/>
+      <c r="H18" s="486" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" s="486"/>
+      <c r="J18" s="486"/>
+      <c r="K18" s="486"/>
+      <c r="L18" s="486"/>
+      <c r="M18" s="487"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="473"/>
-      <c r="B19" s="474"/>
-      <c r="C19" s="481"/>
-      <c r="D19" s="481"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="483"/>
-      <c r="G19" s="465" t="s">
-        <v>404</v>
-      </c>
-      <c r="H19" s="445"/>
-      <c r="I19" s="445"/>
-      <c r="J19" s="445"/>
-      <c r="K19" s="445"/>
-      <c r="L19" s="445"/>
-      <c r="M19" s="485"/>
+      <c r="A19" s="475"/>
+      <c r="B19" s="476"/>
+      <c r="C19" s="483"/>
+      <c r="D19" s="483"/>
+      <c r="E19" s="484"/>
+      <c r="F19" s="485"/>
+      <c r="G19" s="467" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" s="446"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="446"/>
+      <c r="K19" s="446"/>
+      <c r="L19" s="446"/>
+      <c r="M19" s="487"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="473"/>
-      <c r="B20" s="474"/>
-      <c r="C20" s="481"/>
-      <c r="D20" s="481"/>
-      <c r="E20" s="482"/>
-      <c r="F20" s="483"/>
-      <c r="G20" s="484"/>
-      <c r="H20" s="486" t="s">
-        <v>408</v>
-      </c>
-      <c r="I20" s="486"/>
-      <c r="J20" s="487"/>
-      <c r="K20" s="488"/>
-      <c r="L20" s="489"/>
-      <c r="M20" s="485"/>
+      <c r="A20" s="475"/>
+      <c r="B20" s="476"/>
+      <c r="C20" s="483"/>
+      <c r="D20" s="483"/>
+      <c r="E20" s="484"/>
+      <c r="F20" s="485"/>
+      <c r="G20" s="486"/>
+      <c r="H20" s="488" t="s">
+        <v>409</v>
+      </c>
+      <c r="I20" s="488"/>
+      <c r="J20" s="489"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="491"/>
+      <c r="M20" s="487"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="473"/>
-      <c r="B21" s="474"/>
-      <c r="C21" s="481"/>
-      <c r="D21" s="481"/>
-      <c r="E21" s="482"/>
-      <c r="F21" s="483"/>
-      <c r="G21" s="490" t="s">
-        <v>409</v>
-      </c>
-      <c r="H21" s="491"/>
-      <c r="I21" s="491"/>
-      <c r="J21" s="487"/>
-      <c r="K21" s="492"/>
-      <c r="L21" s="489"/>
-      <c r="M21" s="485"/>
+      <c r="A21" s="475"/>
+      <c r="B21" s="476"/>
+      <c r="C21" s="483"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="484"/>
+      <c r="F21" s="485"/>
+      <c r="G21" s="492" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="493"/>
+      <c r="I21" s="493"/>
+      <c r="J21" s="489"/>
+      <c r="K21" s="494"/>
+      <c r="L21" s="491"/>
+      <c r="M21" s="487"/>
     </row>
     <row r="22" ht="5.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="493"/>
-      <c r="B22" s="494"/>
-      <c r="C22" s="495"/>
-      <c r="D22" s="495"/>
-      <c r="E22" s="495"/>
-      <c r="F22" s="496"/>
-      <c r="G22" s="469" t="s">
-        <v>410</v>
-      </c>
-      <c r="H22" s="470"/>
-      <c r="I22" s="497"/>
-      <c r="J22" s="497"/>
-      <c r="K22" s="497"/>
-      <c r="L22" s="498"/>
-      <c r="M22" s="472"/>
+      <c r="A22" s="495"/>
+      <c r="B22" s="496"/>
+      <c r="C22" s="497"/>
+      <c r="D22" s="497"/>
+      <c r="E22" s="497"/>
+      <c r="F22" s="498"/>
+      <c r="G22" s="471" t="s">
+        <v>411</v>
+      </c>
+      <c r="H22" s="472"/>
+      <c r="I22" s="499"/>
+      <c r="J22" s="499"/>
+      <c r="K22" s="499"/>
+      <c r="L22" s="500"/>
+      <c r="M22" s="474"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B23" s="195"/>
-      <c r="C23" s="499" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" s="499"/>
-      <c r="E23" s="499"/>
-      <c r="F23" s="500"/>
-      <c r="G23" s="461"/>
-      <c r="H23" s="461"/>
-      <c r="I23" s="461"/>
-      <c r="J23" s="461"/>
-      <c r="K23" s="461"/>
-      <c r="L23" s="461"/>
-      <c r="M23" s="462"/>
+      <c r="C23" s="501" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="501"/>
+      <c r="E23" s="501"/>
+      <c r="F23" s="502"/>
+      <c r="G23" s="463"/>
+      <c r="H23" s="463" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" s="463"/>
+      <c r="J23" s="463"/>
+      <c r="K23" s="463"/>
+      <c r="L23" s="463"/>
+      <c r="M23" s="464"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="463"/>
-      <c r="B24" s="464"/>
-      <c r="C24" s="501"/>
-      <c r="D24" s="501"/>
-      <c r="E24" s="501"/>
-      <c r="F24" s="502"/>
-      <c r="G24" s="465" t="s">
-        <v>404</v>
-      </c>
-      <c r="H24" s="445"/>
-      <c r="I24" s="445"/>
-      <c r="J24" s="445"/>
-      <c r="K24" s="445"/>
-      <c r="L24" s="445"/>
-      <c r="M24" s="503"/>
+      <c r="A24" s="465"/>
+      <c r="B24" s="466"/>
+      <c r="C24" s="503"/>
+      <c r="D24" s="503"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="504"/>
+      <c r="G24" s="467" t="s">
+        <v>405</v>
+      </c>
+      <c r="H24" s="446"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="446"/>
+      <c r="K24" s="446"/>
+      <c r="L24" s="446"/>
+      <c r="M24" s="505"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="463"/>
-      <c r="B25" s="464"/>
-      <c r="C25" s="501"/>
-      <c r="D25" s="501"/>
-      <c r="E25" s="501"/>
-      <c r="F25" s="502"/>
-      <c r="G25" s="504"/>
-      <c r="H25" s="470"/>
-      <c r="I25" s="505"/>
-      <c r="J25" s="505"/>
-      <c r="K25" s="505"/>
-      <c r="L25" s="505"/>
-      <c r="M25" s="503"/>
+      <c r="A25" s="465"/>
+      <c r="B25" s="466"/>
+      <c r="C25" s="503"/>
+      <c r="D25" s="503"/>
+      <c r="E25" s="503"/>
+      <c r="F25" s="504"/>
+      <c r="G25" s="506"/>
+      <c r="H25" s="472"/>
+      <c r="I25" s="507"/>
+      <c r="J25" s="507"/>
+      <c r="K25" s="507"/>
+      <c r="L25" s="507"/>
+      <c r="M25" s="505"/>
     </row>
     <row r="26" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="506"/>
-      <c r="B26" s="507"/>
-      <c r="C26" s="508"/>
-      <c r="D26" s="508"/>
-      <c r="E26" s="508"/>
-      <c r="F26" s="509"/>
-      <c r="G26" s="469"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="471"/>
-      <c r="J26" s="471"/>
-      <c r="K26" s="471"/>
-      <c r="L26" s="471"/>
-      <c r="M26" s="472"/>
+      <c r="A26" s="508"/>
+      <c r="B26" s="509"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510"/>
+      <c r="E26" s="510"/>
+      <c r="F26" s="511"/>
+      <c r="G26" s="471"/>
+      <c r="H26" s="472"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="474"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B27" s="195"/>
-      <c r="C27" s="499" t="s">
-        <v>414</v>
-      </c>
-      <c r="D27" s="499"/>
-      <c r="E27" s="499"/>
-      <c r="F27" s="500"/>
-      <c r="G27" s="461"/>
-      <c r="H27" s="461"/>
-      <c r="I27" s="461"/>
-      <c r="J27" s="461"/>
-      <c r="K27" s="461"/>
-      <c r="L27" s="461"/>
-      <c r="M27" s="462"/>
+      <c r="C27" s="501" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="501"/>
+      <c r="E27" s="501"/>
+      <c r="F27" s="502"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="463"/>
+      <c r="I27" s="463"/>
+      <c r="J27" s="463"/>
+      <c r="K27" s="463"/>
+      <c r="L27" s="463"/>
+      <c r="M27" s="464"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="463"/>
-      <c r="B28" s="464"/>
-      <c r="C28" s="501"/>
-      <c r="D28" s="501"/>
-      <c r="E28" s="501"/>
-      <c r="F28" s="502"/>
-      <c r="G28" s="465" t="s">
-        <v>404</v>
-      </c>
-      <c r="H28" s="445"/>
-      <c r="I28" s="445"/>
-      <c r="J28" s="445"/>
-      <c r="K28" s="445"/>
-      <c r="L28" s="445"/>
+      <c r="A28" s="465"/>
+      <c r="B28" s="466"/>
+      <c r="C28" s="503"/>
+      <c r="D28" s="503"/>
+      <c r="E28" s="503"/>
+      <c r="F28" s="504"/>
+      <c r="G28" s="467" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" s="446"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="446"/>
+      <c r="K28" s="446"/>
+      <c r="L28" s="446"/>
       <c r="M28" s="378"/>
     </row>
     <row r="29" ht="11.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="463"/>
-      <c r="B29" s="464"/>
-      <c r="C29" s="501"/>
-      <c r="D29" s="501"/>
-      <c r="E29" s="501"/>
-      <c r="F29" s="502"/>
-      <c r="G29" s="282"/>
+      <c r="A29" s="465"/>
+      <c r="B29" s="466"/>
+      <c r="C29" s="503"/>
+      <c r="D29" s="503"/>
+      <c r="E29" s="503"/>
+      <c r="F29" s="504"/>
+      <c r="G29" s="445"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="505"/>
-      <c r="J29" s="505"/>
-      <c r="K29" s="505"/>
-      <c r="L29" s="505"/>
-      <c r="M29" s="503"/>
+      <c r="I29" s="507"/>
+      <c r="J29" s="507"/>
+      <c r="K29" s="507"/>
+      <c r="L29" s="507"/>
+      <c r="M29" s="505"/>
     </row>
     <row r="30" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="506"/>
-      <c r="B30" s="507"/>
-      <c r="C30" s="508"/>
-      <c r="D30" s="508"/>
-      <c r="E30" s="508"/>
-      <c r="F30" s="509"/>
-      <c r="G30" s="510"/>
-      <c r="H30" s="511"/>
+      <c r="A30" s="508"/>
+      <c r="B30" s="509"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
+      <c r="E30" s="510"/>
+      <c r="F30" s="511"/>
+      <c r="G30" s="512"/>
+      <c r="H30" s="513"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
-      <c r="M30" s="472"/>
+      <c r="M30" s="474"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B31" s="195"/>
-      <c r="C31" s="499" t="s">
-        <v>416</v>
-      </c>
-      <c r="D31" s="499"/>
-      <c r="E31" s="499"/>
-      <c r="F31" s="500"/>
-      <c r="G31" s="461"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="461"/>
-      <c r="J31" s="461"/>
-      <c r="K31" s="461"/>
-      <c r="L31" s="461"/>
-      <c r="M31" s="462"/>
+      <c r="C31" s="501" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="501"/>
+      <c r="E31" s="501"/>
+      <c r="F31" s="502"/>
+      <c r="G31" s="463"/>
+      <c r="H31" s="463" t="s">
+        <v>403</v>
+      </c>
+      <c r="I31" s="463"/>
+      <c r="J31" s="463"/>
+      <c r="K31" s="463"/>
+      <c r="L31" s="463"/>
+      <c r="M31" s="464"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="463"/>
-      <c r="B32" s="464"/>
-      <c r="C32" s="501"/>
-      <c r="D32" s="501"/>
-      <c r="E32" s="501"/>
-      <c r="F32" s="502"/>
-      <c r="G32" s="512" t="s">
-        <v>417</v>
-      </c>
-      <c r="H32" s="513"/>
-      <c r="I32" s="513"/>
-      <c r="J32" s="513"/>
-      <c r="K32" s="514"/>
-      <c r="L32" s="514"/>
-      <c r="M32" s="503"/>
+      <c r="A32" s="465"/>
+      <c r="B32" s="466"/>
+      <c r="C32" s="503"/>
+      <c r="D32" s="503"/>
+      <c r="E32" s="503"/>
+      <c r="F32" s="504"/>
+      <c r="G32" s="514" t="s">
+        <v>418</v>
+      </c>
+      <c r="H32" s="515"/>
+      <c r="I32" s="515"/>
+      <c r="J32" s="515"/>
+      <c r="K32" s="516"/>
+      <c r="L32" s="516"/>
+      <c r="M32" s="505"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="463"/>
-      <c r="B33" s="464"/>
-      <c r="C33" s="501"/>
-      <c r="D33" s="501"/>
-      <c r="E33" s="501"/>
-      <c r="F33" s="502"/>
-      <c r="G33" s="515"/>
-      <c r="H33" s="516"/>
-      <c r="I33" s="517"/>
-      <c r="J33" s="517"/>
-      <c r="K33" s="518"/>
-      <c r="L33" s="518"/>
-      <c r="M33" s="503"/>
+      <c r="A33" s="465"/>
+      <c r="B33" s="466"/>
+      <c r="C33" s="503"/>
+      <c r="D33" s="503"/>
+      <c r="E33" s="503"/>
+      <c r="F33" s="504"/>
+      <c r="G33" s="517"/>
+      <c r="H33" s="518"/>
+      <c r="I33" s="519"/>
+      <c r="J33" s="519"/>
+      <c r="K33" s="520"/>
+      <c r="L33" s="520"/>
+      <c r="M33" s="505"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="463"/>
-      <c r="B34" s="464"/>
-      <c r="C34" s="501" t="s">
+      <c r="A34" s="465"/>
+      <c r="B34" s="466"/>
+      <c r="C34" s="503" t="s">
+        <v>419</v>
+      </c>
+      <c r="D34" s="503"/>
+      <c r="E34" s="503"/>
+      <c r="F34" s="504"/>
+      <c r="G34" s="506"/>
+      <c r="H34" s="521"/>
+      <c r="I34" s="522"/>
+      <c r="J34" s="522"/>
+      <c r="K34" s="522"/>
+      <c r="L34" s="522"/>
+      <c r="M34" s="505"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="465"/>
+      <c r="B35" s="466"/>
+      <c r="C35" s="503"/>
+      <c r="D35" s="503"/>
+      <c r="E35" s="503"/>
+      <c r="F35" s="504"/>
+      <c r="G35" s="514" t="s">
         <v>418</v>
       </c>
-      <c r="D34" s="501"/>
-      <c r="E34" s="501"/>
-      <c r="F34" s="502"/>
-      <c r="G34" s="504"/>
-      <c r="H34" s="519"/>
-      <c r="I34" s="520"/>
-      <c r="J34" s="520"/>
-      <c r="K34" s="520"/>
-      <c r="L34" s="520"/>
-      <c r="M34" s="503"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="463"/>
-      <c r="B35" s="464"/>
-      <c r="C35" s="501"/>
-      <c r="D35" s="501"/>
-      <c r="E35" s="501"/>
-      <c r="F35" s="502"/>
-      <c r="G35" s="512" t="s">
-        <v>417</v>
-      </c>
-      <c r="H35" s="513"/>
-      <c r="I35" s="513"/>
-      <c r="J35" s="513"/>
-      <c r="K35" s="514"/>
-      <c r="L35" s="514"/>
-      <c r="M35" s="503"/>
+      <c r="H35" s="515"/>
+      <c r="I35" s="515"/>
+      <c r="J35" s="515"/>
+      <c r="K35" s="516"/>
+      <c r="L35" s="516"/>
+      <c r="M35" s="505"/>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="506"/>
-      <c r="B36" s="507"/>
-      <c r="C36" s="508"/>
-      <c r="D36" s="508"/>
-      <c r="E36" s="508"/>
-      <c r="F36" s="509"/>
-      <c r="G36" s="515"/>
-      <c r="H36" s="516"/>
-      <c r="I36" s="517"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="521"/>
-      <c r="M36" s="472"/>
+      <c r="A36" s="508"/>
+      <c r="B36" s="509"/>
+      <c r="C36" s="510"/>
+      <c r="D36" s="510"/>
+      <c r="E36" s="510"/>
+      <c r="F36" s="511"/>
+      <c r="G36" s="517"/>
+      <c r="H36" s="518"/>
+      <c r="I36" s="519"/>
+      <c r="J36" s="519"/>
+      <c r="K36" s="445"/>
+      <c r="L36" s="523"/>
+      <c r="M36" s="474"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B37" s="195"/>
-      <c r="C37" s="522" t="s">
-        <v>420</v>
-      </c>
-      <c r="D37" s="522"/>
-      <c r="E37" s="522"/>
-      <c r="F37" s="523"/>
-      <c r="G37" s="461"/>
-      <c r="H37" s="461"/>
-      <c r="I37" s="461"/>
-      <c r="J37" s="461"/>
-      <c r="K37" s="461"/>
-      <c r="L37" s="461"/>
-      <c r="M37" s="462"/>
+      <c r="C37" s="524" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="524"/>
+      <c r="E37" s="524"/>
+      <c r="F37" s="525"/>
+      <c r="G37" s="463"/>
+      <c r="H37" s="463"/>
+      <c r="I37" s="463"/>
+      <c r="J37" s="463"/>
+      <c r="K37" s="463"/>
+      <c r="L37" s="463"/>
+      <c r="M37" s="464"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="463"/>
-      <c r="B38" s="464"/>
-      <c r="C38" s="460"/>
-      <c r="D38" s="460"/>
-      <c r="E38" s="460"/>
-      <c r="F38" s="524"/>
-      <c r="G38" s="465" t="s">
-        <v>421</v>
-      </c>
-      <c r="H38" s="445"/>
-      <c r="I38" s="445"/>
-      <c r="J38" s="445"/>
-      <c r="K38" s="445"/>
-      <c r="L38" s="445"/>
-      <c r="M38" s="525"/>
+      <c r="A38" s="465"/>
+      <c r="B38" s="466"/>
+      <c r="C38" s="462"/>
+      <c r="D38" s="462"/>
+      <c r="E38" s="462"/>
+      <c r="F38" s="526"/>
+      <c r="G38" s="467" t="s">
+        <v>422</v>
+      </c>
+      <c r="H38" s="446"/>
+      <c r="I38" s="446"/>
+      <c r="J38" s="446"/>
+      <c r="K38" s="446"/>
+      <c r="L38" s="446"/>
+      <c r="M38" s="527"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="463"/>
-      <c r="B39" s="464"/>
-      <c r="C39" s="460"/>
-      <c r="D39" s="460"/>
-      <c r="E39" s="460"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="504"/>
-      <c r="H39" s="470"/>
-      <c r="I39" s="505"/>
-      <c r="J39" s="505"/>
-      <c r="K39" s="505"/>
-      <c r="L39" s="505"/>
-      <c r="M39" s="503"/>
+      <c r="A39" s="465"/>
+      <c r="B39" s="466"/>
+      <c r="C39" s="462"/>
+      <c r="D39" s="462"/>
+      <c r="E39" s="462"/>
+      <c r="F39" s="526"/>
+      <c r="G39" s="506"/>
+      <c r="H39" s="472"/>
+      <c r="I39" s="507"/>
+      <c r="J39" s="507"/>
+      <c r="K39" s="507"/>
+      <c r="L39" s="507"/>
+      <c r="M39" s="505"/>
     </row>
     <row r="40" ht="6" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="506"/>
-      <c r="B40" s="507"/>
-      <c r="C40" s="526"/>
-      <c r="D40" s="526"/>
-      <c r="E40" s="526"/>
-      <c r="F40" s="527"/>
-      <c r="G40" s="469"/>
-      <c r="H40" s="470"/>
-      <c r="I40" s="471"/>
-      <c r="J40" s="471"/>
-      <c r="K40" s="471"/>
-      <c r="L40" s="471"/>
-      <c r="M40" s="472"/>
+      <c r="A40" s="508"/>
+      <c r="B40" s="509"/>
+      <c r="C40" s="528"/>
+      <c r="D40" s="528"/>
+      <c r="E40" s="528"/>
+      <c r="F40" s="529"/>
+      <c r="G40" s="471"/>
+      <c r="H40" s="472"/>
+      <c r="I40" s="473"/>
+      <c r="J40" s="473"/>
+      <c r="K40" s="473"/>
+      <c r="L40" s="473"/>
+      <c r="M40" s="474"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="528" t="s">
-        <v>422</v>
-      </c>
-      <c r="B41" s="529"/>
-      <c r="C41" s="501" t="s">
+      <c r="A41" s="530" t="s">
         <v>423</v>
       </c>
-      <c r="D41" s="501"/>
-      <c r="E41" s="501"/>
-      <c r="F41" s="502"/>
-      <c r="G41" s="461"/>
-      <c r="H41" s="461"/>
-      <c r="I41" s="530"/>
-      <c r="J41" s="530"/>
-      <c r="K41" s="531"/>
-      <c r="L41" s="531"/>
-      <c r="M41" s="532"/>
+      <c r="B41" s="531"/>
+      <c r="C41" s="503" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="503"/>
+      <c r="E41" s="503"/>
+      <c r="F41" s="504"/>
+      <c r="G41" s="463"/>
+      <c r="H41" s="463"/>
+      <c r="I41" s="532"/>
+      <c r="J41" s="532"/>
+      <c r="K41" s="533"/>
+      <c r="L41" s="533"/>
+      <c r="M41" s="534"/>
     </row>
     <row r="42" ht="0.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="533"/>
-      <c r="B42" s="534"/>
-      <c r="C42" s="501"/>
-      <c r="D42" s="501"/>
-      <c r="E42" s="501"/>
-      <c r="F42" s="502"/>
-      <c r="G42" s="535"/>
-      <c r="H42" s="535"/>
-      <c r="I42" s="535"/>
-      <c r="J42" s="535"/>
-      <c r="K42" s="535"/>
-      <c r="L42" s="535"/>
-      <c r="M42" s="536"/>
+      <c r="A42" s="535"/>
+      <c r="B42" s="536"/>
+      <c r="C42" s="503"/>
+      <c r="D42" s="503"/>
+      <c r="E42" s="503"/>
+      <c r="F42" s="504"/>
+      <c r="G42" s="537"/>
+      <c r="H42" s="537"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="537"/>
+      <c r="K42" s="537"/>
+      <c r="L42" s="537"/>
+      <c r="M42" s="538"/>
       <c r="N42" s="282"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="533" t="s">
-        <v>424</v>
-      </c>
-      <c r="B43" s="534"/>
-      <c r="C43" s="501" t="s">
+      <c r="A43" s="535" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="501"/>
-      <c r="E43" s="501"/>
-      <c r="F43" s="502"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
-      <c r="L43" s="282"/>
+      <c r="B43" s="536"/>
+      <c r="C43" s="503" t="s">
+        <v>426</v>
+      </c>
+      <c r="D43" s="503"/>
+      <c r="E43" s="503"/>
+      <c r="F43" s="504"/>
+      <c r="G43" s="445"/>
+      <c r="H43" s="282" t="s">
+        <v>403</v>
+      </c>
+      <c r="I43" s="445"/>
+      <c r="J43" s="445"/>
+      <c r="K43" s="445"/>
+      <c r="L43" s="445"/>
       <c r="M43" s="378"/>
       <c r="N43" s="282"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="533"/>
-      <c r="B44" s="534"/>
-      <c r="C44" s="501"/>
-      <c r="D44" s="501"/>
-      <c r="E44" s="501"/>
-      <c r="F44" s="502"/>
-      <c r="G44" s="537" t="s">
-        <v>426</v>
-      </c>
-      <c r="H44" s="538"/>
-      <c r="I44" s="517"/>
-      <c r="J44" s="517"/>
-      <c r="K44" s="282"/>
-      <c r="L44" s="521"/>
-      <c r="M44" s="539"/>
-      <c r="N44" s="516"/>
+      <c r="A44" s="535"/>
+      <c r="B44" s="536"/>
+      <c r="C44" s="503"/>
+      <c r="D44" s="503"/>
+      <c r="E44" s="503"/>
+      <c r="F44" s="504"/>
+      <c r="G44" s="539" t="s">
+        <v>427</v>
+      </c>
+      <c r="H44" s="540"/>
+      <c r="I44" s="519"/>
+      <c r="J44" s="519"/>
+      <c r="K44" s="445"/>
+      <c r="L44" s="523"/>
+      <c r="M44" s="541"/>
+      <c r="N44" s="518"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="533" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" s="534"/>
-      <c r="C45" s="502" t="s">
+      <c r="A45" s="535" t="s">
         <v>428</v>
       </c>
-      <c r="D45" s="502"/>
-      <c r="E45" s="502"/>
-      <c r="F45" s="502"/>
-      <c r="G45" s="282"/>
-      <c r="H45" s="282"/>
-      <c r="I45" s="282"/>
-      <c r="J45" s="282"/>
-      <c r="K45" s="282"/>
-      <c r="L45" s="282"/>
+      <c r="B45" s="536"/>
+      <c r="C45" s="504" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="504"/>
+      <c r="E45" s="504"/>
+      <c r="F45" s="504"/>
+      <c r="G45" s="445"/>
+      <c r="H45" s="282" t="s">
+        <v>403</v>
+      </c>
+      <c r="I45" s="445"/>
+      <c r="J45" s="445"/>
+      <c r="K45" s="445"/>
+      <c r="L45" s="445"/>
       <c r="M45" s="378"/>
       <c r="N45" s="282"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="533"/>
-      <c r="B46" s="534"/>
-      <c r="C46" s="502"/>
-      <c r="D46" s="502"/>
-      <c r="E46" s="502"/>
-      <c r="F46" s="502"/>
-      <c r="G46" s="540" t="s">
-        <v>429</v>
-      </c>
-      <c r="H46" s="541"/>
-      <c r="I46" s="517"/>
-      <c r="J46" s="517"/>
-      <c r="K46" s="517"/>
-      <c r="L46" s="521"/>
-      <c r="M46" s="539"/>
-      <c r="N46" s="516"/>
+      <c r="A46" s="535"/>
+      <c r="B46" s="536"/>
+      <c r="C46" s="504"/>
+      <c r="D46" s="504"/>
+      <c r="E46" s="504"/>
+      <c r="F46" s="504"/>
+      <c r="G46" s="542" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="543"/>
+      <c r="I46" s="519"/>
+      <c r="J46" s="519"/>
+      <c r="K46" s="519"/>
+      <c r="L46" s="523"/>
+      <c r="M46" s="541"/>
+      <c r="N46" s="518"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="533" t="s">
-        <v>430</v>
-      </c>
-      <c r="B47" s="534"/>
-      <c r="C47" s="501" t="s">
+      <c r="A47" s="535" t="s">
         <v>431</v>
       </c>
-      <c r="D47" s="501"/>
-      <c r="E47" s="542"/>
-      <c r="F47" s="543"/>
-      <c r="G47" s="282"/>
-      <c r="H47" s="282"/>
-      <c r="I47" s="282"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
-      <c r="L47" s="282"/>
+      <c r="B47" s="536"/>
+      <c r="C47" s="503" t="s">
+        <v>432</v>
+      </c>
+      <c r="D47" s="503"/>
+      <c r="E47" s="544"/>
+      <c r="F47" s="545"/>
+      <c r="G47" s="445"/>
+      <c r="H47" s="282" t="s">
+        <v>433</v>
+      </c>
+      <c r="I47" s="445"/>
+      <c r="J47" s="445"/>
+      <c r="K47" s="445"/>
+      <c r="L47" s="445"/>
       <c r="M47" s="378"/>
       <c r="N47" s="282"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="544"/>
-      <c r="B48" s="545"/>
-      <c r="C48" s="545"/>
-      <c r="D48" s="545"/>
-      <c r="E48" s="545"/>
-      <c r="F48" s="546"/>
-      <c r="G48" s="547" t="s">
-        <v>429</v>
-      </c>
-      <c r="H48" s="548"/>
-      <c r="I48" s="549"/>
-      <c r="J48" s="549"/>
-      <c r="K48" s="549"/>
-      <c r="L48" s="521"/>
-      <c r="M48" s="550"/>
-      <c r="N48" s="516"/>
+      <c r="A48" s="546"/>
+      <c r="B48" s="547"/>
+      <c r="C48" s="547"/>
+      <c r="D48" s="547"/>
+      <c r="E48" s="547"/>
+      <c r="F48" s="548"/>
+      <c r="G48" s="549" t="s">
+        <v>430</v>
+      </c>
+      <c r="H48" s="550"/>
+      <c r="I48" s="551"/>
+      <c r="J48" s="551"/>
+      <c r="K48" s="551"/>
+      <c r="L48" s="523"/>
+      <c r="M48" s="552"/>
+      <c r="N48" s="518"/>
     </row>
     <row r="49" ht="6.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="551"/>
-      <c r="B49" s="552"/>
-      <c r="C49" s="552"/>
-      <c r="D49" s="552"/>
-      <c r="E49" s="552"/>
-      <c r="F49" s="553"/>
-      <c r="G49" s="554"/>
-      <c r="H49" s="555"/>
-      <c r="I49" s="555"/>
-      <c r="J49" s="555"/>
-      <c r="K49" s="555"/>
-      <c r="L49" s="555"/>
-      <c r="M49" s="556"/>
-      <c r="N49" s="516"/>
+      <c r="A49" s="553"/>
+      <c r="B49" s="554"/>
+      <c r="C49" s="554"/>
+      <c r="D49" s="554"/>
+      <c r="E49" s="554"/>
+      <c r="F49" s="555"/>
+      <c r="G49" s="556"/>
+      <c r="H49" s="557"/>
+      <c r="I49" s="557"/>
+      <c r="J49" s="557"/>
+      <c r="K49" s="557"/>
+      <c r="L49" s="557"/>
+      <c r="M49" s="558"/>
+      <c r="N49" s="518"/>
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="557" t="s">
-        <v>432</v>
-      </c>
-      <c r="B50" s="558"/>
-      <c r="C50" s="559" t="s">
-        <v>433</v>
-      </c>
-      <c r="D50" s="559"/>
-      <c r="E50" s="559"/>
-      <c r="F50" s="559"/>
-      <c r="G50" s="559"/>
-      <c r="H50" s="559"/>
-      <c r="I50" s="560"/>
-      <c r="J50" s="561"/>
-      <c r="K50" s="562"/>
-      <c r="L50" s="562"/>
-      <c r="M50" s="563"/>
+      <c r="A50" s="559" t="s">
+        <v>434</v>
+      </c>
+      <c r="B50" s="560"/>
+      <c r="C50" s="561" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" s="561"/>
+      <c r="E50" s="561"/>
+      <c r="F50" s="561"/>
+      <c r="G50" s="561"/>
+      <c r="H50" s="561"/>
+      <c r="I50" s="562"/>
+      <c r="J50" s="563"/>
+      <c r="K50" s="564"/>
+      <c r="L50" s="564"/>
+      <c r="M50" s="565"/>
       <c r="N50" s="282"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="564" t="s">
-        <v>434</v>
-      </c>
-      <c r="B51" s="565"/>
-      <c r="C51" s="565"/>
-      <c r="D51" s="565"/>
-      <c r="E51" s="566"/>
+      <c r="A51" s="566" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="567"/>
+      <c r="C51" s="567"/>
+      <c r="D51" s="567"/>
+      <c r="E51" s="568"/>
       <c r="F51" s="294" t="s">
-        <v>435</v>
-      </c>
-      <c r="G51" s="567" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="G51" s="569" t="s">
+        <v>438</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
-      <c r="J51" s="568"/>
-      <c r="K51" s="569"/>
-      <c r="L51" s="569"/>
-      <c r="M51" s="570"/>
+      <c r="J51" s="570"/>
+      <c r="K51" s="571"/>
+      <c r="L51" s="571"/>
+      <c r="M51" s="572"/>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="571" t="s">
+      <c r="A52" s="573" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="572"/>
-      <c r="C52" s="573"/>
-      <c r="D52" s="573"/>
-      <c r="E52" s="574"/>
-      <c r="F52" s="575" t="s">
+      <c r="B52" s="574"/>
+      <c r="C52" s="575"/>
+      <c r="D52" s="575"/>
+      <c r="E52" s="576"/>
+      <c r="F52" s="577" t="s">
         <v>358</v>
       </c>
-      <c r="G52" s="576" t="s">
-        <v>437</v>
-      </c>
-      <c r="H52" s="577"/>
-      <c r="I52" s="578"/>
-      <c r="J52" s="568"/>
-      <c r="K52" s="569"/>
-      <c r="L52" s="569"/>
-      <c r="M52" s="570"/>
+      <c r="G52" s="578" t="s">
+        <v>439</v>
+      </c>
+      <c r="H52" s="579"/>
+      <c r="I52" s="580"/>
+      <c r="J52" s="570"/>
+      <c r="K52" s="571"/>
+      <c r="L52" s="571"/>
+      <c r="M52" s="572"/>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="571" t="s">
+      <c r="A53" s="573" t="s">
         <v>358</v>
       </c>
-      <c r="B53" s="572"/>
-      <c r="C53" s="572"/>
-      <c r="D53" s="572"/>
-      <c r="E53" s="579"/>
-      <c r="F53" s="575" t="s">
+      <c r="B53" s="574"/>
+      <c r="C53" s="574"/>
+      <c r="D53" s="574"/>
+      <c r="E53" s="581"/>
+      <c r="F53" s="577" t="s">
         <v>358</v>
       </c>
-      <c r="G53" s="576" t="s">
-        <v>438</v>
-      </c>
-      <c r="H53" s="577"/>
-      <c r="I53" s="578"/>
-      <c r="J53" s="568"/>
-      <c r="K53" s="569"/>
-      <c r="L53" s="569"/>
-      <c r="M53" s="570"/>
+      <c r="G53" s="578" t="s">
+        <v>440</v>
+      </c>
+      <c r="H53" s="579"/>
+      <c r="I53" s="580"/>
+      <c r="J53" s="570"/>
+      <c r="K53" s="571"/>
+      <c r="L53" s="571"/>
+      <c r="M53" s="572"/>
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="580"/>
-      <c r="B54" s="581"/>
-      <c r="C54" s="582"/>
-      <c r="D54" s="582"/>
-      <c r="E54" s="583"/>
-      <c r="F54" s="584"/>
-      <c r="G54" s="585"/>
-      <c r="H54" s="586"/>
-      <c r="I54" s="587"/>
-      <c r="J54" s="568"/>
-      <c r="K54" s="569"/>
-      <c r="L54" s="569"/>
-      <c r="M54" s="570"/>
+      <c r="A54" s="582"/>
+      <c r="B54" s="583"/>
+      <c r="C54" s="584"/>
+      <c r="D54" s="584"/>
+      <c r="E54" s="585"/>
+      <c r="F54" s="586"/>
+      <c r="G54" s="587"/>
+      <c r="H54" s="588"/>
+      <c r="I54" s="589"/>
+      <c r="J54" s="570"/>
+      <c r="K54" s="571"/>
+      <c r="L54" s="571"/>
+      <c r="M54" s="572"/>
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B55" s="430"/>
-      <c r="C55" s="588" t="s">
-        <v>440</v>
-      </c>
-      <c r="D55" s="588"/>
-      <c r="E55" s="588"/>
-      <c r="F55" s="588"/>
-      <c r="G55" s="588"/>
-      <c r="H55" s="588"/>
-      <c r="I55" s="589"/>
-      <c r="J55" s="569"/>
-      <c r="K55" s="569"/>
-      <c r="L55" s="569"/>
-      <c r="M55" s="570"/>
+      <c r="C55" s="590" t="s">
+        <v>442</v>
+      </c>
+      <c r="D55" s="590"/>
+      <c r="E55" s="590"/>
+      <c r="F55" s="590"/>
+      <c r="G55" s="590"/>
+      <c r="H55" s="590"/>
+      <c r="I55" s="591"/>
+      <c r="J55" s="571"/>
+      <c r="K55" s="571"/>
+      <c r="L55" s="571"/>
+      <c r="M55" s="572"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="590"/>
-      <c r="B56" s="591"/>
-      <c r="C56" s="592"/>
-      <c r="D56" s="592"/>
-      <c r="E56" s="592"/>
-      <c r="F56" s="592"/>
-      <c r="G56" s="592"/>
-      <c r="H56" s="592"/>
-      <c r="I56" s="593"/>
-      <c r="J56" s="594"/>
-      <c r="K56" s="595" t="s">
-        <v>441</v>
-      </c>
-      <c r="L56" s="595"/>
-      <c r="M56" s="596"/>
+      <c r="A56" s="592"/>
+      <c r="B56" s="593"/>
+      <c r="C56" s="594"/>
+      <c r="D56" s="594"/>
+      <c r="E56" s="594"/>
+      <c r="F56" s="594"/>
+      <c r="G56" s="594"/>
+      <c r="H56" s="594"/>
+      <c r="I56" s="595"/>
+      <c r="J56" s="596"/>
+      <c r="K56" s="597" t="s">
+        <v>443</v>
+      </c>
+      <c r="L56" s="597"/>
+      <c r="M56" s="598"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="590"/>
-      <c r="B57" s="591"/>
-      <c r="C57" s="592"/>
-      <c r="D57" s="592"/>
-      <c r="E57" s="592"/>
-      <c r="F57" s="592"/>
-      <c r="G57" s="592"/>
-      <c r="H57" s="592"/>
-      <c r="I57" s="593"/>
-      <c r="J57" s="595"/>
-      <c r="K57" s="595"/>
-      <c r="L57" s="595"/>
-      <c r="M57" s="597"/>
+      <c r="A57" s="592"/>
+      <c r="B57" s="593"/>
+      <c r="C57" s="594"/>
+      <c r="D57" s="594"/>
+      <c r="E57" s="594"/>
+      <c r="F57" s="594"/>
+      <c r="G57" s="594"/>
+      <c r="H57" s="594"/>
+      <c r="I57" s="595"/>
+      <c r="J57" s="597"/>
+      <c r="K57" s="597"/>
+      <c r="L57" s="597"/>
+      <c r="M57" s="599"/>
     </row>
     <row r="58" ht="7.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="598"/>
-      <c r="B58" s="599"/>
-      <c r="C58" s="600"/>
-      <c r="D58" s="600"/>
-      <c r="E58" s="600"/>
-      <c r="F58" s="600"/>
-      <c r="G58" s="600"/>
-      <c r="H58" s="600"/>
-      <c r="I58" s="601"/>
-      <c r="J58" s="282"/>
-      <c r="K58" s="602"/>
-      <c r="L58" s="603"/>
+      <c r="A58" s="600"/>
+      <c r="B58" s="601"/>
+      <c r="C58" s="602"/>
+      <c r="D58" s="602"/>
+      <c r="E58" s="602"/>
+      <c r="F58" s="602"/>
+      <c r="G58" s="602"/>
+      <c r="H58" s="602"/>
+      <c r="I58" s="603"/>
+      <c r="J58" s="445"/>
+      <c r="K58" s="604"/>
+      <c r="L58" s="605"/>
       <c r="M58" s="378"/>
     </row>
     <row r="59" ht="8.25" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="604"/>
-      <c r="B59" s="282"/>
+      <c r="A59" s="606"/>
+      <c r="B59" s="445"/>
       <c r="C59" s="443"/>
       <c r="D59" s="443"/>
       <c r="E59" s="443"/>
@@ -13667,212 +13700,212 @@
       <c r="G59" s="443"/>
       <c r="H59" s="443"/>
       <c r="I59" s="443"/>
-      <c r="J59" s="282"/>
-      <c r="K59" s="605"/>
-      <c r="L59" s="606"/>
+      <c r="J59" s="445"/>
+      <c r="K59" s="607"/>
+      <c r="L59" s="608"/>
       <c r="M59" s="378"/>
     </row>
-    <row r="60" ht="25.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="607"/>
-      <c r="B60" s="608" t="s">
-        <v>442</v>
-      </c>
-      <c r="C60" s="609"/>
-      <c r="D60" s="610"/>
+    <row r="60" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="609"/>
+      <c r="B60" s="610" t="s">
+        <v>444</v>
+      </c>
+      <c r="C60" s="611"/>
+      <c r="D60" s="612"/>
       <c r="E60" s="282"/>
-      <c r="F60" s="611"/>
-      <c r="G60" s="612"/>
-      <c r="H60" s="612"/>
-      <c r="I60" s="613"/>
-      <c r="J60" s="282"/>
-      <c r="K60" s="605"/>
-      <c r="L60" s="606"/>
-      <c r="M60" s="614"/>
-    </row>
-    <row r="61" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="607"/>
-      <c r="B61" s="615" t="s">
-        <v>443</v>
-      </c>
-      <c r="C61" s="616"/>
-      <c r="D61" s="617"/>
+      <c r="F60" s="613"/>
+      <c r="G60" s="614"/>
+      <c r="H60" s="614"/>
+      <c r="I60" s="615"/>
+      <c r="J60" s="445"/>
+      <c r="K60" s="607"/>
+      <c r="L60" s="608"/>
+      <c r="M60" s="616"/>
+    </row>
+    <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="609"/>
+      <c r="B61" s="617" t="s">
+        <v>445</v>
+      </c>
+      <c r="C61" s="618"/>
+      <c r="D61" s="619"/>
       <c r="E61" s="282"/>
-      <c r="F61" s="618"/>
-      <c r="G61" s="619"/>
-      <c r="H61" s="619"/>
-      <c r="I61" s="620"/>
-      <c r="J61" s="282"/>
-      <c r="K61" s="605"/>
-      <c r="L61" s="606"/>
-      <c r="M61" s="614"/>
+      <c r="F61" s="620"/>
+      <c r="G61" s="621"/>
+      <c r="H61" s="621"/>
+      <c r="I61" s="622"/>
+      <c r="J61" s="445"/>
+      <c r="K61" s="607"/>
+      <c r="L61" s="608"/>
+      <c r="M61" s="616"/>
     </row>
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="607"/>
-      <c r="B62" s="621" t="s">
-        <v>444</v>
-      </c>
-      <c r="C62" s="622"/>
-      <c r="D62" s="623"/>
+      <c r="A62" s="609"/>
+      <c r="B62" s="623" t="s">
+        <v>446</v>
+      </c>
+      <c r="C62" s="624"/>
+      <c r="D62" s="625"/>
       <c r="E62" s="282"/>
-      <c r="F62" s="624"/>
-      <c r="G62" s="625"/>
-      <c r="H62" s="625"/>
-      <c r="I62" s="626"/>
-      <c r="J62" s="282"/>
-      <c r="K62" s="605"/>
-      <c r="L62" s="606"/>
-      <c r="M62" s="614"/>
+      <c r="F62" s="626"/>
+      <c r="G62" s="627"/>
+      <c r="H62" s="627"/>
+      <c r="I62" s="628"/>
+      <c r="J62" s="445"/>
+      <c r="K62" s="607"/>
+      <c r="L62" s="608"/>
+      <c r="M62" s="616"/>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="607"/>
-      <c r="B63" s="627"/>
-      <c r="C63" s="628"/>
-      <c r="D63" s="629"/>
+      <c r="A63" s="609"/>
+      <c r="B63" s="629"/>
+      <c r="C63" s="630"/>
+      <c r="D63" s="631"/>
       <c r="E63" s="282"/>
-      <c r="F63" s="630" t="s">
-        <v>445</v>
-      </c>
-      <c r="G63" s="631"/>
-      <c r="H63" s="631"/>
-      <c r="I63" s="632"/>
-      <c r="J63" s="282"/>
-      <c r="K63" s="605"/>
-      <c r="L63" s="606"/>
-      <c r="M63" s="614"/>
+      <c r="F63" s="632" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" s="633"/>
+      <c r="H63" s="633"/>
+      <c r="I63" s="634"/>
+      <c r="J63" s="445"/>
+      <c r="K63" s="607"/>
+      <c r="L63" s="608"/>
+      <c r="M63" s="616"/>
     </row>
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="607"/>
-      <c r="B64" s="621" t="s">
-        <v>446</v>
-      </c>
-      <c r="C64" s="622"/>
-      <c r="D64" s="623"/>
+      <c r="A64" s="609"/>
+      <c r="B64" s="623" t="s">
+        <v>448</v>
+      </c>
+      <c r="C64" s="624"/>
+      <c r="D64" s="625"/>
       <c r="E64" s="282"/>
-      <c r="F64" s="633" t="s">
+      <c r="F64" s="635" t="s">
         <v>182</v>
       </c>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="126"/>
-      <c r="J64" s="634"/>
-      <c r="K64" s="635"/>
-      <c r="L64" s="636"/>
-      <c r="M64" s="614"/>
+      <c r="J64" s="636"/>
+      <c r="K64" s="637"/>
+      <c r="L64" s="638"/>
+      <c r="M64" s="616"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="607"/>
-      <c r="B65" s="637"/>
-      <c r="C65" s="638"/>
-      <c r="D65" s="639"/>
+      <c r="A65" s="609"/>
+      <c r="B65" s="639"/>
+      <c r="C65" s="640"/>
+      <c r="D65" s="641"/>
       <c r="E65" s="282"/>
-      <c r="F65" s="640" t="s">
-        <v>447</v>
-      </c>
-      <c r="G65" s="641"/>
-      <c r="H65" s="641"/>
-      <c r="I65" s="642"/>
-      <c r="J65" s="634"/>
-      <c r="K65" s="643" t="s">
-        <v>448</v>
-      </c>
-      <c r="L65" s="644"/>
-      <c r="M65" s="614"/>
+      <c r="F65" s="642" t="s">
+        <v>449</v>
+      </c>
+      <c r="G65" s="643"/>
+      <c r="H65" s="643"/>
+      <c r="I65" s="644"/>
+      <c r="J65" s="636"/>
+      <c r="K65" s="645" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" s="646"/>
+      <c r="M65" s="616"/>
     </row>
     <row r="66" ht="8.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="637"/>
-      <c r="B66" s="638"/>
-      <c r="C66" s="645"/>
-      <c r="D66" s="645"/>
-      <c r="E66" s="646"/>
-      <c r="F66" s="645"/>
-      <c r="G66" s="645"/>
-      <c r="H66" s="645"/>
-      <c r="I66" s="645"/>
-      <c r="J66" s="638"/>
-      <c r="K66" s="647"/>
-      <c r="L66" s="647"/>
-      <c r="M66" s="648"/>
+      <c r="A66" s="639"/>
+      <c r="B66" s="640"/>
+      <c r="C66" s="647"/>
+      <c r="D66" s="647"/>
+      <c r="E66" s="648"/>
+      <c r="F66" s="647"/>
+      <c r="G66" s="647"/>
+      <c r="H66" s="647"/>
+      <c r="I66" s="647"/>
+      <c r="J66" s="640"/>
+      <c r="K66" s="649"/>
+      <c r="L66" s="649"/>
+      <c r="M66" s="650"/>
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="649" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="650"/>
-      <c r="C67" s="650"/>
-      <c r="D67" s="650"/>
-      <c r="E67" s="650"/>
-      <c r="F67" s="650"/>
-      <c r="G67" s="650"/>
-      <c r="H67" s="650"/>
-      <c r="I67" s="650"/>
-      <c r="J67" s="650"/>
-      <c r="K67" s="650"/>
-      <c r="L67" s="650"/>
-      <c r="M67" s="651"/>
+      <c r="A67" s="651" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" s="652"/>
+      <c r="C67" s="652"/>
+      <c r="D67" s="652"/>
+      <c r="E67" s="652"/>
+      <c r="F67" s="652"/>
+      <c r="G67" s="652"/>
+      <c r="H67" s="652"/>
+      <c r="I67" s="652"/>
+      <c r="J67" s="652"/>
+      <c r="K67" s="652"/>
+      <c r="L67" s="652"/>
+      <c r="M67" s="653"/>
     </row>
     <row r="68" ht="53.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="607"/>
-      <c r="B68" s="634"/>
-      <c r="C68" s="652"/>
-      <c r="D68" s="652"/>
-      <c r="E68" s="653"/>
-      <c r="F68" s="654"/>
-      <c r="G68" s="654"/>
-      <c r="H68" s="654"/>
-      <c r="I68" s="655"/>
-      <c r="J68" s="656"/>
-      <c r="K68" s="656"/>
+      <c r="A68" s="609"/>
+      <c r="B68" s="636"/>
+      <c r="C68" s="654"/>
+      <c r="D68" s="654"/>
+      <c r="E68" s="655"/>
+      <c r="F68" s="656"/>
+      <c r="G68" s="656"/>
+      <c r="H68" s="656"/>
+      <c r="I68" s="657"/>
+      <c r="J68" s="658"/>
+      <c r="K68" s="658"/>
       <c r="L68" s="282"/>
-      <c r="M68" s="614"/>
+      <c r="M68" s="616"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="607"/>
-      <c r="B69" s="634"/>
-      <c r="C69" s="569"/>
-      <c r="D69" s="569"/>
-      <c r="E69" s="657" t="s">
-        <v>450</v>
-      </c>
-      <c r="F69" s="658"/>
-      <c r="G69" s="658"/>
-      <c r="H69" s="658"/>
-      <c r="I69" s="659"/>
-      <c r="J69" s="660"/>
-      <c r="K69" s="661"/>
+      <c r="A69" s="609"/>
+      <c r="B69" s="636"/>
+      <c r="C69" s="571"/>
+      <c r="D69" s="571"/>
+      <c r="E69" s="659" t="s">
+        <v>452</v>
+      </c>
+      <c r="F69" s="660"/>
+      <c r="G69" s="660"/>
+      <c r="H69" s="660"/>
+      <c r="I69" s="661"/>
+      <c r="J69" s="662"/>
+      <c r="K69" s="663"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="614"/>
-    </row>
-    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="662" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="663"/>
-      <c r="B70" s="664"/>
-      <c r="C70" s="664"/>
-      <c r="D70" s="664"/>
-      <c r="E70" s="664"/>
-      <c r="F70" s="664"/>
-      <c r="G70" s="664"/>
-      <c r="H70" s="664"/>
-      <c r="I70" s="664"/>
-      <c r="J70" s="664"/>
-      <c r="K70" s="664"/>
-      <c r="L70" s="664"/>
-      <c r="M70" s="665"/>
+      <c r="M69" s="616"/>
+    </row>
+    <row r="70" ht="11.25" customHeight="1" spans="1:13" s="664" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="665"/>
+      <c r="B70" s="666"/>
+      <c r="C70" s="666"/>
+      <c r="D70" s="666"/>
+      <c r="E70" s="666"/>
+      <c r="F70" s="666"/>
+      <c r="G70" s="666"/>
+      <c r="H70" s="666"/>
+      <c r="I70" s="666"/>
+      <c r="J70" s="666"/>
+      <c r="K70" s="666"/>
+      <c r="L70" s="666"/>
+      <c r="M70" s="667"/>
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="666" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="666"/>
-      <c r="C71" s="666"/>
-      <c r="D71" s="666"/>
-      <c r="E71" s="666"/>
-      <c r="F71" s="666"/>
-      <c r="G71" s="666"/>
-      <c r="H71" s="666"/>
-      <c r="I71" s="666"/>
-      <c r="J71" s="666"/>
-      <c r="K71" s="666"/>
-      <c r="L71" s="666"/>
-      <c r="M71" s="666"/>
+      <c r="A71" s="668" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" s="668"/>
+      <c r="C71" s="668"/>
+      <c r="D71" s="668"/>
+      <c r="E71" s="668"/>
+      <c r="F71" s="668"/>
+      <c r="G71" s="668"/>
+      <c r="H71" s="668"/>
+      <c r="I71" s="668"/>
+      <c r="J71" s="668"/>
+      <c r="K71" s="668"/>
+      <c r="L71" s="668"/>
+      <c r="M71" s="668"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -13986,36 +14019,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="667" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" s="667" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" s="667" t="s">
+      <c r="A1" s="669" t="s">
         <v>454</v>
+      </c>
+      <c r="B1" s="669" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="669" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14025,7 +14058,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="461">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -618,6 +618,9 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -1118,46 +1121,37 @@
 Validity</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">V.  WORK EXPERIENCE </t>
+  </si>
+  <si>
+    <t>(Include private employment.  Start from your recent work) Description of duties should be indicated in the attached Work Experience sheet.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>INCLUSIVE DATES (mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>POSITION TITLE                                                                                                                            (Write in full/Do not abbreviate)</t>
+  </si>
+  <si>
+    <t>DEPARTMENT / AGENCY / OFFICE / COMPANY                                                                                             (Write in full/Do not abbreviate)</t>
+  </si>
+  <si>
+    <t>MONTHLY SALARY</t>
+  </si>
+  <si>
+    <t>SALARY/ JOB/ PAY GRADE (if applicable)&amp; STEP  (Format "00-0")/ INCREMENT</t>
+  </si>
+  <si>
+    <t>STATUS OF APPOINTMENT</t>
+  </si>
+  <si>
+    <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>965789678</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.  WORK EXPERIENCE </t>
-  </si>
-  <si>
-    <t>(Include private employment.  Start from your recent work) Description of duties should be indicated in the attached Work Experience sheet.</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>INCLUSIVE DATES (mm/dd/yyyy)</t>
-  </si>
-  <si>
-    <t>POSITION TITLE                                                                                                                            (Write in full/Do not abbreviate)</t>
-  </si>
-  <si>
-    <t>DEPARTMENT / AGENCY / OFFICE / COMPANY                                                                                             (Write in full/Do not abbreviate)</t>
-  </si>
-  <si>
-    <t>MONTHLY SALARY</t>
-  </si>
-  <si>
-    <t>SALARY/ JOB/ PAY GRADE (if applicable)&amp; STEP  (Format "00-0")/ INCREMENT</t>
-  </si>
-  <si>
-    <t>STATUS OF APPOINTMENT</t>
-  </si>
-  <si>
-    <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
     <t>20000.00</t>
@@ -6693,19 +6687,19 @@
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6721,7 +6715,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6742,7 +6736,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6761,7 +6755,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6780,7 +6774,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6799,7 +6793,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6818,7 +6812,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6837,7 +6831,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6856,7 +6850,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6875,7 +6869,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6894,7 +6888,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6913,7 +6907,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6932,7 +6926,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6951,7 +6945,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6970,7 +6964,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6989,7 +6983,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7008,7 +7002,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7027,7 +7021,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7046,7 +7040,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7065,7 +7059,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7084,7 +7078,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7103,7 +7097,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7122,7 +7116,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7141,7 +7135,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7160,7 +7154,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7179,7 +7173,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7198,7 +7192,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7217,7 +7211,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7236,7 +7230,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7255,7 +7249,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7274,7 +7268,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7293,7 +7287,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7312,7 +7306,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7331,7 +7325,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7350,7 +7344,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7369,7 +7363,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7388,7 +7382,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7407,7 +7401,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7426,7 +7420,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7445,7 +7439,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7464,7 +7458,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7502,7 +7496,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7521,7 +7515,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7540,7 +7534,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7559,7 +7553,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7578,7 +7572,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7597,7 +7591,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7616,7 +7610,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7635,7 +7629,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7654,7 +7648,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7673,7 +7667,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7692,7 +7686,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7711,7 +7705,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7730,7 +7724,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7749,7 +7743,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7768,7 +7762,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7787,7 +7781,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7806,7 +7800,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7825,7 +7819,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7844,7 +7838,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7863,7 +7857,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7882,7 +7876,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7901,7 +7895,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7920,7 +7914,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7939,7 +7933,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7958,7 +7952,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7977,7 +7971,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7996,7 +7990,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8015,7 +8009,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8034,7 +8028,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8053,7 +8047,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8072,7 +8066,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8091,7 +8085,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8110,7 +8104,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8129,7 +8123,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8148,7 +8142,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8167,7 +8161,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8186,7 +8180,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8205,7 +8199,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8224,7 +8218,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8243,7 +8237,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8262,7 +8256,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8281,7 +8275,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8300,7 +8294,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8319,7 +8313,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8338,7 +8332,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8357,7 +8351,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8376,7 +8370,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8395,7 +8389,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8414,7 +8408,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8433,7 +8427,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8452,7 +8446,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8471,7 +8465,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8490,7 +8484,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8509,7 +8503,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8528,7 +8522,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8547,7 +8541,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8566,7 +8560,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8585,7 +8579,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8604,7 +8598,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8623,7 +8617,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8642,7 +8636,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8661,7 +8655,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8680,7 +8674,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8699,7 +8693,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8718,7 +8712,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8737,7 +8731,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8756,7 +8750,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8775,7 +8769,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8794,7 +8788,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8813,7 +8807,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8832,7 +8826,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8851,7 +8845,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8870,7 +8864,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8889,7 +8883,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8908,7 +8902,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8927,7 +8921,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8946,7 +8940,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8965,7 +8959,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8984,7 +8978,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9003,7 +8997,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9022,7 +9016,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9041,7 +9035,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9060,7 +9054,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9079,7 +9073,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9098,7 +9092,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9117,7 +9111,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9136,7 +9130,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9155,7 +9149,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9174,7 +9168,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9193,7 +9187,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9212,7 +9206,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9231,7 +9225,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9250,7 +9244,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9269,7 +9263,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9288,7 +9282,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9307,7 +9301,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9326,7 +9320,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9345,7 +9339,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9364,7 +9358,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9383,7 +9377,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9402,7 +9396,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9421,7 +9415,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9440,7 +9434,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9459,7 +9453,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9478,7 +9472,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9497,7 +9491,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9516,7 +9510,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9535,7 +9529,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9554,7 +9548,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9573,7 +9567,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9592,7 +9586,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9611,7 +9605,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9630,7 +9624,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9649,7 +9643,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9668,7 +9662,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10839,7 +10833,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10856,28 +10850,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10894,65 +10888,41 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="303" t="s">
-        <v>357</v>
-      </c>
+      <c r="A5" s="303"/>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
       <c r="D5" s="304"/>
       <c r="E5" s="304"/>
-      <c r="F5" s="305" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="306">
-        <v>45555</v>
-      </c>
+      <c r="F5" s="305"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="306"/>
-      <c r="I5" s="307" t="s">
-        <v>358</v>
-      </c>
+      <c r="I5" s="307"/>
       <c r="J5" s="307"/>
       <c r="K5" s="307"/>
-      <c r="L5" s="308" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5" s="309">
-        <v>45542</v>
-      </c>
+      <c r="L5" s="308"/>
+      <c r="M5" s="309"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
-        <v>358</v>
-      </c>
+      <c r="A6" s="303"/>
       <c r="B6" s="304"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
       <c r="E6" s="304"/>
-      <c r="F6" s="305" t="s">
-        <v>360</v>
-      </c>
-      <c r="G6" s="310" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="305"/>
+      <c r="G6" s="310"/>
       <c r="H6" s="311"/>
-      <c r="I6" s="307" t="s">
-        <v>14</v>
-      </c>
+      <c r="I6" s="307"/>
       <c r="J6" s="307"/>
       <c r="K6" s="307"/>
-      <c r="L6" s="308" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="309" t="s">
-        <v>14</v>
-      </c>
+      <c r="L6" s="308"/>
+      <c r="M6" s="309"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="303"/>
@@ -11048,7 +11018,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11065,7 +11035,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11082,33 +11052,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="328" t="s">
+        <v>365</v>
+      </c>
+      <c r="L15" s="329" t="s">
+        <v>366</v>
+      </c>
+      <c r="M15" s="330" t="s">
         <v>367</v>
-      </c>
-      <c r="K15" s="328" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="329" t="s">
-        <v>369</v>
-      </c>
-      <c r="M15" s="330" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11154,26 +11124,26 @@
         <v>45547</v>
       </c>
       <c r="D18" s="304" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
       <c r="G18" s="304" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
       <c r="J18" s="342" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="308" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="308" t="s">
+        <v>370</v>
+      </c>
+      <c r="M18" s="343" t="s">
         <v>371</v>
-      </c>
-      <c r="K18" s="308" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" s="308" t="s">
-        <v>372</v>
-      </c>
-      <c r="M18" s="343" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
@@ -11614,7 +11584,7 @@
       </c>
       <c r="J47" s="356"/>
       <c r="K47" s="357" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L47" s="357"/>
       <c r="M47" s="358"/>
@@ -11622,7 +11592,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11816,7 +11786,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11831,22 +11801,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11884,7 +11854,7 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="383" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
@@ -11899,7 +11869,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="385" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I6" s="386"/>
       <c r="J6" s="386"/>
@@ -11907,7 +11877,7 @@
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="383" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
@@ -11922,7 +11892,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="I7" s="386"/>
       <c r="J7" s="386"/>
@@ -12010,7 +11980,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -12025,25 +11995,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12080,7 +12050,7 @@
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="383" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B18" s="400"/>
       <c r="C18" s="400"/>
@@ -12095,10 +12065,10 @@
         <v>32</v>
       </c>
       <c r="H18" s="308" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="I18" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J18" s="402"/>
       <c r="K18" s="403"/>
@@ -12380,7 +12350,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="410" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B40" s="411"/>
       <c r="C40" s="411"/>
@@ -12395,36 +12365,36 @@
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="413" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="414" t="s">
+        <v>390</v>
+      </c>
+      <c r="C41" s="415" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="414" t="s">
+      <c r="D41" s="414" t="s">
         <v>392</v>
-      </c>
-      <c r="C41" s="415" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="414" t="s">
-        <v>394</v>
       </c>
       <c r="E41" s="414"/>
       <c r="F41" s="414"/>
       <c r="G41" s="414"/>
       <c r="H41" s="416"/>
       <c r="I41" s="415" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J41" s="414" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="418" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B42" s="419"/>
       <c r="C42" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D42" s="420"/>
       <c r="E42" s="420"/>
@@ -12432,18 +12402,18 @@
       <c r="G42" s="420"/>
       <c r="H42" s="419"/>
       <c r="I42" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J42" s="420"/>
       <c r="K42" s="421"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="418" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B43" s="419"/>
       <c r="C43" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D43" s="420"/>
       <c r="E43" s="420"/>
@@ -12451,7 +12421,7 @@
       <c r="G43" s="420"/>
       <c r="H43" s="419"/>
       <c r="I43" s="385" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J43" s="420"/>
       <c r="K43" s="421"/>
@@ -12550,7 +12520,7 @@
       </c>
       <c r="H50" s="423"/>
       <c r="I50" s="352" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
@@ -12559,7 +12529,7 @@
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="425" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12700,11 +12670,11 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="429" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2" s="430"/>
       <c r="C2" s="431" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D2" s="431"/>
       <c r="E2" s="431"/>
@@ -12721,7 +12691,7 @@
       <c r="A3" s="437"/>
       <c r="B3" s="438"/>
       <c r="C3" s="439" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D3" s="439"/>
       <c r="E3" s="439"/>
@@ -12738,7 +12708,7 @@
       <c r="A4" s="437"/>
       <c r="B4" s="438"/>
       <c r="C4" s="439" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D4" s="439"/>
       <c r="E4" s="439"/>
@@ -12770,16 +12740,16 @@
       <c r="A6" s="437"/>
       <c r="B6" s="438"/>
       <c r="C6" s="439" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" s="439"/>
       <c r="E6" s="439"/>
       <c r="F6" s="440"/>
       <c r="G6" s="282"/>
-      <c r="H6" s="282" t="s">
-        <v>403</v>
-      </c>
-      <c r="I6" s="447"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="447" t="s">
+        <v>401</v>
+      </c>
       <c r="J6" s="447"/>
       <c r="K6" s="447"/>
       <c r="L6" s="447"/>
@@ -12804,14 +12774,14 @@
       <c r="A8" s="437"/>
       <c r="B8" s="438"/>
       <c r="C8" s="439" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D8" s="439"/>
       <c r="E8" s="439"/>
       <c r="F8" s="440"/>
       <c r="G8" s="445"/>
       <c r="H8" s="282" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I8" s="445"/>
       <c r="J8" s="445"/>
@@ -12842,7 +12812,7 @@
       <c r="E10" s="439"/>
       <c r="F10" s="440"/>
       <c r="G10" s="446" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H10" s="446"/>
       <c r="I10" s="446"/>
@@ -12885,18 +12855,18 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="460" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B13" s="461"/>
       <c r="C13" s="462" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D13" s="462"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
       <c r="G13" s="463"/>
       <c r="H13" s="463" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I13" s="463"/>
       <c r="J13" s="463"/>
@@ -12912,7 +12882,7 @@
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
       <c r="G14" s="467" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H14" s="446"/>
       <c r="I14" s="446"/>
@@ -12970,14 +12940,14 @@
       <c r="A18" s="475"/>
       <c r="B18" s="476"/>
       <c r="C18" s="483" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D18" s="483"/>
       <c r="E18" s="484"/>
       <c r="F18" s="485"/>
       <c r="G18" s="486"/>
       <c r="H18" s="486" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I18" s="486"/>
       <c r="J18" s="486"/>
@@ -12993,7 +12963,7 @@
       <c r="E19" s="484"/>
       <c r="F19" s="485"/>
       <c r="G19" s="467" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H19" s="446"/>
       <c r="I19" s="446"/>
@@ -13011,7 +12981,7 @@
       <c r="F20" s="485"/>
       <c r="G20" s="486"/>
       <c r="H20" s="488" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I20" s="488"/>
       <c r="J20" s="489"/>
@@ -13027,7 +12997,7 @@
       <c r="E21" s="484"/>
       <c r="F21" s="485"/>
       <c r="G21" s="492" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H21" s="493"/>
       <c r="I21" s="493"/>
@@ -13044,7 +13014,7 @@
       <c r="E22" s="497"/>
       <c r="F22" s="498"/>
       <c r="G22" s="471" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H22" s="472"/>
       <c r="I22" s="499"/>
@@ -13055,18 +13025,18 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="501" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D23" s="501"/>
       <c r="E23" s="501"/>
       <c r="F23" s="502"/>
       <c r="G23" s="463"/>
       <c r="H23" s="463" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I23" s="463"/>
       <c r="J23" s="463"/>
@@ -13082,7 +13052,7 @@
       <c r="E24" s="503"/>
       <c r="F24" s="504"/>
       <c r="G24" s="467" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H24" s="446"/>
       <c r="I24" s="446"/>
@@ -13123,11 +13093,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B27" s="195"/>
       <c r="C27" s="501" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D27" s="501"/>
       <c r="E27" s="501"/>
@@ -13148,7 +13118,7 @@
       <c r="E28" s="503"/>
       <c r="F28" s="504"/>
       <c r="G28" s="467" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H28" s="446"/>
       <c r="I28" s="446"/>
@@ -13189,18 +13159,18 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B31" s="195"/>
       <c r="C31" s="501" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D31" s="501"/>
       <c r="E31" s="501"/>
       <c r="F31" s="502"/>
       <c r="G31" s="463"/>
       <c r="H31" s="463" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I31" s="463"/>
       <c r="J31" s="463"/>
@@ -13216,7 +13186,7 @@
       <c r="E32" s="503"/>
       <c r="F32" s="504"/>
       <c r="G32" s="514" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H32" s="515"/>
       <c r="I32" s="515"/>
@@ -13244,7 +13214,7 @@
       <c r="A34" s="465"/>
       <c r="B34" s="466"/>
       <c r="C34" s="503" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D34" s="503"/>
       <c r="E34" s="503"/>
@@ -13265,7 +13235,7 @@
       <c r="E35" s="503"/>
       <c r="F35" s="504"/>
       <c r="G35" s="514" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H35" s="515"/>
       <c r="I35" s="515"/>
@@ -13291,11 +13261,11 @@
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B37" s="195"/>
       <c r="C37" s="524" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D37" s="524"/>
       <c r="E37" s="524"/>
@@ -13316,7 +13286,7 @@
       <c r="E38" s="462"/>
       <c r="F38" s="526"/>
       <c r="G38" s="467" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H38" s="446"/>
       <c r="I38" s="446"/>
@@ -13357,11 +13327,11 @@
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="530" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B41" s="531"/>
       <c r="C41" s="503" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D41" s="503"/>
       <c r="E41" s="503"/>
@@ -13392,18 +13362,18 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="535" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B43" s="536"/>
       <c r="C43" s="503" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D43" s="503"/>
       <c r="E43" s="503"/>
       <c r="F43" s="504"/>
       <c r="G43" s="445"/>
       <c r="H43" s="282" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I43" s="445"/>
       <c r="J43" s="445"/>
@@ -13420,7 +13390,7 @@
       <c r="E44" s="503"/>
       <c r="F44" s="504"/>
       <c r="G44" s="539" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H44" s="540"/>
       <c r="I44" s="519"/>
@@ -13432,18 +13402,18 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="535" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B45" s="536"/>
       <c r="C45" s="504" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D45" s="504"/>
       <c r="E45" s="504"/>
       <c r="F45" s="504"/>
       <c r="G45" s="445"/>
       <c r="H45" s="282" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I45" s="445"/>
       <c r="J45" s="445"/>
@@ -13460,7 +13430,7 @@
       <c r="E46" s="504"/>
       <c r="F46" s="504"/>
       <c r="G46" s="542" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H46" s="543"/>
       <c r="I46" s="519"/>
@@ -13472,18 +13442,18 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="535" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B47" s="536"/>
       <c r="C47" s="503" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D47" s="503"/>
       <c r="E47" s="544"/>
       <c r="F47" s="545"/>
       <c r="G47" s="445"/>
       <c r="H47" s="282" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I47" s="445"/>
       <c r="J47" s="445"/>
@@ -13500,7 +13470,7 @@
       <c r="E48" s="547"/>
       <c r="F48" s="548"/>
       <c r="G48" s="549" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H48" s="550"/>
       <c r="I48" s="551"/>
@@ -13528,11 +13498,11 @@
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="559" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B50" s="560"/>
       <c r="C50" s="561" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D50" s="561"/>
       <c r="E50" s="561"/>
@@ -13548,17 +13518,17 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="566" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B51" s="567"/>
       <c r="C51" s="567"/>
       <c r="D51" s="567"/>
       <c r="E51" s="568"/>
       <c r="F51" s="294" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G51" s="569" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
@@ -13569,17 +13539,17 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="573" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B52" s="574"/>
       <c r="C52" s="575"/>
       <c r="D52" s="575"/>
       <c r="E52" s="576"/>
       <c r="F52" s="577" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G52" s="578" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H52" s="579"/>
       <c r="I52" s="580"/>
@@ -13590,17 +13560,17 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="573" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B53" s="574"/>
       <c r="C53" s="574"/>
       <c r="D53" s="574"/>
       <c r="E53" s="581"/>
       <c r="F53" s="577" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G53" s="578" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H53" s="579"/>
       <c r="I53" s="580"/>
@@ -13626,11 +13596,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" s="430"/>
       <c r="C55" s="590" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D55" s="590"/>
       <c r="E55" s="590"/>
@@ -13655,7 +13625,7 @@
       <c r="I56" s="595"/>
       <c r="J56" s="596"/>
       <c r="K56" s="597" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L56" s="597"/>
       <c r="M56" s="598"/>
@@ -13708,7 +13678,7 @@
     <row r="60" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="609"/>
       <c r="B60" s="610" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C60" s="611"/>
       <c r="D60" s="612"/>
@@ -13725,7 +13695,7 @@
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="609"/>
       <c r="B61" s="617" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C61" s="618"/>
       <c r="D61" s="619"/>
@@ -13742,7 +13712,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="609"/>
       <c r="B62" s="623" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C62" s="624"/>
       <c r="D62" s="625"/>
@@ -13763,7 +13733,7 @@
       <c r="D63" s="631"/>
       <c r="E63" s="282"/>
       <c r="F63" s="632" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G63" s="633"/>
       <c r="H63" s="633"/>
@@ -13776,13 +13746,13 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="609"/>
       <c r="B64" s="623" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C64" s="624"/>
       <c r="D64" s="625"/>
       <c r="E64" s="282"/>
       <c r="F64" s="635" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
@@ -13799,14 +13769,14 @@
       <c r="D65" s="641"/>
       <c r="E65" s="282"/>
       <c r="F65" s="642" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G65" s="643"/>
       <c r="H65" s="643"/>
       <c r="I65" s="644"/>
       <c r="J65" s="636"/>
       <c r="K65" s="645" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L65" s="646"/>
       <c r="M65" s="616"/>
@@ -13828,7 +13798,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="651" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B67" s="652"/>
       <c r="C67" s="652"/>
@@ -13864,7 +13834,7 @@
       <c r="C69" s="571"/>
       <c r="D69" s="571"/>
       <c r="E69" s="659" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F69" s="660"/>
       <c r="G69" s="660"/>
@@ -13892,7 +13862,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="668" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B71" s="668"/>
       <c r="C71" s="668"/>
@@ -14020,35 +13990,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="669" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="669" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="669" t="s">
         <v>454</v>
-      </c>
-      <c r="B1" s="669" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" s="669" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
         <v>457</v>
-      </c>
-      <c r="B2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14058,7 +14028,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="462">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -618,7 +618,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-09-29</t>
+    <t>2024-10-03</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -1119,6 +1119,9 @@
   <si>
     <t xml:space="preserve">Date of
 Validity</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
@@ -10895,19 +10898,31 @@
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
+      <c r="A5" s="303" t="s">
+        <v>358</v>
+      </c>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
       <c r="D5" s="304"/>
       <c r="E5" s="304"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="F5" s="305" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="306" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="306"/>
-      <c r="I5" s="307"/>
+      <c r="I5" s="307" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="307"/>
       <c r="K5" s="307"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="309"/>
+      <c r="L5" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="309" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="303"/>
@@ -11018,7 +11033,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11035,7 +11050,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11052,33 +11067,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K15" s="328" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L15" s="329" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M15" s="330" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11124,26 +11139,26 @@
         <v>45547</v>
       </c>
       <c r="D18" s="304" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
       <c r="G18" s="304" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
       <c r="J18" s="342" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="308" t="s">
         <v>369</v>
       </c>
-      <c r="K18" s="308" t="s">
-        <v>368</v>
-      </c>
       <c r="L18" s="308" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M18" s="343" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
@@ -11592,7 +11607,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11786,7 +11801,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11801,22 +11816,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11854,7 +11869,7 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="383" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
@@ -11869,7 +11884,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="385" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I6" s="386"/>
       <c r="J6" s="386"/>
@@ -11877,7 +11892,7 @@
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="383" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
@@ -11892,7 +11907,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I7" s="386"/>
       <c r="J7" s="386"/>
@@ -11980,7 +11995,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -11995,25 +12010,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12050,7 +12065,7 @@
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="383" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B18" s="400"/>
       <c r="C18" s="400"/>
@@ -12065,10 +12080,10 @@
         <v>32</v>
       </c>
       <c r="H18" s="308" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I18" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J18" s="402"/>
       <c r="K18" s="403"/>
@@ -12350,7 +12365,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="410" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B40" s="411"/>
       <c r="C40" s="411"/>
@@ -12365,36 +12380,36 @@
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="413" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B41" s="414" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C41" s="415" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D41" s="414" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E41" s="414"/>
       <c r="F41" s="414"/>
       <c r="G41" s="414"/>
       <c r="H41" s="416"/>
       <c r="I41" s="415" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J41" s="414" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="418" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" s="419"/>
       <c r="C42" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D42" s="420"/>
       <c r="E42" s="420"/>
@@ -12402,18 +12417,18 @@
       <c r="G42" s="420"/>
       <c r="H42" s="419"/>
       <c r="I42" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J42" s="420"/>
       <c r="K42" s="421"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="418" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="419"/>
       <c r="C43" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D43" s="420"/>
       <c r="E43" s="420"/>
@@ -12421,7 +12436,7 @@
       <c r="G43" s="420"/>
       <c r="H43" s="419"/>
       <c r="I43" s="385" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J43" s="420"/>
       <c r="K43" s="421"/>
@@ -12529,7 +12544,7 @@
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="425" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12670,11 +12685,11 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="429" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B2" s="430"/>
       <c r="C2" s="431" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D2" s="431"/>
       <c r="E2" s="431"/>
@@ -12691,7 +12706,7 @@
       <c r="A3" s="437"/>
       <c r="B3" s="438"/>
       <c r="C3" s="439" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D3" s="439"/>
       <c r="E3" s="439"/>
@@ -12708,7 +12723,7 @@
       <c r="A4" s="437"/>
       <c r="B4" s="438"/>
       <c r="C4" s="439" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D4" s="439"/>
       <c r="E4" s="439"/>
@@ -12740,7 +12755,7 @@
       <c r="A6" s="437"/>
       <c r="B6" s="438"/>
       <c r="C6" s="439" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D6" s="439"/>
       <c r="E6" s="439"/>
@@ -12748,7 +12763,7 @@
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
       <c r="I6" s="447" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J6" s="447"/>
       <c r="K6" s="447"/>
@@ -12774,14 +12789,14 @@
       <c r="A8" s="437"/>
       <c r="B8" s="438"/>
       <c r="C8" s="439" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D8" s="439"/>
       <c r="E8" s="439"/>
       <c r="F8" s="440"/>
       <c r="G8" s="445"/>
       <c r="H8" s="282" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I8" s="445"/>
       <c r="J8" s="445"/>
@@ -12812,7 +12827,7 @@
       <c r="E10" s="439"/>
       <c r="F10" s="440"/>
       <c r="G10" s="446" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H10" s="446"/>
       <c r="I10" s="446"/>
@@ -12855,18 +12870,18 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="460" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B13" s="461"/>
       <c r="C13" s="462" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D13" s="462"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
       <c r="G13" s="463"/>
       <c r="H13" s="463" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I13" s="463"/>
       <c r="J13" s="463"/>
@@ -12882,7 +12897,7 @@
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
       <c r="G14" s="467" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H14" s="446"/>
       <c r="I14" s="446"/>
@@ -12940,14 +12955,14 @@
       <c r="A18" s="475"/>
       <c r="B18" s="476"/>
       <c r="C18" s="483" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D18" s="483"/>
       <c r="E18" s="484"/>
       <c r="F18" s="485"/>
       <c r="G18" s="486"/>
       <c r="H18" s="486" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I18" s="486"/>
       <c r="J18" s="486"/>
@@ -12963,7 +12978,7 @@
       <c r="E19" s="484"/>
       <c r="F19" s="485"/>
       <c r="G19" s="467" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H19" s="446"/>
       <c r="I19" s="446"/>
@@ -12981,7 +12996,7 @@
       <c r="F20" s="485"/>
       <c r="G20" s="486"/>
       <c r="H20" s="488" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I20" s="488"/>
       <c r="J20" s="489"/>
@@ -12997,7 +13012,7 @@
       <c r="E21" s="484"/>
       <c r="F21" s="485"/>
       <c r="G21" s="492" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H21" s="493"/>
       <c r="I21" s="493"/>
@@ -13014,7 +13029,7 @@
       <c r="E22" s="497"/>
       <c r="F22" s="498"/>
       <c r="G22" s="471" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H22" s="472"/>
       <c r="I22" s="499"/>
@@ -13025,18 +13040,18 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="501" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D23" s="501"/>
       <c r="E23" s="501"/>
       <c r="F23" s="502"/>
       <c r="G23" s="463"/>
       <c r="H23" s="463" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I23" s="463"/>
       <c r="J23" s="463"/>
@@ -13052,7 +13067,7 @@
       <c r="E24" s="503"/>
       <c r="F24" s="504"/>
       <c r="G24" s="467" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H24" s="446"/>
       <c r="I24" s="446"/>
@@ -13093,11 +13108,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B27" s="195"/>
       <c r="C27" s="501" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D27" s="501"/>
       <c r="E27" s="501"/>
@@ -13118,7 +13133,7 @@
       <c r="E28" s="503"/>
       <c r="F28" s="504"/>
       <c r="G28" s="467" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H28" s="446"/>
       <c r="I28" s="446"/>
@@ -13159,18 +13174,18 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B31" s="195"/>
       <c r="C31" s="501" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D31" s="501"/>
       <c r="E31" s="501"/>
       <c r="F31" s="502"/>
       <c r="G31" s="463"/>
       <c r="H31" s="463" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I31" s="463"/>
       <c r="J31" s="463"/>
@@ -13186,7 +13201,7 @@
       <c r="E32" s="503"/>
       <c r="F32" s="504"/>
       <c r="G32" s="514" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H32" s="515"/>
       <c r="I32" s="515"/>
@@ -13214,7 +13229,7 @@
       <c r="A34" s="465"/>
       <c r="B34" s="466"/>
       <c r="C34" s="503" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D34" s="503"/>
       <c r="E34" s="503"/>
@@ -13235,7 +13250,7 @@
       <c r="E35" s="503"/>
       <c r="F35" s="504"/>
       <c r="G35" s="514" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H35" s="515"/>
       <c r="I35" s="515"/>
@@ -13261,11 +13276,11 @@
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B37" s="195"/>
       <c r="C37" s="524" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D37" s="524"/>
       <c r="E37" s="524"/>
@@ -13286,7 +13301,7 @@
       <c r="E38" s="462"/>
       <c r="F38" s="526"/>
       <c r="G38" s="467" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H38" s="446"/>
       <c r="I38" s="446"/>
@@ -13327,11 +13342,11 @@
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="530" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B41" s="531"/>
       <c r="C41" s="503" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D41" s="503"/>
       <c r="E41" s="503"/>
@@ -13362,18 +13377,18 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="535" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B43" s="536"/>
       <c r="C43" s="503" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D43" s="503"/>
       <c r="E43" s="503"/>
       <c r="F43" s="504"/>
       <c r="G43" s="445"/>
       <c r="H43" s="282" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I43" s="445"/>
       <c r="J43" s="445"/>
@@ -13390,7 +13405,7 @@
       <c r="E44" s="503"/>
       <c r="F44" s="504"/>
       <c r="G44" s="539" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H44" s="540"/>
       <c r="I44" s="519"/>
@@ -13402,18 +13417,18 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="535" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B45" s="536"/>
       <c r="C45" s="504" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D45" s="504"/>
       <c r="E45" s="504"/>
       <c r="F45" s="504"/>
       <c r="G45" s="445"/>
       <c r="H45" s="282" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I45" s="445"/>
       <c r="J45" s="445"/>
@@ -13430,7 +13445,7 @@
       <c r="E46" s="504"/>
       <c r="F46" s="504"/>
       <c r="G46" s="542" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H46" s="543"/>
       <c r="I46" s="519"/>
@@ -13442,18 +13457,18 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="535" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="536"/>
       <c r="C47" s="503" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D47" s="503"/>
       <c r="E47" s="544"/>
       <c r="F47" s="545"/>
       <c r="G47" s="445"/>
       <c r="H47" s="282" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I47" s="445"/>
       <c r="J47" s="445"/>
@@ -13470,7 +13485,7 @@
       <c r="E48" s="547"/>
       <c r="F48" s="548"/>
       <c r="G48" s="549" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H48" s="550"/>
       <c r="I48" s="551"/>
@@ -13498,11 +13513,11 @@
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="559" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B50" s="560"/>
       <c r="C50" s="561" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D50" s="561"/>
       <c r="E50" s="561"/>
@@ -13518,17 +13533,17 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="566" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B51" s="567"/>
       <c r="C51" s="567"/>
       <c r="D51" s="567"/>
       <c r="E51" s="568"/>
       <c r="F51" s="294" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G51" s="569" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
@@ -13539,17 +13554,17 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="573" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" s="574"/>
       <c r="C52" s="575"/>
       <c r="D52" s="575"/>
       <c r="E52" s="576"/>
       <c r="F52" s="577" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G52" s="578" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H52" s="579"/>
       <c r="I52" s="580"/>
@@ -13560,17 +13575,17 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="573" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" s="574"/>
       <c r="C53" s="574"/>
       <c r="D53" s="574"/>
       <c r="E53" s="581"/>
       <c r="F53" s="577" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G53" s="578" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H53" s="579"/>
       <c r="I53" s="580"/>
@@ -13596,11 +13611,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B55" s="430"/>
       <c r="C55" s="590" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D55" s="590"/>
       <c r="E55" s="590"/>
@@ -13625,7 +13640,7 @@
       <c r="I56" s="595"/>
       <c r="J56" s="596"/>
       <c r="K56" s="597" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L56" s="597"/>
       <c r="M56" s="598"/>
@@ -13678,7 +13693,7 @@
     <row r="60" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="609"/>
       <c r="B60" s="610" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C60" s="611"/>
       <c r="D60" s="612"/>
@@ -13695,7 +13710,7 @@
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="609"/>
       <c r="B61" s="617" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C61" s="618"/>
       <c r="D61" s="619"/>
@@ -13712,7 +13727,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="609"/>
       <c r="B62" s="623" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C62" s="624"/>
       <c r="D62" s="625"/>
@@ -13733,7 +13748,7 @@
       <c r="D63" s="631"/>
       <c r="E63" s="282"/>
       <c r="F63" s="632" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G63" s="633"/>
       <c r="H63" s="633"/>
@@ -13746,7 +13761,7 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="609"/>
       <c r="B64" s="623" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C64" s="624"/>
       <c r="D64" s="625"/>
@@ -13769,14 +13784,14 @@
       <c r="D65" s="641"/>
       <c r="E65" s="282"/>
       <c r="F65" s="642" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G65" s="643"/>
       <c r="H65" s="643"/>
       <c r="I65" s="644"/>
       <c r="J65" s="636"/>
       <c r="K65" s="645" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L65" s="646"/>
       <c r="M65" s="616"/>
@@ -13798,7 +13813,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="651" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" s="652"/>
       <c r="C67" s="652"/>
@@ -13834,7 +13849,7 @@
       <c r="C69" s="571"/>
       <c r="D69" s="571"/>
       <c r="E69" s="659" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F69" s="660"/>
       <c r="G69" s="660"/>
@@ -13862,7 +13877,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="668" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B71" s="668"/>
       <c r="C71" s="668"/>
@@ -13990,35 +14005,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="669" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B1" s="669" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C1" s="669" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14028,7 +14043,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="460">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -88,7 +88,7 @@
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adnan</t>
+    <t xml:space="preserve"> Adnanss</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -383,6 +383,9 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
+    <t xml:space="preserve"> s</t>
+  </si>
+  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -618,7 +621,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-10-03</t>
+    <t>2024-10-09</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -1121,7 +1124,7 @@
 Validity</t>
   </si>
   <si>
-    <t>s</t>
+    <t>test122</t>
   </si>
   <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
@@ -1154,46 +1157,37 @@
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
+    <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
+  </si>
+  <si>
+    <t>VI. VOLUNTARY WORK OR INVOLVEMENT IN CIVIC / NON-GOVERNMENT / PEOPLE / VOLUNTARY ORGANIZATION/S</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>NAME &amp; ADDRESS OF ORGANIZATION                                                                                                     (Write in full)</t>
+  </si>
+  <si>
+    <t>INCLUSIVE DATES                                                                                                                             (mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>NUMBER OF HOURS</t>
+  </si>
+  <si>
+    <t>POSITION / NATURE OF WORK</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
-  </si>
-  <si>
-    <t>VI. VOLUNTARY WORK OR INVOLVEMENT IN CIVIC / NON-GOVERNMENT / PEOPLE / VOLUNTARY ORGANIZATION/S</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>NAME &amp; ADDRESS OF ORGANIZATION                                                                                                     (Write in full)</t>
-  </si>
-  <si>
-    <t>INCLUSIVE DATES                                                                                                                             (mm/dd/yyyy)</t>
-  </si>
-  <si>
-    <t>NUMBER OF HOURS</t>
-  </si>
-  <si>
-    <t>POSITION / NATURE OF WORK</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>asdasdas</t>
-  </si>
-  <si>
-    <t>123123</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -6068,30 +6062,30 @@
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="175" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E36" s="175"/>
       <c r="F36" s="175"/>
       <c r="G36" s="175"/>
       <c r="H36" s="175"/>
       <c r="I36" s="176" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J36" s="176"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
       <c r="M36" s="178" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N36" s="179"/>
       <c r="Q36" s="57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="180" t="s">
@@ -6100,27 +6094,27 @@
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
       <c r="G37" s="183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="183"/>
       <c r="I37" s="184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J37" s="184"/>
       <c r="K37" s="184"/>
       <c r="L37" s="185"/>
       <c r="M37" s="186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N37" s="187"/>
       <c r="Q37" s="57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
       <c r="B38" s="189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" s="190"/>
       <c r="D38" s="180" t="s">
@@ -6131,23 +6125,23 @@
       <c r="G38" s="181"/>
       <c r="H38" s="182"/>
       <c r="I38" s="184" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J38" s="184"/>
       <c r="K38" s="184"/>
       <c r="L38" s="185"/>
       <c r="M38" s="186" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N38" s="187"/>
       <c r="Q38" s="57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="191"/>
       <c r="B39" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="83"/>
       <c r="D39" s="192" t="s">
@@ -6164,13 +6158,13 @@
       <c r="M39" s="186"/>
       <c r="N39" s="187"/>
       <c r="Q39" s="57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="191"/>
       <c r="B40" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="192" t="s">
@@ -6187,13 +6181,13 @@
       <c r="M40" s="186"/>
       <c r="N40" s="187"/>
       <c r="Q40" s="57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="191"/>
       <c r="B41" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="192" t="s">
@@ -6210,13 +6204,13 @@
       <c r="M41" s="186"/>
       <c r="N41" s="187"/>
       <c r="Q41" s="57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
       <c r="B42" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="193"/>
       <c r="D42" s="192" t="s">
@@ -6233,19 +6227,19 @@
       <c r="M42" s="186"/>
       <c r="N42" s="187"/>
       <c r="Q42" s="57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="194" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" s="195" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="192" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -6258,7 +6252,7 @@
       <c r="M43" s="186"/>
       <c r="N43" s="187"/>
       <c r="Q43" s="57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6268,12 +6262,12 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="180" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182"/>
       <c r="G44" s="183" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H44" s="183"/>
       <c r="I44" s="184"/>
@@ -6283,7 +6277,7 @@
       <c r="M44" s="186"/>
       <c r="N44" s="187"/>
       <c r="Q44" s="57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6306,15 +6300,15 @@
       <c r="M45" s="186"/>
       <c r="N45" s="187"/>
       <c r="Q45" s="57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="127"/>
       <c r="D46" s="127"/>
@@ -6329,7 +6323,7 @@
       <c r="M46" s="186"/>
       <c r="N46" s="187"/>
       <c r="Q46" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6352,7 +6346,7 @@
       <c r="M47" s="186"/>
       <c r="N47" s="187"/>
       <c r="Q47" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6362,7 +6356,7 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="196" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E48" s="196"/>
       <c r="F48" s="196"/>
@@ -6375,7 +6369,7 @@
       <c r="M48" s="186"/>
       <c r="N48" s="187"/>
       <c r="Q48" s="57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6392,7 +6386,7 @@
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="199" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J49" s="199"/>
       <c r="K49" s="199"/>
@@ -6400,12 +6394,12 @@
       <c r="M49" s="199"/>
       <c r="N49" s="200"/>
       <c r="Q49" s="57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="201"/>
       <c r="C50" s="202"/>
@@ -6415,7 +6409,7 @@
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J50" s="204"/>
       <c r="K50" s="204"/>
@@ -6423,42 +6417,42 @@
       <c r="M50" s="204"/>
       <c r="N50" s="205"/>
       <c r="Q50" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="206" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" s="207" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C51" s="207"/>
       <c r="D51" s="208" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E51" s="209"/>
       <c r="F51" s="210"/>
       <c r="G51" s="208" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H51" s="209"/>
       <c r="I51" s="211"/>
       <c r="J51" s="212" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K51" s="213"/>
       <c r="L51" s="214" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N51" s="216" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51" s="57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6477,7 +6471,7 @@
       <c r="M52" s="215"/>
       <c r="N52" s="216"/>
       <c r="Q52" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6491,10 +6485,10 @@
       <c r="H53" s="226"/>
       <c r="I53" s="227"/>
       <c r="J53" s="228" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K53" s="229" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L53" s="230"/>
       <c r="M53" s="231"/>
@@ -6502,17 +6496,17 @@
       <c r="O53" s="233"/>
       <c r="P53" s="233"/>
       <c r="Q53" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="235"/>
       <c r="D54" s="236" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E54" s="237"/>
       <c r="F54" s="238"/>
@@ -6522,10 +6516,10 @@
       <c r="H54" s="240"/>
       <c r="I54" s="241"/>
       <c r="J54" s="242" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K54" s="243" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L54" s="244" t="s">
         <v>14</v>
@@ -6537,17 +6531,17 @@
         <v>14</v>
       </c>
       <c r="Q54" s="57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" s="235"/>
       <c r="D55" s="236" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E55" s="237"/>
       <c r="F55" s="238"/>
@@ -6557,28 +6551,28 @@
       <c r="H55" s="240"/>
       <c r="I55" s="241"/>
       <c r="J55" s="242" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K55" s="247" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L55" s="248" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="249" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N55" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C56" s="235"/>
       <c r="D56" s="236"/>
@@ -6593,48 +6587,48 @@
       <c r="M56" s="245"/>
       <c r="N56" s="246"/>
       <c r="Q56" s="57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" s="235"/>
       <c r="D57" s="236" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E57" s="237"/>
       <c r="F57" s="238"/>
       <c r="G57" s="250" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H57" s="251"/>
       <c r="I57" s="252"/>
       <c r="J57" s="242" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K57" s="247" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L57" s="244" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M57" s="249" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N57" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q57" s="57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="253"/>
       <c r="B58" s="254" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="255"/>
@@ -6649,12 +6643,12 @@
       <c r="M58" s="264"/>
       <c r="N58" s="246"/>
       <c r="Q58" s="57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="265" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="266"/>
       <c r="C59" s="266"/>
@@ -6670,12 +6664,12 @@
       <c r="M59" s="266"/>
       <c r="N59" s="267"/>
       <c r="Q59" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" ht="27.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B60" s="269"/>
       <c r="C60" s="270"/>
@@ -6686,23 +6680,23 @@
       <c r="H60" s="272"/>
       <c r="I60" s="273"/>
       <c r="J60" s="274" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6718,7 +6712,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6739,7 +6733,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6758,7 +6752,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6777,7 +6771,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6796,7 +6790,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6815,7 +6809,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6834,7 +6828,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6853,7 +6847,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6872,7 +6866,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6891,7 +6885,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6910,7 +6904,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6929,7 +6923,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6948,7 +6942,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6967,7 +6961,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6986,7 +6980,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7005,7 +6999,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7024,7 +7018,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7043,7 +7037,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7062,7 +7056,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7081,7 +7075,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7100,7 +7094,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7119,7 +7113,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7138,7 +7132,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7157,7 +7151,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7176,7 +7170,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7195,7 +7189,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7214,7 +7208,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7233,7 +7227,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7252,7 +7246,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7271,7 +7265,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7290,7 +7284,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7309,7 +7303,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7328,7 +7322,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7347,7 +7341,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7366,7 +7360,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7385,7 +7379,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7404,7 +7398,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7423,7 +7417,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7442,7 +7436,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7461,7 +7455,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7499,7 +7493,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7518,7 +7512,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7537,7 +7531,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7556,7 +7550,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7575,7 +7569,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7594,7 +7588,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7613,7 +7607,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7632,7 +7626,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7651,7 +7645,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7670,7 +7664,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7689,7 +7683,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7708,7 +7702,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7727,7 +7721,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7746,7 +7740,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7765,7 +7759,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7784,7 +7778,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7803,7 +7797,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7822,7 +7816,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7841,7 +7835,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7860,7 +7854,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7879,7 +7873,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7898,7 +7892,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7917,7 +7911,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7936,7 +7930,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7955,7 +7949,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7974,7 +7968,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7993,7 +7987,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8012,7 +8006,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8031,7 +8025,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8050,7 +8044,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8069,7 +8063,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8088,7 +8082,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8107,7 +8101,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8126,7 +8120,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8145,7 +8139,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8164,7 +8158,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8183,7 +8177,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8202,7 +8196,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8221,7 +8215,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8240,7 +8234,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8259,7 +8253,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8278,7 +8272,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8297,7 +8291,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8316,7 +8310,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8335,7 +8329,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8354,7 +8348,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8373,7 +8367,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8392,7 +8386,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8411,7 +8405,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8430,7 +8424,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8449,7 +8443,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8468,7 +8462,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8487,7 +8481,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8506,7 +8500,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8525,7 +8519,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8544,7 +8538,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8563,7 +8557,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8582,7 +8576,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8601,7 +8595,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8620,7 +8614,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8639,7 +8633,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8658,7 +8652,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8677,7 +8671,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8696,7 +8690,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8715,7 +8709,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8734,7 +8728,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8753,7 +8747,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8772,7 +8766,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8791,7 +8785,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8810,7 +8804,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8829,7 +8823,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8848,7 +8842,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8867,7 +8861,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8886,7 +8880,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8905,7 +8899,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8924,7 +8918,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8943,7 +8937,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8962,7 +8956,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8981,7 +8975,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9000,7 +8994,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9019,7 +9013,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9038,7 +9032,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9057,7 +9051,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9076,7 +9070,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9095,7 +9089,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9114,7 +9108,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9133,7 +9127,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9152,7 +9146,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9171,7 +9165,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9190,7 +9184,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9209,7 +9203,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9228,7 +9222,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9247,7 +9241,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9266,7 +9260,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9285,7 +9279,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9304,7 +9298,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9323,7 +9317,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9342,7 +9336,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9361,7 +9355,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9380,7 +9374,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9399,7 +9393,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9418,7 +9412,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9437,7 +9431,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9456,7 +9450,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9475,7 +9469,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9494,7 +9488,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9513,7 +9507,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9532,7 +9526,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9551,7 +9545,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9570,7 +9564,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9589,7 +9583,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9608,7 +9602,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9627,7 +9621,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9646,7 +9640,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9665,7 +9659,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10836,7 +10830,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10853,28 +10847,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10891,15 +10885,15 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="303" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
@@ -11016,7 +11010,7 @@
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="319" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="320"/>
       <c r="C12" s="320"/>
@@ -11033,7 +11027,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11050,7 +11044,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11067,33 +11061,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K15" s="328" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L15" s="329" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M15" s="330" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11113,11 +11107,11 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="332" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="333"/>
       <c r="C17" s="334" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="300"/>
       <c r="E17" s="297"/>
@@ -11131,35 +11125,19 @@
       <c r="M17" s="338"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="340">
-        <v>45548</v>
-      </c>
+      <c r="A18" s="340"/>
       <c r="B18" s="341"/>
-      <c r="C18" s="341">
-        <v>45547</v>
-      </c>
-      <c r="D18" s="304" t="s">
-        <v>369</v>
-      </c>
+      <c r="C18" s="341"/>
+      <c r="D18" s="304"/>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
-      <c r="G18" s="304" t="s">
-        <v>369</v>
-      </c>
+      <c r="G18" s="304"/>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
-      <c r="J18" s="342" t="s">
-        <v>370</v>
-      </c>
-      <c r="K18" s="308" t="s">
-        <v>369</v>
-      </c>
-      <c r="L18" s="308" t="s">
-        <v>371</v>
-      </c>
-      <c r="M18" s="343" t="s">
-        <v>372</v>
-      </c>
+      <c r="J18" s="342"/>
+      <c r="K18" s="308"/>
+      <c r="L18" s="308"/>
+      <c r="M18" s="343"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="340"/>
@@ -11568,7 +11546,7 @@
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="348" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" s="349"/>
       <c r="C46" s="349"/>
@@ -11585,7 +11563,7 @@
     </row>
     <row r="47" ht="27.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
@@ -11595,11 +11573,11 @@
       <c r="G47" s="353"/>
       <c r="H47" s="354"/>
       <c r="I47" s="355" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J47" s="356"/>
       <c r="K47" s="357" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L47" s="357"/>
       <c r="M47" s="358"/>
@@ -11607,7 +11585,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11801,7 +11779,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11816,22 +11794,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11856,10 +11834,10 @@
       <c r="C5" s="380"/>
       <c r="D5" s="381"/>
       <c r="E5" s="333" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="334" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" s="336"/>
       <c r="H5" s="382"/>
@@ -11869,7 +11847,7 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="383" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
@@ -11884,7 +11862,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="385" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I6" s="386"/>
       <c r="J6" s="386"/>
@@ -11892,7 +11870,7 @@
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="383" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
@@ -11907,7 +11885,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="385" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="I7" s="386"/>
       <c r="J7" s="386"/>
@@ -11980,7 +11958,7 @@
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="319" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" s="320"/>
       <c r="C13" s="320"/>
@@ -11995,7 +11973,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -12010,25 +11988,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12052,10 +12030,10 @@
       <c r="C17" s="125"/>
       <c r="D17" s="399"/>
       <c r="E17" s="333" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" s="334" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="336"/>
       <c r="H17" s="335"/>
@@ -12065,7 +12043,7 @@
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="383" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B18" s="400"/>
       <c r="C18" s="400"/>
@@ -12080,10 +12058,10 @@
         <v>32</v>
       </c>
       <c r="H18" s="308" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="I18" s="385" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J18" s="402"/>
       <c r="K18" s="403"/>
@@ -12350,7 +12328,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="266"/>
       <c r="C39" s="266"/>
@@ -12365,7 +12343,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="410" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" s="411"/>
       <c r="C40" s="411"/>
@@ -12380,36 +12358,36 @@
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="413" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="414" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="415" t="s">
         <v>390</v>
       </c>
-      <c r="B41" s="414" t="s">
+      <c r="D41" s="414" t="s">
         <v>391</v>
-      </c>
-      <c r="C41" s="415" t="s">
-        <v>392</v>
-      </c>
-      <c r="D41" s="414" t="s">
-        <v>393</v>
       </c>
       <c r="E41" s="414"/>
       <c r="F41" s="414"/>
       <c r="G41" s="414"/>
       <c r="H41" s="416"/>
       <c r="I41" s="415" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J41" s="414" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="418" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B42" s="419"/>
       <c r="C42" s="385" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D42" s="420"/>
       <c r="E42" s="420"/>
@@ -12417,27 +12395,21 @@
       <c r="G42" s="420"/>
       <c r="H42" s="419"/>
       <c r="I42" s="385" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J42" s="420"/>
       <c r="K42" s="421"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="418" t="s">
-        <v>369</v>
-      </c>
+      <c r="A43" s="418"/>
       <c r="B43" s="419"/>
-      <c r="C43" s="385" t="s">
-        <v>369</v>
-      </c>
+      <c r="C43" s="385"/>
       <c r="D43" s="420"/>
       <c r="E43" s="420"/>
       <c r="F43" s="420"/>
       <c r="G43" s="420"/>
       <c r="H43" s="419"/>
-      <c r="I43" s="385" t="s">
-        <v>369</v>
-      </c>
+      <c r="I43" s="385"/>
       <c r="J43" s="420"/>
       <c r="K43" s="421"/>
     </row>
@@ -12508,7 +12480,7 @@
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -12523,7 +12495,7 @@
     </row>
     <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" s="270"/>
       <c r="C50" s="352"/>
@@ -12531,11 +12503,11 @@
       <c r="E50" s="353"/>
       <c r="F50" s="354"/>
       <c r="G50" s="422" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H50" s="423"/>
       <c r="I50" s="352" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
@@ -12544,7 +12516,7 @@
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="425" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12685,11 +12657,11 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="429" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="430"/>
       <c r="C2" s="431" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D2" s="431"/>
       <c r="E2" s="431"/>
@@ -12706,7 +12678,7 @@
       <c r="A3" s="437"/>
       <c r="B3" s="438"/>
       <c r="C3" s="439" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D3" s="439"/>
       <c r="E3" s="439"/>
@@ -12723,7 +12695,7 @@
       <c r="A4" s="437"/>
       <c r="B4" s="438"/>
       <c r="C4" s="439" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D4" s="439"/>
       <c r="E4" s="439"/>
@@ -12755,7 +12727,7 @@
       <c r="A6" s="437"/>
       <c r="B6" s="438"/>
       <c r="C6" s="439" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D6" s="439"/>
       <c r="E6" s="439"/>
@@ -12763,7 +12735,7 @@
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
       <c r="I6" s="447" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J6" s="447"/>
       <c r="K6" s="447"/>
@@ -12789,14 +12761,14 @@
       <c r="A8" s="437"/>
       <c r="B8" s="438"/>
       <c r="C8" s="439" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D8" s="439"/>
       <c r="E8" s="439"/>
       <c r="F8" s="440"/>
       <c r="G8" s="445"/>
       <c r="H8" s="282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I8" s="445"/>
       <c r="J8" s="445"/>
@@ -12827,7 +12799,7 @@
       <c r="E10" s="439"/>
       <c r="F10" s="440"/>
       <c r="G10" s="446" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H10" s="446"/>
       <c r="I10" s="446"/>
@@ -12870,18 +12842,18 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="460" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B13" s="461"/>
       <c r="C13" s="462" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D13" s="462"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
       <c r="G13" s="463"/>
       <c r="H13" s="463" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I13" s="463"/>
       <c r="J13" s="463"/>
@@ -12897,7 +12869,7 @@
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
       <c r="G14" s="467" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H14" s="446"/>
       <c r="I14" s="446"/>
@@ -12955,14 +12927,14 @@
       <c r="A18" s="475"/>
       <c r="B18" s="476"/>
       <c r="C18" s="483" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D18" s="483"/>
       <c r="E18" s="484"/>
       <c r="F18" s="485"/>
       <c r="G18" s="486"/>
       <c r="H18" s="486" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I18" s="486"/>
       <c r="J18" s="486"/>
@@ -12978,7 +12950,7 @@
       <c r="E19" s="484"/>
       <c r="F19" s="485"/>
       <c r="G19" s="467" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H19" s="446"/>
       <c r="I19" s="446"/>
@@ -12996,7 +12968,7 @@
       <c r="F20" s="485"/>
       <c r="G20" s="486"/>
       <c r="H20" s="488" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I20" s="488"/>
       <c r="J20" s="489"/>
@@ -13012,7 +12984,7 @@
       <c r="E21" s="484"/>
       <c r="F21" s="485"/>
       <c r="G21" s="492" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H21" s="493"/>
       <c r="I21" s="493"/>
@@ -13029,7 +13001,7 @@
       <c r="E22" s="497"/>
       <c r="F22" s="498"/>
       <c r="G22" s="471" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H22" s="472"/>
       <c r="I22" s="499"/>
@@ -13040,18 +13012,18 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="501" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D23" s="501"/>
       <c r="E23" s="501"/>
       <c r="F23" s="502"/>
       <c r="G23" s="463"/>
       <c r="H23" s="463" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I23" s="463"/>
       <c r="J23" s="463"/>
@@ -13067,7 +13039,7 @@
       <c r="E24" s="503"/>
       <c r="F24" s="504"/>
       <c r="G24" s="467" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H24" s="446"/>
       <c r="I24" s="446"/>
@@ -13108,11 +13080,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B27" s="195"/>
       <c r="C27" s="501" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D27" s="501"/>
       <c r="E27" s="501"/>
@@ -13133,7 +13105,7 @@
       <c r="E28" s="503"/>
       <c r="F28" s="504"/>
       <c r="G28" s="467" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H28" s="446"/>
       <c r="I28" s="446"/>
@@ -13174,18 +13146,18 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B31" s="195"/>
       <c r="C31" s="501" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D31" s="501"/>
       <c r="E31" s="501"/>
       <c r="F31" s="502"/>
       <c r="G31" s="463"/>
       <c r="H31" s="463" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I31" s="463"/>
       <c r="J31" s="463"/>
@@ -13201,7 +13173,7 @@
       <c r="E32" s="503"/>
       <c r="F32" s="504"/>
       <c r="G32" s="514" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H32" s="515"/>
       <c r="I32" s="515"/>
@@ -13229,7 +13201,7 @@
       <c r="A34" s="465"/>
       <c r="B34" s="466"/>
       <c r="C34" s="503" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D34" s="503"/>
       <c r="E34" s="503"/>
@@ -13250,7 +13222,7 @@
       <c r="E35" s="503"/>
       <c r="F35" s="504"/>
       <c r="G35" s="514" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H35" s="515"/>
       <c r="I35" s="515"/>
@@ -13276,11 +13248,11 @@
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B37" s="195"/>
       <c r="C37" s="524" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D37" s="524"/>
       <c r="E37" s="524"/>
@@ -13301,7 +13273,7 @@
       <c r="E38" s="462"/>
       <c r="F38" s="526"/>
       <c r="G38" s="467" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H38" s="446"/>
       <c r="I38" s="446"/>
@@ -13342,11 +13314,11 @@
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="530" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B41" s="531"/>
       <c r="C41" s="503" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D41" s="503"/>
       <c r="E41" s="503"/>
@@ -13377,18 +13349,18 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="535" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="536"/>
       <c r="C43" s="503" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D43" s="503"/>
       <c r="E43" s="503"/>
       <c r="F43" s="504"/>
       <c r="G43" s="445"/>
       <c r="H43" s="282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I43" s="445"/>
       <c r="J43" s="445"/>
@@ -13405,7 +13377,7 @@
       <c r="E44" s="503"/>
       <c r="F44" s="504"/>
       <c r="G44" s="539" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H44" s="540"/>
       <c r="I44" s="519"/>
@@ -13417,18 +13389,18 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="535" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B45" s="536"/>
       <c r="C45" s="504" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D45" s="504"/>
       <c r="E45" s="504"/>
       <c r="F45" s="504"/>
       <c r="G45" s="445"/>
       <c r="H45" s="282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I45" s="445"/>
       <c r="J45" s="445"/>
@@ -13445,7 +13417,7 @@
       <c r="E46" s="504"/>
       <c r="F46" s="504"/>
       <c r="G46" s="542" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H46" s="543"/>
       <c r="I46" s="519"/>
@@ -13457,18 +13429,18 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="535" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B47" s="536"/>
       <c r="C47" s="503" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D47" s="503"/>
       <c r="E47" s="544"/>
       <c r="F47" s="545"/>
       <c r="G47" s="445"/>
       <c r="H47" s="282" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I47" s="445"/>
       <c r="J47" s="445"/>
@@ -13485,7 +13457,7 @@
       <c r="E48" s="547"/>
       <c r="F48" s="548"/>
       <c r="G48" s="549" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H48" s="550"/>
       <c r="I48" s="551"/>
@@ -13513,11 +13485,11 @@
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="559" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B50" s="560"/>
       <c r="C50" s="561" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D50" s="561"/>
       <c r="E50" s="561"/>
@@ -13533,17 +13505,17 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="566" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B51" s="567"/>
       <c r="C51" s="567"/>
       <c r="D51" s="567"/>
       <c r="E51" s="568"/>
       <c r="F51" s="294" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G51" s="569" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
@@ -13554,17 +13526,17 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="573" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B52" s="574"/>
       <c r="C52" s="575"/>
       <c r="D52" s="575"/>
       <c r="E52" s="576"/>
       <c r="F52" s="577" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G52" s="578" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H52" s="579"/>
       <c r="I52" s="580"/>
@@ -13575,17 +13547,17 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="573" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B53" s="574"/>
       <c r="C53" s="574"/>
       <c r="D53" s="574"/>
       <c r="E53" s="581"/>
       <c r="F53" s="577" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G53" s="578" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H53" s="579"/>
       <c r="I53" s="580"/>
@@ -13611,11 +13583,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B55" s="430"/>
       <c r="C55" s="590" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D55" s="590"/>
       <c r="E55" s="590"/>
@@ -13640,7 +13612,7 @@
       <c r="I56" s="595"/>
       <c r="J56" s="596"/>
       <c r="K56" s="597" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L56" s="597"/>
       <c r="M56" s="598"/>
@@ -13693,7 +13665,7 @@
     <row r="60" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="609"/>
       <c r="B60" s="610" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C60" s="611"/>
       <c r="D60" s="612"/>
@@ -13710,7 +13682,7 @@
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="609"/>
       <c r="B61" s="617" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C61" s="618"/>
       <c r="D61" s="619"/>
@@ -13727,7 +13699,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="609"/>
       <c r="B62" s="623" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C62" s="624"/>
       <c r="D62" s="625"/>
@@ -13748,7 +13720,7 @@
       <c r="D63" s="631"/>
       <c r="E63" s="282"/>
       <c r="F63" s="632" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G63" s="633"/>
       <c r="H63" s="633"/>
@@ -13761,13 +13733,13 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="609"/>
       <c r="B64" s="623" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C64" s="624"/>
       <c r="D64" s="625"/>
       <c r="E64" s="282"/>
       <c r="F64" s="635" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
@@ -13784,14 +13756,14 @@
       <c r="D65" s="641"/>
       <c r="E65" s="282"/>
       <c r="F65" s="642" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G65" s="643"/>
       <c r="H65" s="643"/>
       <c r="I65" s="644"/>
       <c r="J65" s="636"/>
       <c r="K65" s="645" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L65" s="646"/>
       <c r="M65" s="616"/>
@@ -13813,7 +13785,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="651" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B67" s="652"/>
       <c r="C67" s="652"/>
@@ -13849,7 +13821,7 @@
       <c r="C69" s="571"/>
       <c r="D69" s="571"/>
       <c r="E69" s="659" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F69" s="660"/>
       <c r="G69" s="660"/>
@@ -13877,7 +13849,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="668" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B71" s="668"/>
       <c r="C71" s="668"/>
@@ -14005,35 +13977,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="669" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="669" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="669" t="s">
         <v>453</v>
-      </c>
-      <c r="B1" s="669" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="669" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" t="s">
         <v>456</v>
-      </c>
-      <c r="B2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14043,7 +14015,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="467">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -383,7 +383,7 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t xml:space="preserve"> s</t>
+    <t xml:space="preserve"> N/A</t>
   </si>
   <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
@@ -452,21 +452,21 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abdulkadir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ebrahim</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abdulkadir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Namli</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -621,7 +624,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-10-09</t>
+    <t>2024-10-23</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -1157,6 +1160,21 @@
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
   </si>
   <si>
@@ -1178,16 +1196,10 @@
     <t>POSITION / NATURE OF WORK</t>
   </si>
   <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>asdasdas</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>DailyBread</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -1210,6 +1222,12 @@
     <t xml:space="preserve"> CONDUCTED/ SPONSORED BY                                                               (Write in full)</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>teetete</t>
+  </si>
+  <si>
     <t>VIII.  OTHER INFORMATION</t>
   </si>
   <si>
@@ -1229,6 +1247,9 @@
   </si>
   <si>
     <t>MEMBERSHIP IN ASSOCIATION/ORGANIZATION                                                                                         (Write in full)</t>
+  </si>
+  <si>
+    <t>Play Guitar</t>
   </si>
   <si>
     <t xml:space="preserve"> CS FORM 212 (Revised 2017), Page 3 of 4</t>
@@ -4780,6 +4801,153 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6089,7 +6257,7 @@
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="180" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
@@ -6118,7 +6286,7 @@
       </c>
       <c r="C38" s="190"/>
       <c r="D38" s="180" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
@@ -6145,7 +6313,7 @@
       </c>
       <c r="C39" s="83"/>
       <c r="D39" s="192" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E39" s="192"/>
       <c r="F39" s="192"/>
@@ -6168,7 +6336,7 @@
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="192" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E40" s="192"/>
       <c r="F40" s="192"/>
@@ -6191,7 +6359,7 @@
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="192" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E41" s="192"/>
       <c r="F41" s="192"/>
@@ -6214,7 +6382,7 @@
       </c>
       <c r="C42" s="193"/>
       <c r="D42" s="192" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E42" s="192"/>
       <c r="F42" s="192"/>
@@ -6239,7 +6407,7 @@
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="192" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -6252,7 +6420,7 @@
       <c r="M43" s="186"/>
       <c r="N43" s="187"/>
       <c r="Q43" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6262,12 +6430,12 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="180" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182"/>
       <c r="G44" s="183" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H44" s="183"/>
       <c r="I44" s="184"/>
@@ -6277,7 +6445,7 @@
       <c r="M44" s="186"/>
       <c r="N44" s="187"/>
       <c r="Q44" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6287,7 +6455,7 @@
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="180" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="181"/>
@@ -6379,14 +6547,14 @@
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="198" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E49" s="198"/>
       <c r="F49" s="198"/>
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="199" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J49" s="199"/>
       <c r="K49" s="199"/>
@@ -6394,12 +6562,12 @@
       <c r="M49" s="199"/>
       <c r="N49" s="200"/>
       <c r="Q49" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" s="201"/>
       <c r="C50" s="202"/>
@@ -6409,7 +6577,7 @@
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
       <c r="I50" s="204" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J50" s="204"/>
       <c r="K50" s="204"/>
@@ -6417,42 +6585,42 @@
       <c r="M50" s="204"/>
       <c r="N50" s="205"/>
       <c r="Q50" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="206" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" s="207" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" s="207"/>
       <c r="D51" s="208" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51" s="209"/>
       <c r="F51" s="210"/>
       <c r="G51" s="208" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H51" s="209"/>
       <c r="I51" s="211"/>
       <c r="J51" s="212" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K51" s="213"/>
       <c r="L51" s="214" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N51" s="216" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6471,7 +6639,7 @@
       <c r="M52" s="215"/>
       <c r="N52" s="216"/>
       <c r="Q52" s="57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6485,10 +6653,10 @@
       <c r="H53" s="226"/>
       <c r="I53" s="227"/>
       <c r="J53" s="228" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K53" s="229" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L53" s="230"/>
       <c r="M53" s="231"/>
@@ -6496,17 +6664,17 @@
       <c r="O53" s="233"/>
       <c r="P53" s="233"/>
       <c r="Q53" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C54" s="235"/>
       <c r="D54" s="236" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E54" s="237"/>
       <c r="F54" s="238"/>
@@ -6516,10 +6684,10 @@
       <c r="H54" s="240"/>
       <c r="I54" s="241"/>
       <c r="J54" s="242" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K54" s="243" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L54" s="244" t="s">
         <v>14</v>
@@ -6531,17 +6699,17 @@
         <v>14</v>
       </c>
       <c r="Q54" s="57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" s="235"/>
       <c r="D55" s="236" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E55" s="237"/>
       <c r="F55" s="238"/>
@@ -6551,28 +6719,28 @@
       <c r="H55" s="240"/>
       <c r="I55" s="241"/>
       <c r="J55" s="242" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K55" s="247" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L55" s="248" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="249" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N55" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q55" s="57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="235"/>
       <c r="D56" s="236"/>
@@ -6587,48 +6755,48 @@
       <c r="M56" s="245"/>
       <c r="N56" s="246"/>
       <c r="Q56" s="57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="235"/>
       <c r="D57" s="236" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E57" s="237"/>
       <c r="F57" s="238"/>
       <c r="G57" s="250" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" s="251"/>
       <c r="I57" s="252"/>
       <c r="J57" s="242" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57" s="247" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L57" s="244" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M57" s="249" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N57" s="246" t="s">
         <v>14</v>
       </c>
       <c r="Q57" s="57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="253"/>
       <c r="B58" s="254" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="255"/>
@@ -6643,12 +6811,12 @@
       <c r="M58" s="264"/>
       <c r="N58" s="246"/>
       <c r="Q58" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="265" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="266"/>
       <c r="C59" s="266"/>
@@ -6664,12 +6832,12 @@
       <c r="M59" s="266"/>
       <c r="N59" s="267"/>
       <c r="Q59" s="57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" ht="27.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" ht="90" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="268" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B60" s="269"/>
       <c r="C60" s="270"/>
@@ -6680,23 +6848,23 @@
       <c r="H60" s="272"/>
       <c r="I60" s="273"/>
       <c r="J60" s="274" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K60" s="275"/>
       <c r="L60" s="276" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M60" s="277"/>
       <c r="N60" s="278"/>
       <c r="Q60" s="57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="279" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B61" s="279"/>
       <c r="C61" s="279"/>
@@ -6712,7 +6880,7 @@
       <c r="M61" s="279"/>
       <c r="N61" s="279"/>
       <c r="Q61" s="280" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
@@ -6733,7 +6901,7 @@
       <c r="M62" s="281"/>
       <c r="N62" s="281"/>
       <c r="Q62" s="57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6752,7 +6920,7 @@
       <c r="M63" s="281"/>
       <c r="N63" s="281"/>
       <c r="Q63" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6771,7 +6939,7 @@
       <c r="M64" s="281"/>
       <c r="N64" s="281"/>
       <c r="Q64" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6790,7 +6958,7 @@
       <c r="M65" s="281"/>
       <c r="N65" s="281"/>
       <c r="Q65" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6809,7 +6977,7 @@
       <c r="M66" s="281"/>
       <c r="N66" s="281"/>
       <c r="Q66" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6828,7 +6996,7 @@
       <c r="M67" s="281"/>
       <c r="N67" s="281"/>
       <c r="Q67" s="57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6847,7 +7015,7 @@
       <c r="M68" s="281"/>
       <c r="N68" s="281"/>
       <c r="Q68" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6866,7 +7034,7 @@
       <c r="M69" s="281"/>
       <c r="N69" s="281"/>
       <c r="Q69" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6885,7 +7053,7 @@
       <c r="M70" s="281"/>
       <c r="N70" s="281"/>
       <c r="Q70" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6904,7 +7072,7 @@
       <c r="M71" s="281"/>
       <c r="N71" s="281"/>
       <c r="Q71" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6923,7 +7091,7 @@
       <c r="M72" s="281"/>
       <c r="N72" s="281"/>
       <c r="Q72" s="57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6942,7 +7110,7 @@
       <c r="M73" s="281"/>
       <c r="N73" s="281"/>
       <c r="Q73" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6961,7 +7129,7 @@
       <c r="M74" s="281"/>
       <c r="N74" s="281"/>
       <c r="Q74" s="57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6980,7 +7148,7 @@
       <c r="M75" s="281"/>
       <c r="N75" s="281"/>
       <c r="Q75" s="57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6999,7 +7167,7 @@
       <c r="M76" s="281"/>
       <c r="N76" s="281"/>
       <c r="Q76" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7018,7 +7186,7 @@
       <c r="M77" s="281"/>
       <c r="N77" s="281"/>
       <c r="Q77" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7037,7 +7205,7 @@
       <c r="M78" s="281"/>
       <c r="N78" s="281"/>
       <c r="Q78" s="57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7056,7 +7224,7 @@
       <c r="M79" s="281"/>
       <c r="N79" s="281"/>
       <c r="Q79" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7075,7 +7243,7 @@
       <c r="M80" s="281"/>
       <c r="N80" s="281"/>
       <c r="Q80" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7094,7 +7262,7 @@
       <c r="M81" s="281"/>
       <c r="N81" s="281"/>
       <c r="Q81" s="57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7113,7 +7281,7 @@
       <c r="M82" s="281"/>
       <c r="N82" s="281"/>
       <c r="Q82" s="57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7132,7 +7300,7 @@
       <c r="M83" s="281"/>
       <c r="N83" s="281"/>
       <c r="Q83" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7151,7 +7319,7 @@
       <c r="M84" s="281"/>
       <c r="N84" s="281"/>
       <c r="Q84" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7170,7 +7338,7 @@
       <c r="M85" s="281"/>
       <c r="N85" s="281"/>
       <c r="Q85" s="57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7189,7 +7357,7 @@
       <c r="M86" s="281"/>
       <c r="N86" s="281"/>
       <c r="Q86" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7208,7 +7376,7 @@
       <c r="M87" s="281"/>
       <c r="N87" s="281"/>
       <c r="Q87" s="57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7227,7 +7395,7 @@
       <c r="M88" s="281"/>
       <c r="N88" s="281"/>
       <c r="Q88" s="57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7246,7 +7414,7 @@
       <c r="M89" s="281"/>
       <c r="N89" s="281"/>
       <c r="Q89" s="57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7265,7 +7433,7 @@
       <c r="M90" s="281"/>
       <c r="N90" s="281"/>
       <c r="Q90" s="57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7284,7 +7452,7 @@
       <c r="M91" s="281"/>
       <c r="N91" s="281"/>
       <c r="Q91" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7303,7 +7471,7 @@
       <c r="M92" s="281"/>
       <c r="N92" s="281"/>
       <c r="Q92" s="57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7322,7 +7490,7 @@
       <c r="M93" s="281"/>
       <c r="N93" s="281"/>
       <c r="Q93" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7341,7 +7509,7 @@
       <c r="M94" s="281"/>
       <c r="N94" s="281"/>
       <c r="Q94" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7360,7 +7528,7 @@
       <c r="M95" s="281"/>
       <c r="N95" s="281"/>
       <c r="Q95" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7379,7 +7547,7 @@
       <c r="M96" s="281"/>
       <c r="N96" s="281"/>
       <c r="Q96" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7398,7 +7566,7 @@
       <c r="M97" s="281"/>
       <c r="N97" s="281"/>
       <c r="Q97" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7417,7 +7585,7 @@
       <c r="M98" s="281"/>
       <c r="N98" s="281"/>
       <c r="Q98" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7436,7 +7604,7 @@
       <c r="M99" s="281"/>
       <c r="N99" s="281"/>
       <c r="Q99" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7455,7 +7623,7 @@
       <c r="M100" s="281"/>
       <c r="N100" s="281"/>
       <c r="Q100" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7493,7 +7661,7 @@
       <c r="M102" s="281"/>
       <c r="N102" s="281"/>
       <c r="Q102" s="57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7512,7 +7680,7 @@
       <c r="M103" s="281"/>
       <c r="N103" s="281"/>
       <c r="Q103" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7531,7 +7699,7 @@
       <c r="M104" s="281"/>
       <c r="N104" s="281"/>
       <c r="Q104" s="57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7550,7 +7718,7 @@
       <c r="M105" s="281"/>
       <c r="N105" s="281"/>
       <c r="Q105" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7569,7 +7737,7 @@
       <c r="M106" s="281"/>
       <c r="N106" s="281"/>
       <c r="Q106" s="57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7588,7 +7756,7 @@
       <c r="M107" s="281"/>
       <c r="N107" s="281"/>
       <c r="Q107" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7607,7 +7775,7 @@
       <c r="M108" s="281"/>
       <c r="N108" s="281"/>
       <c r="Q108" s="57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7626,7 +7794,7 @@
       <c r="M109" s="281"/>
       <c r="N109" s="281"/>
       <c r="Q109" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7645,7 +7813,7 @@
       <c r="M110" s="281"/>
       <c r="N110" s="281"/>
       <c r="Q110" s="57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7664,7 +7832,7 @@
       <c r="M111" s="281"/>
       <c r="N111" s="281"/>
       <c r="Q111" s="57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7683,7 +7851,7 @@
       <c r="M112" s="281"/>
       <c r="N112" s="281"/>
       <c r="Q112" s="57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7702,7 +7870,7 @@
       <c r="M113" s="281"/>
       <c r="N113" s="281"/>
       <c r="Q113" s="57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7721,7 +7889,7 @@
       <c r="M114" s="281"/>
       <c r="N114" s="281"/>
       <c r="Q114" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7740,7 +7908,7 @@
       <c r="M115" s="281"/>
       <c r="N115" s="281"/>
       <c r="Q115" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7759,7 +7927,7 @@
       <c r="M116" s="281"/>
       <c r="N116" s="281"/>
       <c r="Q116" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7778,7 +7946,7 @@
       <c r="M117" s="281"/>
       <c r="N117" s="281"/>
       <c r="Q117" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7797,7 +7965,7 @@
       <c r="M118" s="281"/>
       <c r="N118" s="281"/>
       <c r="Q118" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7816,7 +7984,7 @@
       <c r="M119" s="281"/>
       <c r="N119" s="281"/>
       <c r="Q119" s="57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7835,7 +8003,7 @@
       <c r="M120" s="281"/>
       <c r="N120" s="281"/>
       <c r="Q120" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7854,7 +8022,7 @@
       <c r="M121" s="281"/>
       <c r="N121" s="281"/>
       <c r="Q121" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7873,7 +8041,7 @@
       <c r="M122" s="281"/>
       <c r="N122" s="281"/>
       <c r="Q122" s="57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7892,7 +8060,7 @@
       <c r="M123" s="281"/>
       <c r="N123" s="281"/>
       <c r="Q123" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7911,7 +8079,7 @@
       <c r="M124" s="281"/>
       <c r="N124" s="281"/>
       <c r="Q124" s="57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7930,7 +8098,7 @@
       <c r="M125" s="281"/>
       <c r="N125" s="281"/>
       <c r="Q125" s="57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7949,7 +8117,7 @@
       <c r="M126" s="281"/>
       <c r="N126" s="281"/>
       <c r="Q126" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7968,7 +8136,7 @@
       <c r="M127" s="281"/>
       <c r="N127" s="281"/>
       <c r="Q127" s="57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7987,7 +8155,7 @@
       <c r="M128" s="281"/>
       <c r="N128" s="281"/>
       <c r="Q128" s="57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8006,7 +8174,7 @@
       <c r="M129" s="281"/>
       <c r="N129" s="281"/>
       <c r="Q129" s="57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8025,7 +8193,7 @@
       <c r="M130" s="281"/>
       <c r="N130" s="281"/>
       <c r="Q130" s="57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8044,7 +8212,7 @@
       <c r="M131" s="281"/>
       <c r="N131" s="281"/>
       <c r="Q131" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8063,7 +8231,7 @@
       <c r="M132" s="281"/>
       <c r="N132" s="281"/>
       <c r="Q132" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8082,7 +8250,7 @@
       <c r="M133" s="281"/>
       <c r="N133" s="281"/>
       <c r="Q133" s="57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8101,7 +8269,7 @@
       <c r="M134" s="281"/>
       <c r="N134" s="281"/>
       <c r="Q134" s="57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8120,7 +8288,7 @@
       <c r="M135" s="281"/>
       <c r="N135" s="281"/>
       <c r="Q135" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8139,7 +8307,7 @@
       <c r="M136" s="281"/>
       <c r="N136" s="281"/>
       <c r="Q136" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8158,7 +8326,7 @@
       <c r="M137" s="281"/>
       <c r="N137" s="281"/>
       <c r="Q137" s="57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8177,7 +8345,7 @@
       <c r="M138" s="281"/>
       <c r="N138" s="281"/>
       <c r="Q138" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8196,7 +8364,7 @@
       <c r="M139" s="281"/>
       <c r="N139" s="281"/>
       <c r="Q139" s="57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8215,7 +8383,7 @@
       <c r="M140" s="281"/>
       <c r="N140" s="281"/>
       <c r="Q140" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8234,7 +8402,7 @@
       <c r="M141" s="281"/>
       <c r="N141" s="281"/>
       <c r="Q141" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8253,7 +8421,7 @@
       <c r="M142" s="281"/>
       <c r="N142" s="281"/>
       <c r="Q142" s="57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8272,7 +8440,7 @@
       <c r="M143" s="281"/>
       <c r="N143" s="281"/>
       <c r="Q143" s="57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8291,7 +8459,7 @@
       <c r="M144" s="281"/>
       <c r="N144" s="281"/>
       <c r="Q144" s="57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8310,7 +8478,7 @@
       <c r="M145" s="281"/>
       <c r="N145" s="281"/>
       <c r="Q145" s="57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8329,7 +8497,7 @@
       <c r="M146" s="281"/>
       <c r="N146" s="281"/>
       <c r="Q146" s="57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8348,7 +8516,7 @@
       <c r="M147" s="281"/>
       <c r="N147" s="281"/>
       <c r="Q147" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8367,7 +8535,7 @@
       <c r="M148" s="281"/>
       <c r="N148" s="281"/>
       <c r="Q148" s="57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8386,7 +8554,7 @@
       <c r="M149" s="281"/>
       <c r="N149" s="281"/>
       <c r="Q149" s="57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8405,7 +8573,7 @@
       <c r="M150" s="281"/>
       <c r="N150" s="281"/>
       <c r="Q150" s="57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8424,7 +8592,7 @@
       <c r="M151" s="281"/>
       <c r="N151" s="281"/>
       <c r="Q151" s="57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8443,7 +8611,7 @@
       <c r="M152" s="281"/>
       <c r="N152" s="281"/>
       <c r="Q152" s="57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8462,7 +8630,7 @@
       <c r="M153" s="281"/>
       <c r="N153" s="281"/>
       <c r="Q153" s="57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8481,7 +8649,7 @@
       <c r="M154" s="281"/>
       <c r="N154" s="281"/>
       <c r="Q154" s="57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8500,7 +8668,7 @@
       <c r="M155" s="281"/>
       <c r="N155" s="281"/>
       <c r="Q155" s="57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8519,7 +8687,7 @@
       <c r="M156" s="281"/>
       <c r="N156" s="281"/>
       <c r="Q156" s="57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8538,7 +8706,7 @@
       <c r="M157" s="281"/>
       <c r="N157" s="281"/>
       <c r="Q157" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8557,7 +8725,7 @@
       <c r="M158" s="281"/>
       <c r="N158" s="281"/>
       <c r="Q158" s="57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8576,7 +8744,7 @@
       <c r="M159" s="281"/>
       <c r="N159" s="281"/>
       <c r="Q159" s="57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8595,7 +8763,7 @@
       <c r="M160" s="281"/>
       <c r="N160" s="281"/>
       <c r="Q160" s="57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8614,7 +8782,7 @@
       <c r="M161" s="281"/>
       <c r="N161" s="281"/>
       <c r="Q161" s="57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8633,7 +8801,7 @@
       <c r="M162" s="281"/>
       <c r="N162" s="281"/>
       <c r="Q162" s="57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8652,7 +8820,7 @@
       <c r="M163" s="281"/>
       <c r="N163" s="281"/>
       <c r="Q163" s="57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8671,7 +8839,7 @@
       <c r="M164" s="281"/>
       <c r="N164" s="281"/>
       <c r="Q164" s="57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8690,7 +8858,7 @@
       <c r="M165" s="281"/>
       <c r="N165" s="281"/>
       <c r="Q165" s="57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8709,7 +8877,7 @@
       <c r="M166" s="281"/>
       <c r="N166" s="281"/>
       <c r="Q166" s="57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" ht="42.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8728,7 +8896,7 @@
       <c r="M167" s="281"/>
       <c r="N167" s="281"/>
       <c r="Q167" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8747,7 +8915,7 @@
       <c r="M168" s="281"/>
       <c r="N168" s="281"/>
       <c r="Q168" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8766,7 +8934,7 @@
       <c r="M169" s="281"/>
       <c r="N169" s="281"/>
       <c r="Q169" s="57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8785,7 +8953,7 @@
       <c r="M170" s="281"/>
       <c r="N170" s="281"/>
       <c r="Q170" s="57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8804,7 +8972,7 @@
       <c r="M171" s="281"/>
       <c r="N171" s="281"/>
       <c r="Q171" s="57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8823,7 +8991,7 @@
       <c r="M172" s="281"/>
       <c r="N172" s="281"/>
       <c r="Q172" s="57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8842,7 +9010,7 @@
       <c r="M173" s="281"/>
       <c r="N173" s="281"/>
       <c r="Q173" s="57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8861,7 +9029,7 @@
       <c r="M174" s="281"/>
       <c r="N174" s="281"/>
       <c r="Q174" s="57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8880,7 +9048,7 @@
       <c r="M175" s="281"/>
       <c r="N175" s="281"/>
       <c r="Q175" s="57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8899,7 +9067,7 @@
       <c r="M176" s="281"/>
       <c r="N176" s="281"/>
       <c r="Q176" s="57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8918,7 +9086,7 @@
       <c r="M177" s="281"/>
       <c r="N177" s="281"/>
       <c r="Q177" s="57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8937,7 +9105,7 @@
       <c r="M178" s="281"/>
       <c r="N178" s="281"/>
       <c r="Q178" s="57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8956,7 +9124,7 @@
       <c r="M179" s="281"/>
       <c r="N179" s="281"/>
       <c r="Q179" s="57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8975,7 +9143,7 @@
       <c r="M180" s="281"/>
       <c r="N180" s="281"/>
       <c r="Q180" s="57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8994,7 +9162,7 @@
       <c r="M181" s="281"/>
       <c r="N181" s="281"/>
       <c r="Q181" s="57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9013,7 +9181,7 @@
       <c r="M182" s="281"/>
       <c r="N182" s="281"/>
       <c r="Q182" s="57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9032,7 +9200,7 @@
       <c r="M183" s="281"/>
       <c r="N183" s="281"/>
       <c r="Q183" s="57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9051,7 +9219,7 @@
       <c r="M184" s="281"/>
       <c r="N184" s="281"/>
       <c r="Q184" s="57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9070,7 +9238,7 @@
       <c r="M185" s="281"/>
       <c r="N185" s="281"/>
       <c r="Q185" s="57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9089,7 +9257,7 @@
       <c r="M186" s="281"/>
       <c r="N186" s="281"/>
       <c r="Q186" s="57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9108,7 +9276,7 @@
       <c r="M187" s="281"/>
       <c r="N187" s="281"/>
       <c r="Q187" s="57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9127,7 +9295,7 @@
       <c r="M188" s="281"/>
       <c r="N188" s="281"/>
       <c r="Q188" s="57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9146,7 +9314,7 @@
       <c r="M189" s="281"/>
       <c r="N189" s="281"/>
       <c r="Q189" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9165,7 +9333,7 @@
       <c r="M190" s="281"/>
       <c r="N190" s="281"/>
       <c r="Q190" s="57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9184,7 +9352,7 @@
       <c r="M191" s="281"/>
       <c r="N191" s="281"/>
       <c r="Q191" s="57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9203,7 +9371,7 @@
       <c r="M192" s="281"/>
       <c r="N192" s="281"/>
       <c r="Q192" s="57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9222,7 +9390,7 @@
       <c r="M193" s="281"/>
       <c r="N193" s="281"/>
       <c r="Q193" s="57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9241,7 +9409,7 @@
       <c r="M194" s="281"/>
       <c r="N194" s="281"/>
       <c r="Q194" s="57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9260,7 +9428,7 @@
       <c r="M195" s="281"/>
       <c r="N195" s="281"/>
       <c r="Q195" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9279,7 +9447,7 @@
       <c r="M196" s="281"/>
       <c r="N196" s="281"/>
       <c r="Q196" s="57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9298,7 +9466,7 @@
       <c r="M197" s="281"/>
       <c r="N197" s="281"/>
       <c r="Q197" s="57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9317,7 +9485,7 @@
       <c r="M198" s="281"/>
       <c r="N198" s="281"/>
       <c r="Q198" s="57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9336,7 +9504,7 @@
       <c r="M199" s="281"/>
       <c r="N199" s="281"/>
       <c r="Q199" s="57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9355,7 +9523,7 @@
       <c r="M200" s="281"/>
       <c r="N200" s="281"/>
       <c r="Q200" s="57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9374,7 +9542,7 @@
       <c r="M201" s="281"/>
       <c r="N201" s="281"/>
       <c r="Q201" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9393,7 +9561,7 @@
       <c r="M202" s="281"/>
       <c r="N202" s="281"/>
       <c r="Q202" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9412,7 +9580,7 @@
       <c r="M203" s="281"/>
       <c r="N203" s="281"/>
       <c r="Q203" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9431,7 +9599,7 @@
       <c r="M204" s="281"/>
       <c r="N204" s="281"/>
       <c r="Q204" s="57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9450,7 +9618,7 @@
       <c r="M205" s="281"/>
       <c r="N205" s="281"/>
       <c r="Q205" s="57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9469,7 +9637,7 @@
       <c r="M206" s="281"/>
       <c r="N206" s="281"/>
       <c r="Q206" s="57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="207" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9488,7 +9656,7 @@
       <c r="M207" s="281"/>
       <c r="N207" s="281"/>
       <c r="Q207" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" ht="28.5" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9507,7 +9675,7 @@
       <c r="M208" s="281"/>
       <c r="N208" s="281"/>
       <c r="Q208" s="57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9526,7 +9694,7 @@
       <c r="M209" s="281"/>
       <c r="N209" s="281"/>
       <c r="Q209" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9545,7 +9713,7 @@
       <c r="M210" s="281"/>
       <c r="N210" s="281"/>
       <c r="Q210" s="57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9564,7 +9732,7 @@
       <c r="M211" s="281"/>
       <c r="N211" s="281"/>
       <c r="Q211" s="57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9583,7 +9751,7 @@
       <c r="M212" s="281"/>
       <c r="N212" s="281"/>
       <c r="Q212" s="57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9602,7 +9770,7 @@
       <c r="M213" s="281"/>
       <c r="N213" s="281"/>
       <c r="Q213" s="57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9621,7 +9789,7 @@
       <c r="M214" s="281"/>
       <c r="N214" s="281"/>
       <c r="Q214" s="57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9640,7 +9808,7 @@
       <c r="M215" s="281"/>
       <c r="N215" s="281"/>
       <c r="Q215" s="57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9659,7 +9827,7 @@
       <c r="M216" s="281"/>
       <c r="N216" s="281"/>
       <c r="Q216" s="57" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10782,6 +10950,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.3" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="80" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId205"/>
 </worksheet>
 </file>
 
@@ -10830,7 +10999,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="286" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" s="287"/>
       <c r="C2" s="287"/>
@@ -10847,28 +11016,28 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="289" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B3" s="290" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C3" s="290"/>
       <c r="D3" s="290"/>
       <c r="E3" s="291"/>
       <c r="F3" s="292" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G3" s="293" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H3" s="291"/>
       <c r="I3" s="293" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
       <c r="L3" s="294" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M3" s="295"/>
     </row>
@@ -10885,15 +11054,15 @@
       <c r="J4" s="297"/>
       <c r="K4" s="298"/>
       <c r="L4" s="301" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M4" s="302" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="303" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" s="304"/>
       <c r="C5" s="304"/>
@@ -11010,7 +11179,7 @@
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="319" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="320"/>
       <c r="C12" s="320"/>
@@ -11027,7 +11196,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="171"/>
@@ -11044,7 +11213,7 @@
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="322" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
@@ -11061,33 +11230,33 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="296" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="326" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H15" s="324"/>
       <c r="I15" s="325"/>
       <c r="J15" s="327" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K15" s="328" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L15" s="329" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M15" s="330" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11107,11 +11276,11 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="332" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="333"/>
       <c r="C17" s="334" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" s="300"/>
       <c r="E17" s="297"/>
@@ -11125,19 +11294,35 @@
       <c r="M17" s="338"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="340"/>
+      <c r="A18" s="340">
+        <v>45576</v>
+      </c>
       <c r="B18" s="341"/>
-      <c r="C18" s="341"/>
-      <c r="D18" s="304"/>
+      <c r="C18" s="341">
+        <v>45577</v>
+      </c>
+      <c r="D18" s="304" t="s">
+        <v>371</v>
+      </c>
       <c r="E18" s="304"/>
       <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
+      <c r="G18" s="304" t="s">
+        <v>372</v>
+      </c>
       <c r="H18" s="304"/>
       <c r="I18" s="304"/>
-      <c r="J18" s="342"/>
-      <c r="K18" s="308"/>
-      <c r="L18" s="308"/>
-      <c r="M18" s="343"/>
+      <c r="J18" s="342" t="s">
+        <v>373</v>
+      </c>
+      <c r="K18" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="308" t="s">
+        <v>374</v>
+      </c>
+      <c r="M18" s="343" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="340"/>
@@ -11546,7 +11731,7 @@
     </row>
     <row r="46" ht="9.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="348" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="349"/>
       <c r="C46" s="349"/>
@@ -11561,9 +11746,9 @@
       <c r="L46" s="350"/>
       <c r="M46" s="351"/>
     </row>
-    <row r="47" ht="27.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" ht="60" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="268" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B47" s="269"/>
       <c r="C47" s="270"/>
@@ -11573,11 +11758,11 @@
       <c r="G47" s="353"/>
       <c r="H47" s="354"/>
       <c r="I47" s="355" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J47" s="356"/>
       <c r="K47" s="357" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L47" s="357"/>
       <c r="M47" s="358"/>
@@ -11585,7 +11770,7 @@
     </row>
     <row r="48" ht="9" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="360" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
@@ -11733,6 +11918,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="92" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11751,7 +11937,7 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="282" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="282" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="282" customWidth="1"/>
+    <col min="3" max="3" width="10" style="282" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="282" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="282" customWidth="1"/>
     <col min="6" max="7" width="10.140625" style="282" customWidth="1"/>
@@ -11779,7 +11965,7 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="365" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -11794,22 +11980,22 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="368" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B3" s="369" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C3" s="369"/>
       <c r="D3" s="370"/>
       <c r="E3" s="290" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F3" s="291"/>
       <c r="G3" s="371" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I3" s="372"/>
       <c r="J3" s="372"/>
@@ -11834,10 +12020,10 @@
       <c r="C5" s="380"/>
       <c r="D5" s="381"/>
       <c r="E5" s="333" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="334" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="336"/>
       <c r="H5" s="382"/>
@@ -11847,46 +12033,36 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="383" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B6" s="384"/>
       <c r="C6" s="384"/>
       <c r="D6" s="244"/>
       <c r="E6" s="306">
-        <v>45554</v>
+        <v>45570</v>
       </c>
       <c r="F6" s="306">
-        <v>45560</v>
+        <v>45577</v>
       </c>
       <c r="G6" s="305">
         <v>123</v>
       </c>
       <c r="H6" s="385" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="I6" s="386"/>
       <c r="J6" s="386"/>
       <c r="K6" s="387"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="383" t="s">
-        <v>379</v>
-      </c>
+      <c r="A7" s="383"/>
       <c r="B7" s="384"/>
       <c r="C7" s="384"/>
       <c r="D7" s="244"/>
-      <c r="E7" s="306">
-        <v>45540</v>
-      </c>
-      <c r="F7" s="306">
-        <v>45549</v>
-      </c>
-      <c r="G7" s="305">
-        <v>23</v>
-      </c>
-      <c r="H7" s="385" t="s">
-        <v>380</v>
-      </c>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="385"/>
       <c r="I7" s="386"/>
       <c r="J7" s="386"/>
       <c r="K7" s="387"/>
@@ -11958,7 +12134,7 @@
     </row>
     <row r="13" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="319" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="320"/>
       <c r="C13" s="320"/>
@@ -11973,7 +12149,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:11" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="395" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B14" s="396"/>
       <c r="C14" s="396"/>
@@ -11988,25 +12164,25 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B15" s="324" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="398"/>
       <c r="E15" s="324" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F15" s="325"/>
       <c r="G15" s="328" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H15" s="327" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J15" s="282"/>
       <c r="K15" s="378"/>
@@ -12030,10 +12206,10 @@
       <c r="C17" s="125"/>
       <c r="D17" s="399"/>
       <c r="E17" s="333" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F17" s="334" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17" s="336"/>
       <c r="H17" s="335"/>
@@ -12043,7 +12219,7 @@
     </row>
     <row r="18" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="383" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B18" s="400"/>
       <c r="C18" s="400"/>
@@ -12058,24 +12234,36 @@
         <v>32</v>
       </c>
       <c r="H18" s="308" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="I18" s="385" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="J18" s="402"/>
       <c r="K18" s="403"/>
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="383"/>
+      <c r="A19" s="383" t="s">
+        <v>392</v>
+      </c>
       <c r="B19" s="404"/>
       <c r="C19" s="404"/>
       <c r="D19" s="405"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="306"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="385"/>
+      <c r="E19" s="306" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="306" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="305" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="385" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="402"/>
       <c r="K19" s="403"/>
     </row>
@@ -12328,7 +12516,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="265" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="266"/>
       <c r="C39" s="266"/>
@@ -12343,7 +12531,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="410" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B40" s="411"/>
       <c r="C40" s="411"/>
@@ -12358,36 +12546,36 @@
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="413" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B41" s="414" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C41" s="415" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D41" s="414" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E41" s="414"/>
       <c r="F41" s="414"/>
       <c r="G41" s="414"/>
       <c r="H41" s="416"/>
       <c r="I41" s="415" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J41" s="414" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K41" s="417"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="418" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B42" s="419"/>
       <c r="C42" s="385" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D42" s="420"/>
       <c r="E42" s="420"/>
@@ -12395,7 +12583,7 @@
       <c r="G42" s="420"/>
       <c r="H42" s="419"/>
       <c r="I42" s="385" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="J42" s="420"/>
       <c r="K42" s="421"/>
@@ -12480,7 +12668,7 @@
     </row>
     <row r="49" ht="11.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="265" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -12493,9 +12681,9 @@
       <c r="J49" s="266"/>
       <c r="K49" s="321"/>
     </row>
-    <row r="50" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" ht="70" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="268" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50" s="270"/>
       <c r="C50" s="352"/>
@@ -12503,11 +12691,11 @@
       <c r="E50" s="353"/>
       <c r="F50" s="354"/>
       <c r="G50" s="422" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H50" s="423"/>
       <c r="I50" s="352" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J50" s="353"/>
       <c r="K50" s="354"/>
@@ -12516,7 +12704,7 @@
     </row>
     <row r="51" ht="9.75" customHeight="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="425" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12609,6 +12797,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="81" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12657,11 +12846,11 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="429" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B2" s="430"/>
       <c r="C2" s="431" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D2" s="431"/>
       <c r="E2" s="431"/>
@@ -12678,7 +12867,7 @@
       <c r="A3" s="437"/>
       <c r="B3" s="438"/>
       <c r="C3" s="439" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D3" s="439"/>
       <c r="E3" s="439"/>
@@ -12695,7 +12884,7 @@
       <c r="A4" s="437"/>
       <c r="B4" s="438"/>
       <c r="C4" s="439" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D4" s="439"/>
       <c r="E4" s="439"/>
@@ -12727,7 +12916,7 @@
       <c r="A6" s="437"/>
       <c r="B6" s="438"/>
       <c r="C6" s="439" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D6" s="439"/>
       <c r="E6" s="439"/>
@@ -12735,7 +12924,7 @@
       <c r="G6" s="282"/>
       <c r="H6" s="282"/>
       <c r="I6" s="447" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="J6" s="447"/>
       <c r="K6" s="447"/>
@@ -12761,14 +12950,14 @@
       <c r="A8" s="437"/>
       <c r="B8" s="438"/>
       <c r="C8" s="439" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D8" s="439"/>
       <c r="E8" s="439"/>
       <c r="F8" s="440"/>
       <c r="G8" s="445"/>
       <c r="H8" s="282" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I8" s="445"/>
       <c r="J8" s="445"/>
@@ -12799,7 +12988,7 @@
       <c r="E10" s="439"/>
       <c r="F10" s="440"/>
       <c r="G10" s="446" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H10" s="446"/>
       <c r="I10" s="446"/>
@@ -12842,18 +13031,18 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="460" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B13" s="461"/>
       <c r="C13" s="462" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D13" s="462"/>
       <c r="E13" s="282"/>
       <c r="F13" s="398"/>
       <c r="G13" s="463"/>
       <c r="H13" s="463" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I13" s="463"/>
       <c r="J13" s="463"/>
@@ -12869,7 +13058,7 @@
       <c r="E14" s="282"/>
       <c r="F14" s="398"/>
       <c r="G14" s="467" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H14" s="446"/>
       <c r="I14" s="446"/>
@@ -12927,14 +13116,14 @@
       <c r="A18" s="475"/>
       <c r="B18" s="476"/>
       <c r="C18" s="483" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D18" s="483"/>
       <c r="E18" s="484"/>
       <c r="F18" s="485"/>
       <c r="G18" s="486"/>
       <c r="H18" s="486" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I18" s="486"/>
       <c r="J18" s="486"/>
@@ -12950,7 +13139,7 @@
       <c r="E19" s="484"/>
       <c r="F19" s="485"/>
       <c r="G19" s="467" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H19" s="446"/>
       <c r="I19" s="446"/>
@@ -12968,7 +13157,7 @@
       <c r="F20" s="485"/>
       <c r="G20" s="486"/>
       <c r="H20" s="488" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I20" s="488"/>
       <c r="J20" s="489"/>
@@ -12984,7 +13173,7 @@
       <c r="E21" s="484"/>
       <c r="F21" s="485"/>
       <c r="G21" s="492" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H21" s="493"/>
       <c r="I21" s="493"/>
@@ -13001,7 +13190,7 @@
       <c r="E22" s="497"/>
       <c r="F22" s="498"/>
       <c r="G22" s="471" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H22" s="472"/>
       <c r="I22" s="499"/>
@@ -13012,18 +13201,18 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="194" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B23" s="195"/>
       <c r="C23" s="501" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D23" s="501"/>
       <c r="E23" s="501"/>
       <c r="F23" s="502"/>
       <c r="G23" s="463"/>
       <c r="H23" s="463" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I23" s="463"/>
       <c r="J23" s="463"/>
@@ -13039,7 +13228,7 @@
       <c r="E24" s="503"/>
       <c r="F24" s="504"/>
       <c r="G24" s="467" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H24" s="446"/>
       <c r="I24" s="446"/>
@@ -13080,11 +13269,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="194" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B27" s="195"/>
       <c r="C27" s="501" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D27" s="501"/>
       <c r="E27" s="501"/>
@@ -13105,7 +13294,7 @@
       <c r="E28" s="503"/>
       <c r="F28" s="504"/>
       <c r="G28" s="467" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H28" s="446"/>
       <c r="I28" s="446"/>
@@ -13146,18 +13335,18 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:13" s="282" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="194" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B31" s="195"/>
       <c r="C31" s="501" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D31" s="501"/>
       <c r="E31" s="501"/>
       <c r="F31" s="502"/>
       <c r="G31" s="463"/>
       <c r="H31" s="463" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I31" s="463"/>
       <c r="J31" s="463"/>
@@ -13173,7 +13362,7 @@
       <c r="E32" s="503"/>
       <c r="F32" s="504"/>
       <c r="G32" s="514" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H32" s="515"/>
       <c r="I32" s="515"/>
@@ -13201,7 +13390,7 @@
       <c r="A34" s="465"/>
       <c r="B34" s="466"/>
       <c r="C34" s="503" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D34" s="503"/>
       <c r="E34" s="503"/>
@@ -13222,7 +13411,7 @@
       <c r="E35" s="503"/>
       <c r="F35" s="504"/>
       <c r="G35" s="514" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H35" s="515"/>
       <c r="I35" s="515"/>
@@ -13248,11 +13437,11 @@
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="194" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B37" s="195"/>
       <c r="C37" s="524" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D37" s="524"/>
       <c r="E37" s="524"/>
@@ -13273,7 +13462,7 @@
       <c r="E38" s="462"/>
       <c r="F38" s="526"/>
       <c r="G38" s="467" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H38" s="446"/>
       <c r="I38" s="446"/>
@@ -13314,11 +13503,11 @@
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="530" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B41" s="531"/>
       <c r="C41" s="503" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D41" s="503"/>
       <c r="E41" s="503"/>
@@ -13349,18 +13538,18 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="535" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B43" s="536"/>
       <c r="C43" s="503" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D43" s="503"/>
       <c r="E43" s="503"/>
       <c r="F43" s="504"/>
       <c r="G43" s="445"/>
       <c r="H43" s="282" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I43" s="445"/>
       <c r="J43" s="445"/>
@@ -13377,7 +13566,7 @@
       <c r="E44" s="503"/>
       <c r="F44" s="504"/>
       <c r="G44" s="539" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H44" s="540"/>
       <c r="I44" s="519"/>
@@ -13389,18 +13578,18 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="535" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B45" s="536"/>
       <c r="C45" s="504" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D45" s="504"/>
       <c r="E45" s="504"/>
       <c r="F45" s="504"/>
       <c r="G45" s="445"/>
       <c r="H45" s="282" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I45" s="445"/>
       <c r="J45" s="445"/>
@@ -13417,7 +13606,7 @@
       <c r="E46" s="504"/>
       <c r="F46" s="504"/>
       <c r="G46" s="542" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H46" s="543"/>
       <c r="I46" s="519"/>
@@ -13429,18 +13618,18 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="535" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B47" s="536"/>
       <c r="C47" s="503" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D47" s="503"/>
       <c r="E47" s="544"/>
       <c r="F47" s="545"/>
       <c r="G47" s="445"/>
       <c r="H47" s="282" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I47" s="445"/>
       <c r="J47" s="445"/>
@@ -13457,7 +13646,7 @@
       <c r="E48" s="547"/>
       <c r="F48" s="548"/>
       <c r="G48" s="549" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H48" s="550"/>
       <c r="I48" s="551"/>
@@ -13485,11 +13674,11 @@
     </row>
     <row r="50" ht="23.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="559" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B50" s="560"/>
       <c r="C50" s="561" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D50" s="561"/>
       <c r="E50" s="561"/>
@@ -13505,17 +13694,17 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="566" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B51" s="567"/>
       <c r="C51" s="567"/>
       <c r="D51" s="567"/>
       <c r="E51" s="568"/>
       <c r="F51" s="294" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G51" s="569" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H51" s="414"/>
       <c r="I51" s="417"/>
@@ -13526,17 +13715,17 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="573" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B52" s="574"/>
       <c r="C52" s="575"/>
       <c r="D52" s="575"/>
       <c r="E52" s="576"/>
       <c r="F52" s="577" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G52" s="578" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H52" s="579"/>
       <c r="I52" s="580"/>
@@ -13547,17 +13736,17 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="573" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B53" s="574"/>
       <c r="C53" s="574"/>
       <c r="D53" s="574"/>
       <c r="E53" s="581"/>
       <c r="F53" s="577" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G53" s="578" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H53" s="579"/>
       <c r="I53" s="580"/>
@@ -13583,11 +13772,11 @@
     </row>
     <row r="55" ht="39.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="429" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B55" s="430"/>
       <c r="C55" s="590" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D55" s="590"/>
       <c r="E55" s="590"/>
@@ -13612,7 +13801,7 @@
       <c r="I56" s="595"/>
       <c r="J56" s="596"/>
       <c r="K56" s="597" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L56" s="597"/>
       <c r="M56" s="598"/>
@@ -13665,7 +13854,7 @@
     <row r="60" ht="50" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="609"/>
       <c r="B60" s="610" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C60" s="611"/>
       <c r="D60" s="612"/>
@@ -13682,7 +13871,7 @@
     <row r="61" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="609"/>
       <c r="B61" s="617" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C61" s="618"/>
       <c r="D61" s="619"/>
@@ -13699,7 +13888,7 @@
     <row r="62" ht="9" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="609"/>
       <c r="B62" s="623" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C62" s="624"/>
       <c r="D62" s="625"/>
@@ -13720,7 +13909,7 @@
       <c r="D63" s="631"/>
       <c r="E63" s="282"/>
       <c r="F63" s="632" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G63" s="633"/>
       <c r="H63" s="633"/>
@@ -13733,13 +13922,13 @@
     <row r="64" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="609"/>
       <c r="B64" s="623" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C64" s="624"/>
       <c r="D64" s="625"/>
       <c r="E64" s="282"/>
       <c r="F64" s="635" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
@@ -13756,14 +13945,14 @@
       <c r="D65" s="641"/>
       <c r="E65" s="282"/>
       <c r="F65" s="642" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G65" s="643"/>
       <c r="H65" s="643"/>
       <c r="I65" s="644"/>
       <c r="J65" s="636"/>
       <c r="K65" s="645" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L65" s="646"/>
       <c r="M65" s="616"/>
@@ -13785,7 +13974,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="651" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B67" s="652"/>
       <c r="C67" s="652"/>
@@ -13821,7 +14010,7 @@
       <c r="C69" s="571"/>
       <c r="D69" s="571"/>
       <c r="E69" s="659" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F69" s="660"/>
       <c r="G69" s="660"/>
@@ -13849,7 +14038,7 @@
     </row>
     <row r="71" ht="10.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="668" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B71" s="668"/>
       <c r="C71" s="668"/>
@@ -13977,35 +14166,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="669" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B1" s="669" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C1" s="669" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -14015,7 +14204,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp/updated_filled_pds.xlsx
+++ b/backend/temp/updated_filled_pds.xlsx
@@ -119,7 +119,7 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>2002-10-30</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
@@ -624,7 +624,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-10-23</t>
+    <t>2024-10-24</t>
   </si>
   <si>
     <t>Cyprus</t>
